--- a/croatia/transformations/templates/calibrated/croatia/model_input_variables_croatia_ip_calibrated.xlsx
+++ b/croatia/transformations/templates/calibrated/croatia/model_input_variables_croatia_ip_calibrated.xlsx
@@ -8,9 +8,9 @@
   </bookViews>
   <sheets>
     <sheet name="strategy_id-0" sheetId="1" r:id="rId1"/>
-    <sheet name="strategy_id-6006" sheetId="2" r:id="rId2"/>
-    <sheet name="strategy_id-6007" sheetId="3" r:id="rId3"/>
-    <sheet name="strategy_id-6008" sheetId="4" r:id="rId4"/>
+    <sheet name="strategy_id-6003" sheetId="2" r:id="rId2"/>
+    <sheet name="strategy_id-6004" sheetId="3" r:id="rId3"/>
+    <sheet name="strategy_id-6005" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>

--- a/croatia/transformations/templates/calibrated/croatia/model_input_variables_croatia_ip_calibrated.xlsx
+++ b/croatia/transformations/templates/calibrated/croatia/model_input_variables_croatia_ip_calibrated.xlsx
@@ -24156,73 +24156,73 @@
         <v>0</v>
       </c>
       <c r="V2">
-        <v>0.03333333333333333</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>0.06666666666666667</v>
+        <v>0.03478260869565217</v>
       </c>
       <c r="X2">
-        <v>0.1</v>
+        <v>0.06956521739130435</v>
       </c>
       <c r="Y2">
-        <v>0.1333333333333333</v>
+        <v>0.1043478260869565</v>
       </c>
       <c r="Z2">
-        <v>0.1666666666666667</v>
+        <v>0.1391304347826087</v>
       </c>
       <c r="AA2">
-        <v>0.2</v>
+        <v>0.1739130434782609</v>
       </c>
       <c r="AB2">
-        <v>0.2333333333333334</v>
+        <v>0.2086956521739131</v>
       </c>
       <c r="AC2">
-        <v>0.2666666666666667</v>
+        <v>0.2434782608695653</v>
       </c>
       <c r="AD2">
-        <v>0.3</v>
+        <v>0.2782608695652174</v>
       </c>
       <c r="AE2">
-        <v>0.3333333333333334</v>
+        <v>0.3130434782608696</v>
       </c>
       <c r="AF2">
-        <v>0.3666666666666667</v>
+        <v>0.3478260869565217</v>
       </c>
       <c r="AG2">
-        <v>0.4</v>
+        <v>0.3826086956521739</v>
       </c>
       <c r="AH2">
-        <v>0.4333333333333333</v>
+        <v>0.4173913043478261</v>
       </c>
       <c r="AI2">
-        <v>0.4666666666666667</v>
+        <v>0.4521739130434783</v>
       </c>
       <c r="AJ2">
-        <v>0.5</v>
+        <v>0.4869565217391305</v>
       </c>
       <c r="AK2">
-        <v>0.5333333333333333</v>
+        <v>0.5217391304347826</v>
       </c>
       <c r="AL2">
-        <v>0.5666666666666668</v>
+        <v>0.5565217391304348</v>
       </c>
       <c r="AM2">
-        <v>0.6000000000000001</v>
+        <v>0.591304347826087</v>
       </c>
       <c r="AN2">
-        <v>0.6333333333333333</v>
+        <v>0.6260869565217392</v>
       </c>
       <c r="AO2">
-        <v>0.6666666666666667</v>
+        <v>0.6608695652173914</v>
       </c>
       <c r="AP2">
-        <v>0.7000000000000001</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="AQ2">
-        <v>0.7333333333333334</v>
+        <v>0.7304347826086957</v>
       </c>
       <c r="AR2">
-        <v>0.7666666666666667</v>
+        <v>0.7652173913043478</v>
       </c>
       <c r="AS2">
         <v>0.8</v>
@@ -24281,73 +24281,73 @@
         <v>0</v>
       </c>
       <c r="V3">
-        <v>0.03333333333333333</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>0.06666666666666667</v>
+        <v>0.03478260869565217</v>
       </c>
       <c r="X3">
-        <v>0.1</v>
+        <v>0.06956521739130435</v>
       </c>
       <c r="Y3">
-        <v>0.1333333333333333</v>
+        <v>0.1043478260869565</v>
       </c>
       <c r="Z3">
-        <v>0.1666666666666667</v>
+        <v>0.1391304347826087</v>
       </c>
       <c r="AA3">
-        <v>0.2</v>
+        <v>0.1739130434782609</v>
       </c>
       <c r="AB3">
-        <v>0.2333333333333334</v>
+        <v>0.2086956521739131</v>
       </c>
       <c r="AC3">
-        <v>0.2666666666666667</v>
+        <v>0.2434782608695653</v>
       </c>
       <c r="AD3">
-        <v>0.3</v>
+        <v>0.2782608695652174</v>
       </c>
       <c r="AE3">
-        <v>0.3333333333333334</v>
+        <v>0.3130434782608696</v>
       </c>
       <c r="AF3">
-        <v>0.3666666666666667</v>
+        <v>0.3478260869565217</v>
       </c>
       <c r="AG3">
-        <v>0.4</v>
+        <v>0.3826086956521739</v>
       </c>
       <c r="AH3">
-        <v>0.4333333333333333</v>
+        <v>0.4173913043478261</v>
       </c>
       <c r="AI3">
-        <v>0.4666666666666667</v>
+        <v>0.4521739130434783</v>
       </c>
       <c r="AJ3">
-        <v>0.5</v>
+        <v>0.4869565217391305</v>
       </c>
       <c r="AK3">
-        <v>0.5333333333333333</v>
+        <v>0.5217391304347826</v>
       </c>
       <c r="AL3">
-        <v>0.5666666666666668</v>
+        <v>0.5565217391304348</v>
       </c>
       <c r="AM3">
-        <v>0.6000000000000001</v>
+        <v>0.591304347826087</v>
       </c>
       <c r="AN3">
-        <v>0.6333333333333333</v>
+        <v>0.6260869565217392</v>
       </c>
       <c r="AO3">
-        <v>0.6666666666666667</v>
+        <v>0.6608695652173914</v>
       </c>
       <c r="AP3">
-        <v>0.7000000000000001</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="AQ3">
-        <v>0.7333333333333334</v>
+        <v>0.7304347826086957</v>
       </c>
       <c r="AR3">
-        <v>0.7666666666666667</v>
+        <v>0.7652173913043478</v>
       </c>
       <c r="AS3">
         <v>0.8</v>
@@ -24406,73 +24406,73 @@
         <v>0</v>
       </c>
       <c r="V4">
-        <v>0.03333333333333333</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>0.06666666666666667</v>
+        <v>0.03478260869565217</v>
       </c>
       <c r="X4">
-        <v>0.1</v>
+        <v>0.06956521739130435</v>
       </c>
       <c r="Y4">
-        <v>0.1333333333333333</v>
+        <v>0.1043478260869565</v>
       </c>
       <c r="Z4">
-        <v>0.1666666666666667</v>
+        <v>0.1391304347826087</v>
       </c>
       <c r="AA4">
-        <v>0.2</v>
+        <v>0.1739130434782609</v>
       </c>
       <c r="AB4">
-        <v>0.2333333333333334</v>
+        <v>0.2086956521739131</v>
       </c>
       <c r="AC4">
-        <v>0.2666666666666667</v>
+        <v>0.2434782608695653</v>
       </c>
       <c r="AD4">
-        <v>0.3</v>
+        <v>0.2782608695652174</v>
       </c>
       <c r="AE4">
-        <v>0.3333333333333334</v>
+        <v>0.3130434782608696</v>
       </c>
       <c r="AF4">
-        <v>0.3666666666666667</v>
+        <v>0.3478260869565217</v>
       </c>
       <c r="AG4">
-        <v>0.4</v>
+        <v>0.3826086956521739</v>
       </c>
       <c r="AH4">
-        <v>0.4333333333333333</v>
+        <v>0.4173913043478261</v>
       </c>
       <c r="AI4">
-        <v>0.4666666666666667</v>
+        <v>0.4521739130434783</v>
       </c>
       <c r="AJ4">
-        <v>0.5</v>
+        <v>0.4869565217391305</v>
       </c>
       <c r="AK4">
-        <v>0.5333333333333333</v>
+        <v>0.5217391304347826</v>
       </c>
       <c r="AL4">
-        <v>0.5666666666666668</v>
+        <v>0.5565217391304348</v>
       </c>
       <c r="AM4">
-        <v>0.6000000000000001</v>
+        <v>0.591304347826087</v>
       </c>
       <c r="AN4">
-        <v>0.6333333333333333</v>
+        <v>0.6260869565217392</v>
       </c>
       <c r="AO4">
-        <v>0.6666666666666667</v>
+        <v>0.6608695652173914</v>
       </c>
       <c r="AP4">
-        <v>0.7000000000000001</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="AQ4">
-        <v>0.7333333333333334</v>
+        <v>0.7304347826086957</v>
       </c>
       <c r="AR4">
-        <v>0.7666666666666667</v>
+        <v>0.7652173913043478</v>
       </c>
       <c r="AS4">
         <v>0.8</v>
@@ -24531,73 +24531,73 @@
         <v>0</v>
       </c>
       <c r="V5">
-        <v>0.03333333333333333</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>0.06666666666666667</v>
+        <v>0.03478260869565217</v>
       </c>
       <c r="X5">
-        <v>0.1</v>
+        <v>0.06956521739130435</v>
       </c>
       <c r="Y5">
-        <v>0.1333333333333333</v>
+        <v>0.1043478260869565</v>
       </c>
       <c r="Z5">
-        <v>0.1666666666666667</v>
+        <v>0.1391304347826087</v>
       </c>
       <c r="AA5">
-        <v>0.2</v>
+        <v>0.1739130434782609</v>
       </c>
       <c r="AB5">
-        <v>0.2333333333333334</v>
+        <v>0.2086956521739131</v>
       </c>
       <c r="AC5">
-        <v>0.2666666666666667</v>
+        <v>0.2434782608695653</v>
       </c>
       <c r="AD5">
-        <v>0.3</v>
+        <v>0.2782608695652174</v>
       </c>
       <c r="AE5">
-        <v>0.3333333333333334</v>
+        <v>0.3130434782608696</v>
       </c>
       <c r="AF5">
-        <v>0.3666666666666667</v>
+        <v>0.3478260869565217</v>
       </c>
       <c r="AG5">
-        <v>0.4</v>
+        <v>0.3826086956521739</v>
       </c>
       <c r="AH5">
-        <v>0.4333333333333333</v>
+        <v>0.4173913043478261</v>
       </c>
       <c r="AI5">
-        <v>0.4666666666666667</v>
+        <v>0.4521739130434783</v>
       </c>
       <c r="AJ5">
-        <v>0.5</v>
+        <v>0.4869565217391305</v>
       </c>
       <c r="AK5">
-        <v>0.5333333333333333</v>
+        <v>0.5217391304347826</v>
       </c>
       <c r="AL5">
-        <v>0.5666666666666668</v>
+        <v>0.5565217391304348</v>
       </c>
       <c r="AM5">
-        <v>0.6000000000000001</v>
+        <v>0.591304347826087</v>
       </c>
       <c r="AN5">
-        <v>0.6333333333333333</v>
+        <v>0.6260869565217392</v>
       </c>
       <c r="AO5">
-        <v>0.6666666666666667</v>
+        <v>0.6608695652173914</v>
       </c>
       <c r="AP5">
-        <v>0.7000000000000001</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="AQ5">
-        <v>0.7333333333333334</v>
+        <v>0.7304347826086957</v>
       </c>
       <c r="AR5">
-        <v>0.7666666666666667</v>
+        <v>0.7652173913043478</v>
       </c>
       <c r="AS5">
         <v>0.8</v>
@@ -24656,7 +24656,7 @@
         <v>0.9</v>
       </c>
       <c r="W6">
-        <v>0.8999999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="X6">
         <v>0.9</v>
@@ -24677,10 +24677,10 @@
         <v>0.9000000000000001</v>
       </c>
       <c r="AD6">
-        <v>0.9</v>
+        <v>0.9000000000000001</v>
       </c>
       <c r="AE6">
-        <v>0.8999999999999999</v>
+        <v>0.9000000000000001</v>
       </c>
       <c r="AF6">
         <v>0.9000000000000001</v>
@@ -24698,10 +24698,10 @@
         <v>0.9</v>
       </c>
       <c r="AK6">
-        <v>0.9</v>
+        <v>0.9000000000000001</v>
       </c>
       <c r="AL6">
-        <v>0.9</v>
+        <v>0.9000000000000001</v>
       </c>
       <c r="AM6">
         <v>0.9</v>
@@ -24710,13 +24710,13 @@
         <v>0.9</v>
       </c>
       <c r="AO6">
+        <v>0.9</v>
+      </c>
+      <c r="AP6">
+        <v>0.9</v>
+      </c>
+      <c r="AQ6">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AP6">
-        <v>0.9</v>
-      </c>
-      <c r="AQ6">
-        <v>0.9</v>
       </c>
       <c r="AR6">
         <v>0.9</v>
@@ -24778,7 +24778,7 @@
         <v>0.9</v>
       </c>
       <c r="W7">
-        <v>0.8999999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="X7">
         <v>0.9</v>
@@ -24799,10 +24799,10 @@
         <v>0.9000000000000001</v>
       </c>
       <c r="AD7">
-        <v>0.9</v>
+        <v>0.9000000000000001</v>
       </c>
       <c r="AE7">
-        <v>0.8999999999999999</v>
+        <v>0.9000000000000001</v>
       </c>
       <c r="AF7">
         <v>0.9000000000000001</v>
@@ -24820,10 +24820,10 @@
         <v>0.9</v>
       </c>
       <c r="AK7">
-        <v>0.9</v>
+        <v>0.9000000000000001</v>
       </c>
       <c r="AL7">
-        <v>0.9</v>
+        <v>0.9000000000000001</v>
       </c>
       <c r="AM7">
         <v>0.9</v>
@@ -24832,13 +24832,13 @@
         <v>0.9</v>
       </c>
       <c r="AO7">
+        <v>0.9</v>
+      </c>
+      <c r="AP7">
+        <v>0.9</v>
+      </c>
+      <c r="AQ7">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AP7">
-        <v>0.9</v>
-      </c>
-      <c r="AQ7">
-        <v>0.9</v>
       </c>
       <c r="AR7">
         <v>0.9</v>
@@ -24900,7 +24900,7 @@
         <v>0.9</v>
       </c>
       <c r="W8">
-        <v>0.8999999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="X8">
         <v>0.9</v>
@@ -24921,10 +24921,10 @@
         <v>0.9000000000000001</v>
       </c>
       <c r="AD8">
-        <v>0.9</v>
+        <v>0.9000000000000001</v>
       </c>
       <c r="AE8">
-        <v>0.8999999999999999</v>
+        <v>0.9000000000000001</v>
       </c>
       <c r="AF8">
         <v>0.9000000000000001</v>
@@ -24942,10 +24942,10 @@
         <v>0.9</v>
       </c>
       <c r="AK8">
-        <v>0.9</v>
+        <v>0.9000000000000001</v>
       </c>
       <c r="AL8">
-        <v>0.9</v>
+        <v>0.9000000000000001</v>
       </c>
       <c r="AM8">
         <v>0.9</v>
@@ -24954,13 +24954,13 @@
         <v>0.9</v>
       </c>
       <c r="AO8">
+        <v>0.9</v>
+      </c>
+      <c r="AP8">
+        <v>0.9</v>
+      </c>
+      <c r="AQ8">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AP8">
-        <v>0.9</v>
-      </c>
-      <c r="AQ8">
-        <v>0.9</v>
       </c>
       <c r="AR8">
         <v>0.9</v>
@@ -25022,7 +25022,7 @@
         <v>0.9</v>
       </c>
       <c r="W9">
-        <v>0.8999999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="X9">
         <v>0.9</v>
@@ -25043,10 +25043,10 @@
         <v>0.9000000000000001</v>
       </c>
       <c r="AD9">
-        <v>0.9</v>
+        <v>0.9000000000000001</v>
       </c>
       <c r="AE9">
-        <v>0.8999999999999999</v>
+        <v>0.9000000000000001</v>
       </c>
       <c r="AF9">
         <v>0.9000000000000001</v>
@@ -25064,10 +25064,10 @@
         <v>0.9</v>
       </c>
       <c r="AK9">
-        <v>0.9</v>
+        <v>0.9000000000000001</v>
       </c>
       <c r="AL9">
-        <v>0.9</v>
+        <v>0.9000000000000001</v>
       </c>
       <c r="AM9">
         <v>0.9</v>
@@ -25076,13 +25076,13 @@
         <v>0.9</v>
       </c>
       <c r="AO9">
+        <v>0.9</v>
+      </c>
+      <c r="AP9">
+        <v>0.9</v>
+      </c>
+      <c r="AQ9">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AP9">
-        <v>0.9</v>
-      </c>
-      <c r="AQ9">
-        <v>0.9</v>
       </c>
       <c r="AR9">
         <v>0.9</v>
@@ -25144,7 +25144,7 @@
         <v>0.9</v>
       </c>
       <c r="W10">
-        <v>0.8999999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="X10">
         <v>0.9</v>
@@ -25165,10 +25165,10 @@
         <v>0.9000000000000001</v>
       </c>
       <c r="AD10">
-        <v>0.9</v>
+        <v>0.9000000000000001</v>
       </c>
       <c r="AE10">
-        <v>0.8999999999999999</v>
+        <v>0.9000000000000001</v>
       </c>
       <c r="AF10">
         <v>0.9000000000000001</v>
@@ -25186,10 +25186,10 @@
         <v>0.9</v>
       </c>
       <c r="AK10">
-        <v>0.9</v>
+        <v>0.9000000000000001</v>
       </c>
       <c r="AL10">
-        <v>0.9</v>
+        <v>0.9000000000000001</v>
       </c>
       <c r="AM10">
         <v>0.9</v>
@@ -25198,13 +25198,13 @@
         <v>0.9</v>
       </c>
       <c r="AO10">
+        <v>0.9</v>
+      </c>
+      <c r="AP10">
+        <v>0.9</v>
+      </c>
+      <c r="AQ10">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AP10">
-        <v>0.9</v>
-      </c>
-      <c r="AQ10">
-        <v>0.9</v>
       </c>
       <c r="AR10">
         <v>0.9</v>
@@ -25266,7 +25266,7 @@
         <v>0.9</v>
       </c>
       <c r="W11">
-        <v>0.8999999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="X11">
         <v>0.9</v>
@@ -25287,10 +25287,10 @@
         <v>0.9000000000000001</v>
       </c>
       <c r="AD11">
-        <v>0.9</v>
+        <v>0.9000000000000001</v>
       </c>
       <c r="AE11">
-        <v>0.8999999999999999</v>
+        <v>0.9000000000000001</v>
       </c>
       <c r="AF11">
         <v>0.9000000000000001</v>
@@ -25308,10 +25308,10 @@
         <v>0.9</v>
       </c>
       <c r="AK11">
-        <v>0.9</v>
+        <v>0.9000000000000001</v>
       </c>
       <c r="AL11">
-        <v>0.9</v>
+        <v>0.9000000000000001</v>
       </c>
       <c r="AM11">
         <v>0.9</v>
@@ -25320,13 +25320,13 @@
         <v>0.9</v>
       </c>
       <c r="AO11">
+        <v>0.9</v>
+      </c>
+      <c r="AP11">
+        <v>0.9</v>
+      </c>
+      <c r="AQ11">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AP11">
-        <v>0.9</v>
-      </c>
-      <c r="AQ11">
-        <v>0.9</v>
       </c>
       <c r="AR11">
         <v>0.9</v>
@@ -25538,73 +25538,73 @@
         <v>1.56211755418937E-09</v>
       </c>
       <c r="V2">
-        <v>1.49898196970755E-09</v>
+        <v>1.56211755418937E-09</v>
       </c>
       <c r="W2">
-        <v>1.435846385225729E-09</v>
+        <v>1.496236944295297E-09</v>
       </c>
       <c r="X2">
-        <v>1.372710800743909E-09</v>
+        <v>1.430356334401223E-09</v>
       </c>
       <c r="Y2">
-        <v>1.309575216262089E-09</v>
+        <v>1.36447572450715E-09</v>
       </c>
       <c r="Z2">
-        <v>1.246439631780268E-09</v>
+        <v>1.298595114613076E-09</v>
       </c>
       <c r="AA2">
-        <v>1.183304047298448E-09</v>
+        <v>1.232714504719003E-09</v>
       </c>
       <c r="AB2">
-        <v>1.120168462816627E-09</v>
+        <v>1.166833894824929E-09</v>
       </c>
       <c r="AC2">
-        <v>1.057032878334807E-09</v>
+        <v>1.100953284930856E-09</v>
       </c>
       <c r="AD2">
-        <v>9.938972938529868E-10</v>
+        <v>1.035072675036783E-09</v>
       </c>
       <c r="AE2">
-        <v>9.307617093711662E-10</v>
+        <v>9.691920651427094E-10</v>
       </c>
       <c r="AF2">
-        <v>8.676261248893461E-10</v>
+        <v>9.033114552486358E-10</v>
       </c>
       <c r="AG2">
-        <v>8.044905404075256E-10</v>
+        <v>8.374308453545624E-10</v>
       </c>
       <c r="AH2">
-        <v>7.413549559257053E-10</v>
+        <v>7.715502354604889E-10</v>
       </c>
       <c r="AI2">
-        <v>6.782193714438849E-10</v>
+        <v>7.056696255664155E-10</v>
       </c>
       <c r="AJ2">
-        <v>6.150837869620646E-10</v>
+        <v>6.39789015672342E-10</v>
       </c>
       <c r="AK2">
-        <v>5.519482024802442E-10</v>
+        <v>5.739084057782687E-10</v>
       </c>
       <c r="AL2">
-        <v>4.888126179984237E-10</v>
+        <v>5.080277958841952E-10</v>
       </c>
       <c r="AM2">
-        <v>4.256770335166034E-10</v>
+        <v>4.421471859901218E-10</v>
       </c>
       <c r="AN2">
-        <v>3.625414490347831E-10</v>
+        <v>3.762665760960483E-10</v>
       </c>
       <c r="AO2">
-        <v>2.994058645529626E-10</v>
+        <v>3.103859662019749E-10</v>
       </c>
       <c r="AP2">
-        <v>2.362702800711422E-10</v>
+        <v>2.445053563079014E-10</v>
       </c>
       <c r="AQ2">
-        <v>1.731346955893219E-10</v>
+        <v>1.786247464138281E-10</v>
       </c>
       <c r="AR2">
-        <v>1.099991111075014E-10</v>
+        <v>1.127441365197545E-10</v>
       </c>
       <c r="AS2">
         <v>4.68635266256811E-11</v>
@@ -25663,73 +25663,73 @@
         <v>0.481732444696644</v>
       </c>
       <c r="V3">
-        <v>0.4622624250568213</v>
+        <v>0.481732444696644</v>
       </c>
       <c r="W3">
-        <v>0.4427924054169986</v>
+        <v>0.4614159024637856</v>
       </c>
       <c r="X3">
-        <v>0.4233223857771759</v>
+        <v>0.4410993602309271</v>
       </c>
       <c r="Y3">
-        <v>0.4038523661373533</v>
+        <v>0.4207828179980686</v>
       </c>
       <c r="Z3">
-        <v>0.3843823464975305</v>
+        <v>0.4004662757652102</v>
       </c>
       <c r="AA3">
-        <v>0.3649123268577079</v>
+        <v>0.3801497335323517</v>
       </c>
       <c r="AB3">
-        <v>0.3454423072178851</v>
+        <v>0.3598331912994931</v>
       </c>
       <c r="AC3">
-        <v>0.3259722875780625</v>
+        <v>0.3395166490666347</v>
       </c>
       <c r="AD3">
-        <v>0.3065022679382398</v>
+        <v>0.3192001068337763</v>
       </c>
       <c r="AE3">
-        <v>0.287032248298417</v>
+        <v>0.2988835646009178</v>
       </c>
       <c r="AF3">
-        <v>0.2675622286585944</v>
+        <v>0.2785670223680594</v>
       </c>
       <c r="AG3">
-        <v>0.2480922090187717</v>
+        <v>0.2582504801352009</v>
       </c>
       <c r="AH3">
-        <v>0.228622189378949</v>
+        <v>0.2379339379023424</v>
       </c>
       <c r="AI3">
-        <v>0.2091521697391263</v>
+        <v>0.217617395669484</v>
       </c>
       <c r="AJ3">
-        <v>0.1896821500993036</v>
+        <v>0.1973008534366255</v>
       </c>
       <c r="AK3">
-        <v>0.1702121304594809</v>
+        <v>0.176984311203767</v>
       </c>
       <c r="AL3">
-        <v>0.1507421108196582</v>
+        <v>0.1566677689709086</v>
       </c>
       <c r="AM3">
-        <v>0.1312720911798355</v>
+        <v>0.1363512267380501</v>
       </c>
       <c r="AN3">
-        <v>0.1118020715400128</v>
+        <v>0.1160346845051916</v>
       </c>
       <c r="AO3">
-        <v>0.09233205190019009</v>
+        <v>0.09571814227233318</v>
       </c>
       <c r="AP3">
-        <v>0.0728620322603674</v>
+        <v>0.07540160003947471</v>
       </c>
       <c r="AQ3">
-        <v>0.05339201262054473</v>
+        <v>0.05508505780661627</v>
       </c>
       <c r="AR3">
-        <v>0.03392199298072199</v>
+        <v>0.03476851557375777</v>
       </c>
       <c r="AS3">
         <v>0.01445197334089932</v>
@@ -25788,73 +25788,73 @@
         <v>0.345496443918732</v>
       </c>
       <c r="V4">
-        <v>0.3315326293103499</v>
+        <v>0.345496443918732</v>
       </c>
       <c r="W4">
-        <v>0.3175688147019678</v>
+        <v>0.3309255069360725</v>
       </c>
       <c r="X4">
-        <v>0.3036050000935858</v>
+        <v>0.3163545699534129</v>
       </c>
       <c r="Y4">
-        <v>0.2896411854852037</v>
+        <v>0.3017836329707533</v>
       </c>
       <c r="Z4">
-        <v>0.2756773708768216</v>
+        <v>0.2872126959880938</v>
       </c>
       <c r="AA4">
-        <v>0.2617135562684395</v>
+        <v>0.2726417590054342</v>
       </c>
       <c r="AB4">
-        <v>0.2477497416600574</v>
+        <v>0.2580708220227746</v>
       </c>
       <c r="AC4">
-        <v>0.2337859270516754</v>
+        <v>0.243499885040115</v>
       </c>
       <c r="AD4">
-        <v>0.2198221124432932</v>
+        <v>0.2289289480574555</v>
       </c>
       <c r="AE4">
-        <v>0.2058582978349111</v>
+        <v>0.2143580110747959</v>
       </c>
       <c r="AF4">
-        <v>0.1918944832265291</v>
+        <v>0.1997870740921364</v>
       </c>
       <c r="AG4">
-        <v>0.177930668618147</v>
+        <v>0.1852161371094768</v>
       </c>
       <c r="AH4">
-        <v>0.1639668540097649</v>
+        <v>0.1706452001268172</v>
       </c>
       <c r="AI4">
-        <v>0.1500030394013828</v>
+        <v>0.1560742631441576</v>
       </c>
       <c r="AJ4">
-        <v>0.1360392247930007</v>
+        <v>0.141503326161498</v>
       </c>
       <c r="AK4">
-        <v>0.1220754101846186</v>
+        <v>0.1269323891788385</v>
       </c>
       <c r="AL4">
-        <v>0.1081115955762365</v>
+        <v>0.1123614521961789</v>
       </c>
       <c r="AM4">
-        <v>0.09414778096785448</v>
+        <v>0.09779051521351938</v>
       </c>
       <c r="AN4">
-        <v>0.08018396635947239</v>
+        <v>0.08321957823085979</v>
       </c>
       <c r="AO4">
-        <v>0.06622015175109029</v>
+        <v>0.06864864124820023</v>
       </c>
       <c r="AP4">
-        <v>0.05225633714270822</v>
+        <v>0.05407770426554067</v>
       </c>
       <c r="AQ4">
-        <v>0.03829252253432614</v>
+        <v>0.03950676728288111</v>
       </c>
       <c r="AR4">
-        <v>0.02432870792594403</v>
+        <v>0.02493583030022152</v>
       </c>
       <c r="AS4">
         <v>0.01036489331756196</v>
@@ -25913,73 +25913,73 @@
         <v>0.345496443918732</v>
       </c>
       <c r="V5">
-        <v>0.3315326293103499</v>
+        <v>0.345496443918732</v>
       </c>
       <c r="W5">
-        <v>0.3175688147019678</v>
+        <v>0.3309255069360725</v>
       </c>
       <c r="X5">
-        <v>0.3036050000935858</v>
+        <v>0.3163545699534129</v>
       </c>
       <c r="Y5">
-        <v>0.2896411854852037</v>
+        <v>0.3017836329707533</v>
       </c>
       <c r="Z5">
-        <v>0.2756773708768216</v>
+        <v>0.2872126959880938</v>
       </c>
       <c r="AA5">
-        <v>0.2617135562684395</v>
+        <v>0.2726417590054342</v>
       </c>
       <c r="AB5">
-        <v>0.2477497416600574</v>
+        <v>0.2580708220227746</v>
       </c>
       <c r="AC5">
-        <v>0.2337859270516754</v>
+        <v>0.243499885040115</v>
       </c>
       <c r="AD5">
-        <v>0.2198221124432932</v>
+        <v>0.2289289480574555</v>
       </c>
       <c r="AE5">
-        <v>0.2058582978349111</v>
+        <v>0.2143580110747959</v>
       </c>
       <c r="AF5">
-        <v>0.1918944832265291</v>
+        <v>0.1997870740921364</v>
       </c>
       <c r="AG5">
-        <v>0.177930668618147</v>
+        <v>0.1852161371094768</v>
       </c>
       <c r="AH5">
-        <v>0.1639668540097649</v>
+        <v>0.1706452001268172</v>
       </c>
       <c r="AI5">
-        <v>0.1500030394013828</v>
+        <v>0.1560742631441576</v>
       </c>
       <c r="AJ5">
-        <v>0.1360392247930007</v>
+        <v>0.141503326161498</v>
       </c>
       <c r="AK5">
-        <v>0.1220754101846186</v>
+        <v>0.1269323891788385</v>
       </c>
       <c r="AL5">
-        <v>0.1081115955762365</v>
+        <v>0.1123614521961789</v>
       </c>
       <c r="AM5">
-        <v>0.09414778096785448</v>
+        <v>0.09779051521351938</v>
       </c>
       <c r="AN5">
-        <v>0.08018396635947239</v>
+        <v>0.08321957823085979</v>
       </c>
       <c r="AO5">
-        <v>0.06622015175109029</v>
+        <v>0.06864864124820023</v>
       </c>
       <c r="AP5">
-        <v>0.05225633714270822</v>
+        <v>0.05407770426554067</v>
       </c>
       <c r="AQ5">
-        <v>0.03829252253432614</v>
+        <v>0.03950676728288111</v>
       </c>
       <c r="AR5">
-        <v>0.02432870792594403</v>
+        <v>0.02493583030022152</v>
       </c>
       <c r="AS5">
         <v>0.01036489331756196</v>
@@ -26038,73 +26038,73 @@
         <v>2E-06</v>
       </c>
       <c r="V6">
-        <v>1.919166666666667E-06</v>
+        <v>2E-06</v>
       </c>
       <c r="W6">
-        <v>1.838333333333333E-06</v>
+        <v>1.915652173913044E-06</v>
       </c>
       <c r="X6">
-        <v>1.7575E-06</v>
+        <v>1.831304347826087E-06</v>
       </c>
       <c r="Y6">
-        <v>1.676666666666667E-06</v>
+        <v>1.74695652173913E-06</v>
       </c>
       <c r="Z6">
-        <v>1.595833333333333E-06</v>
+        <v>1.662608695652174E-06</v>
       </c>
       <c r="AA6">
-        <v>1.515E-06</v>
+        <v>1.578260869565217E-06</v>
       </c>
       <c r="AB6">
-        <v>1.434166666666667E-06</v>
+        <v>1.493913043478261E-06</v>
       </c>
       <c r="AC6">
-        <v>1.353333333333333E-06</v>
+        <v>1.409565217391304E-06</v>
       </c>
       <c r="AD6">
-        <v>1.2725E-06</v>
+        <v>1.325217391304348E-06</v>
       </c>
       <c r="AE6">
-        <v>1.191666666666666E-06</v>
+        <v>1.240869565217391E-06</v>
       </c>
       <c r="AF6">
-        <v>1.110833333333333E-06</v>
+        <v>1.156521739130435E-06</v>
       </c>
       <c r="AG6">
-        <v>1.03E-06</v>
+        <v>1.072173913043478E-06</v>
       </c>
       <c r="AH6">
-        <v>9.491666666666668E-07</v>
+        <v>9.878260869565218E-07</v>
       </c>
       <c r="AI6">
-        <v>8.683333333333332E-07</v>
+        <v>9.034782608695652E-07</v>
       </c>
       <c r="AJ6">
-        <v>7.875E-07</v>
+        <v>8.191304347826086E-07</v>
       </c>
       <c r="AK6">
-        <v>7.066666666666667E-07</v>
+        <v>7.347826086956521E-07</v>
       </c>
       <c r="AL6">
-        <v>6.258333333333332E-07</v>
+        <v>6.504347826086956E-07</v>
       </c>
       <c r="AM6">
-        <v>5.45E-07</v>
+        <v>5.660869565217392E-07</v>
       </c>
       <c r="AN6">
-        <v>4.641666666666667E-07</v>
+        <v>4.817391304347825E-07</v>
       </c>
       <c r="AO6">
-        <v>3.833333333333332E-07</v>
+        <v>3.97391304347826E-07</v>
       </c>
       <c r="AP6">
-        <v>3.025E-07</v>
+        <v>3.130434782608696E-07</v>
       </c>
       <c r="AQ6">
-        <v>2.216666666666667E-07</v>
+        <v>2.286956521739131E-07</v>
       </c>
       <c r="AR6">
-        <v>1.408333333333333E-07</v>
+        <v>1.443478260869564E-07</v>
       </c>
       <c r="AS6">
         <v>5.999999999999999E-08</v>
@@ -26163,73 +26163,73 @@
         <v>6E-07</v>
       </c>
       <c r="V7">
-        <v>5.7575E-07</v>
+        <v>6E-07</v>
       </c>
       <c r="W7">
-        <v>5.514999999999999E-07</v>
+        <v>5.74695652173913E-07</v>
       </c>
       <c r="X7">
-        <v>5.272499999999999E-07</v>
+        <v>5.493913043478261E-07</v>
       </c>
       <c r="Y7">
-        <v>5.03E-07</v>
+        <v>5.24086956521739E-07</v>
       </c>
       <c r="Z7">
-        <v>4.7875E-07</v>
+        <v>4.987826086956522E-07</v>
       </c>
       <c r="AA7">
-        <v>4.545E-07</v>
+        <v>4.734782608695652E-07</v>
       </c>
       <c r="AB7">
-        <v>4.3025E-07</v>
+        <v>4.481739130434782E-07</v>
       </c>
       <c r="AC7">
-        <v>4.06E-07</v>
+        <v>4.228695652173913E-07</v>
       </c>
       <c r="AD7">
-        <v>3.8175E-07</v>
+        <v>3.975652173913043E-07</v>
       </c>
       <c r="AE7">
-        <v>3.574999999999999E-07</v>
+        <v>3.722608695652174E-07</v>
       </c>
       <c r="AF7">
-        <v>3.3325E-07</v>
+        <v>3.469565217391304E-07</v>
       </c>
       <c r="AG7">
-        <v>3.09E-07</v>
+        <v>3.216521739130435E-07</v>
       </c>
       <c r="AH7">
-        <v>2.8475E-07</v>
+        <v>2.963478260869565E-07</v>
       </c>
       <c r="AI7">
-        <v>2.605E-07</v>
+        <v>2.710434782608696E-07</v>
       </c>
       <c r="AJ7">
-        <v>2.3625E-07</v>
+        <v>2.457391304347826E-07</v>
       </c>
       <c r="AK7">
-        <v>2.12E-07</v>
+        <v>2.204347826086956E-07</v>
       </c>
       <c r="AL7">
-        <v>1.8775E-07</v>
+        <v>1.951304347826087E-07</v>
       </c>
       <c r="AM7">
-        <v>1.635E-07</v>
+        <v>1.698260869565217E-07</v>
       </c>
       <c r="AN7">
-        <v>1.3925E-07</v>
+        <v>1.445217391304348E-07</v>
       </c>
       <c r="AO7">
-        <v>1.15E-07</v>
+        <v>1.192173913043478E-07</v>
       </c>
       <c r="AP7">
-        <v>9.074999999999999E-08</v>
+        <v>9.391304347826087E-08</v>
       </c>
       <c r="AQ7">
-        <v>6.650000000000002E-08</v>
+        <v>6.860869565217394E-08</v>
       </c>
       <c r="AR7">
-        <v>4.224999999999997E-08</v>
+        <v>4.330434782608694E-08</v>
       </c>
       <c r="AS7">
         <v>1.8E-08</v>
@@ -26288,73 +26288,73 @@
         <v>4.93891687066857E-09</v>
       </c>
       <c r="V8">
-        <v>4.739302313812383E-09</v>
+        <v>4.93891687066857E-09</v>
       </c>
       <c r="W8">
-        <v>4.539687756956195E-09</v>
+        <v>4.730623420036026E-09</v>
       </c>
       <c r="X8">
-        <v>4.340073200100007E-09</v>
+        <v>4.522329969403483E-09</v>
       </c>
       <c r="Y8">
-        <v>4.140458643243819E-09</v>
+        <v>4.314036518770938E-09</v>
       </c>
       <c r="Z8">
-        <v>3.940844086387631E-09</v>
+        <v>4.105743068138394E-09</v>
       </c>
       <c r="AA8">
-        <v>3.741229529531442E-09</v>
+        <v>3.89744961750585E-09</v>
       </c>
       <c r="AB8">
-        <v>3.541614972675254E-09</v>
+        <v>3.689156166873306E-09</v>
       </c>
       <c r="AC8">
-        <v>3.342000415819066E-09</v>
+        <v>3.480862716240762E-09</v>
       </c>
       <c r="AD8">
-        <v>3.142385858962878E-09</v>
+        <v>3.272569265608218E-09</v>
       </c>
       <c r="AE8">
-        <v>2.942771302106689E-09</v>
+        <v>3.064275814975674E-09</v>
       </c>
       <c r="AF8">
-        <v>2.743156745250502E-09</v>
+        <v>2.85598236434313E-09</v>
       </c>
       <c r="AG8">
-        <v>2.543542188394314E-09</v>
+        <v>2.647688913710586E-09</v>
       </c>
       <c r="AH8">
-        <v>2.343927631538126E-09</v>
+        <v>2.439395463078042E-09</v>
       </c>
       <c r="AI8">
-        <v>2.144313074681937E-09</v>
+        <v>2.231102012445498E-09</v>
       </c>
       <c r="AJ8">
-        <v>1.94469851782575E-09</v>
+        <v>2.022808561812953E-09</v>
       </c>
       <c r="AK8">
-        <v>1.745083960969562E-09</v>
+        <v>1.814515111180409E-09</v>
       </c>
       <c r="AL8">
-        <v>1.545469404113373E-09</v>
+        <v>1.606221660547866E-09</v>
       </c>
       <c r="AM8">
-        <v>1.345854847257185E-09</v>
+        <v>1.397928209915322E-09</v>
       </c>
       <c r="AN8">
-        <v>1.146240290400998E-09</v>
+        <v>1.189634759282777E-09</v>
       </c>
       <c r="AO8">
-        <v>9.466257335448092E-10</v>
+        <v>9.813413086502332E-10</v>
       </c>
       <c r="AP8">
-        <v>7.470111766886212E-10</v>
+        <v>7.730478580176894E-10</v>
       </c>
       <c r="AQ8">
-        <v>5.473966198324334E-10</v>
+        <v>5.647544073851454E-10</v>
       </c>
       <c r="AR8">
-        <v>3.477820629762449E-10</v>
+        <v>3.564609567526011E-10</v>
       </c>
       <c r="AS8">
         <v>1.481675061200571E-10</v>
@@ -26413,73 +26413,73 @@
         <v>0.278921245357285</v>
       </c>
       <c r="V9">
-        <v>0.2676481783574281</v>
+        <v>0.278921245357285</v>
       </c>
       <c r="W9">
-        <v>0.2563751113575711</v>
+        <v>0.2671580450096082</v>
       </c>
       <c r="X9">
-        <v>0.2451020443577142</v>
+        <v>0.2553948446619314</v>
       </c>
       <c r="Y9">
-        <v>0.2338289773578573</v>
+        <v>0.2436316443142546</v>
       </c>
       <c r="Z9">
-        <v>0.2225559103580003</v>
+        <v>0.2318684439665778</v>
       </c>
       <c r="AA9">
-        <v>0.2112828433581434</v>
+        <v>0.220105243618901</v>
       </c>
       <c r="AB9">
-        <v>0.2000097763582865</v>
+        <v>0.2083420432712242</v>
       </c>
       <c r="AC9">
-        <v>0.1887367093584296</v>
+        <v>0.1965788429235474</v>
       </c>
       <c r="AD9">
-        <v>0.1774636423585726</v>
+        <v>0.1848156425758706</v>
       </c>
       <c r="AE9">
-        <v>0.1661905753587156</v>
+        <v>0.1730524422281938</v>
       </c>
       <c r="AF9">
-        <v>0.1549175083588587</v>
+        <v>0.161289241880517</v>
       </c>
       <c r="AG9">
-        <v>0.1436444413590018</v>
+        <v>0.1495260415328402</v>
       </c>
       <c r="AH9">
-        <v>0.1323713743591449</v>
+        <v>0.1377628411851634</v>
       </c>
       <c r="AI9">
-        <v>0.1210983073592879</v>
+        <v>0.1259996408374866</v>
       </c>
       <c r="AJ9">
-        <v>0.109825240359431</v>
+        <v>0.1142364404898098</v>
       </c>
       <c r="AK9">
-        <v>0.09855217335957406</v>
+        <v>0.102473240142133</v>
       </c>
       <c r="AL9">
-        <v>0.08727910635971708</v>
+        <v>0.09071003979445617</v>
       </c>
       <c r="AM9">
-        <v>0.07600603935986017</v>
+        <v>0.07894683944677938</v>
       </c>
       <c r="AN9">
-        <v>0.06473297236000324</v>
+        <v>0.06718363909910255</v>
       </c>
       <c r="AO9">
-        <v>0.05345990536014629</v>
+        <v>0.05542043875142576</v>
       </c>
       <c r="AP9">
-        <v>0.04218683836028936</v>
+        <v>0.04365723840374897</v>
       </c>
       <c r="AQ9">
-        <v>0.03091377136043243</v>
+        <v>0.03189403805607217</v>
       </c>
       <c r="AR9">
-        <v>0.01964070436057547</v>
+        <v>0.02013083770839535</v>
       </c>
       <c r="AS9">
         <v>0.008367637360718549</v>
@@ -26538,73 +26538,73 @@
         <v>0.0001077143454008</v>
       </c>
       <c r="V10">
-        <v>0.0001033608906075177</v>
+        <v>0.0001077143454008</v>
       </c>
       <c r="W10">
-        <v>9.900743581423532E-05</v>
+        <v>0.0001031716099643315</v>
       </c>
       <c r="X10">
-        <v>9.465398102095299E-05</v>
+        <v>9.862887452786296E-05</v>
       </c>
       <c r="Y10">
-        <v>9.030052622767066E-05</v>
+        <v>9.408613909139443E-05</v>
       </c>
       <c r="Z10">
-        <v>8.594707143438833E-05</v>
+        <v>8.954340365492591E-05</v>
       </c>
       <c r="AA10">
-        <v>8.159361664110599E-05</v>
+        <v>8.500066821845739E-05</v>
       </c>
       <c r="AB10">
-        <v>7.724016184782366E-05</v>
+        <v>8.045793278198886E-05</v>
       </c>
       <c r="AC10">
-        <v>7.288670705454133E-05</v>
+        <v>7.591519734552034E-05</v>
       </c>
       <c r="AD10">
-        <v>6.8533252261259E-05</v>
+        <v>7.137246190905183E-05</v>
       </c>
       <c r="AE10">
-        <v>6.417979746797666E-05</v>
+        <v>6.682972647258331E-05</v>
       </c>
       <c r="AF10">
-        <v>5.982634267469434E-05</v>
+        <v>6.228699103611479E-05</v>
       </c>
       <c r="AG10">
-        <v>5.5472887881412E-05</v>
+        <v>5.774425559964625E-05</v>
       </c>
       <c r="AH10">
-        <v>5.111943308812967E-05</v>
+        <v>5.320152016317774E-05</v>
       </c>
       <c r="AI10">
-        <v>4.676597829484733E-05</v>
+        <v>4.865878472670922E-05</v>
       </c>
       <c r="AJ10">
-        <v>4.2412523501565E-05</v>
+        <v>4.411604929024069E-05</v>
       </c>
       <c r="AK10">
-        <v>3.805906870828267E-05</v>
+        <v>3.957331385377218E-05</v>
       </c>
       <c r="AL10">
-        <v>3.370561391500033E-05</v>
+        <v>3.503057841730365E-05</v>
       </c>
       <c r="AM10">
-        <v>2.9352159121718E-05</v>
+        <v>3.048784298083513E-05</v>
       </c>
       <c r="AN10">
-        <v>2.499870432843567E-05</v>
+        <v>2.59451075443666E-05</v>
       </c>
       <c r="AO10">
-        <v>2.064524953515333E-05</v>
+        <v>2.140237210789809E-05</v>
       </c>
       <c r="AP10">
-        <v>1.6291794741871E-05</v>
+        <v>1.685963667142957E-05</v>
       </c>
       <c r="AQ10">
-        <v>1.193833994858867E-05</v>
+        <v>1.231690123496105E-05</v>
       </c>
       <c r="AR10">
-        <v>7.58488515530633E-06</v>
+        <v>7.774165798492518E-06</v>
       </c>
       <c r="AS10">
         <v>3.231430362024E-06</v>
@@ -26660,73 +26660,73 @@
         <v>0.0039553624532641</v>
       </c>
       <c r="V11">
-        <v>0.003795499887444677</v>
+        <v>0.0039553624532641</v>
       </c>
       <c r="W11">
-        <v>0.003635637321625252</v>
+        <v>0.003788549341104702</v>
       </c>
       <c r="X11">
-        <v>0.003475774755805828</v>
+        <v>0.003621736228945302</v>
       </c>
       <c r="Y11">
-        <v>0.003315912189986404</v>
+        <v>0.003454923116785903</v>
       </c>
       <c r="Z11">
-        <v>0.00315604962416698</v>
+        <v>0.003288110004626504</v>
       </c>
       <c r="AA11">
-        <v>0.002996187058347556</v>
+        <v>0.003121296892467105</v>
       </c>
       <c r="AB11">
-        <v>0.002836324492528132</v>
+        <v>0.002954483780307706</v>
       </c>
       <c r="AC11">
-        <v>0.002676461926708708</v>
+        <v>0.002787670668148307</v>
       </c>
       <c r="AD11">
-        <v>0.002516599360889284</v>
+        <v>0.002620857555988908</v>
       </c>
       <c r="AE11">
-        <v>0.00235673679506986</v>
+        <v>0.002454044443829509</v>
       </c>
       <c r="AF11">
-        <v>0.002196874229250436</v>
+        <v>0.00228723133167011</v>
       </c>
       <c r="AG11">
-        <v>0.002037011663431012</v>
+        <v>0.002120418219510711</v>
       </c>
       <c r="AH11">
-        <v>0.001877149097611588</v>
+        <v>0.001953605107351312</v>
       </c>
       <c r="AI11">
-        <v>0.001717286531792163</v>
+        <v>0.001786791995191913</v>
       </c>
       <c r="AJ11">
-        <v>0.00155742396597274</v>
+        <v>0.001619978883032514</v>
       </c>
       <c r="AK11">
-        <v>0.001397561400153316</v>
+        <v>0.001453165770873115</v>
       </c>
       <c r="AL11">
-        <v>0.001237698834333891</v>
+        <v>0.001286352658713716</v>
       </c>
       <c r="AM11">
-        <v>0.001077836268514467</v>
+        <v>0.001119539546554317</v>
       </c>
       <c r="AN11">
-        <v>0.0009179737026950434</v>
+        <v>0.0009527264343949179</v>
       </c>
       <c r="AO11">
-        <v>0.000758111136875619</v>
+        <v>0.000785913322235519</v>
       </c>
       <c r="AP11">
-        <v>0.0005982485710561952</v>
+        <v>0.0006191002100761202</v>
       </c>
       <c r="AQ11">
-        <v>0.0004383860052367712</v>
+        <v>0.0004522870979167212</v>
       </c>
       <c r="AR11">
-        <v>0.0002785234394173469</v>
+        <v>0.0002854739857573219</v>
       </c>
       <c r="AS11">
         <v>0.000118660873597923</v>
@@ -26782,73 +26782,73 @@
         <v>0.0039553624532641</v>
       </c>
       <c r="V12">
-        <v>0.003795499887444677</v>
+        <v>0.0039553624532641</v>
       </c>
       <c r="W12">
-        <v>0.003635637321625252</v>
+        <v>0.003788549341104702</v>
       </c>
       <c r="X12">
-        <v>0.003475774755805828</v>
+        <v>0.003621736228945302</v>
       </c>
       <c r="Y12">
-        <v>0.003315912189986404</v>
+        <v>0.003454923116785903</v>
       </c>
       <c r="Z12">
-        <v>0.00315604962416698</v>
+        <v>0.003288110004626504</v>
       </c>
       <c r="AA12">
-        <v>0.002996187058347556</v>
+        <v>0.003121296892467105</v>
       </c>
       <c r="AB12">
-        <v>0.002836324492528132</v>
+        <v>0.002954483780307706</v>
       </c>
       <c r="AC12">
-        <v>0.002676461926708708</v>
+        <v>0.002787670668148307</v>
       </c>
       <c r="AD12">
-        <v>0.002516599360889284</v>
+        <v>0.002620857555988908</v>
       </c>
       <c r="AE12">
-        <v>0.00235673679506986</v>
+        <v>0.002454044443829509</v>
       </c>
       <c r="AF12">
-        <v>0.002196874229250436</v>
+        <v>0.00228723133167011</v>
       </c>
       <c r="AG12">
-        <v>0.002037011663431012</v>
+        <v>0.002120418219510711</v>
       </c>
       <c r="AH12">
-        <v>0.001877149097611588</v>
+        <v>0.001953605107351312</v>
       </c>
       <c r="AI12">
-        <v>0.001717286531792163</v>
+        <v>0.001786791995191913</v>
       </c>
       <c r="AJ12">
-        <v>0.00155742396597274</v>
+        <v>0.001619978883032514</v>
       </c>
       <c r="AK12">
-        <v>0.001397561400153316</v>
+        <v>0.001453165770873115</v>
       </c>
       <c r="AL12">
-        <v>0.001237698834333891</v>
+        <v>0.001286352658713716</v>
       </c>
       <c r="AM12">
-        <v>0.001077836268514467</v>
+        <v>0.001119539546554317</v>
       </c>
       <c r="AN12">
-        <v>0.0009179737026950434</v>
+        <v>0.0009527264343949179</v>
       </c>
       <c r="AO12">
-        <v>0.000758111136875619</v>
+        <v>0.000785913322235519</v>
       </c>
       <c r="AP12">
-        <v>0.0005982485710561952</v>
+        <v>0.0006191002100761202</v>
       </c>
       <c r="AQ12">
-        <v>0.0004383860052367712</v>
+        <v>0.0004522870979167212</v>
       </c>
       <c r="AR12">
-        <v>0.0002785234394173469</v>
+        <v>0.0002854739857573219</v>
       </c>
       <c r="AS12">
         <v>0.000118660873597923</v>
@@ -26907,73 +26907,73 @@
         <v>0.669756439427955</v>
       </c>
       <c r="V13">
-        <v>0.6426871166677419</v>
+        <v>0.669756439427955</v>
       </c>
       <c r="W13">
-        <v>0.6156177939075287</v>
+        <v>0.6415101895912109</v>
       </c>
       <c r="X13">
-        <v>0.5885484711473155</v>
+        <v>0.6132639397544667</v>
       </c>
       <c r="Y13">
-        <v>0.5614791483871023</v>
+        <v>0.5850176899177224</v>
       </c>
       <c r="Z13">
-        <v>0.5344098256268891</v>
+        <v>0.5567714400809782</v>
       </c>
       <c r="AA13">
-        <v>0.507340502866676</v>
+        <v>0.5285251902442342</v>
       </c>
       <c r="AB13">
-        <v>0.4802711801064627</v>
+        <v>0.5002789404074899</v>
       </c>
       <c r="AC13">
-        <v>0.4532018573462496</v>
+        <v>0.4720326905707457</v>
       </c>
       <c r="AD13">
-        <v>0.4261325345860364</v>
+        <v>0.4437864407340015</v>
       </c>
       <c r="AE13">
-        <v>0.3990632118258232</v>
+        <v>0.4155401908972574</v>
       </c>
       <c r="AF13">
-        <v>0.3719938890656101</v>
+        <v>0.3872939410605132</v>
       </c>
       <c r="AG13">
-        <v>0.3449245663053969</v>
+        <v>0.3590476912237689</v>
       </c>
       <c r="AH13">
-        <v>0.3178552435451837</v>
+        <v>0.3308014413870248</v>
       </c>
       <c r="AI13">
-        <v>0.2907859207849705</v>
+        <v>0.3025551915502806</v>
       </c>
       <c r="AJ13">
-        <v>0.2637165980247573</v>
+        <v>0.2743089417135363</v>
       </c>
       <c r="AK13">
-        <v>0.2366472752645442</v>
+        <v>0.2460626918767922</v>
       </c>
       <c r="AL13">
-        <v>0.2095779525043309</v>
+        <v>0.217816442040048</v>
       </c>
       <c r="AM13">
-        <v>0.1825086297441177</v>
+        <v>0.1895701922033038</v>
       </c>
       <c r="AN13">
-        <v>0.1554393069839046</v>
+        <v>0.1613239423665596</v>
       </c>
       <c r="AO13">
-        <v>0.1283699842236914</v>
+        <v>0.1330776925298154</v>
       </c>
       <c r="AP13">
-        <v>0.1013006614634782</v>
+        <v>0.1048314426930712</v>
       </c>
       <c r="AQ13">
-        <v>0.07423133870326504</v>
+        <v>0.07658519285632706</v>
       </c>
       <c r="AR13">
-        <v>0.04716201594305181</v>
+        <v>0.04833894301958282</v>
       </c>
       <c r="AS13">
         <v>0.02009269318283865</v>
@@ -27032,73 +27032,73 @@
         <v>0.669756439427955</v>
       </c>
       <c r="V14">
-        <v>0.6426871166677419</v>
+        <v>0.669756439427955</v>
       </c>
       <c r="W14">
-        <v>0.6156177939075287</v>
+        <v>0.6415101895912109</v>
       </c>
       <c r="X14">
-        <v>0.5885484711473155</v>
+        <v>0.6132639397544667</v>
       </c>
       <c r="Y14">
-        <v>0.5614791483871023</v>
+        <v>0.5850176899177224</v>
       </c>
       <c r="Z14">
-        <v>0.5344098256268891</v>
+        <v>0.5567714400809782</v>
       </c>
       <c r="AA14">
-        <v>0.507340502866676</v>
+        <v>0.5285251902442342</v>
       </c>
       <c r="AB14">
-        <v>0.4802711801064627</v>
+        <v>0.5002789404074899</v>
       </c>
       <c r="AC14">
-        <v>0.4532018573462496</v>
+        <v>0.4720326905707457</v>
       </c>
       <c r="AD14">
-        <v>0.4261325345860364</v>
+        <v>0.4437864407340015</v>
       </c>
       <c r="AE14">
-        <v>0.3990632118258232</v>
+        <v>0.4155401908972574</v>
       </c>
       <c r="AF14">
-        <v>0.3719938890656101</v>
+        <v>0.3872939410605132</v>
       </c>
       <c r="AG14">
-        <v>0.3449245663053969</v>
+        <v>0.3590476912237689</v>
       </c>
       <c r="AH14">
-        <v>0.3178552435451837</v>
+        <v>0.3308014413870248</v>
       </c>
       <c r="AI14">
-        <v>0.2907859207849705</v>
+        <v>0.3025551915502806</v>
       </c>
       <c r="AJ14">
-        <v>0.2637165980247573</v>
+        <v>0.2743089417135363</v>
       </c>
       <c r="AK14">
-        <v>0.2366472752645442</v>
+        <v>0.2460626918767922</v>
       </c>
       <c r="AL14">
-        <v>0.2095779525043309</v>
+        <v>0.217816442040048</v>
       </c>
       <c r="AM14">
-        <v>0.1825086297441177</v>
+        <v>0.1895701922033038</v>
       </c>
       <c r="AN14">
-        <v>0.1554393069839046</v>
+        <v>0.1613239423665596</v>
       </c>
       <c r="AO14">
-        <v>0.1283699842236914</v>
+        <v>0.1330776925298154</v>
       </c>
       <c r="AP14">
-        <v>0.1013006614634782</v>
+        <v>0.1048314426930712</v>
       </c>
       <c r="AQ14">
-        <v>0.07423133870326504</v>
+        <v>0.07658519285632706</v>
       </c>
       <c r="AR14">
-        <v>0.04716201594305181</v>
+        <v>0.04833894301958282</v>
       </c>
       <c r="AS14">
         <v>0.02009269318283865</v>
@@ -27154,73 +27154,73 @@
         <v>1.10329178550528E-05</v>
       </c>
       <c r="V15">
-        <v>1.058700409174442E-05</v>
+        <v>1.10329178550528E-05</v>
       </c>
       <c r="W15">
-        <v>1.014109032843603E-05</v>
+        <v>1.056761653681796E-05</v>
       </c>
       <c r="X15">
-        <v>9.695176565127647E-06</v>
+        <v>1.010231521858313E-05</v>
       </c>
       <c r="Y15">
-        <v>9.249262801819264E-06</v>
+        <v>9.637013900348294E-06</v>
       </c>
       <c r="Z15">
-        <v>8.80334903851088E-06</v>
+        <v>9.171712582113457E-06</v>
       </c>
       <c r="AA15">
-        <v>8.357435275202497E-06</v>
+        <v>8.706411263878624E-06</v>
       </c>
       <c r="AB15">
-        <v>7.91152151189411E-06</v>
+        <v>8.241109945643787E-06</v>
       </c>
       <c r="AC15">
-        <v>7.465607748585729E-06</v>
+        <v>7.775808627408952E-06</v>
       </c>
       <c r="AD15">
-        <v>7.019693985277344E-06</v>
+        <v>7.310507309174116E-06</v>
       </c>
       <c r="AE15">
-        <v>6.57378022196896E-06</v>
+        <v>6.845205990939281E-06</v>
       </c>
       <c r="AF15">
-        <v>6.127866458660577E-06</v>
+        <v>6.379904672704446E-06</v>
       </c>
       <c r="AG15">
-        <v>5.681952695352192E-06</v>
+        <v>5.91460335446961E-06</v>
       </c>
       <c r="AH15">
-        <v>5.236038932043808E-06</v>
+        <v>5.449302036234774E-06</v>
       </c>
       <c r="AI15">
-        <v>4.790125168735424E-06</v>
+        <v>4.984000717999938E-06</v>
       </c>
       <c r="AJ15">
-        <v>4.34421140542704E-06</v>
+        <v>4.518699399765102E-06</v>
       </c>
       <c r="AK15">
-        <v>3.898297642118657E-06</v>
+        <v>4.053398081530267E-06</v>
       </c>
       <c r="AL15">
-        <v>3.452383878810272E-06</v>
+        <v>3.588096763295433E-06</v>
       </c>
       <c r="AM15">
-        <v>3.006470115501888E-06</v>
+        <v>3.122795445060597E-06</v>
       </c>
       <c r="AN15">
-        <v>2.560556352193504E-06</v>
+        <v>2.657494126825761E-06</v>
       </c>
       <c r="AO15">
-        <v>2.11464258888512E-06</v>
+        <v>2.192192808590926E-06</v>
       </c>
       <c r="AP15">
-        <v>1.668728825576736E-06</v>
+        <v>1.726891490356091E-06</v>
       </c>
       <c r="AQ15">
-        <v>1.222815062268352E-06</v>
+        <v>1.261590172121256E-06</v>
       </c>
       <c r="AR15">
-        <v>7.769012989599676E-07</v>
+        <v>7.962888538864191E-07</v>
       </c>
       <c r="AS15">
         <v>3.30987535651584E-07</v>
@@ -27276,73 +27276,73 @@
         <v>1.10329178550528E-05</v>
       </c>
       <c r="V16">
-        <v>1.058700409174442E-05</v>
+        <v>1.10329178550528E-05</v>
       </c>
       <c r="W16">
-        <v>1.014109032843603E-05</v>
+        <v>1.056761653681796E-05</v>
       </c>
       <c r="X16">
-        <v>9.695176565127647E-06</v>
+        <v>1.010231521858313E-05</v>
       </c>
       <c r="Y16">
-        <v>9.249262801819264E-06</v>
+        <v>9.637013900348294E-06</v>
       </c>
       <c r="Z16">
-        <v>8.80334903851088E-06</v>
+        <v>9.171712582113457E-06</v>
       </c>
       <c r="AA16">
-        <v>8.357435275202497E-06</v>
+        <v>8.706411263878624E-06</v>
       </c>
       <c r="AB16">
-        <v>7.91152151189411E-06</v>
+        <v>8.241109945643787E-06</v>
       </c>
       <c r="AC16">
-        <v>7.465607748585729E-06</v>
+        <v>7.775808627408952E-06</v>
       </c>
       <c r="AD16">
-        <v>7.019693985277344E-06</v>
+        <v>7.310507309174116E-06</v>
       </c>
       <c r="AE16">
-        <v>6.57378022196896E-06</v>
+        <v>6.845205990939281E-06</v>
       </c>
       <c r="AF16">
-        <v>6.127866458660577E-06</v>
+        <v>6.379904672704446E-06</v>
       </c>
       <c r="AG16">
-        <v>5.681952695352192E-06</v>
+        <v>5.91460335446961E-06</v>
       </c>
       <c r="AH16">
-        <v>5.236038932043808E-06</v>
+        <v>5.449302036234774E-06</v>
       </c>
       <c r="AI16">
-        <v>4.790125168735424E-06</v>
+        <v>4.984000717999938E-06</v>
       </c>
       <c r="AJ16">
-        <v>4.34421140542704E-06</v>
+        <v>4.518699399765102E-06</v>
       </c>
       <c r="AK16">
-        <v>3.898297642118657E-06</v>
+        <v>4.053398081530267E-06</v>
       </c>
       <c r="AL16">
-        <v>3.452383878810272E-06</v>
+        <v>3.588096763295433E-06</v>
       </c>
       <c r="AM16">
-        <v>3.006470115501888E-06</v>
+        <v>3.122795445060597E-06</v>
       </c>
       <c r="AN16">
-        <v>2.560556352193504E-06</v>
+        <v>2.657494126825761E-06</v>
       </c>
       <c r="AO16">
-        <v>2.11464258888512E-06</v>
+        <v>2.192192808590926E-06</v>
       </c>
       <c r="AP16">
-        <v>1.668728825576736E-06</v>
+        <v>1.726891490356091E-06</v>
       </c>
       <c r="AQ16">
-        <v>1.222815062268352E-06</v>
+        <v>1.261590172121256E-06</v>
       </c>
       <c r="AR16">
-        <v>7.769012989599676E-07</v>
+        <v>7.962888538864191E-07</v>
       </c>
       <c r="AS16">
         <v>3.30987535651584E-07</v>
@@ -27398,73 +27398,73 @@
         <v>7.433209245774211E-09</v>
       </c>
       <c r="V17">
-        <v>7.13278370542417E-09</v>
+        <v>7.433209245774211E-09</v>
       </c>
       <c r="W17">
-        <v>6.832358165074129E-09</v>
+        <v>7.11972172540895E-09</v>
       </c>
       <c r="X17">
-        <v>6.531932624724088E-09</v>
+        <v>6.806234205043691E-09</v>
       </c>
       <c r="Y17">
-        <v>6.231507084374046E-09</v>
+        <v>6.49274668467843E-09</v>
       </c>
       <c r="Z17">
-        <v>5.931081544024005E-09</v>
+        <v>6.17925916431317E-09</v>
       </c>
       <c r="AA17">
-        <v>5.630656003673965E-09</v>
+        <v>5.86577164394791E-09</v>
       </c>
       <c r="AB17">
-        <v>5.330230463323923E-09</v>
+        <v>5.552284123582649E-09</v>
       </c>
       <c r="AC17">
-        <v>5.029804922973883E-09</v>
+        <v>5.238796603217389E-09</v>
       </c>
       <c r="AD17">
-        <v>4.729379382623842E-09</v>
+        <v>4.925309082852129E-09</v>
       </c>
       <c r="AE17">
-        <v>4.4289538422738E-09</v>
+        <v>4.611821562486869E-09</v>
       </c>
       <c r="AF17">
-        <v>4.12852830192376E-09</v>
+        <v>4.298334042121609E-09</v>
       </c>
       <c r="AG17">
-        <v>3.828102761573718E-09</v>
+        <v>3.984846521756349E-09</v>
       </c>
       <c r="AH17">
-        <v>3.527677221223678E-09</v>
+        <v>3.671359001391088E-09</v>
       </c>
       <c r="AI17">
-        <v>3.227251680873636E-09</v>
+        <v>3.357871481025828E-09</v>
       </c>
       <c r="AJ17">
-        <v>2.926826140523595E-09</v>
+        <v>3.044383960660567E-09</v>
       </c>
       <c r="AK17">
-        <v>2.626400600173555E-09</v>
+        <v>2.730896440295308E-09</v>
       </c>
       <c r="AL17">
-        <v>2.325975059823513E-09</v>
+        <v>2.417408919930048E-09</v>
       </c>
       <c r="AM17">
-        <v>2.025549519473472E-09</v>
+        <v>2.103921399564788E-09</v>
       </c>
       <c r="AN17">
-        <v>1.725123979123432E-09</v>
+        <v>1.790433879199527E-09</v>
       </c>
       <c r="AO17">
-        <v>1.42469843877339E-09</v>
+        <v>1.476946358834267E-09</v>
       </c>
       <c r="AP17">
-        <v>1.124272898423349E-09</v>
+        <v>1.163458838469007E-09</v>
       </c>
       <c r="AQ17">
-        <v>8.238473580733086E-10</v>
+        <v>8.499713181037471E-10</v>
       </c>
       <c r="AR17">
-        <v>5.23421817723267E-10</v>
+        <v>5.364837977384863E-10</v>
       </c>
       <c r="AS17">
         <v>2.229962773732263E-10</v>
@@ -27523,73 +27523,73 @@
         <v>0</v>
       </c>
       <c r="V18">
-        <v>0.03333333333333333</v>
+        <v>0</v>
       </c>
       <c r="W18">
-        <v>0.06666666666666667</v>
+        <v>0.03478260869565217</v>
       </c>
       <c r="X18">
-        <v>0.1</v>
+        <v>0.06956521739130435</v>
       </c>
       <c r="Y18">
-        <v>0.1333333333333333</v>
+        <v>0.1043478260869565</v>
       </c>
       <c r="Z18">
-        <v>0.1666666666666667</v>
+        <v>0.1391304347826087</v>
       </c>
       <c r="AA18">
-        <v>0.2</v>
+        <v>0.1739130434782609</v>
       </c>
       <c r="AB18">
-        <v>0.2333333333333334</v>
+        <v>0.2086956521739131</v>
       </c>
       <c r="AC18">
-        <v>0.2666666666666667</v>
+        <v>0.2434782608695653</v>
       </c>
       <c r="AD18">
-        <v>0.3</v>
+        <v>0.2782608695652174</v>
       </c>
       <c r="AE18">
-        <v>0.3333333333333334</v>
+        <v>0.3130434782608696</v>
       </c>
       <c r="AF18">
-        <v>0.3666666666666667</v>
+        <v>0.3478260869565217</v>
       </c>
       <c r="AG18">
-        <v>0.4</v>
+        <v>0.3826086956521739</v>
       </c>
       <c r="AH18">
-        <v>0.4333333333333333</v>
+        <v>0.4173913043478261</v>
       </c>
       <c r="AI18">
-        <v>0.4666666666666667</v>
+        <v>0.4521739130434783</v>
       </c>
       <c r="AJ18">
-        <v>0.5</v>
+        <v>0.4869565217391305</v>
       </c>
       <c r="AK18">
-        <v>0.5333333333333333</v>
+        <v>0.5217391304347826</v>
       </c>
       <c r="AL18">
-        <v>0.5666666666666668</v>
+        <v>0.5565217391304348</v>
       </c>
       <c r="AM18">
-        <v>0.6000000000000001</v>
+        <v>0.591304347826087</v>
       </c>
       <c r="AN18">
-        <v>0.6333333333333333</v>
+        <v>0.6260869565217392</v>
       </c>
       <c r="AO18">
-        <v>0.6666666666666667</v>
+        <v>0.6608695652173914</v>
       </c>
       <c r="AP18">
-        <v>0.7000000000000001</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="AQ18">
-        <v>0.7333333333333334</v>
+        <v>0.7304347826086957</v>
       </c>
       <c r="AR18">
-        <v>0.7666666666666667</v>
+        <v>0.7652173913043478</v>
       </c>
       <c r="AS18">
         <v>0.8</v>
@@ -27648,73 +27648,73 @@
         <v>0</v>
       </c>
       <c r="V19">
-        <v>0.03333333333333333</v>
+        <v>0</v>
       </c>
       <c r="W19">
-        <v>0.06666666666666667</v>
+        <v>0.03478260869565217</v>
       </c>
       <c r="X19">
-        <v>0.1</v>
+        <v>0.06956521739130435</v>
       </c>
       <c r="Y19">
-        <v>0.1333333333333333</v>
+        <v>0.1043478260869565</v>
       </c>
       <c r="Z19">
-        <v>0.1666666666666667</v>
+        <v>0.1391304347826087</v>
       </c>
       <c r="AA19">
-        <v>0.2</v>
+        <v>0.1739130434782609</v>
       </c>
       <c r="AB19">
-        <v>0.2333333333333334</v>
+        <v>0.2086956521739131</v>
       </c>
       <c r="AC19">
-        <v>0.2666666666666667</v>
+        <v>0.2434782608695653</v>
       </c>
       <c r="AD19">
-        <v>0.3</v>
+        <v>0.2782608695652174</v>
       </c>
       <c r="AE19">
-        <v>0.3333333333333334</v>
+        <v>0.3130434782608696</v>
       </c>
       <c r="AF19">
-        <v>0.3666666666666667</v>
+        <v>0.3478260869565217</v>
       </c>
       <c r="AG19">
-        <v>0.4</v>
+        <v>0.3826086956521739</v>
       </c>
       <c r="AH19">
-        <v>0.4333333333333333</v>
+        <v>0.4173913043478261</v>
       </c>
       <c r="AI19">
-        <v>0.4666666666666667</v>
+        <v>0.4521739130434783</v>
       </c>
       <c r="AJ19">
-        <v>0.5</v>
+        <v>0.4869565217391305</v>
       </c>
       <c r="AK19">
-        <v>0.5333333333333333</v>
+        <v>0.5217391304347826</v>
       </c>
       <c r="AL19">
-        <v>0.5666666666666668</v>
+        <v>0.5565217391304348</v>
       </c>
       <c r="AM19">
-        <v>0.6000000000000001</v>
+        <v>0.591304347826087</v>
       </c>
       <c r="AN19">
-        <v>0.6333333333333333</v>
+        <v>0.6260869565217392</v>
       </c>
       <c r="AO19">
-        <v>0.6666666666666667</v>
+        <v>0.6608695652173914</v>
       </c>
       <c r="AP19">
-        <v>0.7000000000000001</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="AQ19">
-        <v>0.7333333333333334</v>
+        <v>0.7304347826086957</v>
       </c>
       <c r="AR19">
-        <v>0.7666666666666667</v>
+        <v>0.7652173913043478</v>
       </c>
       <c r="AS19">
         <v>0.8</v>
@@ -27773,73 +27773,73 @@
         <v>0</v>
       </c>
       <c r="V20">
-        <v>0.03333333333333333</v>
+        <v>0</v>
       </c>
       <c r="W20">
-        <v>0.06666666666666667</v>
+        <v>0.03478260869565217</v>
       </c>
       <c r="X20">
-        <v>0.1</v>
+        <v>0.06956521739130435</v>
       </c>
       <c r="Y20">
-        <v>0.1333333333333333</v>
+        <v>0.1043478260869565</v>
       </c>
       <c r="Z20">
-        <v>0.1666666666666667</v>
+        <v>0.1391304347826087</v>
       </c>
       <c r="AA20">
-        <v>0.2</v>
+        <v>0.1739130434782609</v>
       </c>
       <c r="AB20">
-        <v>0.2333333333333334</v>
+        <v>0.2086956521739131</v>
       </c>
       <c r="AC20">
-        <v>0.2666666666666667</v>
+        <v>0.2434782608695653</v>
       </c>
       <c r="AD20">
-        <v>0.3</v>
+        <v>0.2782608695652174</v>
       </c>
       <c r="AE20">
-        <v>0.3333333333333334</v>
+        <v>0.3130434782608696</v>
       </c>
       <c r="AF20">
-        <v>0.3666666666666667</v>
+        <v>0.3478260869565217</v>
       </c>
       <c r="AG20">
-        <v>0.4</v>
+        <v>0.3826086956521739</v>
       </c>
       <c r="AH20">
-        <v>0.4333333333333333</v>
+        <v>0.4173913043478261</v>
       </c>
       <c r="AI20">
-        <v>0.4666666666666667</v>
+        <v>0.4521739130434783</v>
       </c>
       <c r="AJ20">
-        <v>0.5</v>
+        <v>0.4869565217391305</v>
       </c>
       <c r="AK20">
-        <v>0.5333333333333333</v>
+        <v>0.5217391304347826</v>
       </c>
       <c r="AL20">
-        <v>0.5666666666666668</v>
+        <v>0.5565217391304348</v>
       </c>
       <c r="AM20">
-        <v>0.6000000000000001</v>
+        <v>0.591304347826087</v>
       </c>
       <c r="AN20">
-        <v>0.6333333333333333</v>
+        <v>0.6260869565217392</v>
       </c>
       <c r="AO20">
-        <v>0.6666666666666667</v>
+        <v>0.6608695652173914</v>
       </c>
       <c r="AP20">
-        <v>0.7000000000000001</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="AQ20">
-        <v>0.7333333333333334</v>
+        <v>0.7304347826086957</v>
       </c>
       <c r="AR20">
-        <v>0.7666666666666667</v>
+        <v>0.7652173913043478</v>
       </c>
       <c r="AS20">
         <v>0.8</v>
@@ -27898,73 +27898,73 @@
         <v>0</v>
       </c>
       <c r="V21">
-        <v>0.03333333333333333</v>
+        <v>0</v>
       </c>
       <c r="W21">
-        <v>0.06666666666666667</v>
+        <v>0.03478260869565217</v>
       </c>
       <c r="X21">
-        <v>0.1</v>
+        <v>0.06956521739130435</v>
       </c>
       <c r="Y21">
-        <v>0.1333333333333333</v>
+        <v>0.1043478260869565</v>
       </c>
       <c r="Z21">
-        <v>0.1666666666666667</v>
+        <v>0.1391304347826087</v>
       </c>
       <c r="AA21">
-        <v>0.2</v>
+        <v>0.1739130434782609</v>
       </c>
       <c r="AB21">
-        <v>0.2333333333333334</v>
+        <v>0.2086956521739131</v>
       </c>
       <c r="AC21">
-        <v>0.2666666666666667</v>
+        <v>0.2434782608695653</v>
       </c>
       <c r="AD21">
-        <v>0.3</v>
+        <v>0.2782608695652174</v>
       </c>
       <c r="AE21">
-        <v>0.3333333333333334</v>
+        <v>0.3130434782608696</v>
       </c>
       <c r="AF21">
-        <v>0.3666666666666667</v>
+        <v>0.3478260869565217</v>
       </c>
       <c r="AG21">
-        <v>0.4</v>
+        <v>0.3826086956521739</v>
       </c>
       <c r="AH21">
-        <v>0.4333333333333333</v>
+        <v>0.4173913043478261</v>
       </c>
       <c r="AI21">
-        <v>0.4666666666666667</v>
+        <v>0.4521739130434783</v>
       </c>
       <c r="AJ21">
-        <v>0.5</v>
+        <v>0.4869565217391305</v>
       </c>
       <c r="AK21">
-        <v>0.5333333333333333</v>
+        <v>0.5217391304347826</v>
       </c>
       <c r="AL21">
-        <v>0.5666666666666668</v>
+        <v>0.5565217391304348</v>
       </c>
       <c r="AM21">
-        <v>0.6000000000000001</v>
+        <v>0.591304347826087</v>
       </c>
       <c r="AN21">
-        <v>0.6333333333333333</v>
+        <v>0.6260869565217392</v>
       </c>
       <c r="AO21">
-        <v>0.6666666666666667</v>
+        <v>0.6608695652173914</v>
       </c>
       <c r="AP21">
-        <v>0.7000000000000001</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="AQ21">
-        <v>0.7333333333333334</v>
+        <v>0.7304347826086957</v>
       </c>
       <c r="AR21">
-        <v>0.7666666666666667</v>
+        <v>0.7652173913043478</v>
       </c>
       <c r="AS21">
         <v>0.8</v>
@@ -28023,7 +28023,7 @@
         <v>0.9</v>
       </c>
       <c r="W22">
-        <v>0.8999999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="X22">
         <v>0.9</v>
@@ -28044,10 +28044,10 @@
         <v>0.9000000000000001</v>
       </c>
       <c r="AD22">
-        <v>0.9</v>
+        <v>0.9000000000000001</v>
       </c>
       <c r="AE22">
-        <v>0.8999999999999999</v>
+        <v>0.9000000000000001</v>
       </c>
       <c r="AF22">
         <v>0.9000000000000001</v>
@@ -28065,10 +28065,10 @@
         <v>0.9</v>
       </c>
       <c r="AK22">
-        <v>0.9</v>
+        <v>0.9000000000000001</v>
       </c>
       <c r="AL22">
-        <v>0.9</v>
+        <v>0.9000000000000001</v>
       </c>
       <c r="AM22">
         <v>0.9</v>
@@ -28077,13 +28077,13 @@
         <v>0.9</v>
       </c>
       <c r="AO22">
+        <v>0.9</v>
+      </c>
+      <c r="AP22">
+        <v>0.9</v>
+      </c>
+      <c r="AQ22">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AP22">
-        <v>0.9</v>
-      </c>
-      <c r="AQ22">
-        <v>0.9</v>
       </c>
       <c r="AR22">
         <v>0.9</v>
@@ -28145,7 +28145,7 @@
         <v>0.9</v>
       </c>
       <c r="W23">
-        <v>0.8999999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="X23">
         <v>0.9</v>
@@ -28166,10 +28166,10 @@
         <v>0.9000000000000001</v>
       </c>
       <c r="AD23">
-        <v>0.9</v>
+        <v>0.9000000000000001</v>
       </c>
       <c r="AE23">
-        <v>0.8999999999999999</v>
+        <v>0.9000000000000001</v>
       </c>
       <c r="AF23">
         <v>0.9000000000000001</v>
@@ -28187,10 +28187,10 @@
         <v>0.9</v>
       </c>
       <c r="AK23">
-        <v>0.9</v>
+        <v>0.9000000000000001</v>
       </c>
       <c r="AL23">
-        <v>0.9</v>
+        <v>0.9000000000000001</v>
       </c>
       <c r="AM23">
         <v>0.9</v>
@@ -28199,13 +28199,13 @@
         <v>0.9</v>
       </c>
       <c r="AO23">
+        <v>0.9</v>
+      </c>
+      <c r="AP23">
+        <v>0.9</v>
+      </c>
+      <c r="AQ23">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AP23">
-        <v>0.9</v>
-      </c>
-      <c r="AQ23">
-        <v>0.9</v>
       </c>
       <c r="AR23">
         <v>0.9</v>
@@ -28267,7 +28267,7 @@
         <v>0.9</v>
       </c>
       <c r="W24">
-        <v>0.8999999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="X24">
         <v>0.9</v>
@@ -28288,10 +28288,10 @@
         <v>0.9000000000000001</v>
       </c>
       <c r="AD24">
-        <v>0.9</v>
+        <v>0.9000000000000001</v>
       </c>
       <c r="AE24">
-        <v>0.8999999999999999</v>
+        <v>0.9000000000000001</v>
       </c>
       <c r="AF24">
         <v>0.9000000000000001</v>
@@ -28309,10 +28309,10 @@
         <v>0.9</v>
       </c>
       <c r="AK24">
-        <v>0.9</v>
+        <v>0.9000000000000001</v>
       </c>
       <c r="AL24">
-        <v>0.9</v>
+        <v>0.9000000000000001</v>
       </c>
       <c r="AM24">
         <v>0.9</v>
@@ -28321,13 +28321,13 @@
         <v>0.9</v>
       </c>
       <c r="AO24">
+        <v>0.9</v>
+      </c>
+      <c r="AP24">
+        <v>0.9</v>
+      </c>
+      <c r="AQ24">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AP24">
-        <v>0.9</v>
-      </c>
-      <c r="AQ24">
-        <v>0.9</v>
       </c>
       <c r="AR24">
         <v>0.9</v>
@@ -28389,7 +28389,7 @@
         <v>0.9</v>
       </c>
       <c r="W25">
-        <v>0.8999999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="X25">
         <v>0.9</v>
@@ -28410,10 +28410,10 @@
         <v>0.9000000000000001</v>
       </c>
       <c r="AD25">
-        <v>0.9</v>
+        <v>0.9000000000000001</v>
       </c>
       <c r="AE25">
-        <v>0.8999999999999999</v>
+        <v>0.9000000000000001</v>
       </c>
       <c r="AF25">
         <v>0.9000000000000001</v>
@@ -28431,10 +28431,10 @@
         <v>0.9</v>
       </c>
       <c r="AK25">
-        <v>0.9</v>
+        <v>0.9000000000000001</v>
       </c>
       <c r="AL25">
-        <v>0.9</v>
+        <v>0.9000000000000001</v>
       </c>
       <c r="AM25">
         <v>0.9</v>
@@ -28443,13 +28443,13 @@
         <v>0.9</v>
       </c>
       <c r="AO25">
+        <v>0.9</v>
+      </c>
+      <c r="AP25">
+        <v>0.9</v>
+      </c>
+      <c r="AQ25">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AP25">
-        <v>0.9</v>
-      </c>
-      <c r="AQ25">
-        <v>0.9</v>
       </c>
       <c r="AR25">
         <v>0.9</v>
@@ -28511,7 +28511,7 @@
         <v>0.9</v>
       </c>
       <c r="W26">
-        <v>0.8999999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="X26">
         <v>0.9</v>
@@ -28532,10 +28532,10 @@
         <v>0.9000000000000001</v>
       </c>
       <c r="AD26">
-        <v>0.9</v>
+        <v>0.9000000000000001</v>
       </c>
       <c r="AE26">
-        <v>0.8999999999999999</v>
+        <v>0.9000000000000001</v>
       </c>
       <c r="AF26">
         <v>0.9000000000000001</v>
@@ -28553,10 +28553,10 @@
         <v>0.9</v>
       </c>
       <c r="AK26">
-        <v>0.9</v>
+        <v>0.9000000000000001</v>
       </c>
       <c r="AL26">
-        <v>0.9</v>
+        <v>0.9000000000000001</v>
       </c>
       <c r="AM26">
         <v>0.9</v>
@@ -28565,13 +28565,13 @@
         <v>0.9</v>
       </c>
       <c r="AO26">
+        <v>0.9</v>
+      </c>
+      <c r="AP26">
+        <v>0.9</v>
+      </c>
+      <c r="AQ26">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AP26">
-        <v>0.9</v>
-      </c>
-      <c r="AQ26">
-        <v>0.9</v>
       </c>
       <c r="AR26">
         <v>0.9</v>
@@ -28633,7 +28633,7 @@
         <v>0.9</v>
       </c>
       <c r="W27">
-        <v>0.8999999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="X27">
         <v>0.9</v>
@@ -28654,10 +28654,10 @@
         <v>0.9000000000000001</v>
       </c>
       <c r="AD27">
-        <v>0.9</v>
+        <v>0.9000000000000001</v>
       </c>
       <c r="AE27">
-        <v>0.8999999999999999</v>
+        <v>0.9000000000000001</v>
       </c>
       <c r="AF27">
         <v>0.9000000000000001</v>
@@ -28675,10 +28675,10 @@
         <v>0.9</v>
       </c>
       <c r="AK27">
-        <v>0.9</v>
+        <v>0.9000000000000001</v>
       </c>
       <c r="AL27">
-        <v>0.9</v>
+        <v>0.9000000000000001</v>
       </c>
       <c r="AM27">
         <v>0.9</v>
@@ -28687,13 +28687,13 @@
         <v>0.9</v>
       </c>
       <c r="AO27">
+        <v>0.9</v>
+      </c>
+      <c r="AP27">
+        <v>0.9</v>
+      </c>
+      <c r="AQ27">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AP27">
-        <v>0.9</v>
-      </c>
-      <c r="AQ27">
-        <v>0.9</v>
       </c>
       <c r="AR27">
         <v>0.9</v>
@@ -28905,73 +28905,73 @@
         <v>1.56211755418937E-09</v>
       </c>
       <c r="V2">
-        <v>1.502887263593023E-09</v>
+        <v>1.56211755418937E-09</v>
       </c>
       <c r="W2">
-        <v>1.443656972996676E-09</v>
+        <v>1.500312033567095E-09</v>
       </c>
       <c r="X2">
-        <v>1.384426682400329E-09</v>
+        <v>1.43850651294482E-09</v>
       </c>
       <c r="Y2">
-        <v>1.325196391803982E-09</v>
+        <v>1.376700992322545E-09</v>
       </c>
       <c r="Z2">
-        <v>1.265966101207635E-09</v>
+        <v>1.31489547170027E-09</v>
       </c>
       <c r="AA2">
-        <v>1.206735810611289E-09</v>
+        <v>1.253089951077995E-09</v>
       </c>
       <c r="AB2">
-        <v>1.147505520014941E-09</v>
+        <v>1.19128443045572E-09</v>
       </c>
       <c r="AC2">
-        <v>1.088275229418595E-09</v>
+        <v>1.129478909833445E-09</v>
       </c>
       <c r="AD2">
-        <v>1.029044938822248E-09</v>
+        <v>1.067673389211169E-09</v>
       </c>
       <c r="AE2">
-        <v>9.698146482259005E-10</v>
+        <v>1.005867868588895E-09</v>
       </c>
       <c r="AF2">
-        <v>9.105843576295539E-10</v>
+        <v>9.440623479666195E-10</v>
       </c>
       <c r="AG2">
-        <v>8.513540670332067E-10</v>
+        <v>8.822568273443444E-10</v>
       </c>
       <c r="AH2">
-        <v>7.921237764368599E-10</v>
+        <v>8.204513067220692E-10</v>
       </c>
       <c r="AI2">
-        <v>7.328934858405128E-10</v>
+        <v>7.586457860997941E-10</v>
       </c>
       <c r="AJ2">
-        <v>6.736631952441659E-10</v>
+        <v>6.96840265477519E-10</v>
       </c>
       <c r="AK2">
-        <v>6.144329046478191E-10</v>
+        <v>6.35034744855244E-10</v>
       </c>
       <c r="AL2">
-        <v>5.55202614051472E-10</v>
+        <v>5.732292242329689E-10</v>
       </c>
       <c r="AM2">
-        <v>4.95972323455125E-10</v>
+        <v>5.114237036106939E-10</v>
       </c>
       <c r="AN2">
-        <v>4.367420328587782E-10</v>
+        <v>4.496181829884187E-10</v>
       </c>
       <c r="AO2">
-        <v>3.775117422624311E-10</v>
+        <v>3.878126623661437E-10</v>
       </c>
       <c r="AP2">
-        <v>3.182814516660842E-10</v>
+        <v>3.260071417438686E-10</v>
       </c>
       <c r="AQ2">
-        <v>2.590511610697373E-10</v>
+        <v>2.642016211215936E-10</v>
       </c>
       <c r="AR2">
-        <v>1.998208704733902E-10</v>
+        <v>2.023961004993184E-10</v>
       </c>
       <c r="AS2">
         <v>1.405905798770433E-10</v>
@@ -29030,73 +29030,73 @@
         <v>0.481732444696644</v>
       </c>
       <c r="V3">
-        <v>0.4636674780205199</v>
+        <v>0.481732444696644</v>
       </c>
       <c r="W3">
-        <v>0.4456025113443957</v>
+        <v>0.4628820446867754</v>
       </c>
       <c r="X3">
-        <v>0.4275375446682715</v>
+        <v>0.4440316446769066</v>
       </c>
       <c r="Y3">
-        <v>0.4094725779921474</v>
+        <v>0.4251812446670379</v>
       </c>
       <c r="Z3">
-        <v>0.3914076113160233</v>
+        <v>0.4063308446571693</v>
       </c>
       <c r="AA3">
-        <v>0.3733426446398991</v>
+        <v>0.3874804446473006</v>
       </c>
       <c r="AB3">
-        <v>0.3552776779637749</v>
+        <v>0.3686300446374319</v>
       </c>
       <c r="AC3">
-        <v>0.3372127112876508</v>
+        <v>0.3497796446275632</v>
       </c>
       <c r="AD3">
-        <v>0.3191477446115267</v>
+        <v>0.3309292446176946</v>
       </c>
       <c r="AE3">
-        <v>0.3010827779354024</v>
+        <v>0.3120788446078259</v>
       </c>
       <c r="AF3">
-        <v>0.2830178112592784</v>
+        <v>0.2932284445979572</v>
       </c>
       <c r="AG3">
-        <v>0.2649528445831542</v>
+        <v>0.2743780445880885</v>
       </c>
       <c r="AH3">
-        <v>0.2468878779070301</v>
+        <v>0.2555276445782199</v>
       </c>
       <c r="AI3">
-        <v>0.2288229112309059</v>
+        <v>0.2366772445683512</v>
       </c>
       <c r="AJ3">
-        <v>0.2107579445547818</v>
+        <v>0.2178268445584825</v>
       </c>
       <c r="AK3">
-        <v>0.1926929778786576</v>
+        <v>0.1989764445486138</v>
       </c>
       <c r="AL3">
-        <v>0.1746280112025334</v>
+        <v>0.1801260445387451</v>
       </c>
       <c r="AM3">
-        <v>0.1565630445264093</v>
+        <v>0.1612756445288765</v>
       </c>
       <c r="AN3">
-        <v>0.1384980778502852</v>
+        <v>0.1424252445190078</v>
       </c>
       <c r="AO3">
-        <v>0.120433111174161</v>
+        <v>0.1235748445091391</v>
       </c>
       <c r="AP3">
-        <v>0.1023681444980369</v>
+        <v>0.1047244444992704</v>
       </c>
       <c r="AQ3">
-        <v>0.08430317782191271</v>
+        <v>0.08587404448940178</v>
       </c>
       <c r="AR3">
-        <v>0.06623821114578854</v>
+        <v>0.06702364447953306</v>
       </c>
       <c r="AS3">
         <v>0.0481732444696644</v>
@@ -29155,73 +29155,73 @@
         <v>0.345496443918732</v>
       </c>
       <c r="V4">
-        <v>0.3325403272717796</v>
+        <v>0.345496443918732</v>
       </c>
       <c r="W4">
-        <v>0.3195842106248271</v>
+        <v>0.3319770178523468</v>
       </c>
       <c r="X4">
-        <v>0.3066280939778747</v>
+        <v>0.3184575917859617</v>
       </c>
       <c r="Y4">
-        <v>0.2936719773309223</v>
+        <v>0.3049381657195765</v>
       </c>
       <c r="Z4">
-        <v>0.2807158606839698</v>
+        <v>0.2914187396531914</v>
       </c>
       <c r="AA4">
-        <v>0.2677597440370173</v>
+        <v>0.2778993135868063</v>
       </c>
       <c r="AB4">
-        <v>0.2548036273900648</v>
+        <v>0.264379887520421</v>
       </c>
       <c r="AC4">
-        <v>0.2418475107431124</v>
+        <v>0.2508604614540358</v>
       </c>
       <c r="AD4">
-        <v>0.22889139409616</v>
+        <v>0.2373410353876507</v>
       </c>
       <c r="AE4">
-        <v>0.2159352774492075</v>
+        <v>0.2238216093212655</v>
       </c>
       <c r="AF4">
-        <v>0.2029791608022551</v>
+        <v>0.2103021832548804</v>
       </c>
       <c r="AG4">
-        <v>0.1900230441553026</v>
+        <v>0.1967827571884952</v>
       </c>
       <c r="AH4">
-        <v>0.1770669275083502</v>
+        <v>0.18326333112211</v>
       </c>
       <c r="AI4">
-        <v>0.1641108108613977</v>
+        <v>0.1697439050557249</v>
       </c>
       <c r="AJ4">
-        <v>0.1511546942144453</v>
+        <v>0.1562244789893397</v>
       </c>
       <c r="AK4">
-        <v>0.1381985775674928</v>
+        <v>0.1427050529229545</v>
       </c>
       <c r="AL4">
-        <v>0.1252424609205404</v>
+        <v>0.1291856268565694</v>
       </c>
       <c r="AM4">
-        <v>0.1122863442735879</v>
+        <v>0.1156662007901842</v>
       </c>
       <c r="AN4">
-        <v>0.09933022762663546</v>
+        <v>0.102146774723799</v>
       </c>
       <c r="AO4">
-        <v>0.08637411097968299</v>
+        <v>0.08862734865741387</v>
       </c>
       <c r="AP4">
-        <v>0.07341799433273055</v>
+        <v>0.07510792259102871</v>
       </c>
       <c r="AQ4">
-        <v>0.06046187768577811</v>
+        <v>0.06158849652464356</v>
       </c>
       <c r="AR4">
-        <v>0.04750576103882564</v>
+        <v>0.04806907045825837</v>
       </c>
       <c r="AS4">
         <v>0.0345496443918732</v>
@@ -29280,73 +29280,73 @@
         <v>0.345496443918732</v>
       </c>
       <c r="V5">
-        <v>0.3325403272717796</v>
+        <v>0.345496443918732</v>
       </c>
       <c r="W5">
-        <v>0.3195842106248271</v>
+        <v>0.3319770178523468</v>
       </c>
       <c r="X5">
-        <v>0.3066280939778747</v>
+        <v>0.3184575917859617</v>
       </c>
       <c r="Y5">
-        <v>0.2936719773309223</v>
+        <v>0.3049381657195765</v>
       </c>
       <c r="Z5">
-        <v>0.2807158606839698</v>
+        <v>0.2914187396531914</v>
       </c>
       <c r="AA5">
-        <v>0.2677597440370173</v>
+        <v>0.2778993135868063</v>
       </c>
       <c r="AB5">
-        <v>0.2548036273900648</v>
+        <v>0.264379887520421</v>
       </c>
       <c r="AC5">
-        <v>0.2418475107431124</v>
+        <v>0.2508604614540358</v>
       </c>
       <c r="AD5">
-        <v>0.22889139409616</v>
+        <v>0.2373410353876507</v>
       </c>
       <c r="AE5">
-        <v>0.2159352774492075</v>
+        <v>0.2238216093212655</v>
       </c>
       <c r="AF5">
-        <v>0.2029791608022551</v>
+        <v>0.2103021832548804</v>
       </c>
       <c r="AG5">
-        <v>0.1900230441553026</v>
+        <v>0.1967827571884952</v>
       </c>
       <c r="AH5">
-        <v>0.1770669275083502</v>
+        <v>0.18326333112211</v>
       </c>
       <c r="AI5">
-        <v>0.1641108108613977</v>
+        <v>0.1697439050557249</v>
       </c>
       <c r="AJ5">
-        <v>0.1511546942144453</v>
+        <v>0.1562244789893397</v>
       </c>
       <c r="AK5">
-        <v>0.1381985775674928</v>
+        <v>0.1427050529229545</v>
       </c>
       <c r="AL5">
-        <v>0.1252424609205404</v>
+        <v>0.1291856268565694</v>
       </c>
       <c r="AM5">
-        <v>0.1122863442735879</v>
+        <v>0.1156662007901842</v>
       </c>
       <c r="AN5">
-        <v>0.09933022762663546</v>
+        <v>0.102146774723799</v>
       </c>
       <c r="AO5">
-        <v>0.08637411097968299</v>
+        <v>0.08862734865741387</v>
       </c>
       <c r="AP5">
-        <v>0.07341799433273055</v>
+        <v>0.07510792259102871</v>
       </c>
       <c r="AQ5">
-        <v>0.06046187768577811</v>
+        <v>0.06158849652464356</v>
       </c>
       <c r="AR5">
-        <v>0.04750576103882564</v>
+        <v>0.04806907045825837</v>
       </c>
       <c r="AS5">
         <v>0.0345496443918732</v>
@@ -29405,73 +29405,73 @@
         <v>2E-06</v>
       </c>
       <c r="V6">
-        <v>1.924166666666667E-06</v>
+        <v>2E-06</v>
       </c>
       <c r="W6">
-        <v>1.848333333333333E-06</v>
+        <v>1.920869565217392E-06</v>
       </c>
       <c r="X6">
-        <v>1.7725E-06</v>
+        <v>1.841739130434783E-06</v>
       </c>
       <c r="Y6">
-        <v>1.696666666666667E-06</v>
+        <v>1.762608695652174E-06</v>
       </c>
       <c r="Z6">
-        <v>1.620833333333333E-06</v>
+        <v>1.683478260869565E-06</v>
       </c>
       <c r="AA6">
-        <v>1.545E-06</v>
+        <v>1.604347826086956E-06</v>
       </c>
       <c r="AB6">
-        <v>1.469166666666666E-06</v>
+        <v>1.525217391304348E-06</v>
       </c>
       <c r="AC6">
-        <v>1.393333333333333E-06</v>
+        <v>1.446086956521739E-06</v>
       </c>
       <c r="AD6">
-        <v>1.3175E-06</v>
+        <v>1.36695652173913E-06</v>
       </c>
       <c r="AE6">
-        <v>1.241666666666666E-06</v>
+        <v>1.287826086956522E-06</v>
       </c>
       <c r="AF6">
-        <v>1.165833333333334E-06</v>
+        <v>1.208695652173913E-06</v>
       </c>
       <c r="AG6">
-        <v>1.09E-06</v>
+        <v>1.129565217391304E-06</v>
       </c>
       <c r="AH6">
-        <v>1.014166666666667E-06</v>
+        <v>1.050434782608696E-06</v>
       </c>
       <c r="AI6">
-        <v>9.383333333333333E-07</v>
+        <v>9.71304347826087E-07</v>
       </c>
       <c r="AJ6">
-        <v>8.625E-07</v>
+        <v>8.921739130434781E-07</v>
       </c>
       <c r="AK6">
-        <v>7.866666666666667E-07</v>
+        <v>8.130434782608695E-07</v>
       </c>
       <c r="AL6">
-        <v>7.108333333333332E-07</v>
+        <v>7.339130434782609E-07</v>
       </c>
       <c r="AM6">
-        <v>6.350000000000001E-07</v>
+        <v>6.547826086956524E-07</v>
       </c>
       <c r="AN6">
-        <v>5.591666666666667E-07</v>
+        <v>5.756521739130434E-07</v>
       </c>
       <c r="AO6">
-        <v>4.833333333333333E-07</v>
+        <v>4.965217391304348E-07</v>
       </c>
       <c r="AP6">
-        <v>4.075E-07</v>
+        <v>4.173913043478262E-07</v>
       </c>
       <c r="AQ6">
-        <v>3.316666666666667E-07</v>
+        <v>3.382608695652175E-07</v>
       </c>
       <c r="AR6">
-        <v>2.558333333333333E-07</v>
+        <v>2.591304347826087E-07</v>
       </c>
       <c r="AS6">
         <v>1.8E-07</v>
@@ -29530,73 +29530,73 @@
         <v>6E-07</v>
       </c>
       <c r="V7">
-        <v>5.7725E-07</v>
+        <v>6E-07</v>
       </c>
       <c r="W7">
-        <v>5.544999999999999E-07</v>
+        <v>5.762608695652174E-07</v>
       </c>
       <c r="X7">
-        <v>5.317499999999999E-07</v>
+        <v>5.525217391304348E-07</v>
       </c>
       <c r="Y7">
-        <v>5.09E-07</v>
+        <v>5.287826086956521E-07</v>
       </c>
       <c r="Z7">
-        <v>4.8625E-07</v>
+        <v>5.050434782608696E-07</v>
       </c>
       <c r="AA7">
-        <v>4.635E-07</v>
+        <v>4.813043478260869E-07</v>
       </c>
       <c r="AB7">
-        <v>4.4075E-07</v>
+        <v>4.575652173913043E-07</v>
       </c>
       <c r="AC7">
-        <v>4.180000000000001E-07</v>
+        <v>4.338260869565217E-07</v>
       </c>
       <c r="AD7">
-        <v>3.9525E-07</v>
+        <v>4.100869565217391E-07</v>
       </c>
       <c r="AE7">
-        <v>3.724999999999999E-07</v>
+        <v>3.863478260869565E-07</v>
       </c>
       <c r="AF7">
-        <v>3.4975E-07</v>
+        <v>3.626086956521739E-07</v>
       </c>
       <c r="AG7">
-        <v>3.27E-07</v>
+        <v>3.388695652173913E-07</v>
       </c>
       <c r="AH7">
-        <v>3.0425E-07</v>
+        <v>3.151304347826087E-07</v>
       </c>
       <c r="AI7">
-        <v>2.815E-07</v>
+        <v>2.913913043478261E-07</v>
       </c>
       <c r="AJ7">
-        <v>2.5875E-07</v>
+        <v>2.676521739130434E-07</v>
       </c>
       <c r="AK7">
-        <v>2.36E-07</v>
+        <v>2.439130434782608E-07</v>
       </c>
       <c r="AL7">
-        <v>2.1325E-07</v>
+        <v>2.201739130434783E-07</v>
       </c>
       <c r="AM7">
-        <v>1.905E-07</v>
+        <v>1.964347826086957E-07</v>
       </c>
       <c r="AN7">
-        <v>1.6775E-07</v>
+        <v>1.72695652173913E-07</v>
       </c>
       <c r="AO7">
-        <v>1.45E-07</v>
+        <v>1.489565217391304E-07</v>
       </c>
       <c r="AP7">
-        <v>1.2225E-07</v>
+        <v>1.252173913043478E-07</v>
       </c>
       <c r="AQ7">
-        <v>9.950000000000002E-08</v>
+        <v>1.014782608695652E-07</v>
       </c>
       <c r="AR7">
-        <v>7.674999999999998E-08</v>
+        <v>7.773913043478259E-08</v>
       </c>
       <c r="AS7">
         <v>5.400000000000001E-08</v>
@@ -29655,73 +29655,73 @@
         <v>4.93891687066857E-09</v>
       </c>
       <c r="V8">
-        <v>4.751649605989054E-09</v>
+        <v>4.93891687066857E-09</v>
       </c>
       <c r="W8">
-        <v>4.564382341309537E-09</v>
+        <v>4.743507551002987E-09</v>
       </c>
       <c r="X8">
-        <v>4.377115076630021E-09</v>
+        <v>4.548098231337405E-09</v>
       </c>
       <c r="Y8">
-        <v>4.189847811950504E-09</v>
+        <v>4.352688911671823E-09</v>
       </c>
       <c r="Z8">
-        <v>4.002580547270988E-09</v>
+        <v>4.15727959200624E-09</v>
       </c>
       <c r="AA8">
-        <v>3.815313282591471E-09</v>
+        <v>3.961870272340658E-09</v>
       </c>
       <c r="AB8">
-        <v>3.628046017911954E-09</v>
+        <v>3.766460952675075E-09</v>
       </c>
       <c r="AC8">
-        <v>3.440778753232438E-09</v>
+        <v>3.571051633009492E-09</v>
       </c>
       <c r="AD8">
-        <v>3.253511488552921E-09</v>
+        <v>3.37564231334391E-09</v>
       </c>
       <c r="AE8">
-        <v>3.066244223873404E-09</v>
+        <v>3.180232993678328E-09</v>
       </c>
       <c r="AF8">
-        <v>2.878976959193888E-09</v>
+        <v>2.984823674012745E-09</v>
       </c>
       <c r="AG8">
-        <v>2.691709694514371E-09</v>
+        <v>2.789414354347162E-09</v>
       </c>
       <c r="AH8">
-        <v>2.504442429834854E-09</v>
+        <v>2.594005034681579E-09</v>
       </c>
       <c r="AI8">
-        <v>2.317175165155337E-09</v>
+        <v>2.398595715015997E-09</v>
       </c>
       <c r="AJ8">
-        <v>2.129907900475821E-09</v>
+        <v>2.203186395350414E-09</v>
       </c>
       <c r="AK8">
-        <v>1.942640635796305E-09</v>
+        <v>2.007777075684832E-09</v>
       </c>
       <c r="AL8">
-        <v>1.755373371116788E-09</v>
+        <v>1.81236775601925E-09</v>
       </c>
       <c r="AM8">
-        <v>1.568106106437271E-09</v>
+        <v>1.616958436353667E-09</v>
       </c>
       <c r="AN8">
-        <v>1.380838841757755E-09</v>
+        <v>1.421549116688084E-09</v>
       </c>
       <c r="AO8">
-        <v>1.193571577078238E-09</v>
+        <v>1.226139797022502E-09</v>
       </c>
       <c r="AP8">
-        <v>1.006304312398721E-09</v>
+        <v>1.030730477356919E-09</v>
       </c>
       <c r="AQ8">
-        <v>8.190370477192048E-10</v>
+        <v>8.353211576913368E-10</v>
       </c>
       <c r="AR8">
-        <v>6.317697830396878E-10</v>
+        <v>6.399118380257538E-10</v>
       </c>
       <c r="AS8">
         <v>4.445025183601714E-10</v>
@@ -29780,73 +29780,73 @@
         <v>0.278921245357285</v>
       </c>
       <c r="V9">
-        <v>0.2684616986563869</v>
+        <v>0.278921245357285</v>
       </c>
       <c r="W9">
-        <v>0.2580021519554886</v>
+        <v>0.2680069357563478</v>
       </c>
       <c r="X9">
-        <v>0.2475426052545904</v>
+        <v>0.2570926261554105</v>
       </c>
       <c r="Y9">
-        <v>0.2370830585536923</v>
+        <v>0.2461783165544733</v>
       </c>
       <c r="Z9">
-        <v>0.2266235118527941</v>
+        <v>0.2352640069535361</v>
       </c>
       <c r="AA9">
-        <v>0.2161639651518959</v>
+        <v>0.2243496973525988</v>
       </c>
       <c r="AB9">
-        <v>0.2057044184509977</v>
+        <v>0.2134353877516616</v>
       </c>
       <c r="AC9">
-        <v>0.1952448717500996</v>
+        <v>0.2025210781507243</v>
       </c>
       <c r="AD9">
-        <v>0.1847853250492013</v>
+        <v>0.1916067685497871</v>
       </c>
       <c r="AE9">
-        <v>0.1743257783483031</v>
+        <v>0.1806924589488499</v>
       </c>
       <c r="AF9">
-        <v>0.163866231647405</v>
+        <v>0.1697781493479126</v>
       </c>
       <c r="AG9">
-        <v>0.1534066849465067</v>
+        <v>0.1588638397469754</v>
       </c>
       <c r="AH9">
-        <v>0.1429471382456086</v>
+        <v>0.1479495301460381</v>
       </c>
       <c r="AI9">
-        <v>0.1324875915447104</v>
+        <v>0.1370352205451009</v>
       </c>
       <c r="AJ9">
-        <v>0.1220280448438122</v>
+        <v>0.1261209109441637</v>
       </c>
       <c r="AK9">
-        <v>0.111568498142914</v>
+        <v>0.1152066013432264</v>
       </c>
       <c r="AL9">
-        <v>0.1011089514420158</v>
+        <v>0.1042922917422892</v>
       </c>
       <c r="AM9">
-        <v>0.09064940474111763</v>
+        <v>0.09337798214135196</v>
       </c>
       <c r="AN9">
-        <v>0.08018985804021946</v>
+        <v>0.0824636725404147</v>
       </c>
       <c r="AO9">
-        <v>0.06973031133932125</v>
+        <v>0.07154936293947746</v>
       </c>
       <c r="AP9">
-        <v>0.05927076463842307</v>
+        <v>0.06063505333854023</v>
       </c>
       <c r="AQ9">
-        <v>0.04881121793752489</v>
+        <v>0.04972074373760299</v>
       </c>
       <c r="AR9">
-        <v>0.03835167123662668</v>
+        <v>0.03880643413666574</v>
       </c>
       <c r="AS9">
         <v>0.0278921245357285</v>
@@ -29905,73 +29905,73 @@
         <v>0.0001077143454008</v>
       </c>
       <c r="V10">
-        <v>0.00010367505744827</v>
+        <v>0.0001077143454008</v>
       </c>
       <c r="W10">
-        <v>9.963576949573999E-05</v>
+        <v>0.0001034994362329426</v>
       </c>
       <c r="X10">
-        <v>9.559648154320999E-05</v>
+        <v>9.928452706508521E-05</v>
       </c>
       <c r="Y10">
-        <v>9.155719359068E-05</v>
+        <v>9.506961789722782E-05</v>
       </c>
       <c r="Z10">
-        <v>8.751790563815E-05</v>
+        <v>9.085470872937043E-05</v>
       </c>
       <c r="AA10">
-        <v>8.347861768561999E-05</v>
+        <v>8.663979956151304E-05</v>
       </c>
       <c r="AB10">
-        <v>7.943932973308999E-05</v>
+        <v>8.242489039365564E-05</v>
       </c>
       <c r="AC10">
-        <v>7.540004178056001E-05</v>
+        <v>7.820998122579825E-05</v>
       </c>
       <c r="AD10">
-        <v>7.136075382803001E-05</v>
+        <v>7.399507205794087E-05</v>
       </c>
       <c r="AE10">
-        <v>6.732146587549999E-05</v>
+        <v>6.978016289008349E-05</v>
       </c>
       <c r="AF10">
-        <v>6.328217792297001E-05</v>
+        <v>6.556525372222609E-05</v>
       </c>
       <c r="AG10">
-        <v>5.924288997043999E-05</v>
+        <v>6.135034455436869E-05</v>
       </c>
       <c r="AH10">
-        <v>5.520360201791E-05</v>
+        <v>5.713543538651131E-05</v>
       </c>
       <c r="AI10">
-        <v>5.116431406537999E-05</v>
+        <v>5.292052621865392E-05</v>
       </c>
       <c r="AJ10">
-        <v>4.712502611285E-05</v>
+        <v>4.870561705079651E-05</v>
       </c>
       <c r="AK10">
-        <v>4.308573816032E-05</v>
+        <v>4.449070788293913E-05</v>
       </c>
       <c r="AL10">
-        <v>3.904645020779E-05</v>
+        <v>4.027579871508174E-05</v>
       </c>
       <c r="AM10">
-        <v>3.500716225526E-05</v>
+        <v>3.606088954722435E-05</v>
       </c>
       <c r="AN10">
-        <v>3.096787430273E-05</v>
+        <v>3.184598037936695E-05</v>
       </c>
       <c r="AO10">
-        <v>2.69285863502E-05</v>
+        <v>2.763107121150957E-05</v>
       </c>
       <c r="AP10">
-        <v>2.288929839767E-05</v>
+        <v>2.341616204365218E-05</v>
       </c>
       <c r="AQ10">
-        <v>1.885001044514E-05</v>
+        <v>1.920125287579479E-05</v>
       </c>
       <c r="AR10">
-        <v>1.481072249261E-05</v>
+        <v>1.498634370793739E-05</v>
       </c>
       <c r="AS10">
         <v>1.077143454008E-05</v>
@@ -30027,73 +30027,73 @@
         <v>0.0039553624532641</v>
       </c>
       <c r="V11">
-        <v>0.003807036361266697</v>
+        <v>0.0039553624532641</v>
       </c>
       <c r="W11">
-        <v>0.003658710269269293</v>
+        <v>0.003800587400745071</v>
       </c>
       <c r="X11">
-        <v>0.003510384177271889</v>
+        <v>0.00364581234822604</v>
       </c>
       <c r="Y11">
-        <v>0.003362058085274486</v>
+        <v>0.00349103729570701</v>
       </c>
       <c r="Z11">
-        <v>0.003213731993277081</v>
+        <v>0.00333626224318798</v>
       </c>
       <c r="AA11">
-        <v>0.003065405901279678</v>
+        <v>0.00318148719066895</v>
       </c>
       <c r="AB11">
-        <v>0.002917079809282274</v>
+        <v>0.00302671213814992</v>
       </c>
       <c r="AC11">
-        <v>0.00276875371728487</v>
+        <v>0.00287193708563089</v>
       </c>
       <c r="AD11">
-        <v>0.002620427625287467</v>
+        <v>0.00271716203311186</v>
       </c>
       <c r="AE11">
-        <v>0.002472101533290063</v>
+        <v>0.00256238698059283</v>
       </c>
       <c r="AF11">
-        <v>0.002323775441292659</v>
+        <v>0.002407611928073801</v>
       </c>
       <c r="AG11">
-        <v>0.002175449349295255</v>
+        <v>0.00225283687555477</v>
       </c>
       <c r="AH11">
-        <v>0.002027123257297851</v>
+        <v>0.00209806182303574</v>
       </c>
       <c r="AI11">
-        <v>0.001878797165300448</v>
+        <v>0.00194328677051671</v>
       </c>
       <c r="AJ11">
-        <v>0.001730471073303044</v>
+        <v>0.00178851171799768</v>
       </c>
       <c r="AK11">
-        <v>0.00158214498130564</v>
+        <v>0.00163373666547865</v>
       </c>
       <c r="AL11">
-        <v>0.001433818889308236</v>
+        <v>0.00147896161295962</v>
       </c>
       <c r="AM11">
-        <v>0.001285492797310833</v>
+        <v>0.00132418656044059</v>
       </c>
       <c r="AN11">
-        <v>0.001137166705313429</v>
+        <v>0.00116941150792156</v>
       </c>
       <c r="AO11">
-        <v>0.0009888406133160249</v>
+        <v>0.00101463645540253</v>
       </c>
       <c r="AP11">
-        <v>0.0008405145213186214</v>
+        <v>0.0008598614028835002</v>
       </c>
       <c r="AQ11">
-        <v>0.0006921884293212177</v>
+        <v>0.0007050863503644702</v>
       </c>
       <c r="AR11">
-        <v>0.0005438623373238137</v>
+        <v>0.0005503112978454399</v>
       </c>
       <c r="AS11">
         <v>0.0003955362453264101</v>
@@ -30149,73 +30149,73 @@
         <v>0.0039553624532641</v>
       </c>
       <c r="V12">
-        <v>0.003807036361266697</v>
+        <v>0.0039553624532641</v>
       </c>
       <c r="W12">
-        <v>0.003658710269269293</v>
+        <v>0.003800587400745071</v>
       </c>
       <c r="X12">
-        <v>0.003510384177271889</v>
+        <v>0.00364581234822604</v>
       </c>
       <c r="Y12">
-        <v>0.003362058085274486</v>
+        <v>0.00349103729570701</v>
       </c>
       <c r="Z12">
-        <v>0.003213731993277081</v>
+        <v>0.00333626224318798</v>
       </c>
       <c r="AA12">
-        <v>0.003065405901279678</v>
+        <v>0.00318148719066895</v>
       </c>
       <c r="AB12">
-        <v>0.002917079809282274</v>
+        <v>0.00302671213814992</v>
       </c>
       <c r="AC12">
-        <v>0.00276875371728487</v>
+        <v>0.00287193708563089</v>
       </c>
       <c r="AD12">
-        <v>0.002620427625287467</v>
+        <v>0.00271716203311186</v>
       </c>
       <c r="AE12">
-        <v>0.002472101533290063</v>
+        <v>0.00256238698059283</v>
       </c>
       <c r="AF12">
-        <v>0.002323775441292659</v>
+        <v>0.002407611928073801</v>
       </c>
       <c r="AG12">
-        <v>0.002175449349295255</v>
+        <v>0.00225283687555477</v>
       </c>
       <c r="AH12">
-        <v>0.002027123257297851</v>
+        <v>0.00209806182303574</v>
       </c>
       <c r="AI12">
-        <v>0.001878797165300448</v>
+        <v>0.00194328677051671</v>
       </c>
       <c r="AJ12">
-        <v>0.001730471073303044</v>
+        <v>0.00178851171799768</v>
       </c>
       <c r="AK12">
-        <v>0.00158214498130564</v>
+        <v>0.00163373666547865</v>
       </c>
       <c r="AL12">
-        <v>0.001433818889308236</v>
+        <v>0.00147896161295962</v>
       </c>
       <c r="AM12">
-        <v>0.001285492797310833</v>
+        <v>0.00132418656044059</v>
       </c>
       <c r="AN12">
-        <v>0.001137166705313429</v>
+        <v>0.00116941150792156</v>
       </c>
       <c r="AO12">
-        <v>0.0009888406133160249</v>
+        <v>0.00101463645540253</v>
       </c>
       <c r="AP12">
-        <v>0.0008405145213186214</v>
+        <v>0.0008598614028835002</v>
       </c>
       <c r="AQ12">
-        <v>0.0006921884293212177</v>
+        <v>0.0007050863503644702</v>
       </c>
       <c r="AR12">
-        <v>0.0005438623373238137</v>
+        <v>0.0005503112978454399</v>
       </c>
       <c r="AS12">
         <v>0.0003955362453264101</v>
@@ -30274,73 +30274,73 @@
         <v>0.669756439427955</v>
       </c>
       <c r="V13">
-        <v>0.6446405729494068</v>
+        <v>0.669756439427955</v>
       </c>
       <c r="W13">
-        <v>0.6195247064708583</v>
+        <v>0.6435485787546873</v>
       </c>
       <c r="X13">
-        <v>0.5944088399923101</v>
+        <v>0.6173407180814194</v>
       </c>
       <c r="Y13">
-        <v>0.5692929735137618</v>
+        <v>0.5911328574081516</v>
       </c>
       <c r="Z13">
-        <v>0.5441771070352135</v>
+        <v>0.5649249967348838</v>
       </c>
       <c r="AA13">
-        <v>0.5190612405566651</v>
+        <v>0.5387171360616161</v>
       </c>
       <c r="AB13">
-        <v>0.4939453740781168</v>
+        <v>0.5125092753883481</v>
       </c>
       <c r="AC13">
-        <v>0.4688295075995686</v>
+        <v>0.4863014147150804</v>
       </c>
       <c r="AD13">
-        <v>0.4437136411210202</v>
+        <v>0.4600935540418126</v>
       </c>
       <c r="AE13">
-        <v>0.4185977746424719</v>
+        <v>0.4338856933685448</v>
       </c>
       <c r="AF13">
-        <v>0.3934819081639236</v>
+        <v>0.4076778326952771</v>
       </c>
       <c r="AG13">
-        <v>0.3683660416853753</v>
+        <v>0.3814699720220092</v>
       </c>
       <c r="AH13">
-        <v>0.343250175206827</v>
+        <v>0.3552621113487414</v>
       </c>
       <c r="AI13">
-        <v>0.3181343087282786</v>
+        <v>0.3290542506754736</v>
       </c>
       <c r="AJ13">
-        <v>0.2930184422497303</v>
+        <v>0.3028463900022057</v>
       </c>
       <c r="AK13">
-        <v>0.267902575771182</v>
+        <v>0.276638529328938</v>
       </c>
       <c r="AL13">
-        <v>0.2427867092926337</v>
+        <v>0.2504306686556702</v>
       </c>
       <c r="AM13">
-        <v>0.2176708428140854</v>
+        <v>0.2242228079824024</v>
       </c>
       <c r="AN13">
-        <v>0.1925549763355371</v>
+        <v>0.1980149473091345</v>
       </c>
       <c r="AO13">
-        <v>0.1674391098569887</v>
+        <v>0.1718070866358667</v>
       </c>
       <c r="AP13">
-        <v>0.1423232433784404</v>
+        <v>0.1455992259625989</v>
       </c>
       <c r="AQ13">
-        <v>0.1172073768998922</v>
+        <v>0.1193913652893311</v>
       </c>
       <c r="AR13">
-        <v>0.09209151042134379</v>
+        <v>0.0931835046160633</v>
       </c>
       <c r="AS13">
         <v>0.06697564394279551</v>
@@ -30399,73 +30399,73 @@
         <v>0.669756439427955</v>
       </c>
       <c r="V14">
-        <v>0.6446405729494068</v>
+        <v>0.669756439427955</v>
       </c>
       <c r="W14">
-        <v>0.6195247064708583</v>
+        <v>0.6435485787546873</v>
       </c>
       <c r="X14">
-        <v>0.5944088399923101</v>
+        <v>0.6173407180814194</v>
       </c>
       <c r="Y14">
-        <v>0.5692929735137618</v>
+        <v>0.5911328574081516</v>
       </c>
       <c r="Z14">
-        <v>0.5441771070352135</v>
+        <v>0.5649249967348838</v>
       </c>
       <c r="AA14">
-        <v>0.5190612405566651</v>
+        <v>0.5387171360616161</v>
       </c>
       <c r="AB14">
-        <v>0.4939453740781168</v>
+        <v>0.5125092753883481</v>
       </c>
       <c r="AC14">
-        <v>0.4688295075995686</v>
+        <v>0.4863014147150804</v>
       </c>
       <c r="AD14">
-        <v>0.4437136411210202</v>
+        <v>0.4600935540418126</v>
       </c>
       <c r="AE14">
-        <v>0.4185977746424719</v>
+        <v>0.4338856933685448</v>
       </c>
       <c r="AF14">
-        <v>0.3934819081639236</v>
+        <v>0.4076778326952771</v>
       </c>
       <c r="AG14">
-        <v>0.3683660416853753</v>
+        <v>0.3814699720220092</v>
       </c>
       <c r="AH14">
-        <v>0.343250175206827</v>
+        <v>0.3552621113487414</v>
       </c>
       <c r="AI14">
-        <v>0.3181343087282786</v>
+        <v>0.3290542506754736</v>
       </c>
       <c r="AJ14">
-        <v>0.2930184422497303</v>
+        <v>0.3028463900022057</v>
       </c>
       <c r="AK14">
-        <v>0.267902575771182</v>
+        <v>0.276638529328938</v>
       </c>
       <c r="AL14">
-        <v>0.2427867092926337</v>
+        <v>0.2504306686556702</v>
       </c>
       <c r="AM14">
-        <v>0.2176708428140854</v>
+        <v>0.2242228079824024</v>
       </c>
       <c r="AN14">
-        <v>0.1925549763355371</v>
+        <v>0.1980149473091345</v>
       </c>
       <c r="AO14">
-        <v>0.1674391098569887</v>
+        <v>0.1718070866358667</v>
       </c>
       <c r="AP14">
-        <v>0.1423232433784404</v>
+        <v>0.1455992259625989</v>
       </c>
       <c r="AQ14">
-        <v>0.1172073768998922</v>
+        <v>0.1193913652893311</v>
       </c>
       <c r="AR14">
-        <v>0.09209151042134379</v>
+        <v>0.0931835046160633</v>
       </c>
       <c r="AS14">
         <v>0.06697564394279551</v>
@@ -30521,73 +30521,73 @@
         <v>1.10329178550528E-05</v>
       </c>
       <c r="V15">
-        <v>1.061918343548832E-05</v>
+        <v>1.10329178550528E-05</v>
       </c>
       <c r="W15">
-        <v>1.020544901592384E-05</v>
+        <v>1.060119498246378E-05</v>
       </c>
       <c r="X15">
-        <v>9.79171459635936E-06</v>
+        <v>1.016947210987476E-05</v>
       </c>
       <c r="Y15">
-        <v>9.377980176794881E-06</v>
+        <v>9.737749237285732E-06</v>
       </c>
       <c r="Z15">
-        <v>8.9642457572304E-06</v>
+        <v>9.306026364696708E-06</v>
       </c>
       <c r="AA15">
-        <v>8.550511337665921E-06</v>
+        <v>8.874303492107688E-06</v>
       </c>
       <c r="AB15">
-        <v>8.13677691810144E-06</v>
+        <v>8.442580619518664E-06</v>
       </c>
       <c r="AC15">
-        <v>7.723042498536961E-06</v>
+        <v>8.010857746929642E-06</v>
       </c>
       <c r="AD15">
-        <v>7.30930807897248E-06</v>
+        <v>7.579134874340619E-06</v>
       </c>
       <c r="AE15">
-        <v>6.895573659408E-06</v>
+        <v>7.147412001751597E-06</v>
       </c>
       <c r="AF15">
-        <v>6.481839239843521E-06</v>
+        <v>6.715689129162574E-06</v>
       </c>
       <c r="AG15">
-        <v>6.06810482027904E-06</v>
+        <v>6.283966256573551E-06</v>
       </c>
       <c r="AH15">
-        <v>5.65437040071456E-06</v>
+        <v>5.852243383984528E-06</v>
       </c>
       <c r="AI15">
-        <v>5.240635981150079E-06</v>
+        <v>5.420520511395506E-06</v>
       </c>
       <c r="AJ15">
-        <v>4.8269015615856E-06</v>
+        <v>4.988797638806483E-06</v>
       </c>
       <c r="AK15">
-        <v>4.41316714202112E-06</v>
+        <v>4.557074766217461E-06</v>
       </c>
       <c r="AL15">
-        <v>3.99943272245664E-06</v>
+        <v>4.125351893628439E-06</v>
       </c>
       <c r="AM15">
-        <v>3.58569830289216E-06</v>
+        <v>3.693629021039416E-06</v>
       </c>
       <c r="AN15">
-        <v>3.17196388332768E-06</v>
+        <v>3.261906148450393E-06</v>
       </c>
       <c r="AO15">
-        <v>2.7582294637632E-06</v>
+        <v>2.83018327586137E-06</v>
       </c>
       <c r="AP15">
-        <v>2.34449504419872E-06</v>
+        <v>2.398460403272348E-06</v>
       </c>
       <c r="AQ15">
-        <v>1.93076062463424E-06</v>
+        <v>1.966737530683326E-06</v>
       </c>
       <c r="AR15">
-        <v>1.51702620506976E-06</v>
+        <v>1.535014658094302E-06</v>
       </c>
       <c r="AS15">
         <v>1.10329178550528E-06</v>
@@ -30643,73 +30643,73 @@
         <v>1.10329178550528E-05</v>
       </c>
       <c r="V16">
-        <v>1.061918343548832E-05</v>
+        <v>1.10329178550528E-05</v>
       </c>
       <c r="W16">
-        <v>1.020544901592384E-05</v>
+        <v>1.060119498246378E-05</v>
       </c>
       <c r="X16">
-        <v>9.79171459635936E-06</v>
+        <v>1.016947210987476E-05</v>
       </c>
       <c r="Y16">
-        <v>9.377980176794881E-06</v>
+        <v>9.737749237285732E-06</v>
       </c>
       <c r="Z16">
-        <v>8.9642457572304E-06</v>
+        <v>9.306026364696708E-06</v>
       </c>
       <c r="AA16">
-        <v>8.550511337665921E-06</v>
+        <v>8.874303492107688E-06</v>
       </c>
       <c r="AB16">
-        <v>8.13677691810144E-06</v>
+        <v>8.442580619518664E-06</v>
       </c>
       <c r="AC16">
-        <v>7.723042498536961E-06</v>
+        <v>8.010857746929642E-06</v>
       </c>
       <c r="AD16">
-        <v>7.30930807897248E-06</v>
+        <v>7.579134874340619E-06</v>
       </c>
       <c r="AE16">
-        <v>6.895573659408E-06</v>
+        <v>7.147412001751597E-06</v>
       </c>
       <c r="AF16">
-        <v>6.481839239843521E-06</v>
+        <v>6.715689129162574E-06</v>
       </c>
       <c r="AG16">
-        <v>6.06810482027904E-06</v>
+        <v>6.283966256573551E-06</v>
       </c>
       <c r="AH16">
-        <v>5.65437040071456E-06</v>
+        <v>5.852243383984528E-06</v>
       </c>
       <c r="AI16">
-        <v>5.240635981150079E-06</v>
+        <v>5.420520511395506E-06</v>
       </c>
       <c r="AJ16">
-        <v>4.8269015615856E-06</v>
+        <v>4.988797638806483E-06</v>
       </c>
       <c r="AK16">
-        <v>4.41316714202112E-06</v>
+        <v>4.557074766217461E-06</v>
       </c>
       <c r="AL16">
-        <v>3.99943272245664E-06</v>
+        <v>4.125351893628439E-06</v>
       </c>
       <c r="AM16">
-        <v>3.58569830289216E-06</v>
+        <v>3.693629021039416E-06</v>
       </c>
       <c r="AN16">
-        <v>3.17196388332768E-06</v>
+        <v>3.261906148450393E-06</v>
       </c>
       <c r="AO16">
-        <v>2.7582294637632E-06</v>
+        <v>2.83018327586137E-06</v>
       </c>
       <c r="AP16">
-        <v>2.34449504419872E-06</v>
+        <v>2.398460403272348E-06</v>
       </c>
       <c r="AQ16">
-        <v>1.93076062463424E-06</v>
+        <v>1.966737530683326E-06</v>
       </c>
       <c r="AR16">
-        <v>1.51702620506976E-06</v>
+        <v>1.535014658094302E-06</v>
       </c>
       <c r="AS16">
         <v>1.10329178550528E-06</v>
@@ -30765,73 +30765,73 @@
         <v>7.433209245774211E-09</v>
       </c>
       <c r="V17">
-        <v>7.154463899057678E-09</v>
+        <v>7.433209245774211E-09</v>
       </c>
       <c r="W17">
-        <v>6.875718552341145E-09</v>
+        <v>7.142344536156959E-09</v>
       </c>
       <c r="X17">
-        <v>6.596973205624612E-09</v>
+        <v>6.851479826539707E-09</v>
       </c>
       <c r="Y17">
-        <v>6.318227858908079E-09</v>
+        <v>6.560615116922455E-09</v>
       </c>
       <c r="Z17">
-        <v>6.039482512191546E-09</v>
+        <v>6.269750407305204E-09</v>
       </c>
       <c r="AA17">
-        <v>5.760737165475013E-09</v>
+        <v>5.978885697687952E-09</v>
       </c>
       <c r="AB17">
-        <v>5.48199181875848E-09</v>
+        <v>5.6880209880707E-09</v>
       </c>
       <c r="AC17">
-        <v>5.203246472041948E-09</v>
+        <v>5.397156278453449E-09</v>
       </c>
       <c r="AD17">
-        <v>4.924501125325414E-09</v>
+        <v>5.106291568836197E-09</v>
       </c>
       <c r="AE17">
-        <v>4.645755778608882E-09</v>
+        <v>4.815426859218945E-09</v>
       </c>
       <c r="AF17">
-        <v>4.367010431892349E-09</v>
+        <v>4.524562149601694E-09</v>
       </c>
       <c r="AG17">
-        <v>4.088265085175816E-09</v>
+        <v>4.233697439984442E-09</v>
       </c>
       <c r="AH17">
-        <v>3.809519738459283E-09</v>
+        <v>3.94283273036719E-09</v>
       </c>
       <c r="AI17">
-        <v>3.53077439174275E-09</v>
+        <v>3.651968020749939E-09</v>
       </c>
       <c r="AJ17">
-        <v>3.252029045026217E-09</v>
+        <v>3.361103311132686E-09</v>
       </c>
       <c r="AK17">
-        <v>2.973283698309684E-09</v>
+        <v>3.070238601515435E-09</v>
       </c>
       <c r="AL17">
-        <v>2.694538351593151E-09</v>
+        <v>2.779373891898183E-09</v>
       </c>
       <c r="AM17">
-        <v>2.415793004876619E-09</v>
+        <v>2.488509182280932E-09</v>
       </c>
       <c r="AN17">
-        <v>2.137047658160086E-09</v>
+        <v>2.197644472663679E-09</v>
       </c>
       <c r="AO17">
-        <v>1.858302311443552E-09</v>
+        <v>1.906779763046428E-09</v>
       </c>
       <c r="AP17">
-        <v>1.57955696472702E-09</v>
+        <v>1.615915053429177E-09</v>
       </c>
       <c r="AQ17">
-        <v>1.300811618010487E-09</v>
+        <v>1.325050343811925E-09</v>
       </c>
       <c r="AR17">
-        <v>1.022066271293954E-09</v>
+        <v>1.034185634194673E-09</v>
       </c>
       <c r="AS17">
         <v>7.433209245774211E-10</v>
@@ -30890,73 +30890,73 @@
         <v>1</v>
       </c>
       <c r="V18">
-        <v>0.9620833333333334</v>
+        <v>1</v>
       </c>
       <c r="W18">
-        <v>0.9241666666666666</v>
+        <v>0.9604347826086956</v>
       </c>
       <c r="X18">
-        <v>0.88625</v>
+        <v>0.9208695652173914</v>
       </c>
       <c r="Y18">
-        <v>0.8483333333333334</v>
+        <v>0.8813043478260869</v>
       </c>
       <c r="Z18">
-        <v>0.8104166666666667</v>
+        <v>0.8417391304347827</v>
       </c>
       <c r="AA18">
-        <v>0.7725</v>
+        <v>0.8021739130434783</v>
       </c>
       <c r="AB18">
-        <v>0.7345833333333333</v>
+        <v>0.7626086956521738</v>
       </c>
       <c r="AC18">
-        <v>0.6966666666666668</v>
+        <v>0.7230434782608696</v>
       </c>
       <c r="AD18">
-        <v>0.6587499999999999</v>
+        <v>0.6834782608695652</v>
       </c>
       <c r="AE18">
-        <v>0.6208333333333332</v>
+        <v>0.6439130434782609</v>
       </c>
       <c r="AF18">
-        <v>0.5829166666666667</v>
+        <v>0.6043478260869566</v>
       </c>
       <c r="AG18">
-        <v>0.545</v>
+        <v>0.5647826086956522</v>
       </c>
       <c r="AH18">
-        <v>0.5070833333333333</v>
+        <v>0.5252173913043479</v>
       </c>
       <c r="AI18">
-        <v>0.4691666666666666</v>
+        <v>0.4856521739130435</v>
       </c>
       <c r="AJ18">
-        <v>0.43125</v>
+        <v>0.4460869565217391</v>
       </c>
       <c r="AK18">
-        <v>0.3933333333333334</v>
+        <v>0.4065217391304348</v>
       </c>
       <c r="AL18">
-        <v>0.3554166666666667</v>
+        <v>0.3669565217391305</v>
       </c>
       <c r="AM18">
-        <v>0.3175</v>
+        <v>0.3273913043478262</v>
       </c>
       <c r="AN18">
-        <v>0.2795833333333334</v>
+        <v>0.2878260869565217</v>
       </c>
       <c r="AO18">
-        <v>0.2416666666666666</v>
+        <v>0.2482608695652174</v>
       </c>
       <c r="AP18">
-        <v>0.20375</v>
+        <v>0.2086956521739131</v>
       </c>
       <c r="AQ18">
-        <v>0.1658333333333334</v>
+        <v>0.1691304347826088</v>
       </c>
       <c r="AR18">
-        <v>0.1279166666666666</v>
+        <v>0.1295652173913043</v>
       </c>
       <c r="AS18">
         <v>0.09000000000000001</v>
@@ -31015,73 +31015,73 @@
         <v>0.03741</v>
       </c>
       <c r="V19">
-        <v>0.0359915375</v>
+        <v>0.03741</v>
       </c>
       <c r="W19">
-        <v>0.03457307499999999</v>
+        <v>0.0359298652173913</v>
       </c>
       <c r="X19">
-        <v>0.0331546125</v>
+        <v>0.03444973043478261</v>
       </c>
       <c r="Y19">
-        <v>0.03173615</v>
+        <v>0.03296959565217392</v>
       </c>
       <c r="Z19">
-        <v>0.0303176875</v>
+        <v>0.03148946086956522</v>
       </c>
       <c r="AA19">
-        <v>0.028899225</v>
+        <v>0.03000932608695652</v>
       </c>
       <c r="AB19">
-        <v>0.0274807625</v>
+        <v>0.02852919130434782</v>
       </c>
       <c r="AC19">
-        <v>0.0260623</v>
+        <v>0.02704905652173913</v>
       </c>
       <c r="AD19">
-        <v>0.0246438375</v>
+        <v>0.02556892173913044</v>
       </c>
       <c r="AE19">
-        <v>0.023225375</v>
+        <v>0.02408878695652174</v>
       </c>
       <c r="AF19">
-        <v>0.0218069125</v>
+        <v>0.02260865217391304</v>
       </c>
       <c r="AG19">
-        <v>0.02038845</v>
+        <v>0.02112851739130435</v>
       </c>
       <c r="AH19">
-        <v>0.0189699875</v>
+        <v>0.01964838260869565</v>
       </c>
       <c r="AI19">
-        <v>0.017551525</v>
+        <v>0.01816824782608696</v>
       </c>
       <c r="AJ19">
-        <v>0.0161330625</v>
+        <v>0.01668811304347826</v>
       </c>
       <c r="AK19">
-        <v>0.0147146</v>
+        <v>0.01520797826086957</v>
       </c>
       <c r="AL19">
-        <v>0.0132961375</v>
+        <v>0.01372784347826087</v>
       </c>
       <c r="AM19">
-        <v>0.011877675</v>
+        <v>0.01224770869565218</v>
       </c>
       <c r="AN19">
-        <v>0.0104592125</v>
+        <v>0.01076757391304348</v>
       </c>
       <c r="AO19">
-        <v>0.009040749999999998</v>
+        <v>0.009287439130434783</v>
       </c>
       <c r="AP19">
-        <v>0.0076222875</v>
+        <v>0.007807304347826088</v>
       </c>
       <c r="AQ19">
-        <v>0.006203825000000001</v>
+        <v>0.006327169565217393</v>
       </c>
       <c r="AR19">
-        <v>0.004785362499999999</v>
+        <v>0.004847034782608695</v>
       </c>
       <c r="AS19">
         <v>0.0033669</v>
@@ -31140,73 +31140,73 @@
         <v>0.0007</v>
       </c>
       <c r="V20">
-        <v>0.0006734583333333334</v>
+        <v>0.0007</v>
       </c>
       <c r="W20">
-        <v>0.0006469166666666667</v>
+        <v>0.000672304347826087</v>
       </c>
       <c r="X20">
-        <v>0.0006203749999999999</v>
+        <v>0.000644608695652174</v>
       </c>
       <c r="Y20">
-        <v>0.0005938333333333334</v>
+        <v>0.0006169130434782608</v>
       </c>
       <c r="Z20">
-        <v>0.0005672916666666667</v>
+        <v>0.0005892173913043478</v>
       </c>
       <c r="AA20">
-        <v>0.00054075</v>
+        <v>0.0005615217391304349</v>
       </c>
       <c r="AB20">
-        <v>0.0005142083333333333</v>
+        <v>0.0005338260869565218</v>
       </c>
       <c r="AC20">
-        <v>0.0004876666666666667</v>
+        <v>0.0005061304347826086</v>
       </c>
       <c r="AD20">
-        <v>0.000461125</v>
+        <v>0.0004784347826086956</v>
       </c>
       <c r="AE20">
-        <v>0.0004345833333333333</v>
+        <v>0.0004507391304347826</v>
       </c>
       <c r="AF20">
-        <v>0.0004080416666666667</v>
+        <v>0.0004230434782608696</v>
       </c>
       <c r="AG20">
-        <v>0.0003815</v>
+        <v>0.0003953478260869565</v>
       </c>
       <c r="AH20">
-        <v>0.0003549583333333333</v>
+        <v>0.0003676521739130435</v>
       </c>
       <c r="AI20">
-        <v>0.0003284166666666666</v>
+        <v>0.0003399565217391305</v>
       </c>
       <c r="AJ20">
-        <v>0.000301875</v>
+        <v>0.0003122608695652174</v>
       </c>
       <c r="AK20">
-        <v>0.0002753333333333334</v>
+        <v>0.0002845652173913044</v>
       </c>
       <c r="AL20">
-        <v>0.0002487916666666667</v>
+        <v>0.0002568695652173913</v>
       </c>
       <c r="AM20">
-        <v>0.00022225</v>
+        <v>0.0002291739130434783</v>
       </c>
       <c r="AN20">
-        <v>0.0001957083333333334</v>
+        <v>0.0002014782608695652</v>
       </c>
       <c r="AO20">
-        <v>0.0001691666666666666</v>
+        <v>0.0001737826086956522</v>
       </c>
       <c r="AP20">
-        <v>0.000142625</v>
+        <v>0.0001460869565217392</v>
       </c>
       <c r="AQ20">
-        <v>0.0001160833333333334</v>
+        <v>0.0001183913043478261</v>
       </c>
       <c r="AR20">
-        <v>8.954166666666666E-05</v>
+        <v>9.069565217391304E-05</v>
       </c>
       <c r="AS20">
         <v>6.300000000000001E-05</v>
@@ -31265,73 +31265,73 @@
         <v>0.72</v>
       </c>
       <c r="V21">
-        <v>0.7004166666666666</v>
+        <v>0.72</v>
       </c>
       <c r="W21">
-        <v>0.6808333333333333</v>
+        <v>0.6995652173913044</v>
       </c>
       <c r="X21">
-        <v>0.66125</v>
+        <v>0.6791304347826087</v>
       </c>
       <c r="Y21">
-        <v>0.6416666666666666</v>
+        <v>0.658695652173913</v>
       </c>
       <c r="Z21">
-        <v>0.6220833333333333</v>
+        <v>0.6382608695652173</v>
       </c>
       <c r="AA21">
-        <v>0.6025</v>
+        <v>0.6178260869565217</v>
       </c>
       <c r="AB21">
-        <v>0.5829166666666665</v>
+        <v>0.5973913043478259</v>
       </c>
       <c r="AC21">
-        <v>0.5633333333333334</v>
+        <v>0.5769565217391304</v>
       </c>
       <c r="AD21">
-        <v>0.54375</v>
+        <v>0.5565217391304348</v>
       </c>
       <c r="AE21">
-        <v>0.5241666666666666</v>
+        <v>0.5360869565217392</v>
       </c>
       <c r="AF21">
-        <v>0.5045833333333334</v>
+        <v>0.5156521739130435</v>
       </c>
       <c r="AG21">
-        <v>0.485</v>
+        <v>0.4952173913043478</v>
       </c>
       <c r="AH21">
-        <v>0.4654166666666667</v>
+        <v>0.4747826086956521</v>
       </c>
       <c r="AI21">
-        <v>0.4458333333333333</v>
+        <v>0.4543478260869566</v>
       </c>
       <c r="AJ21">
-        <v>0.42625</v>
+        <v>0.4339130434782608</v>
       </c>
       <c r="AK21">
-        <v>0.4066666666666667</v>
+        <v>0.4134782608695652</v>
       </c>
       <c r="AL21">
-        <v>0.3870833333333333</v>
+        <v>0.3930434782608696</v>
       </c>
       <c r="AM21">
-        <v>0.3675</v>
+        <v>0.3726086956521739</v>
       </c>
       <c r="AN21">
-        <v>0.3479166666666667</v>
+        <v>0.3521739130434782</v>
       </c>
       <c r="AO21">
-        <v>0.3283333333333333</v>
+        <v>0.3317391304347826</v>
       </c>
       <c r="AP21">
-        <v>0.30875</v>
+        <v>0.311304347826087</v>
       </c>
       <c r="AQ21">
-        <v>0.2891666666666667</v>
+        <v>0.2908695652173913</v>
       </c>
       <c r="AR21">
-        <v>0.2695833333333333</v>
+        <v>0.2704347826086956</v>
       </c>
       <c r="AS21">
         <v>0.25</v>
@@ -31390,73 +31390,73 @@
         <v>0</v>
       </c>
       <c r="V22">
-        <v>0.03333333333333333</v>
+        <v>0</v>
       </c>
       <c r="W22">
-        <v>0.06666666666666667</v>
+        <v>0.03478260869565217</v>
       </c>
       <c r="X22">
-        <v>0.1</v>
+        <v>0.06956521739130435</v>
       </c>
       <c r="Y22">
-        <v>0.1333333333333333</v>
+        <v>0.1043478260869565</v>
       </c>
       <c r="Z22">
-        <v>0.1666666666666667</v>
+        <v>0.1391304347826087</v>
       </c>
       <c r="AA22">
-        <v>0.2</v>
+        <v>0.1739130434782609</v>
       </c>
       <c r="AB22">
-        <v>0.2333333333333334</v>
+        <v>0.2086956521739131</v>
       </c>
       <c r="AC22">
-        <v>0.2666666666666667</v>
+        <v>0.2434782608695653</v>
       </c>
       <c r="AD22">
-        <v>0.3</v>
+        <v>0.2782608695652174</v>
       </c>
       <c r="AE22">
-        <v>0.3333333333333334</v>
+        <v>0.3130434782608696</v>
       </c>
       <c r="AF22">
-        <v>0.3666666666666667</v>
+        <v>0.3478260869565217</v>
       </c>
       <c r="AG22">
-        <v>0.4</v>
+        <v>0.3826086956521739</v>
       </c>
       <c r="AH22">
-        <v>0.4333333333333333</v>
+        <v>0.4173913043478261</v>
       </c>
       <c r="AI22">
-        <v>0.4666666666666667</v>
+        <v>0.4521739130434783</v>
       </c>
       <c r="AJ22">
-        <v>0.5</v>
+        <v>0.4869565217391305</v>
       </c>
       <c r="AK22">
-        <v>0.5333333333333333</v>
+        <v>0.5217391304347826</v>
       </c>
       <c r="AL22">
-        <v>0.5666666666666668</v>
+        <v>0.5565217391304348</v>
       </c>
       <c r="AM22">
-        <v>0.6000000000000001</v>
+        <v>0.591304347826087</v>
       </c>
       <c r="AN22">
-        <v>0.6333333333333333</v>
+        <v>0.6260869565217392</v>
       </c>
       <c r="AO22">
-        <v>0.6666666666666667</v>
+        <v>0.6608695652173914</v>
       </c>
       <c r="AP22">
-        <v>0.7000000000000001</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="AQ22">
-        <v>0.7333333333333334</v>
+        <v>0.7304347826086957</v>
       </c>
       <c r="AR22">
-        <v>0.7666666666666667</v>
+        <v>0.7652173913043478</v>
       </c>
       <c r="AS22">
         <v>0.8</v>
@@ -31515,73 +31515,73 @@
         <v>0</v>
       </c>
       <c r="V23">
-        <v>0.03333333333333333</v>
+        <v>0</v>
       </c>
       <c r="W23">
-        <v>0.06666666666666667</v>
+        <v>0.03478260869565217</v>
       </c>
       <c r="X23">
-        <v>0.1</v>
+        <v>0.06956521739130435</v>
       </c>
       <c r="Y23">
-        <v>0.1333333333333333</v>
+        <v>0.1043478260869565</v>
       </c>
       <c r="Z23">
-        <v>0.1666666666666667</v>
+        <v>0.1391304347826087</v>
       </c>
       <c r="AA23">
-        <v>0.2</v>
+        <v>0.1739130434782609</v>
       </c>
       <c r="AB23">
-        <v>0.2333333333333334</v>
+        <v>0.2086956521739131</v>
       </c>
       <c r="AC23">
-        <v>0.2666666666666667</v>
+        <v>0.2434782608695653</v>
       </c>
       <c r="AD23">
-        <v>0.3</v>
+        <v>0.2782608695652174</v>
       </c>
       <c r="AE23">
-        <v>0.3333333333333334</v>
+        <v>0.3130434782608696</v>
       </c>
       <c r="AF23">
-        <v>0.3666666666666667</v>
+        <v>0.3478260869565217</v>
       </c>
       <c r="AG23">
-        <v>0.4</v>
+        <v>0.3826086956521739</v>
       </c>
       <c r="AH23">
-        <v>0.4333333333333333</v>
+        <v>0.4173913043478261</v>
       </c>
       <c r="AI23">
-        <v>0.4666666666666667</v>
+        <v>0.4521739130434783</v>
       </c>
       <c r="AJ23">
-        <v>0.5</v>
+        <v>0.4869565217391305</v>
       </c>
       <c r="AK23">
-        <v>0.5333333333333333</v>
+        <v>0.5217391304347826</v>
       </c>
       <c r="AL23">
-        <v>0.5666666666666668</v>
+        <v>0.5565217391304348</v>
       </c>
       <c r="AM23">
-        <v>0.6000000000000001</v>
+        <v>0.591304347826087</v>
       </c>
       <c r="AN23">
-        <v>0.6333333333333333</v>
+        <v>0.6260869565217392</v>
       </c>
       <c r="AO23">
-        <v>0.6666666666666667</v>
+        <v>0.6608695652173914</v>
       </c>
       <c r="AP23">
-        <v>0.7000000000000001</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="AQ23">
-        <v>0.7333333333333334</v>
+        <v>0.7304347826086957</v>
       </c>
       <c r="AR23">
-        <v>0.7666666666666667</v>
+        <v>0.7652173913043478</v>
       </c>
       <c r="AS23">
         <v>0.8</v>
@@ -31640,73 +31640,73 @@
         <v>0</v>
       </c>
       <c r="V24">
-        <v>0.03333333333333333</v>
+        <v>0</v>
       </c>
       <c r="W24">
-        <v>0.06666666666666667</v>
+        <v>0.03478260869565217</v>
       </c>
       <c r="X24">
-        <v>0.1</v>
+        <v>0.06956521739130435</v>
       </c>
       <c r="Y24">
-        <v>0.1333333333333333</v>
+        <v>0.1043478260869565</v>
       </c>
       <c r="Z24">
-        <v>0.1666666666666667</v>
+        <v>0.1391304347826087</v>
       </c>
       <c r="AA24">
-        <v>0.2</v>
+        <v>0.1739130434782609</v>
       </c>
       <c r="AB24">
-        <v>0.2333333333333334</v>
+        <v>0.2086956521739131</v>
       </c>
       <c r="AC24">
-        <v>0.2666666666666667</v>
+        <v>0.2434782608695653</v>
       </c>
       <c r="AD24">
-        <v>0.3</v>
+        <v>0.2782608695652174</v>
       </c>
       <c r="AE24">
-        <v>0.3333333333333334</v>
+        <v>0.3130434782608696</v>
       </c>
       <c r="AF24">
-        <v>0.3666666666666667</v>
+        <v>0.3478260869565217</v>
       </c>
       <c r="AG24">
-        <v>0.4</v>
+        <v>0.3826086956521739</v>
       </c>
       <c r="AH24">
-        <v>0.4333333333333333</v>
+        <v>0.4173913043478261</v>
       </c>
       <c r="AI24">
-        <v>0.4666666666666667</v>
+        <v>0.4521739130434783</v>
       </c>
       <c r="AJ24">
-        <v>0.5</v>
+        <v>0.4869565217391305</v>
       </c>
       <c r="AK24">
-        <v>0.5333333333333333</v>
+        <v>0.5217391304347826</v>
       </c>
       <c r="AL24">
-        <v>0.5666666666666668</v>
+        <v>0.5565217391304348</v>
       </c>
       <c r="AM24">
-        <v>0.6000000000000001</v>
+        <v>0.591304347826087</v>
       </c>
       <c r="AN24">
-        <v>0.6333333333333333</v>
+        <v>0.6260869565217392</v>
       </c>
       <c r="AO24">
-        <v>0.6666666666666667</v>
+        <v>0.6608695652173914</v>
       </c>
       <c r="AP24">
-        <v>0.7000000000000001</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="AQ24">
-        <v>0.7333333333333334</v>
+        <v>0.7304347826086957</v>
       </c>
       <c r="AR24">
-        <v>0.7666666666666667</v>
+        <v>0.7652173913043478</v>
       </c>
       <c r="AS24">
         <v>0.8</v>
@@ -31765,73 +31765,73 @@
         <v>0</v>
       </c>
       <c r="V25">
-        <v>0.03333333333333333</v>
+        <v>0</v>
       </c>
       <c r="W25">
-        <v>0.06666666666666667</v>
+        <v>0.03478260869565217</v>
       </c>
       <c r="X25">
-        <v>0.1</v>
+        <v>0.06956521739130435</v>
       </c>
       <c r="Y25">
-        <v>0.1333333333333333</v>
+        <v>0.1043478260869565</v>
       </c>
       <c r="Z25">
-        <v>0.1666666666666667</v>
+        <v>0.1391304347826087</v>
       </c>
       <c r="AA25">
-        <v>0.2</v>
+        <v>0.1739130434782609</v>
       </c>
       <c r="AB25">
-        <v>0.2333333333333334</v>
+        <v>0.2086956521739131</v>
       </c>
       <c r="AC25">
-        <v>0.2666666666666667</v>
+        <v>0.2434782608695653</v>
       </c>
       <c r="AD25">
-        <v>0.3</v>
+        <v>0.2782608695652174</v>
       </c>
       <c r="AE25">
-        <v>0.3333333333333334</v>
+        <v>0.3130434782608696</v>
       </c>
       <c r="AF25">
-        <v>0.3666666666666667</v>
+        <v>0.3478260869565217</v>
       </c>
       <c r="AG25">
-        <v>0.4</v>
+        <v>0.3826086956521739</v>
       </c>
       <c r="AH25">
-        <v>0.4333333333333333</v>
+        <v>0.4173913043478261</v>
       </c>
       <c r="AI25">
-        <v>0.4666666666666667</v>
+        <v>0.4521739130434783</v>
       </c>
       <c r="AJ25">
-        <v>0.5</v>
+        <v>0.4869565217391305</v>
       </c>
       <c r="AK25">
-        <v>0.5333333333333333</v>
+        <v>0.5217391304347826</v>
       </c>
       <c r="AL25">
-        <v>0.5666666666666668</v>
+        <v>0.5565217391304348</v>
       </c>
       <c r="AM25">
-        <v>0.6000000000000001</v>
+        <v>0.591304347826087</v>
       </c>
       <c r="AN25">
-        <v>0.6333333333333333</v>
+        <v>0.6260869565217392</v>
       </c>
       <c r="AO25">
-        <v>0.6666666666666667</v>
+        <v>0.6608695652173914</v>
       </c>
       <c r="AP25">
-        <v>0.7000000000000001</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="AQ25">
-        <v>0.7333333333333334</v>
+        <v>0.7304347826086957</v>
       </c>
       <c r="AR25">
-        <v>0.7666666666666667</v>
+        <v>0.7652173913043478</v>
       </c>
       <c r="AS25">
         <v>0.8</v>
@@ -31890,7 +31890,7 @@
         <v>0.9</v>
       </c>
       <c r="W26">
-        <v>0.8999999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="X26">
         <v>0.9</v>
@@ -31911,10 +31911,10 @@
         <v>0.9000000000000001</v>
       </c>
       <c r="AD26">
-        <v>0.9</v>
+        <v>0.9000000000000001</v>
       </c>
       <c r="AE26">
-        <v>0.8999999999999999</v>
+        <v>0.9000000000000001</v>
       </c>
       <c r="AF26">
         <v>0.9000000000000001</v>
@@ -31932,10 +31932,10 @@
         <v>0.9</v>
       </c>
       <c r="AK26">
-        <v>0.9</v>
+        <v>0.9000000000000001</v>
       </c>
       <c r="AL26">
-        <v>0.9</v>
+        <v>0.9000000000000001</v>
       </c>
       <c r="AM26">
         <v>0.9</v>
@@ -31944,13 +31944,13 @@
         <v>0.9</v>
       </c>
       <c r="AO26">
+        <v>0.9</v>
+      </c>
+      <c r="AP26">
+        <v>0.9</v>
+      </c>
+      <c r="AQ26">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AP26">
-        <v>0.9</v>
-      </c>
-      <c r="AQ26">
-        <v>0.9</v>
       </c>
       <c r="AR26">
         <v>0.9</v>
@@ -32012,7 +32012,7 @@
         <v>0.9</v>
       </c>
       <c r="W27">
-        <v>0.8999999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="X27">
         <v>0.9</v>
@@ -32033,10 +32033,10 @@
         <v>0.9000000000000001</v>
       </c>
       <c r="AD27">
-        <v>0.9</v>
+        <v>0.9000000000000001</v>
       </c>
       <c r="AE27">
-        <v>0.8999999999999999</v>
+        <v>0.9000000000000001</v>
       </c>
       <c r="AF27">
         <v>0.9000000000000001</v>
@@ -32054,10 +32054,10 @@
         <v>0.9</v>
       </c>
       <c r="AK27">
-        <v>0.9</v>
+        <v>0.9000000000000001</v>
       </c>
       <c r="AL27">
-        <v>0.9</v>
+        <v>0.9000000000000001</v>
       </c>
       <c r="AM27">
         <v>0.9</v>
@@ -32066,13 +32066,13 @@
         <v>0.9</v>
       </c>
       <c r="AO27">
+        <v>0.9</v>
+      </c>
+      <c r="AP27">
+        <v>0.9</v>
+      </c>
+      <c r="AQ27">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AP27">
-        <v>0.9</v>
-      </c>
-      <c r="AQ27">
-        <v>0.9</v>
       </c>
       <c r="AR27">
         <v>0.9</v>
@@ -32134,7 +32134,7 @@
         <v>0.9</v>
       </c>
       <c r="W28">
-        <v>0.8999999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="X28">
         <v>0.9</v>
@@ -32155,10 +32155,10 @@
         <v>0.9000000000000001</v>
       </c>
       <c r="AD28">
-        <v>0.9</v>
+        <v>0.9000000000000001</v>
       </c>
       <c r="AE28">
-        <v>0.8999999999999999</v>
+        <v>0.9000000000000001</v>
       </c>
       <c r="AF28">
         <v>0.9000000000000001</v>
@@ -32176,10 +32176,10 @@
         <v>0.9</v>
       </c>
       <c r="AK28">
-        <v>0.9</v>
+        <v>0.9000000000000001</v>
       </c>
       <c r="AL28">
-        <v>0.9</v>
+        <v>0.9000000000000001</v>
       </c>
       <c r="AM28">
         <v>0.9</v>
@@ -32188,13 +32188,13 @@
         <v>0.9</v>
       </c>
       <c r="AO28">
+        <v>0.9</v>
+      </c>
+      <c r="AP28">
+        <v>0.9</v>
+      </c>
+      <c r="AQ28">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AP28">
-        <v>0.9</v>
-      </c>
-      <c r="AQ28">
-        <v>0.9</v>
       </c>
       <c r="AR28">
         <v>0.9</v>
@@ -32256,7 +32256,7 @@
         <v>0.9</v>
       </c>
       <c r="W29">
-        <v>0.8999999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="X29">
         <v>0.9</v>
@@ -32277,10 +32277,10 @@
         <v>0.9000000000000001</v>
       </c>
       <c r="AD29">
-        <v>0.9</v>
+        <v>0.9000000000000001</v>
       </c>
       <c r="AE29">
-        <v>0.8999999999999999</v>
+        <v>0.9000000000000001</v>
       </c>
       <c r="AF29">
         <v>0.9000000000000001</v>
@@ -32298,10 +32298,10 @@
         <v>0.9</v>
       </c>
       <c r="AK29">
-        <v>0.9</v>
+        <v>0.9000000000000001</v>
       </c>
       <c r="AL29">
-        <v>0.9</v>
+        <v>0.9000000000000001</v>
       </c>
       <c r="AM29">
         <v>0.9</v>
@@ -32310,13 +32310,13 @@
         <v>0.9</v>
       </c>
       <c r="AO29">
+        <v>0.9</v>
+      </c>
+      <c r="AP29">
+        <v>0.9</v>
+      </c>
+      <c r="AQ29">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AP29">
-        <v>0.9</v>
-      </c>
-      <c r="AQ29">
-        <v>0.9</v>
       </c>
       <c r="AR29">
         <v>0.9</v>
@@ -32378,7 +32378,7 @@
         <v>0.9</v>
       </c>
       <c r="W30">
-        <v>0.8999999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="X30">
         <v>0.9</v>
@@ -32399,10 +32399,10 @@
         <v>0.9000000000000001</v>
       </c>
       <c r="AD30">
-        <v>0.9</v>
+        <v>0.9000000000000001</v>
       </c>
       <c r="AE30">
-        <v>0.8999999999999999</v>
+        <v>0.9000000000000001</v>
       </c>
       <c r="AF30">
         <v>0.9000000000000001</v>
@@ -32420,10 +32420,10 @@
         <v>0.9</v>
       </c>
       <c r="AK30">
-        <v>0.9</v>
+        <v>0.9000000000000001</v>
       </c>
       <c r="AL30">
-        <v>0.9</v>
+        <v>0.9000000000000001</v>
       </c>
       <c r="AM30">
         <v>0.9</v>
@@ -32432,13 +32432,13 @@
         <v>0.9</v>
       </c>
       <c r="AO30">
+        <v>0.9</v>
+      </c>
+      <c r="AP30">
+        <v>0.9</v>
+      </c>
+      <c r="AQ30">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AP30">
-        <v>0.9</v>
-      </c>
-      <c r="AQ30">
-        <v>0.9</v>
       </c>
       <c r="AR30">
         <v>0.9</v>
@@ -32500,7 +32500,7 @@
         <v>0.9</v>
       </c>
       <c r="W31">
-        <v>0.8999999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="X31">
         <v>0.9</v>
@@ -32521,10 +32521,10 @@
         <v>0.9000000000000001</v>
       </c>
       <c r="AD31">
-        <v>0.9</v>
+        <v>0.9000000000000001</v>
       </c>
       <c r="AE31">
-        <v>0.8999999999999999</v>
+        <v>0.9000000000000001</v>
       </c>
       <c r="AF31">
         <v>0.9000000000000001</v>
@@ -32542,10 +32542,10 @@
         <v>0.9</v>
       </c>
       <c r="AK31">
-        <v>0.9</v>
+        <v>0.9000000000000001</v>
       </c>
       <c r="AL31">
-        <v>0.9</v>
+        <v>0.9000000000000001</v>
       </c>
       <c r="AM31">
         <v>0.9</v>
@@ -32554,13 +32554,13 @@
         <v>0.9</v>
       </c>
       <c r="AO31">
+        <v>0.9</v>
+      </c>
+      <c r="AP31">
+        <v>0.9</v>
+      </c>
+      <c r="AQ31">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AP31">
-        <v>0.9</v>
-      </c>
-      <c r="AQ31">
-        <v>0.9</v>
       </c>
       <c r="AR31">
         <v>0.9</v>

--- a/croatia/transformations/templates/calibrated/croatia/model_input_variables_croatia_ip_calibrated.xlsx
+++ b/croatia/transformations/templates/calibrated/croatia/model_input_variables_croatia_ip_calibrated.xlsx
@@ -8,16 +8,13 @@
   </bookViews>
   <sheets>
     <sheet name="strategy_id-0" sheetId="1" r:id="rId1"/>
-    <sheet name="strategy_id-6006" sheetId="2" r:id="rId2"/>
-    <sheet name="strategy_id-6007" sheetId="3" r:id="rId3"/>
-    <sheet name="strategy_id-6008" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="196">
   <si>
     <t>subsector</t>
   </si>
@@ -23956,8620 +23953,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AS11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:45">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1">
-        <v>0</v>
-      </c>
-      <c r="K1" s="1">
-        <v>1</v>
-      </c>
-      <c r="L1" s="1">
-        <v>2</v>
-      </c>
-      <c r="M1" s="1">
-        <v>3</v>
-      </c>
-      <c r="N1" s="1">
-        <v>4</v>
-      </c>
-      <c r="O1" s="1">
-        <v>5</v>
-      </c>
-      <c r="P1" s="1">
-        <v>6</v>
-      </c>
-      <c r="Q1" s="1">
-        <v>7</v>
-      </c>
-      <c r="R1" s="1">
-        <v>8</v>
-      </c>
-      <c r="S1" s="1">
-        <v>9</v>
-      </c>
-      <c r="T1" s="1">
-        <v>10</v>
-      </c>
-      <c r="U1" s="1">
-        <v>11</v>
-      </c>
-      <c r="V1" s="1">
-        <v>12</v>
-      </c>
-      <c r="W1" s="1">
-        <v>13</v>
-      </c>
-      <c r="X1" s="1">
-        <v>14</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>15</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>16</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>17</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>18</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>19</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>20</v>
-      </c>
-      <c r="AE1" s="1">
-        <v>21</v>
-      </c>
-      <c r="AF1" s="1">
-        <v>22</v>
-      </c>
-      <c r="AG1" s="1">
-        <v>23</v>
-      </c>
-      <c r="AH1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AI1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AJ1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AK1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AL1" s="1">
-        <v>28</v>
-      </c>
-      <c r="AM1" s="1">
-        <v>29</v>
-      </c>
-      <c r="AN1" s="1">
-        <v>30</v>
-      </c>
-      <c r="AO1" s="1">
-        <v>31</v>
-      </c>
-      <c r="AP1" s="1">
-        <v>32</v>
-      </c>
-      <c r="AQ1" s="1">
-        <v>33</v>
-      </c>
-      <c r="AR1" s="1">
-        <v>34</v>
-      </c>
-      <c r="AS1" s="1">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:45">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C2">
-        <v>15</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="R2">
-        <v>0</v>
-      </c>
-      <c r="S2">
-        <v>0</v>
-      </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
-      <c r="U2">
-        <v>0</v>
-      </c>
-      <c r="V2">
-        <v>0</v>
-      </c>
-      <c r="W2">
-        <v>0.03478260869565217</v>
-      </c>
-      <c r="X2">
-        <v>0.06956521739130435</v>
-      </c>
-      <c r="Y2">
-        <v>0.1043478260869565</v>
-      </c>
-      <c r="Z2">
-        <v>0.1391304347826087</v>
-      </c>
-      <c r="AA2">
-        <v>0.1739130434782609</v>
-      </c>
-      <c r="AB2">
-        <v>0.2086956521739131</v>
-      </c>
-      <c r="AC2">
-        <v>0.2434782608695653</v>
-      </c>
-      <c r="AD2">
-        <v>0.2782608695652174</v>
-      </c>
-      <c r="AE2">
-        <v>0.3130434782608696</v>
-      </c>
-      <c r="AF2">
-        <v>0.3478260869565217</v>
-      </c>
-      <c r="AG2">
-        <v>0.3826086956521739</v>
-      </c>
-      <c r="AH2">
-        <v>0.4173913043478261</v>
-      </c>
-      <c r="AI2">
-        <v>0.4521739130434783</v>
-      </c>
-      <c r="AJ2">
-        <v>0.4869565217391305</v>
-      </c>
-      <c r="AK2">
-        <v>0.5217391304347826</v>
-      </c>
-      <c r="AL2">
-        <v>0.5565217391304348</v>
-      </c>
-      <c r="AM2">
-        <v>0.591304347826087</v>
-      </c>
-      <c r="AN2">
-        <v>0.6260869565217392</v>
-      </c>
-      <c r="AO2">
-        <v>0.6608695652173914</v>
-      </c>
-      <c r="AP2">
-        <v>0.6956521739130435</v>
-      </c>
-      <c r="AQ2">
-        <v>0.7304347826086957</v>
-      </c>
-      <c r="AR2">
-        <v>0.7652173913043478</v>
-      </c>
-      <c r="AS2">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:45">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s">
-        <v>124</v>
-      </c>
-      <c r="C3">
-        <v>15</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
-      <c r="S3">
-        <v>0</v>
-      </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
-      <c r="U3">
-        <v>0</v>
-      </c>
-      <c r="V3">
-        <v>0</v>
-      </c>
-      <c r="W3">
-        <v>0.03478260869565217</v>
-      </c>
-      <c r="X3">
-        <v>0.06956521739130435</v>
-      </c>
-      <c r="Y3">
-        <v>0.1043478260869565</v>
-      </c>
-      <c r="Z3">
-        <v>0.1391304347826087</v>
-      </c>
-      <c r="AA3">
-        <v>0.1739130434782609</v>
-      </c>
-      <c r="AB3">
-        <v>0.2086956521739131</v>
-      </c>
-      <c r="AC3">
-        <v>0.2434782608695653</v>
-      </c>
-      <c r="AD3">
-        <v>0.2782608695652174</v>
-      </c>
-      <c r="AE3">
-        <v>0.3130434782608696</v>
-      </c>
-      <c r="AF3">
-        <v>0.3478260869565217</v>
-      </c>
-      <c r="AG3">
-        <v>0.3826086956521739</v>
-      </c>
-      <c r="AH3">
-        <v>0.4173913043478261</v>
-      </c>
-      <c r="AI3">
-        <v>0.4521739130434783</v>
-      </c>
-      <c r="AJ3">
-        <v>0.4869565217391305</v>
-      </c>
-      <c r="AK3">
-        <v>0.5217391304347826</v>
-      </c>
-      <c r="AL3">
-        <v>0.5565217391304348</v>
-      </c>
-      <c r="AM3">
-        <v>0.591304347826087</v>
-      </c>
-      <c r="AN3">
-        <v>0.6260869565217392</v>
-      </c>
-      <c r="AO3">
-        <v>0.6608695652173914</v>
-      </c>
-      <c r="AP3">
-        <v>0.6956521739130435</v>
-      </c>
-      <c r="AQ3">
-        <v>0.7304347826086957</v>
-      </c>
-      <c r="AR3">
-        <v>0.7652173913043478</v>
-      </c>
-      <c r="AS3">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:45">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C4">
-        <v>15</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="R4">
-        <v>0</v>
-      </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
-      <c r="U4">
-        <v>0</v>
-      </c>
-      <c r="V4">
-        <v>0</v>
-      </c>
-      <c r="W4">
-        <v>0.03478260869565217</v>
-      </c>
-      <c r="X4">
-        <v>0.06956521739130435</v>
-      </c>
-      <c r="Y4">
-        <v>0.1043478260869565</v>
-      </c>
-      <c r="Z4">
-        <v>0.1391304347826087</v>
-      </c>
-      <c r="AA4">
-        <v>0.1739130434782609</v>
-      </c>
-      <c r="AB4">
-        <v>0.2086956521739131</v>
-      </c>
-      <c r="AC4">
-        <v>0.2434782608695653</v>
-      </c>
-      <c r="AD4">
-        <v>0.2782608695652174</v>
-      </c>
-      <c r="AE4">
-        <v>0.3130434782608696</v>
-      </c>
-      <c r="AF4">
-        <v>0.3478260869565217</v>
-      </c>
-      <c r="AG4">
-        <v>0.3826086956521739</v>
-      </c>
-      <c r="AH4">
-        <v>0.4173913043478261</v>
-      </c>
-      <c r="AI4">
-        <v>0.4521739130434783</v>
-      </c>
-      <c r="AJ4">
-        <v>0.4869565217391305</v>
-      </c>
-      <c r="AK4">
-        <v>0.5217391304347826</v>
-      </c>
-      <c r="AL4">
-        <v>0.5565217391304348</v>
-      </c>
-      <c r="AM4">
-        <v>0.591304347826087</v>
-      </c>
-      <c r="AN4">
-        <v>0.6260869565217392</v>
-      </c>
-      <c r="AO4">
-        <v>0.6608695652173914</v>
-      </c>
-      <c r="AP4">
-        <v>0.6956521739130435</v>
-      </c>
-      <c r="AQ4">
-        <v>0.7304347826086957</v>
-      </c>
-      <c r="AR4">
-        <v>0.7652173913043478</v>
-      </c>
-      <c r="AS4">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:45">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>128</v>
-      </c>
-      <c r="C5">
-        <v>15</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
-      <c r="T5">
-        <v>0</v>
-      </c>
-      <c r="U5">
-        <v>0</v>
-      </c>
-      <c r="V5">
-        <v>0</v>
-      </c>
-      <c r="W5">
-        <v>0.03478260869565217</v>
-      </c>
-      <c r="X5">
-        <v>0.06956521739130435</v>
-      </c>
-      <c r="Y5">
-        <v>0.1043478260869565</v>
-      </c>
-      <c r="Z5">
-        <v>0.1391304347826087</v>
-      </c>
-      <c r="AA5">
-        <v>0.1739130434782609</v>
-      </c>
-      <c r="AB5">
-        <v>0.2086956521739131</v>
-      </c>
-      <c r="AC5">
-        <v>0.2434782608695653</v>
-      </c>
-      <c r="AD5">
-        <v>0.2782608695652174</v>
-      </c>
-      <c r="AE5">
-        <v>0.3130434782608696</v>
-      </c>
-      <c r="AF5">
-        <v>0.3478260869565217</v>
-      </c>
-      <c r="AG5">
-        <v>0.3826086956521739</v>
-      </c>
-      <c r="AH5">
-        <v>0.4173913043478261</v>
-      </c>
-      <c r="AI5">
-        <v>0.4521739130434783</v>
-      </c>
-      <c r="AJ5">
-        <v>0.4869565217391305</v>
-      </c>
-      <c r="AK5">
-        <v>0.5217391304347826</v>
-      </c>
-      <c r="AL5">
-        <v>0.5565217391304348</v>
-      </c>
-      <c r="AM5">
-        <v>0.591304347826087</v>
-      </c>
-      <c r="AN5">
-        <v>0.6260869565217392</v>
-      </c>
-      <c r="AO5">
-        <v>0.6608695652173914</v>
-      </c>
-      <c r="AP5">
-        <v>0.6956521739130435</v>
-      </c>
-      <c r="AQ5">
-        <v>0.7304347826086957</v>
-      </c>
-      <c r="AR5">
-        <v>0.7652173913043478</v>
-      </c>
-      <c r="AS5">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:45">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s">
-        <v>129</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>0.9</v>
-      </c>
-      <c r="K6">
-        <v>0.9</v>
-      </c>
-      <c r="L6">
-        <v>0.9</v>
-      </c>
-      <c r="M6">
-        <v>0.9</v>
-      </c>
-      <c r="N6">
-        <v>0.9</v>
-      </c>
-      <c r="O6">
-        <v>0.9</v>
-      </c>
-      <c r="P6">
-        <v>0.9</v>
-      </c>
-      <c r="Q6">
-        <v>0.9</v>
-      </c>
-      <c r="R6">
-        <v>0.9</v>
-      </c>
-      <c r="S6">
-        <v>0.9</v>
-      </c>
-      <c r="T6">
-        <v>0.9</v>
-      </c>
-      <c r="U6">
-        <v>0.9</v>
-      </c>
-      <c r="V6">
-        <v>0.9</v>
-      </c>
-      <c r="W6">
-        <v>0.9</v>
-      </c>
-      <c r="X6">
-        <v>0.9</v>
-      </c>
-      <c r="Y6">
-        <v>0.9</v>
-      </c>
-      <c r="Z6">
-        <v>0.9</v>
-      </c>
-      <c r="AA6">
-        <v>0.9</v>
-      </c>
-      <c r="AB6">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AC6">
-        <v>0.9000000000000001</v>
-      </c>
-      <c r="AD6">
-        <v>0.9000000000000001</v>
-      </c>
-      <c r="AE6">
-        <v>0.9000000000000001</v>
-      </c>
-      <c r="AF6">
-        <v>0.9000000000000001</v>
-      </c>
-      <c r="AG6">
-        <v>0.9</v>
-      </c>
-      <c r="AH6">
-        <v>0.9</v>
-      </c>
-      <c r="AI6">
-        <v>0.9</v>
-      </c>
-      <c r="AJ6">
-        <v>0.9</v>
-      </c>
-      <c r="AK6">
-        <v>0.9000000000000001</v>
-      </c>
-      <c r="AL6">
-        <v>0.9000000000000001</v>
-      </c>
-      <c r="AM6">
-        <v>0.9</v>
-      </c>
-      <c r="AN6">
-        <v>0.9</v>
-      </c>
-      <c r="AO6">
-        <v>0.9</v>
-      </c>
-      <c r="AP6">
-        <v>0.9</v>
-      </c>
-      <c r="AQ6">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AR6">
-        <v>0.9</v>
-      </c>
-      <c r="AS6">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:45">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" t="s">
-        <v>130</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7">
-        <v>0.9</v>
-      </c>
-      <c r="K7">
-        <v>0.9</v>
-      </c>
-      <c r="L7">
-        <v>0.9</v>
-      </c>
-      <c r="M7">
-        <v>0.9</v>
-      </c>
-      <c r="N7">
-        <v>0.9</v>
-      </c>
-      <c r="O7">
-        <v>0.9</v>
-      </c>
-      <c r="P7">
-        <v>0.9</v>
-      </c>
-      <c r="Q7">
-        <v>0.9</v>
-      </c>
-      <c r="R7">
-        <v>0.9</v>
-      </c>
-      <c r="S7">
-        <v>0.9</v>
-      </c>
-      <c r="T7">
-        <v>0.9</v>
-      </c>
-      <c r="U7">
-        <v>0.9</v>
-      </c>
-      <c r="V7">
-        <v>0.9</v>
-      </c>
-      <c r="W7">
-        <v>0.9</v>
-      </c>
-      <c r="X7">
-        <v>0.9</v>
-      </c>
-      <c r="Y7">
-        <v>0.9</v>
-      </c>
-      <c r="Z7">
-        <v>0.9</v>
-      </c>
-      <c r="AA7">
-        <v>0.9</v>
-      </c>
-      <c r="AB7">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AC7">
-        <v>0.9000000000000001</v>
-      </c>
-      <c r="AD7">
-        <v>0.9000000000000001</v>
-      </c>
-      <c r="AE7">
-        <v>0.9000000000000001</v>
-      </c>
-      <c r="AF7">
-        <v>0.9000000000000001</v>
-      </c>
-      <c r="AG7">
-        <v>0.9</v>
-      </c>
-      <c r="AH7">
-        <v>0.9</v>
-      </c>
-      <c r="AI7">
-        <v>0.9</v>
-      </c>
-      <c r="AJ7">
-        <v>0.9</v>
-      </c>
-      <c r="AK7">
-        <v>0.9000000000000001</v>
-      </c>
-      <c r="AL7">
-        <v>0.9000000000000001</v>
-      </c>
-      <c r="AM7">
-        <v>0.9</v>
-      </c>
-      <c r="AN7">
-        <v>0.9</v>
-      </c>
-      <c r="AO7">
-        <v>0.9</v>
-      </c>
-      <c r="AP7">
-        <v>0.9</v>
-      </c>
-      <c r="AQ7">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AR7">
-        <v>0.9</v>
-      </c>
-      <c r="AS7">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:45">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" t="s">
-        <v>131</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
-      <c r="J8">
-        <v>0.9</v>
-      </c>
-      <c r="K8">
-        <v>0.9</v>
-      </c>
-      <c r="L8">
-        <v>0.9</v>
-      </c>
-      <c r="M8">
-        <v>0.9</v>
-      </c>
-      <c r="N8">
-        <v>0.9</v>
-      </c>
-      <c r="O8">
-        <v>0.9</v>
-      </c>
-      <c r="P8">
-        <v>0.9</v>
-      </c>
-      <c r="Q8">
-        <v>0.9</v>
-      </c>
-      <c r="R8">
-        <v>0.9</v>
-      </c>
-      <c r="S8">
-        <v>0.9</v>
-      </c>
-      <c r="T8">
-        <v>0.9</v>
-      </c>
-      <c r="U8">
-        <v>0.9</v>
-      </c>
-      <c r="V8">
-        <v>0.9</v>
-      </c>
-      <c r="W8">
-        <v>0.9</v>
-      </c>
-      <c r="X8">
-        <v>0.9</v>
-      </c>
-      <c r="Y8">
-        <v>0.9</v>
-      </c>
-      <c r="Z8">
-        <v>0.9</v>
-      </c>
-      <c r="AA8">
-        <v>0.9</v>
-      </c>
-      <c r="AB8">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AC8">
-        <v>0.9000000000000001</v>
-      </c>
-      <c r="AD8">
-        <v>0.9000000000000001</v>
-      </c>
-      <c r="AE8">
-        <v>0.9000000000000001</v>
-      </c>
-      <c r="AF8">
-        <v>0.9000000000000001</v>
-      </c>
-      <c r="AG8">
-        <v>0.9</v>
-      </c>
-      <c r="AH8">
-        <v>0.9</v>
-      </c>
-      <c r="AI8">
-        <v>0.9</v>
-      </c>
-      <c r="AJ8">
-        <v>0.9</v>
-      </c>
-      <c r="AK8">
-        <v>0.9000000000000001</v>
-      </c>
-      <c r="AL8">
-        <v>0.9000000000000001</v>
-      </c>
-      <c r="AM8">
-        <v>0.9</v>
-      </c>
-      <c r="AN8">
-        <v>0.9</v>
-      </c>
-      <c r="AO8">
-        <v>0.9</v>
-      </c>
-      <c r="AP8">
-        <v>0.9</v>
-      </c>
-      <c r="AQ8">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AR8">
-        <v>0.9</v>
-      </c>
-      <c r="AS8">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:45">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>132</v>
-      </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
-      <c r="J9">
-        <v>0.9</v>
-      </c>
-      <c r="K9">
-        <v>0.9</v>
-      </c>
-      <c r="L9">
-        <v>0.9</v>
-      </c>
-      <c r="M9">
-        <v>0.9</v>
-      </c>
-      <c r="N9">
-        <v>0.9</v>
-      </c>
-      <c r="O9">
-        <v>0.9</v>
-      </c>
-      <c r="P9">
-        <v>0.9</v>
-      </c>
-      <c r="Q9">
-        <v>0.9</v>
-      </c>
-      <c r="R9">
-        <v>0.9</v>
-      </c>
-      <c r="S9">
-        <v>0.9</v>
-      </c>
-      <c r="T9">
-        <v>0.9</v>
-      </c>
-      <c r="U9">
-        <v>0.9</v>
-      </c>
-      <c r="V9">
-        <v>0.9</v>
-      </c>
-      <c r="W9">
-        <v>0.9</v>
-      </c>
-      <c r="X9">
-        <v>0.9</v>
-      </c>
-      <c r="Y9">
-        <v>0.9</v>
-      </c>
-      <c r="Z9">
-        <v>0.9</v>
-      </c>
-      <c r="AA9">
-        <v>0.9</v>
-      </c>
-      <c r="AB9">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AC9">
-        <v>0.9000000000000001</v>
-      </c>
-      <c r="AD9">
-        <v>0.9000000000000001</v>
-      </c>
-      <c r="AE9">
-        <v>0.9000000000000001</v>
-      </c>
-      <c r="AF9">
-        <v>0.9000000000000001</v>
-      </c>
-      <c r="AG9">
-        <v>0.9</v>
-      </c>
-      <c r="AH9">
-        <v>0.9</v>
-      </c>
-      <c r="AI9">
-        <v>0.9</v>
-      </c>
-      <c r="AJ9">
-        <v>0.9</v>
-      </c>
-      <c r="AK9">
-        <v>0.9000000000000001</v>
-      </c>
-      <c r="AL9">
-        <v>0.9000000000000001</v>
-      </c>
-      <c r="AM9">
-        <v>0.9</v>
-      </c>
-      <c r="AN9">
-        <v>0.9</v>
-      </c>
-      <c r="AO9">
-        <v>0.9</v>
-      </c>
-      <c r="AP9">
-        <v>0.9</v>
-      </c>
-      <c r="AQ9">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AR9">
-        <v>0.9</v>
-      </c>
-      <c r="AS9">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:45">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>133</v>
-      </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
-      <c r="J10">
-        <v>0.9</v>
-      </c>
-      <c r="K10">
-        <v>0.9</v>
-      </c>
-      <c r="L10">
-        <v>0.9</v>
-      </c>
-      <c r="M10">
-        <v>0.9</v>
-      </c>
-      <c r="N10">
-        <v>0.9</v>
-      </c>
-      <c r="O10">
-        <v>0.9</v>
-      </c>
-      <c r="P10">
-        <v>0.9</v>
-      </c>
-      <c r="Q10">
-        <v>0.9</v>
-      </c>
-      <c r="R10">
-        <v>0.9</v>
-      </c>
-      <c r="S10">
-        <v>0.9</v>
-      </c>
-      <c r="T10">
-        <v>0.9</v>
-      </c>
-      <c r="U10">
-        <v>0.9</v>
-      </c>
-      <c r="V10">
-        <v>0.9</v>
-      </c>
-      <c r="W10">
-        <v>0.9</v>
-      </c>
-      <c r="X10">
-        <v>0.9</v>
-      </c>
-      <c r="Y10">
-        <v>0.9</v>
-      </c>
-      <c r="Z10">
-        <v>0.9</v>
-      </c>
-      <c r="AA10">
-        <v>0.9</v>
-      </c>
-      <c r="AB10">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AC10">
-        <v>0.9000000000000001</v>
-      </c>
-      <c r="AD10">
-        <v>0.9000000000000001</v>
-      </c>
-      <c r="AE10">
-        <v>0.9000000000000001</v>
-      </c>
-      <c r="AF10">
-        <v>0.9000000000000001</v>
-      </c>
-      <c r="AG10">
-        <v>0.9</v>
-      </c>
-      <c r="AH10">
-        <v>0.9</v>
-      </c>
-      <c r="AI10">
-        <v>0.9</v>
-      </c>
-      <c r="AJ10">
-        <v>0.9</v>
-      </c>
-      <c r="AK10">
-        <v>0.9000000000000001</v>
-      </c>
-      <c r="AL10">
-        <v>0.9000000000000001</v>
-      </c>
-      <c r="AM10">
-        <v>0.9</v>
-      </c>
-      <c r="AN10">
-        <v>0.9</v>
-      </c>
-      <c r="AO10">
-        <v>0.9</v>
-      </c>
-      <c r="AP10">
-        <v>0.9</v>
-      </c>
-      <c r="AQ10">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AR10">
-        <v>0.9</v>
-      </c>
-      <c r="AS10">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:45">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>134</v>
-      </c>
-      <c r="H11">
-        <v>1</v>
-      </c>
-      <c r="I11">
-        <v>1</v>
-      </c>
-      <c r="J11">
-        <v>0.9</v>
-      </c>
-      <c r="K11">
-        <v>0.9</v>
-      </c>
-      <c r="L11">
-        <v>0.9</v>
-      </c>
-      <c r="M11">
-        <v>0.9</v>
-      </c>
-      <c r="N11">
-        <v>0.9</v>
-      </c>
-      <c r="O11">
-        <v>0.9</v>
-      </c>
-      <c r="P11">
-        <v>0.9</v>
-      </c>
-      <c r="Q11">
-        <v>0.9</v>
-      </c>
-      <c r="R11">
-        <v>0.9</v>
-      </c>
-      <c r="S11">
-        <v>0.9</v>
-      </c>
-      <c r="T11">
-        <v>0.9</v>
-      </c>
-      <c r="U11">
-        <v>0.9</v>
-      </c>
-      <c r="V11">
-        <v>0.9</v>
-      </c>
-      <c r="W11">
-        <v>0.9</v>
-      </c>
-      <c r="X11">
-        <v>0.9</v>
-      </c>
-      <c r="Y11">
-        <v>0.9</v>
-      </c>
-      <c r="Z11">
-        <v>0.9</v>
-      </c>
-      <c r="AA11">
-        <v>0.9</v>
-      </c>
-      <c r="AB11">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AC11">
-        <v>0.9000000000000001</v>
-      </c>
-      <c r="AD11">
-        <v>0.9000000000000001</v>
-      </c>
-      <c r="AE11">
-        <v>0.9000000000000001</v>
-      </c>
-      <c r="AF11">
-        <v>0.9000000000000001</v>
-      </c>
-      <c r="AG11">
-        <v>0.9</v>
-      </c>
-      <c r="AH11">
-        <v>0.9</v>
-      </c>
-      <c r="AI11">
-        <v>0.9</v>
-      </c>
-      <c r="AJ11">
-        <v>0.9</v>
-      </c>
-      <c r="AK11">
-        <v>0.9000000000000001</v>
-      </c>
-      <c r="AL11">
-        <v>0.9000000000000001</v>
-      </c>
-      <c r="AM11">
-        <v>0.9</v>
-      </c>
-      <c r="AN11">
-        <v>0.9</v>
-      </c>
-      <c r="AO11">
-        <v>0.9</v>
-      </c>
-      <c r="AP11">
-        <v>0.9</v>
-      </c>
-      <c r="AQ11">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AR11">
-        <v>0.9</v>
-      </c>
-      <c r="AS11">
-        <v>0.9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AS27"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:45">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1">
-        <v>0</v>
-      </c>
-      <c r="K1" s="1">
-        <v>1</v>
-      </c>
-      <c r="L1" s="1">
-        <v>2</v>
-      </c>
-      <c r="M1" s="1">
-        <v>3</v>
-      </c>
-      <c r="N1" s="1">
-        <v>4</v>
-      </c>
-      <c r="O1" s="1">
-        <v>5</v>
-      </c>
-      <c r="P1" s="1">
-        <v>6</v>
-      </c>
-      <c r="Q1" s="1">
-        <v>7</v>
-      </c>
-      <c r="R1" s="1">
-        <v>8</v>
-      </c>
-      <c r="S1" s="1">
-        <v>9</v>
-      </c>
-      <c r="T1" s="1">
-        <v>10</v>
-      </c>
-      <c r="U1" s="1">
-        <v>11</v>
-      </c>
-      <c r="V1" s="1">
-        <v>12</v>
-      </c>
-      <c r="W1" s="1">
-        <v>13</v>
-      </c>
-      <c r="X1" s="1">
-        <v>14</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>15</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>16</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>17</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>18</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>19</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>20</v>
-      </c>
-      <c r="AE1" s="1">
-        <v>21</v>
-      </c>
-      <c r="AF1" s="1">
-        <v>22</v>
-      </c>
-      <c r="AG1" s="1">
-        <v>23</v>
-      </c>
-      <c r="AH1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AI1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AJ1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AK1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AL1" s="1">
-        <v>28</v>
-      </c>
-      <c r="AM1" s="1">
-        <v>29</v>
-      </c>
-      <c r="AN1" s="1">
-        <v>30</v>
-      </c>
-      <c r="AO1" s="1">
-        <v>31</v>
-      </c>
-      <c r="AP1" s="1">
-        <v>32</v>
-      </c>
-      <c r="AQ1" s="1">
-        <v>33</v>
-      </c>
-      <c r="AR1" s="1">
-        <v>34</v>
-      </c>
-      <c r="AS1" s="1">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:45">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2">
-        <v>30</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <v>1.56211755418937E-09</v>
-      </c>
-      <c r="Q2">
-        <v>1.56211755418937E-09</v>
-      </c>
-      <c r="R2">
-        <v>1.56211755418937E-09</v>
-      </c>
-      <c r="S2">
-        <v>1.56211755418937E-09</v>
-      </c>
-      <c r="T2">
-        <v>1.56211755418937E-09</v>
-      </c>
-      <c r="U2">
-        <v>1.56211755418937E-09</v>
-      </c>
-      <c r="V2">
-        <v>1.56211755418937E-09</v>
-      </c>
-      <c r="W2">
-        <v>1.496236944295297E-09</v>
-      </c>
-      <c r="X2">
-        <v>1.430356334401223E-09</v>
-      </c>
-      <c r="Y2">
-        <v>1.36447572450715E-09</v>
-      </c>
-      <c r="Z2">
-        <v>1.298595114613076E-09</v>
-      </c>
-      <c r="AA2">
-        <v>1.232714504719003E-09</v>
-      </c>
-      <c r="AB2">
-        <v>1.166833894824929E-09</v>
-      </c>
-      <c r="AC2">
-        <v>1.100953284930856E-09</v>
-      </c>
-      <c r="AD2">
-        <v>1.035072675036783E-09</v>
-      </c>
-      <c r="AE2">
-        <v>9.691920651427092E-10</v>
-      </c>
-      <c r="AF2">
-        <v>9.033114552486357E-10</v>
-      </c>
-      <c r="AG2">
-        <v>8.374308453545622E-10</v>
-      </c>
-      <c r="AH2">
-        <v>7.715502354604889E-10</v>
-      </c>
-      <c r="AI2">
-        <v>7.056696255664155E-10</v>
-      </c>
-      <c r="AJ2">
-        <v>6.397890156723419E-10</v>
-      </c>
-      <c r="AK2">
-        <v>5.739084057782686E-10</v>
-      </c>
-      <c r="AL2">
-        <v>5.080277958841951E-10</v>
-      </c>
-      <c r="AM2">
-        <v>4.421471859901217E-10</v>
-      </c>
-      <c r="AN2">
-        <v>3.762665760960482E-10</v>
-      </c>
-      <c r="AO2">
-        <v>3.103859662019748E-10</v>
-      </c>
-      <c r="AP2">
-        <v>2.445053563079014E-10</v>
-      </c>
-      <c r="AQ2">
-        <v>1.78624746413828E-10</v>
-      </c>
-      <c r="AR2">
-        <v>1.127441365197545E-10</v>
-      </c>
-      <c r="AS2">
-        <v>4.68635266256811E-11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:45">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3">
-        <v>30</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3">
-        <v>0.506309921818343</v>
-      </c>
-      <c r="K3">
-        <v>0.500375407184809</v>
-      </c>
-      <c r="L3">
-        <v>0.497840125348075</v>
-      </c>
-      <c r="M3">
-        <v>0.494422755460523</v>
-      </c>
-      <c r="N3">
-        <v>0.48672313920363</v>
-      </c>
-      <c r="O3">
-        <v>0.479259656980362</v>
-      </c>
-      <c r="P3">
-        <v>0.481732444696644</v>
-      </c>
-      <c r="Q3">
-        <v>0.481732444696644</v>
-      </c>
-      <c r="R3">
-        <v>0.481732444696644</v>
-      </c>
-      <c r="S3">
-        <v>0.481732444696644</v>
-      </c>
-      <c r="T3">
-        <v>0.481732444696644</v>
-      </c>
-      <c r="U3">
-        <v>0.481732444696644</v>
-      </c>
-      <c r="V3">
-        <v>0.481732444696644</v>
-      </c>
-      <c r="W3">
-        <v>0.4614159024637856</v>
-      </c>
-      <c r="X3">
-        <v>0.4410993602309271</v>
-      </c>
-      <c r="Y3">
-        <v>0.4207828179980686</v>
-      </c>
-      <c r="Z3">
-        <v>0.4004662757652102</v>
-      </c>
-      <c r="AA3">
-        <v>0.3801497335323517</v>
-      </c>
-      <c r="AB3">
-        <v>0.3598331912994931</v>
-      </c>
-      <c r="AC3">
-        <v>0.3395166490666347</v>
-      </c>
-      <c r="AD3">
-        <v>0.3192001068337763</v>
-      </c>
-      <c r="AE3">
-        <v>0.2988835646009178</v>
-      </c>
-      <c r="AF3">
-        <v>0.2785670223680594</v>
-      </c>
-      <c r="AG3">
-        <v>0.2582504801352009</v>
-      </c>
-      <c r="AH3">
-        <v>0.2379339379023424</v>
-      </c>
-      <c r="AI3">
-        <v>0.217617395669484</v>
-      </c>
-      <c r="AJ3">
-        <v>0.1973008534366255</v>
-      </c>
-      <c r="AK3">
-        <v>0.176984311203767</v>
-      </c>
-      <c r="AL3">
-        <v>0.1566677689709086</v>
-      </c>
-      <c r="AM3">
-        <v>0.1363512267380501</v>
-      </c>
-      <c r="AN3">
-        <v>0.1160346845051916</v>
-      </c>
-      <c r="AO3">
-        <v>0.09571814227233318</v>
-      </c>
-      <c r="AP3">
-        <v>0.07540160003947471</v>
-      </c>
-      <c r="AQ3">
-        <v>0.05508505780661627</v>
-      </c>
-      <c r="AR3">
-        <v>0.03476851557375777</v>
-      </c>
-      <c r="AS3">
-        <v>0.01445197334089932</v>
-      </c>
-    </row>
-    <row r="4" spans="1:45">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4">
-        <v>30</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>0.357646875810092</v>
-      </c>
-      <c r="K4">
-        <v>0.356145320199745</v>
-      </c>
-      <c r="L4">
-        <v>0.356490957281221</v>
-      </c>
-      <c r="M4">
-        <v>0.356286111709025</v>
-      </c>
-      <c r="N4">
-        <v>0.350737689215273</v>
-      </c>
-      <c r="O4">
-        <v>0.34535942732953</v>
-      </c>
-      <c r="P4">
-        <v>0.345496443918732</v>
-      </c>
-      <c r="Q4">
-        <v>0.345496443918732</v>
-      </c>
-      <c r="R4">
-        <v>0.345496443918732</v>
-      </c>
-      <c r="S4">
-        <v>0.345496443918732</v>
-      </c>
-      <c r="T4">
-        <v>0.345496443918732</v>
-      </c>
-      <c r="U4">
-        <v>0.345496443918732</v>
-      </c>
-      <c r="V4">
-        <v>0.345496443918732</v>
-      </c>
-      <c r="W4">
-        <v>0.3309255069360725</v>
-      </c>
-      <c r="X4">
-        <v>0.3163545699534129</v>
-      </c>
-      <c r="Y4">
-        <v>0.3017836329707533</v>
-      </c>
-      <c r="Z4">
-        <v>0.2872126959880938</v>
-      </c>
-      <c r="AA4">
-        <v>0.2726417590054342</v>
-      </c>
-      <c r="AB4">
-        <v>0.2580708220227746</v>
-      </c>
-      <c r="AC4">
-        <v>0.243499885040115</v>
-      </c>
-      <c r="AD4">
-        <v>0.2289289480574555</v>
-      </c>
-      <c r="AE4">
-        <v>0.2143580110747959</v>
-      </c>
-      <c r="AF4">
-        <v>0.1997870740921364</v>
-      </c>
-      <c r="AG4">
-        <v>0.1852161371094768</v>
-      </c>
-      <c r="AH4">
-        <v>0.1706452001268172</v>
-      </c>
-      <c r="AI4">
-        <v>0.1560742631441576</v>
-      </c>
-      <c r="AJ4">
-        <v>0.141503326161498</v>
-      </c>
-      <c r="AK4">
-        <v>0.1269323891788385</v>
-      </c>
-      <c r="AL4">
-        <v>0.1123614521961789</v>
-      </c>
-      <c r="AM4">
-        <v>0.09779051521351938</v>
-      </c>
-      <c r="AN4">
-        <v>0.08321957823085979</v>
-      </c>
-      <c r="AO4">
-        <v>0.06864864124820023</v>
-      </c>
-      <c r="AP4">
-        <v>0.05407770426554067</v>
-      </c>
-      <c r="AQ4">
-        <v>0.03950676728288111</v>
-      </c>
-      <c r="AR4">
-        <v>0.02493583030022152</v>
-      </c>
-      <c r="AS4">
-        <v>0.01036489331756196</v>
-      </c>
-    </row>
-    <row r="5" spans="1:45">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5">
-        <v>30</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>0.357646875810092</v>
-      </c>
-      <c r="K5">
-        <v>0.356145320199745</v>
-      </c>
-      <c r="L5">
-        <v>0.356490957281221</v>
-      </c>
-      <c r="M5">
-        <v>0.356286111709025</v>
-      </c>
-      <c r="N5">
-        <v>0.350737689215273</v>
-      </c>
-      <c r="O5">
-        <v>0.34535942732953</v>
-      </c>
-      <c r="P5">
-        <v>0.345496443918732</v>
-      </c>
-      <c r="Q5">
-        <v>0.345496443918732</v>
-      </c>
-      <c r="R5">
-        <v>0.345496443918732</v>
-      </c>
-      <c r="S5">
-        <v>0.345496443918732</v>
-      </c>
-      <c r="T5">
-        <v>0.345496443918732</v>
-      </c>
-      <c r="U5">
-        <v>0.345496443918732</v>
-      </c>
-      <c r="V5">
-        <v>0.345496443918732</v>
-      </c>
-      <c r="W5">
-        <v>0.3309255069360725</v>
-      </c>
-      <c r="X5">
-        <v>0.3163545699534129</v>
-      </c>
-      <c r="Y5">
-        <v>0.3017836329707533</v>
-      </c>
-      <c r="Z5">
-        <v>0.2872126959880938</v>
-      </c>
-      <c r="AA5">
-        <v>0.2726417590054342</v>
-      </c>
-      <c r="AB5">
-        <v>0.2580708220227746</v>
-      </c>
-      <c r="AC5">
-        <v>0.243499885040115</v>
-      </c>
-      <c r="AD5">
-        <v>0.2289289480574555</v>
-      </c>
-      <c r="AE5">
-        <v>0.2143580110747959</v>
-      </c>
-      <c r="AF5">
-        <v>0.1997870740921364</v>
-      </c>
-      <c r="AG5">
-        <v>0.1852161371094768</v>
-      </c>
-      <c r="AH5">
-        <v>0.1706452001268172</v>
-      </c>
-      <c r="AI5">
-        <v>0.1560742631441576</v>
-      </c>
-      <c r="AJ5">
-        <v>0.141503326161498</v>
-      </c>
-      <c r="AK5">
-        <v>0.1269323891788385</v>
-      </c>
-      <c r="AL5">
-        <v>0.1123614521961789</v>
-      </c>
-      <c r="AM5">
-        <v>0.09779051521351938</v>
-      </c>
-      <c r="AN5">
-        <v>0.08321957823085979</v>
-      </c>
-      <c r="AO5">
-        <v>0.06864864124820023</v>
-      </c>
-      <c r="AP5">
-        <v>0.05407770426554067</v>
-      </c>
-      <c r="AQ5">
-        <v>0.03950676728288111</v>
-      </c>
-      <c r="AR5">
-        <v>0.02493583030022152</v>
-      </c>
-      <c r="AS5">
-        <v>0.01036489331756196</v>
-      </c>
-    </row>
-    <row r="6" spans="1:45">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C6">
-        <v>30</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>2E-06</v>
-      </c>
-      <c r="K6">
-        <v>2E-06</v>
-      </c>
-      <c r="L6">
-        <v>2E-06</v>
-      </c>
-      <c r="M6">
-        <v>2E-06</v>
-      </c>
-      <c r="N6">
-        <v>2E-06</v>
-      </c>
-      <c r="O6">
-        <v>2E-06</v>
-      </c>
-      <c r="P6">
-        <v>2E-06</v>
-      </c>
-      <c r="Q6">
-        <v>2E-06</v>
-      </c>
-      <c r="R6">
-        <v>2E-06</v>
-      </c>
-      <c r="S6">
-        <v>2E-06</v>
-      </c>
-      <c r="T6">
-        <v>2E-06</v>
-      </c>
-      <c r="U6">
-        <v>2E-06</v>
-      </c>
-      <c r="V6">
-        <v>2E-06</v>
-      </c>
-      <c r="W6">
-        <v>1.915652173913044E-06</v>
-      </c>
-      <c r="X6">
-        <v>1.831304347826087E-06</v>
-      </c>
-      <c r="Y6">
-        <v>1.74695652173913E-06</v>
-      </c>
-      <c r="Z6">
-        <v>1.662608695652174E-06</v>
-      </c>
-      <c r="AA6">
-        <v>1.578260869565217E-06</v>
-      </c>
-      <c r="AB6">
-        <v>1.493913043478261E-06</v>
-      </c>
-      <c r="AC6">
-        <v>1.409565217391304E-06</v>
-      </c>
-      <c r="AD6">
-        <v>1.325217391304348E-06</v>
-      </c>
-      <c r="AE6">
-        <v>1.240869565217391E-06</v>
-      </c>
-      <c r="AF6">
-        <v>1.156521739130435E-06</v>
-      </c>
-      <c r="AG6">
-        <v>1.072173913043478E-06</v>
-      </c>
-      <c r="AH6">
-        <v>9.878260869565218E-07</v>
-      </c>
-      <c r="AI6">
-        <v>9.034782608695652E-07</v>
-      </c>
-      <c r="AJ6">
-        <v>8.191304347826086E-07</v>
-      </c>
-      <c r="AK6">
-        <v>7.347826086956521E-07</v>
-      </c>
-      <c r="AL6">
-        <v>6.504347826086956E-07</v>
-      </c>
-      <c r="AM6">
-        <v>5.660869565217392E-07</v>
-      </c>
-      <c r="AN6">
-        <v>4.817391304347825E-07</v>
-      </c>
-      <c r="AO6">
-        <v>3.97391304347826E-07</v>
-      </c>
-      <c r="AP6">
-        <v>3.130434782608696E-07</v>
-      </c>
-      <c r="AQ6">
-        <v>2.286956521739131E-07</v>
-      </c>
-      <c r="AR6">
-        <v>1.443478260869564E-07</v>
-      </c>
-      <c r="AS6">
-        <v>5.999999999999999E-08</v>
-      </c>
-    </row>
-    <row r="7" spans="1:45">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C7">
-        <v>30</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7">
-        <v>6E-07</v>
-      </c>
-      <c r="K7">
-        <v>6E-07</v>
-      </c>
-      <c r="L7">
-        <v>6E-07</v>
-      </c>
-      <c r="M7">
-        <v>6E-07</v>
-      </c>
-      <c r="N7">
-        <v>6E-07</v>
-      </c>
-      <c r="O7">
-        <v>6E-07</v>
-      </c>
-      <c r="P7">
-        <v>6E-07</v>
-      </c>
-      <c r="Q7">
-        <v>6E-07</v>
-      </c>
-      <c r="R7">
-        <v>6E-07</v>
-      </c>
-      <c r="S7">
-        <v>6E-07</v>
-      </c>
-      <c r="T7">
-        <v>6E-07</v>
-      </c>
-      <c r="U7">
-        <v>6E-07</v>
-      </c>
-      <c r="V7">
-        <v>6E-07</v>
-      </c>
-      <c r="W7">
-        <v>5.74695652173913E-07</v>
-      </c>
-      <c r="X7">
-        <v>5.493913043478261E-07</v>
-      </c>
-      <c r="Y7">
-        <v>5.24086956521739E-07</v>
-      </c>
-      <c r="Z7">
-        <v>4.987826086956522E-07</v>
-      </c>
-      <c r="AA7">
-        <v>4.734782608695652E-07</v>
-      </c>
-      <c r="AB7">
-        <v>4.481739130434782E-07</v>
-      </c>
-      <c r="AC7">
-        <v>4.228695652173913E-07</v>
-      </c>
-      <c r="AD7">
-        <v>3.975652173913043E-07</v>
-      </c>
-      <c r="AE7">
-        <v>3.722608695652174E-07</v>
-      </c>
-      <c r="AF7">
-        <v>3.469565217391304E-07</v>
-      </c>
-      <c r="AG7">
-        <v>3.216521739130435E-07</v>
-      </c>
-      <c r="AH7">
-        <v>2.963478260869565E-07</v>
-      </c>
-      <c r="AI7">
-        <v>2.710434782608696E-07</v>
-      </c>
-      <c r="AJ7">
-        <v>2.457391304347826E-07</v>
-      </c>
-      <c r="AK7">
-        <v>2.204347826086956E-07</v>
-      </c>
-      <c r="AL7">
-        <v>1.951304347826087E-07</v>
-      </c>
-      <c r="AM7">
-        <v>1.698260869565217E-07</v>
-      </c>
-      <c r="AN7">
-        <v>1.445217391304348E-07</v>
-      </c>
-      <c r="AO7">
-        <v>1.192173913043478E-07</v>
-      </c>
-      <c r="AP7">
-        <v>9.391304347826087E-08</v>
-      </c>
-      <c r="AQ7">
-        <v>6.860869565217394E-08</v>
-      </c>
-      <c r="AR7">
-        <v>4.330434782608694E-08</v>
-      </c>
-      <c r="AS7">
-        <v>1.8E-08</v>
-      </c>
-    </row>
-    <row r="8" spans="1:45">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" t="s">
-        <v>66</v>
-      </c>
-      <c r="C8">
-        <v>30</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8">
-        <v>4.938916870668569E-09</v>
-      </c>
-      <c r="Q8">
-        <v>4.938916870668569E-09</v>
-      </c>
-      <c r="R8">
-        <v>4.938916870668569E-09</v>
-      </c>
-      <c r="S8">
-        <v>4.938916870668569E-09</v>
-      </c>
-      <c r="T8">
-        <v>4.938916870668569E-09</v>
-      </c>
-      <c r="U8">
-        <v>4.938916870668569E-09</v>
-      </c>
-      <c r="V8">
-        <v>4.938916870668569E-09</v>
-      </c>
-      <c r="W8">
-        <v>4.730623420036025E-09</v>
-      </c>
-      <c r="X8">
-        <v>4.522329969403481E-09</v>
-      </c>
-      <c r="Y8">
-        <v>4.314036518770937E-09</v>
-      </c>
-      <c r="Z8">
-        <v>4.105743068138393E-09</v>
-      </c>
-      <c r="AA8">
-        <v>3.897449617505849E-09</v>
-      </c>
-      <c r="AB8">
-        <v>3.689156166873305E-09</v>
-      </c>
-      <c r="AC8">
-        <v>3.480862716240761E-09</v>
-      </c>
-      <c r="AD8">
-        <v>3.272569265608217E-09</v>
-      </c>
-      <c r="AE8">
-        <v>3.064275814975673E-09</v>
-      </c>
-      <c r="AF8">
-        <v>2.855982364343129E-09</v>
-      </c>
-      <c r="AG8">
-        <v>2.647688913710585E-09</v>
-      </c>
-      <c r="AH8">
-        <v>2.439395463078041E-09</v>
-      </c>
-      <c r="AI8">
-        <v>2.231102012445497E-09</v>
-      </c>
-      <c r="AJ8">
-        <v>2.022808561812953E-09</v>
-      </c>
-      <c r="AK8">
-        <v>1.814515111180409E-09</v>
-      </c>
-      <c r="AL8">
-        <v>1.606221660547865E-09</v>
-      </c>
-      <c r="AM8">
-        <v>1.397928209915321E-09</v>
-      </c>
-      <c r="AN8">
-        <v>1.189634759282777E-09</v>
-      </c>
-      <c r="AO8">
-        <v>9.81341308650233E-10</v>
-      </c>
-      <c r="AP8">
-        <v>7.730478580176892E-10</v>
-      </c>
-      <c r="AQ8">
-        <v>5.647544073851453E-10</v>
-      </c>
-      <c r="AR8">
-        <v>3.564609567526009E-10</v>
-      </c>
-      <c r="AS8">
-        <v>1.481675061200571E-10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:45">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>67</v>
-      </c>
-      <c r="C9">
-        <v>30</v>
-      </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
-      <c r="J9">
-        <v>0.282278356542713</v>
-      </c>
-      <c r="K9">
-        <v>0.284321918193054</v>
-      </c>
-      <c r="L9">
-        <v>0.287108941196086</v>
-      </c>
-      <c r="M9">
-        <v>0.289565081422567</v>
-      </c>
-      <c r="N9">
-        <v>0.285055701577635</v>
-      </c>
-      <c r="O9">
-        <v>0.280684616683568</v>
-      </c>
-      <c r="P9">
-        <v>0.278921245357285</v>
-      </c>
-      <c r="Q9">
-        <v>0.278921245357285</v>
-      </c>
-      <c r="R9">
-        <v>0.278921245357285</v>
-      </c>
-      <c r="S9">
-        <v>0.278921245357285</v>
-      </c>
-      <c r="T9">
-        <v>0.278921245357285</v>
-      </c>
-      <c r="U9">
-        <v>0.278921245357285</v>
-      </c>
-      <c r="V9">
-        <v>0.278921245357285</v>
-      </c>
-      <c r="W9">
-        <v>0.2671580450096082</v>
-      </c>
-      <c r="X9">
-        <v>0.2553948446619314</v>
-      </c>
-      <c r="Y9">
-        <v>0.2436316443142546</v>
-      </c>
-      <c r="Z9">
-        <v>0.2318684439665778</v>
-      </c>
-      <c r="AA9">
-        <v>0.220105243618901</v>
-      </c>
-      <c r="AB9">
-        <v>0.2083420432712242</v>
-      </c>
-      <c r="AC9">
-        <v>0.1965788429235474</v>
-      </c>
-      <c r="AD9">
-        <v>0.1848156425758706</v>
-      </c>
-      <c r="AE9">
-        <v>0.1730524422281938</v>
-      </c>
-      <c r="AF9">
-        <v>0.161289241880517</v>
-      </c>
-      <c r="AG9">
-        <v>0.1495260415328402</v>
-      </c>
-      <c r="AH9">
-        <v>0.1377628411851634</v>
-      </c>
-      <c r="AI9">
-        <v>0.1259996408374866</v>
-      </c>
-      <c r="AJ9">
-        <v>0.1142364404898098</v>
-      </c>
-      <c r="AK9">
-        <v>0.102473240142133</v>
-      </c>
-      <c r="AL9">
-        <v>0.09071003979445617</v>
-      </c>
-      <c r="AM9">
-        <v>0.07894683944677938</v>
-      </c>
-      <c r="AN9">
-        <v>0.06718363909910255</v>
-      </c>
-      <c r="AO9">
-        <v>0.05542043875142576</v>
-      </c>
-      <c r="AP9">
-        <v>0.04365723840374897</v>
-      </c>
-      <c r="AQ9">
-        <v>0.03189403805607217</v>
-      </c>
-      <c r="AR9">
-        <v>0.02013083770839535</v>
-      </c>
-      <c r="AS9">
-        <v>0.008367637360718549</v>
-      </c>
-    </row>
-    <row r="10" spans="1:45">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>69</v>
-      </c>
-      <c r="C10">
-        <v>30</v>
-      </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
-      <c r="J10">
-        <v>0.0001201402344614</v>
-      </c>
-      <c r="K10">
-        <v>0.0001152683877074</v>
-      </c>
-      <c r="L10">
-        <v>0.0001214314159107</v>
-      </c>
-      <c r="M10">
-        <v>0.0001138659019352</v>
-      </c>
-      <c r="N10">
-        <v>0.0001128278100901</v>
-      </c>
-      <c r="O10">
-        <v>0.0001000561531507</v>
-      </c>
-      <c r="P10">
-        <v>0.0001077143454008</v>
-      </c>
-      <c r="Q10">
-        <v>0.0001077143454008</v>
-      </c>
-      <c r="R10">
-        <v>0.0001077143454008</v>
-      </c>
-      <c r="S10">
-        <v>0.0001077143454008</v>
-      </c>
-      <c r="T10">
-        <v>0.0001077143454008</v>
-      </c>
-      <c r="U10">
-        <v>0.0001077143454008</v>
-      </c>
-      <c r="V10">
-        <v>0.0001077143454008</v>
-      </c>
-      <c r="W10">
-        <v>0.0001031716099643315</v>
-      </c>
-      <c r="X10">
-        <v>9.862887452786296E-05</v>
-      </c>
-      <c r="Y10">
-        <v>9.408613909139443E-05</v>
-      </c>
-      <c r="Z10">
-        <v>8.954340365492591E-05</v>
-      </c>
-      <c r="AA10">
-        <v>8.500066821845739E-05</v>
-      </c>
-      <c r="AB10">
-        <v>8.045793278198886E-05</v>
-      </c>
-      <c r="AC10">
-        <v>7.591519734552034E-05</v>
-      </c>
-      <c r="AD10">
-        <v>7.137246190905183E-05</v>
-      </c>
-      <c r="AE10">
-        <v>6.682972647258331E-05</v>
-      </c>
-      <c r="AF10">
-        <v>6.228699103611479E-05</v>
-      </c>
-      <c r="AG10">
-        <v>5.774425559964625E-05</v>
-      </c>
-      <c r="AH10">
-        <v>5.320152016317774E-05</v>
-      </c>
-      <c r="AI10">
-        <v>4.865878472670922E-05</v>
-      </c>
-      <c r="AJ10">
-        <v>4.411604929024069E-05</v>
-      </c>
-      <c r="AK10">
-        <v>3.957331385377218E-05</v>
-      </c>
-      <c r="AL10">
-        <v>3.503057841730365E-05</v>
-      </c>
-      <c r="AM10">
-        <v>3.048784298083513E-05</v>
-      </c>
-      <c r="AN10">
-        <v>2.59451075443666E-05</v>
-      </c>
-      <c r="AO10">
-        <v>2.140237210789809E-05</v>
-      </c>
-      <c r="AP10">
-        <v>1.685963667142957E-05</v>
-      </c>
-      <c r="AQ10">
-        <v>1.231690123496105E-05</v>
-      </c>
-      <c r="AR10">
-        <v>7.774165798492518E-06</v>
-      </c>
-      <c r="AS10">
-        <v>3.231430362024E-06</v>
-      </c>
-    </row>
-    <row r="11" spans="1:45">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>73</v>
-      </c>
-      <c r="H11">
-        <v>1</v>
-      </c>
-      <c r="I11">
-        <v>1</v>
-      </c>
-      <c r="J11">
-        <v>1.00868951448518E-05</v>
-      </c>
-      <c r="K11">
-        <v>1.01871950195572E-05</v>
-      </c>
-      <c r="L11">
-        <v>1.02843351483319E-05</v>
-      </c>
-      <c r="M11">
-        <v>1.03783383153088E-05</v>
-      </c>
-      <c r="N11">
-        <v>1.02167170680471E-05</v>
-      </c>
-      <c r="O11">
-        <v>1.00600524674237E-05</v>
-      </c>
-      <c r="P11">
-        <v>0.0039553624532641</v>
-      </c>
-      <c r="Q11">
-        <v>0.0039553624532641</v>
-      </c>
-      <c r="R11">
-        <v>0.0039553624532641</v>
-      </c>
-      <c r="S11">
-        <v>0.0039553624532641</v>
-      </c>
-      <c r="T11">
-        <v>0.0039553624532641</v>
-      </c>
-      <c r="U11">
-        <v>0.0039553624532641</v>
-      </c>
-      <c r="V11">
-        <v>0.0039553624532641</v>
-      </c>
-      <c r="W11">
-        <v>0.003788549341104702</v>
-      </c>
-      <c r="X11">
-        <v>0.003621736228945302</v>
-      </c>
-      <c r="Y11">
-        <v>0.003454923116785903</v>
-      </c>
-      <c r="Z11">
-        <v>0.003288110004626504</v>
-      </c>
-      <c r="AA11">
-        <v>0.003121296892467105</v>
-      </c>
-      <c r="AB11">
-        <v>0.002954483780307706</v>
-      </c>
-      <c r="AC11">
-        <v>0.002787670668148307</v>
-      </c>
-      <c r="AD11">
-        <v>0.002620857555988908</v>
-      </c>
-      <c r="AE11">
-        <v>0.002454044443829509</v>
-      </c>
-      <c r="AF11">
-        <v>0.00228723133167011</v>
-      </c>
-      <c r="AG11">
-        <v>0.002120418219510711</v>
-      </c>
-      <c r="AH11">
-        <v>0.001953605107351312</v>
-      </c>
-      <c r="AI11">
-        <v>0.001786791995191913</v>
-      </c>
-      <c r="AJ11">
-        <v>0.001619978883032514</v>
-      </c>
-      <c r="AK11">
-        <v>0.001453165770873115</v>
-      </c>
-      <c r="AL11">
-        <v>0.001286352658713716</v>
-      </c>
-      <c r="AM11">
-        <v>0.001119539546554317</v>
-      </c>
-      <c r="AN11">
-        <v>0.0009527264343949179</v>
-      </c>
-      <c r="AO11">
-        <v>0.000785913322235519</v>
-      </c>
-      <c r="AP11">
-        <v>0.0006191002100761202</v>
-      </c>
-      <c r="AQ11">
-        <v>0.0004522870979167212</v>
-      </c>
-      <c r="AR11">
-        <v>0.0002854739857573219</v>
-      </c>
-      <c r="AS11">
-        <v>0.000118660873597923</v>
-      </c>
-    </row>
-    <row r="12" spans="1:45">
-      <c r="A12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" t="s">
-        <v>74</v>
-      </c>
-      <c r="H12">
-        <v>1</v>
-      </c>
-      <c r="I12">
-        <v>1</v>
-      </c>
-      <c r="J12">
-        <v>1.00868951448518E-05</v>
-      </c>
-      <c r="K12">
-        <v>1.01871950195572E-05</v>
-      </c>
-      <c r="L12">
-        <v>1.02843351483319E-05</v>
-      </c>
-      <c r="M12">
-        <v>1.03783383153088E-05</v>
-      </c>
-      <c r="N12">
-        <v>1.02167170680471E-05</v>
-      </c>
-      <c r="O12">
-        <v>1.00600524674237E-05</v>
-      </c>
-      <c r="P12">
-        <v>0.0039553624532641</v>
-      </c>
-      <c r="Q12">
-        <v>0.0039553624532641</v>
-      </c>
-      <c r="R12">
-        <v>0.0039553624532641</v>
-      </c>
-      <c r="S12">
-        <v>0.0039553624532641</v>
-      </c>
-      <c r="T12">
-        <v>0.0039553624532641</v>
-      </c>
-      <c r="U12">
-        <v>0.0039553624532641</v>
-      </c>
-      <c r="V12">
-        <v>0.0039553624532641</v>
-      </c>
-      <c r="W12">
-        <v>0.003788549341104702</v>
-      </c>
-      <c r="X12">
-        <v>0.003621736228945302</v>
-      </c>
-      <c r="Y12">
-        <v>0.003454923116785903</v>
-      </c>
-      <c r="Z12">
-        <v>0.003288110004626504</v>
-      </c>
-      <c r="AA12">
-        <v>0.003121296892467105</v>
-      </c>
-      <c r="AB12">
-        <v>0.002954483780307706</v>
-      </c>
-      <c r="AC12">
-        <v>0.002787670668148307</v>
-      </c>
-      <c r="AD12">
-        <v>0.002620857555988908</v>
-      </c>
-      <c r="AE12">
-        <v>0.002454044443829509</v>
-      </c>
-      <c r="AF12">
-        <v>0.00228723133167011</v>
-      </c>
-      <c r="AG12">
-        <v>0.002120418219510711</v>
-      </c>
-      <c r="AH12">
-        <v>0.001953605107351312</v>
-      </c>
-      <c r="AI12">
-        <v>0.001786791995191913</v>
-      </c>
-      <c r="AJ12">
-        <v>0.001619978883032514</v>
-      </c>
-      <c r="AK12">
-        <v>0.001453165770873115</v>
-      </c>
-      <c r="AL12">
-        <v>0.001286352658713716</v>
-      </c>
-      <c r="AM12">
-        <v>0.001119539546554317</v>
-      </c>
-      <c r="AN12">
-        <v>0.0009527264343949179</v>
-      </c>
-      <c r="AO12">
-        <v>0.000785913322235519</v>
-      </c>
-      <c r="AP12">
-        <v>0.0006191002100761202</v>
-      </c>
-      <c r="AQ12">
-        <v>0.0004522870979167212</v>
-      </c>
-      <c r="AR12">
-        <v>0.0002854739857573219</v>
-      </c>
-      <c r="AS12">
-        <v>0.000118660873597923</v>
-      </c>
-    </row>
-    <row r="13" spans="1:45">
-      <c r="A13" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" t="s">
-        <v>80</v>
-      </c>
-      <c r="C13">
-        <v>30</v>
-      </c>
-      <c r="H13">
-        <v>1</v>
-      </c>
-      <c r="I13">
-        <v>1</v>
-      </c>
-      <c r="J13">
-        <v>0.681701727997571</v>
-      </c>
-      <c r="K13">
-        <v>0.673007868495378</v>
-      </c>
-      <c r="L13">
-        <v>0.665210795968706</v>
-      </c>
-      <c r="M13">
-        <v>0.657453447824457</v>
-      </c>
-      <c r="N13">
-        <v>0.647214964261329</v>
-      </c>
-      <c r="O13">
-        <v>0.637290477440544</v>
-      </c>
-      <c r="P13">
-        <v>0.669756439427955</v>
-      </c>
-      <c r="Q13">
-        <v>0.669756439427955</v>
-      </c>
-      <c r="R13">
-        <v>0.669756439427955</v>
-      </c>
-      <c r="S13">
-        <v>0.669756439427955</v>
-      </c>
-      <c r="T13">
-        <v>0.669756439427955</v>
-      </c>
-      <c r="U13">
-        <v>0.669756439427955</v>
-      </c>
-      <c r="V13">
-        <v>0.669756439427955</v>
-      </c>
-      <c r="W13">
-        <v>0.6415101895912109</v>
-      </c>
-      <c r="X13">
-        <v>0.6132639397544667</v>
-      </c>
-      <c r="Y13">
-        <v>0.5850176899177224</v>
-      </c>
-      <c r="Z13">
-        <v>0.5567714400809782</v>
-      </c>
-      <c r="AA13">
-        <v>0.5285251902442342</v>
-      </c>
-      <c r="AB13">
-        <v>0.5002789404074899</v>
-      </c>
-      <c r="AC13">
-        <v>0.4720326905707457</v>
-      </c>
-      <c r="AD13">
-        <v>0.4437864407340015</v>
-      </c>
-      <c r="AE13">
-        <v>0.4155401908972574</v>
-      </c>
-      <c r="AF13">
-        <v>0.3872939410605132</v>
-      </c>
-      <c r="AG13">
-        <v>0.3590476912237689</v>
-      </c>
-      <c r="AH13">
-        <v>0.3308014413870248</v>
-      </c>
-      <c r="AI13">
-        <v>0.3025551915502806</v>
-      </c>
-      <c r="AJ13">
-        <v>0.2743089417135363</v>
-      </c>
-      <c r="AK13">
-        <v>0.2460626918767922</v>
-      </c>
-      <c r="AL13">
-        <v>0.217816442040048</v>
-      </c>
-      <c r="AM13">
-        <v>0.1895701922033038</v>
-      </c>
-      <c r="AN13">
-        <v>0.1613239423665596</v>
-      </c>
-      <c r="AO13">
-        <v>0.1330776925298154</v>
-      </c>
-      <c r="AP13">
-        <v>0.1048314426930712</v>
-      </c>
-      <c r="AQ13">
-        <v>0.07658519285632706</v>
-      </c>
-      <c r="AR13">
-        <v>0.04833894301958282</v>
-      </c>
-      <c r="AS13">
-        <v>0.02009269318283865</v>
-      </c>
-    </row>
-    <row r="14" spans="1:45">
-      <c r="A14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" t="s">
-        <v>81</v>
-      </c>
-      <c r="C14">
-        <v>30</v>
-      </c>
-      <c r="H14">
-        <v>1</v>
-      </c>
-      <c r="I14">
-        <v>1</v>
-      </c>
-      <c r="J14">
-        <v>0.681701727997571</v>
-      </c>
-      <c r="K14">
-        <v>0.673007868495378</v>
-      </c>
-      <c r="L14">
-        <v>0.665210795968706</v>
-      </c>
-      <c r="M14">
-        <v>0.657453447824457</v>
-      </c>
-      <c r="N14">
-        <v>0.647214964261329</v>
-      </c>
-      <c r="O14">
-        <v>0.637290477440544</v>
-      </c>
-      <c r="P14">
-        <v>0.669756439427955</v>
-      </c>
-      <c r="Q14">
-        <v>0.669756439427955</v>
-      </c>
-      <c r="R14">
-        <v>0.669756439427955</v>
-      </c>
-      <c r="S14">
-        <v>0.669756439427955</v>
-      </c>
-      <c r="T14">
-        <v>0.669756439427955</v>
-      </c>
-      <c r="U14">
-        <v>0.669756439427955</v>
-      </c>
-      <c r="V14">
-        <v>0.669756439427955</v>
-      </c>
-      <c r="W14">
-        <v>0.6415101895912109</v>
-      </c>
-      <c r="X14">
-        <v>0.6132639397544667</v>
-      </c>
-      <c r="Y14">
-        <v>0.5850176899177224</v>
-      </c>
-      <c r="Z14">
-        <v>0.5567714400809782</v>
-      </c>
-      <c r="AA14">
-        <v>0.5285251902442342</v>
-      </c>
-      <c r="AB14">
-        <v>0.5002789404074899</v>
-      </c>
-      <c r="AC14">
-        <v>0.4720326905707457</v>
-      </c>
-      <c r="AD14">
-        <v>0.4437864407340015</v>
-      </c>
-      <c r="AE14">
-        <v>0.4155401908972574</v>
-      </c>
-      <c r="AF14">
-        <v>0.3872939410605132</v>
-      </c>
-      <c r="AG14">
-        <v>0.3590476912237689</v>
-      </c>
-      <c r="AH14">
-        <v>0.3308014413870248</v>
-      </c>
-      <c r="AI14">
-        <v>0.3025551915502806</v>
-      </c>
-      <c r="AJ14">
-        <v>0.2743089417135363</v>
-      </c>
-      <c r="AK14">
-        <v>0.2460626918767922</v>
-      </c>
-      <c r="AL14">
-        <v>0.217816442040048</v>
-      </c>
-      <c r="AM14">
-        <v>0.1895701922033038</v>
-      </c>
-      <c r="AN14">
-        <v>0.1613239423665596</v>
-      </c>
-      <c r="AO14">
-        <v>0.1330776925298154</v>
-      </c>
-      <c r="AP14">
-        <v>0.1048314426930712</v>
-      </c>
-      <c r="AQ14">
-        <v>0.07658519285632706</v>
-      </c>
-      <c r="AR14">
-        <v>0.04833894301958282</v>
-      </c>
-      <c r="AS14">
-        <v>0.02009269318283865</v>
-      </c>
-    </row>
-    <row r="15" spans="1:45">
-      <c r="A15" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" t="s">
-        <v>84</v>
-      </c>
-      <c r="H15">
-        <v>1</v>
-      </c>
-      <c r="I15">
-        <v>1</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-      <c r="N15">
-        <v>0</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15">
-        <v>1.10329178550528E-05</v>
-      </c>
-      <c r="Q15">
-        <v>1.10329178550528E-05</v>
-      </c>
-      <c r="R15">
-        <v>1.10329178550528E-05</v>
-      </c>
-      <c r="S15">
-        <v>1.10329178550528E-05</v>
-      </c>
-      <c r="T15">
-        <v>1.10329178550528E-05</v>
-      </c>
-      <c r="U15">
-        <v>1.10329178550528E-05</v>
-      </c>
-      <c r="V15">
-        <v>1.10329178550528E-05</v>
-      </c>
-      <c r="W15">
-        <v>1.056761653681796E-05</v>
-      </c>
-      <c r="X15">
-        <v>1.010231521858313E-05</v>
-      </c>
-      <c r="Y15">
-        <v>9.637013900348294E-06</v>
-      </c>
-      <c r="Z15">
-        <v>9.171712582113457E-06</v>
-      </c>
-      <c r="AA15">
-        <v>8.706411263878624E-06</v>
-      </c>
-      <c r="AB15">
-        <v>8.241109945643787E-06</v>
-      </c>
-      <c r="AC15">
-        <v>7.775808627408952E-06</v>
-      </c>
-      <c r="AD15">
-        <v>7.310507309174116E-06</v>
-      </c>
-      <c r="AE15">
-        <v>6.845205990939281E-06</v>
-      </c>
-      <c r="AF15">
-        <v>6.379904672704446E-06</v>
-      </c>
-      <c r="AG15">
-        <v>5.91460335446961E-06</v>
-      </c>
-      <c r="AH15">
-        <v>5.449302036234774E-06</v>
-      </c>
-      <c r="AI15">
-        <v>4.984000717999938E-06</v>
-      </c>
-      <c r="AJ15">
-        <v>4.518699399765102E-06</v>
-      </c>
-      <c r="AK15">
-        <v>4.053398081530267E-06</v>
-      </c>
-      <c r="AL15">
-        <v>3.588096763295433E-06</v>
-      </c>
-      <c r="AM15">
-        <v>3.122795445060597E-06</v>
-      </c>
-      <c r="AN15">
-        <v>2.657494126825761E-06</v>
-      </c>
-      <c r="AO15">
-        <v>2.192192808590926E-06</v>
-      </c>
-      <c r="AP15">
-        <v>1.726891490356091E-06</v>
-      </c>
-      <c r="AQ15">
-        <v>1.261590172121256E-06</v>
-      </c>
-      <c r="AR15">
-        <v>7.962888538864191E-07</v>
-      </c>
-      <c r="AS15">
-        <v>3.30987535651584E-07</v>
-      </c>
-    </row>
-    <row r="16" spans="1:45">
-      <c r="A16" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" t="s">
-        <v>85</v>
-      </c>
-      <c r="H16">
-        <v>1</v>
-      </c>
-      <c r="I16">
-        <v>1</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
-      <c r="N16">
-        <v>0</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16">
-        <v>1.10329178550528E-05</v>
-      </c>
-      <c r="Q16">
-        <v>1.10329178550528E-05</v>
-      </c>
-      <c r="R16">
-        <v>1.10329178550528E-05</v>
-      </c>
-      <c r="S16">
-        <v>1.10329178550528E-05</v>
-      </c>
-      <c r="T16">
-        <v>1.10329178550528E-05</v>
-      </c>
-      <c r="U16">
-        <v>1.10329178550528E-05</v>
-      </c>
-      <c r="V16">
-        <v>1.10329178550528E-05</v>
-      </c>
-      <c r="W16">
-        <v>1.056761653681796E-05</v>
-      </c>
-      <c r="X16">
-        <v>1.010231521858313E-05</v>
-      </c>
-      <c r="Y16">
-        <v>9.637013900348294E-06</v>
-      </c>
-      <c r="Z16">
-        <v>9.171712582113457E-06</v>
-      </c>
-      <c r="AA16">
-        <v>8.706411263878624E-06</v>
-      </c>
-      <c r="AB16">
-        <v>8.241109945643787E-06</v>
-      </c>
-      <c r="AC16">
-        <v>7.775808627408952E-06</v>
-      </c>
-      <c r="AD16">
-        <v>7.310507309174116E-06</v>
-      </c>
-      <c r="AE16">
-        <v>6.845205990939281E-06</v>
-      </c>
-      <c r="AF16">
-        <v>6.379904672704446E-06</v>
-      </c>
-      <c r="AG16">
-        <v>5.91460335446961E-06</v>
-      </c>
-      <c r="AH16">
-        <v>5.449302036234774E-06</v>
-      </c>
-      <c r="AI16">
-        <v>4.984000717999938E-06</v>
-      </c>
-      <c r="AJ16">
-        <v>4.518699399765102E-06</v>
-      </c>
-      <c r="AK16">
-        <v>4.053398081530267E-06</v>
-      </c>
-      <c r="AL16">
-        <v>3.588096763295433E-06</v>
-      </c>
-      <c r="AM16">
-        <v>3.122795445060597E-06</v>
-      </c>
-      <c r="AN16">
-        <v>2.657494126825761E-06</v>
-      </c>
-      <c r="AO16">
-        <v>2.192192808590926E-06</v>
-      </c>
-      <c r="AP16">
-        <v>1.726891490356091E-06</v>
-      </c>
-      <c r="AQ16">
-        <v>1.261590172121256E-06</v>
-      </c>
-      <c r="AR16">
-        <v>7.962888538864191E-07</v>
-      </c>
-      <c r="AS16">
-        <v>3.30987535651584E-07</v>
-      </c>
-    </row>
-    <row r="17" spans="1:45">
-      <c r="A17" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17" t="s">
-        <v>87</v>
-      </c>
-      <c r="H17">
-        <v>1</v>
-      </c>
-      <c r="I17">
-        <v>1</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
-      <c r="N17">
-        <v>0</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17">
-        <v>7.433209245774209E-09</v>
-      </c>
-      <c r="Q17">
-        <v>7.433209245774209E-09</v>
-      </c>
-      <c r="R17">
-        <v>7.433209245774209E-09</v>
-      </c>
-      <c r="S17">
-        <v>7.433209245774209E-09</v>
-      </c>
-      <c r="T17">
-        <v>7.433209245774209E-09</v>
-      </c>
-      <c r="U17">
-        <v>7.433209245774209E-09</v>
-      </c>
-      <c r="V17">
-        <v>7.433209245774209E-09</v>
-      </c>
-      <c r="W17">
-        <v>7.119721725408949E-09</v>
-      </c>
-      <c r="X17">
-        <v>6.806234205043689E-09</v>
-      </c>
-      <c r="Y17">
-        <v>6.492746684678429E-09</v>
-      </c>
-      <c r="Z17">
-        <v>6.179259164313169E-09</v>
-      </c>
-      <c r="AA17">
-        <v>5.865771643947909E-09</v>
-      </c>
-      <c r="AB17">
-        <v>5.552284123582647E-09</v>
-      </c>
-      <c r="AC17">
-        <v>5.238796603217388E-09</v>
-      </c>
-      <c r="AD17">
-        <v>4.925309082852128E-09</v>
-      </c>
-      <c r="AE17">
-        <v>4.611821562486868E-09</v>
-      </c>
-      <c r="AF17">
-        <v>4.298334042121608E-09</v>
-      </c>
-      <c r="AG17">
-        <v>3.984846521756348E-09</v>
-      </c>
-      <c r="AH17">
-        <v>3.671359001391088E-09</v>
-      </c>
-      <c r="AI17">
-        <v>3.357871481025828E-09</v>
-      </c>
-      <c r="AJ17">
-        <v>3.044383960660567E-09</v>
-      </c>
-      <c r="AK17">
-        <v>2.730896440295307E-09</v>
-      </c>
-      <c r="AL17">
-        <v>2.417408919930047E-09</v>
-      </c>
-      <c r="AM17">
-        <v>2.103921399564788E-09</v>
-      </c>
-      <c r="AN17">
-        <v>1.790433879199527E-09</v>
-      </c>
-      <c r="AO17">
-        <v>1.476946358834267E-09</v>
-      </c>
-      <c r="AP17">
-        <v>1.163458838469007E-09</v>
-      </c>
-      <c r="AQ17">
-        <v>8.49971318103747E-10</v>
-      </c>
-      <c r="AR17">
-        <v>5.364837977384862E-10</v>
-      </c>
-      <c r="AS17">
-        <v>2.229962773732263E-10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:45">
-      <c r="A18" t="s">
-        <v>9</v>
-      </c>
-      <c r="B18" t="s">
-        <v>123</v>
-      </c>
-      <c r="C18">
-        <v>15</v>
-      </c>
-      <c r="H18">
-        <v>1</v>
-      </c>
-      <c r="I18">
-        <v>1</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="L18">
-        <v>0</v>
-      </c>
-      <c r="M18">
-        <v>0</v>
-      </c>
-      <c r="N18">
-        <v>0</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>0</v>
-      </c>
-      <c r="R18">
-        <v>0</v>
-      </c>
-      <c r="S18">
-        <v>0</v>
-      </c>
-      <c r="T18">
-        <v>0</v>
-      </c>
-      <c r="U18">
-        <v>0</v>
-      </c>
-      <c r="V18">
-        <v>0</v>
-      </c>
-      <c r="W18">
-        <v>0.03478260869565217</v>
-      </c>
-      <c r="X18">
-        <v>0.06956521739130435</v>
-      </c>
-      <c r="Y18">
-        <v>0.1043478260869565</v>
-      </c>
-      <c r="Z18">
-        <v>0.1391304347826087</v>
-      </c>
-      <c r="AA18">
-        <v>0.1739130434782609</v>
-      </c>
-      <c r="AB18">
-        <v>0.2086956521739131</v>
-      </c>
-      <c r="AC18">
-        <v>0.2434782608695653</v>
-      </c>
-      <c r="AD18">
-        <v>0.2782608695652174</v>
-      </c>
-      <c r="AE18">
-        <v>0.3130434782608696</v>
-      </c>
-      <c r="AF18">
-        <v>0.3478260869565217</v>
-      </c>
-      <c r="AG18">
-        <v>0.3826086956521739</v>
-      </c>
-      <c r="AH18">
-        <v>0.4173913043478261</v>
-      </c>
-      <c r="AI18">
-        <v>0.4521739130434783</v>
-      </c>
-      <c r="AJ18">
-        <v>0.4869565217391305</v>
-      </c>
-      <c r="AK18">
-        <v>0.5217391304347826</v>
-      </c>
-      <c r="AL18">
-        <v>0.5565217391304348</v>
-      </c>
-      <c r="AM18">
-        <v>0.591304347826087</v>
-      </c>
-      <c r="AN18">
-        <v>0.6260869565217392</v>
-      </c>
-      <c r="AO18">
-        <v>0.6608695652173914</v>
-      </c>
-      <c r="AP18">
-        <v>0.6956521739130435</v>
-      </c>
-      <c r="AQ18">
-        <v>0.7304347826086957</v>
-      </c>
-      <c r="AR18">
-        <v>0.7652173913043478</v>
-      </c>
-      <c r="AS18">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:45">
-      <c r="A19" t="s">
-        <v>9</v>
-      </c>
-      <c r="B19" t="s">
-        <v>124</v>
-      </c>
-      <c r="C19">
-        <v>15</v>
-      </c>
-      <c r="H19">
-        <v>1</v>
-      </c>
-      <c r="I19">
-        <v>1</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19">
-        <v>0</v>
-      </c>
-      <c r="M19">
-        <v>0</v>
-      </c>
-      <c r="N19">
-        <v>0</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>0</v>
-      </c>
-      <c r="R19">
-        <v>0</v>
-      </c>
-      <c r="S19">
-        <v>0</v>
-      </c>
-      <c r="T19">
-        <v>0</v>
-      </c>
-      <c r="U19">
-        <v>0</v>
-      </c>
-      <c r="V19">
-        <v>0</v>
-      </c>
-      <c r="W19">
-        <v>0.03478260869565217</v>
-      </c>
-      <c r="X19">
-        <v>0.06956521739130435</v>
-      </c>
-      <c r="Y19">
-        <v>0.1043478260869565</v>
-      </c>
-      <c r="Z19">
-        <v>0.1391304347826087</v>
-      </c>
-      <c r="AA19">
-        <v>0.1739130434782609</v>
-      </c>
-      <c r="AB19">
-        <v>0.2086956521739131</v>
-      </c>
-      <c r="AC19">
-        <v>0.2434782608695653</v>
-      </c>
-      <c r="AD19">
-        <v>0.2782608695652174</v>
-      </c>
-      <c r="AE19">
-        <v>0.3130434782608696</v>
-      </c>
-      <c r="AF19">
-        <v>0.3478260869565217</v>
-      </c>
-      <c r="AG19">
-        <v>0.3826086956521739</v>
-      </c>
-      <c r="AH19">
-        <v>0.4173913043478261</v>
-      </c>
-      <c r="AI19">
-        <v>0.4521739130434783</v>
-      </c>
-      <c r="AJ19">
-        <v>0.4869565217391305</v>
-      </c>
-      <c r="AK19">
-        <v>0.5217391304347826</v>
-      </c>
-      <c r="AL19">
-        <v>0.5565217391304348</v>
-      </c>
-      <c r="AM19">
-        <v>0.591304347826087</v>
-      </c>
-      <c r="AN19">
-        <v>0.6260869565217392</v>
-      </c>
-      <c r="AO19">
-        <v>0.6608695652173914</v>
-      </c>
-      <c r="AP19">
-        <v>0.6956521739130435</v>
-      </c>
-      <c r="AQ19">
-        <v>0.7304347826086957</v>
-      </c>
-      <c r="AR19">
-        <v>0.7652173913043478</v>
-      </c>
-      <c r="AS19">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:45">
-      <c r="A20" t="s">
-        <v>9</v>
-      </c>
-      <c r="B20" t="s">
-        <v>127</v>
-      </c>
-      <c r="C20">
-        <v>15</v>
-      </c>
-      <c r="H20">
-        <v>1</v>
-      </c>
-      <c r="I20">
-        <v>1</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-      <c r="L20">
-        <v>0</v>
-      </c>
-      <c r="M20">
-        <v>0</v>
-      </c>
-      <c r="N20">
-        <v>0</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>0</v>
-      </c>
-      <c r="R20">
-        <v>0</v>
-      </c>
-      <c r="S20">
-        <v>0</v>
-      </c>
-      <c r="T20">
-        <v>0</v>
-      </c>
-      <c r="U20">
-        <v>0</v>
-      </c>
-      <c r="V20">
-        <v>0</v>
-      </c>
-      <c r="W20">
-        <v>0.03478260869565217</v>
-      </c>
-      <c r="X20">
-        <v>0.06956521739130435</v>
-      </c>
-      <c r="Y20">
-        <v>0.1043478260869565</v>
-      </c>
-      <c r="Z20">
-        <v>0.1391304347826087</v>
-      </c>
-      <c r="AA20">
-        <v>0.1739130434782609</v>
-      </c>
-      <c r="AB20">
-        <v>0.2086956521739131</v>
-      </c>
-      <c r="AC20">
-        <v>0.2434782608695653</v>
-      </c>
-      <c r="AD20">
-        <v>0.2782608695652174</v>
-      </c>
-      <c r="AE20">
-        <v>0.3130434782608696</v>
-      </c>
-      <c r="AF20">
-        <v>0.3478260869565217</v>
-      </c>
-      <c r="AG20">
-        <v>0.3826086956521739</v>
-      </c>
-      <c r="AH20">
-        <v>0.4173913043478261</v>
-      </c>
-      <c r="AI20">
-        <v>0.4521739130434783</v>
-      </c>
-      <c r="AJ20">
-        <v>0.4869565217391305</v>
-      </c>
-      <c r="AK20">
-        <v>0.5217391304347826</v>
-      </c>
-      <c r="AL20">
-        <v>0.5565217391304348</v>
-      </c>
-      <c r="AM20">
-        <v>0.591304347826087</v>
-      </c>
-      <c r="AN20">
-        <v>0.6260869565217392</v>
-      </c>
-      <c r="AO20">
-        <v>0.6608695652173914</v>
-      </c>
-      <c r="AP20">
-        <v>0.6956521739130435</v>
-      </c>
-      <c r="AQ20">
-        <v>0.7304347826086957</v>
-      </c>
-      <c r="AR20">
-        <v>0.7652173913043478</v>
-      </c>
-      <c r="AS20">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:45">
-      <c r="A21" t="s">
-        <v>9</v>
-      </c>
-      <c r="B21" t="s">
-        <v>128</v>
-      </c>
-      <c r="C21">
-        <v>15</v>
-      </c>
-      <c r="H21">
-        <v>1</v>
-      </c>
-      <c r="I21">
-        <v>1</v>
-      </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
-      <c r="L21">
-        <v>0</v>
-      </c>
-      <c r="M21">
-        <v>0</v>
-      </c>
-      <c r="N21">
-        <v>0</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>0</v>
-      </c>
-      <c r="R21">
-        <v>0</v>
-      </c>
-      <c r="S21">
-        <v>0</v>
-      </c>
-      <c r="T21">
-        <v>0</v>
-      </c>
-      <c r="U21">
-        <v>0</v>
-      </c>
-      <c r="V21">
-        <v>0</v>
-      </c>
-      <c r="W21">
-        <v>0.03478260869565217</v>
-      </c>
-      <c r="X21">
-        <v>0.06956521739130435</v>
-      </c>
-      <c r="Y21">
-        <v>0.1043478260869565</v>
-      </c>
-      <c r="Z21">
-        <v>0.1391304347826087</v>
-      </c>
-      <c r="AA21">
-        <v>0.1739130434782609</v>
-      </c>
-      <c r="AB21">
-        <v>0.2086956521739131</v>
-      </c>
-      <c r="AC21">
-        <v>0.2434782608695653</v>
-      </c>
-      <c r="AD21">
-        <v>0.2782608695652174</v>
-      </c>
-      <c r="AE21">
-        <v>0.3130434782608696</v>
-      </c>
-      <c r="AF21">
-        <v>0.3478260869565217</v>
-      </c>
-      <c r="AG21">
-        <v>0.3826086956521739</v>
-      </c>
-      <c r="AH21">
-        <v>0.4173913043478261</v>
-      </c>
-      <c r="AI21">
-        <v>0.4521739130434783</v>
-      </c>
-      <c r="AJ21">
-        <v>0.4869565217391305</v>
-      </c>
-      <c r="AK21">
-        <v>0.5217391304347826</v>
-      </c>
-      <c r="AL21">
-        <v>0.5565217391304348</v>
-      </c>
-      <c r="AM21">
-        <v>0.591304347826087</v>
-      </c>
-      <c r="AN21">
-        <v>0.6260869565217392</v>
-      </c>
-      <c r="AO21">
-        <v>0.6608695652173914</v>
-      </c>
-      <c r="AP21">
-        <v>0.6956521739130435</v>
-      </c>
-      <c r="AQ21">
-        <v>0.7304347826086957</v>
-      </c>
-      <c r="AR21">
-        <v>0.7652173913043478</v>
-      </c>
-      <c r="AS21">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:45">
-      <c r="A22" t="s">
-        <v>9</v>
-      </c>
-      <c r="B22" t="s">
-        <v>129</v>
-      </c>
-      <c r="H22">
-        <v>1</v>
-      </c>
-      <c r="I22">
-        <v>1</v>
-      </c>
-      <c r="J22">
-        <v>0.9</v>
-      </c>
-      <c r="K22">
-        <v>0.9</v>
-      </c>
-      <c r="L22">
-        <v>0.9</v>
-      </c>
-      <c r="M22">
-        <v>0.9</v>
-      </c>
-      <c r="N22">
-        <v>0.9</v>
-      </c>
-      <c r="O22">
-        <v>0.9</v>
-      </c>
-      <c r="P22">
-        <v>0.9</v>
-      </c>
-      <c r="Q22">
-        <v>0.9</v>
-      </c>
-      <c r="R22">
-        <v>0.9</v>
-      </c>
-      <c r="S22">
-        <v>0.9</v>
-      </c>
-      <c r="T22">
-        <v>0.9</v>
-      </c>
-      <c r="U22">
-        <v>0.9</v>
-      </c>
-      <c r="V22">
-        <v>0.9</v>
-      </c>
-      <c r="W22">
-        <v>0.9</v>
-      </c>
-      <c r="X22">
-        <v>0.9</v>
-      </c>
-      <c r="Y22">
-        <v>0.9</v>
-      </c>
-      <c r="Z22">
-        <v>0.9</v>
-      </c>
-      <c r="AA22">
-        <v>0.9</v>
-      </c>
-      <c r="AB22">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AC22">
-        <v>0.9000000000000001</v>
-      </c>
-      <c r="AD22">
-        <v>0.9000000000000001</v>
-      </c>
-      <c r="AE22">
-        <v>0.9000000000000001</v>
-      </c>
-      <c r="AF22">
-        <v>0.9000000000000001</v>
-      </c>
-      <c r="AG22">
-        <v>0.9</v>
-      </c>
-      <c r="AH22">
-        <v>0.9</v>
-      </c>
-      <c r="AI22">
-        <v>0.9</v>
-      </c>
-      <c r="AJ22">
-        <v>0.9</v>
-      </c>
-      <c r="AK22">
-        <v>0.9000000000000001</v>
-      </c>
-      <c r="AL22">
-        <v>0.9000000000000001</v>
-      </c>
-      <c r="AM22">
-        <v>0.9</v>
-      </c>
-      <c r="AN22">
-        <v>0.9</v>
-      </c>
-      <c r="AO22">
-        <v>0.9</v>
-      </c>
-      <c r="AP22">
-        <v>0.9</v>
-      </c>
-      <c r="AQ22">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AR22">
-        <v>0.9</v>
-      </c>
-      <c r="AS22">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:45">
-      <c r="A23" t="s">
-        <v>9</v>
-      </c>
-      <c r="B23" t="s">
-        <v>130</v>
-      </c>
-      <c r="H23">
-        <v>1</v>
-      </c>
-      <c r="I23">
-        <v>1</v>
-      </c>
-      <c r="J23">
-        <v>0.9</v>
-      </c>
-      <c r="K23">
-        <v>0.9</v>
-      </c>
-      <c r="L23">
-        <v>0.9</v>
-      </c>
-      <c r="M23">
-        <v>0.9</v>
-      </c>
-      <c r="N23">
-        <v>0.9</v>
-      </c>
-      <c r="O23">
-        <v>0.9</v>
-      </c>
-      <c r="P23">
-        <v>0.9</v>
-      </c>
-      <c r="Q23">
-        <v>0.9</v>
-      </c>
-      <c r="R23">
-        <v>0.9</v>
-      </c>
-      <c r="S23">
-        <v>0.9</v>
-      </c>
-      <c r="T23">
-        <v>0.9</v>
-      </c>
-      <c r="U23">
-        <v>0.9</v>
-      </c>
-      <c r="V23">
-        <v>0.9</v>
-      </c>
-      <c r="W23">
-        <v>0.9</v>
-      </c>
-      <c r="X23">
-        <v>0.9</v>
-      </c>
-      <c r="Y23">
-        <v>0.9</v>
-      </c>
-      <c r="Z23">
-        <v>0.9</v>
-      </c>
-      <c r="AA23">
-        <v>0.9</v>
-      </c>
-      <c r="AB23">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AC23">
-        <v>0.9000000000000001</v>
-      </c>
-      <c r="AD23">
-        <v>0.9000000000000001</v>
-      </c>
-      <c r="AE23">
-        <v>0.9000000000000001</v>
-      </c>
-      <c r="AF23">
-        <v>0.9000000000000001</v>
-      </c>
-      <c r="AG23">
-        <v>0.9</v>
-      </c>
-      <c r="AH23">
-        <v>0.9</v>
-      </c>
-      <c r="AI23">
-        <v>0.9</v>
-      </c>
-      <c r="AJ23">
-        <v>0.9</v>
-      </c>
-      <c r="AK23">
-        <v>0.9000000000000001</v>
-      </c>
-      <c r="AL23">
-        <v>0.9000000000000001</v>
-      </c>
-      <c r="AM23">
-        <v>0.9</v>
-      </c>
-      <c r="AN23">
-        <v>0.9</v>
-      </c>
-      <c r="AO23">
-        <v>0.9</v>
-      </c>
-      <c r="AP23">
-        <v>0.9</v>
-      </c>
-      <c r="AQ23">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AR23">
-        <v>0.9</v>
-      </c>
-      <c r="AS23">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:45">
-      <c r="A24" t="s">
-        <v>9</v>
-      </c>
-      <c r="B24" t="s">
-        <v>131</v>
-      </c>
-      <c r="H24">
-        <v>1</v>
-      </c>
-      <c r="I24">
-        <v>1</v>
-      </c>
-      <c r="J24">
-        <v>0.9</v>
-      </c>
-      <c r="K24">
-        <v>0.9</v>
-      </c>
-      <c r="L24">
-        <v>0.9</v>
-      </c>
-      <c r="M24">
-        <v>0.9</v>
-      </c>
-      <c r="N24">
-        <v>0.9</v>
-      </c>
-      <c r="O24">
-        <v>0.9</v>
-      </c>
-      <c r="P24">
-        <v>0.9</v>
-      </c>
-      <c r="Q24">
-        <v>0.9</v>
-      </c>
-      <c r="R24">
-        <v>0.9</v>
-      </c>
-      <c r="S24">
-        <v>0.9</v>
-      </c>
-      <c r="T24">
-        <v>0.9</v>
-      </c>
-      <c r="U24">
-        <v>0.9</v>
-      </c>
-      <c r="V24">
-        <v>0.9</v>
-      </c>
-      <c r="W24">
-        <v>0.9</v>
-      </c>
-      <c r="X24">
-        <v>0.9</v>
-      </c>
-      <c r="Y24">
-        <v>0.9</v>
-      </c>
-      <c r="Z24">
-        <v>0.9</v>
-      </c>
-      <c r="AA24">
-        <v>0.9</v>
-      </c>
-      <c r="AB24">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AC24">
-        <v>0.9000000000000001</v>
-      </c>
-      <c r="AD24">
-        <v>0.9000000000000001</v>
-      </c>
-      <c r="AE24">
-        <v>0.9000000000000001</v>
-      </c>
-      <c r="AF24">
-        <v>0.9000000000000001</v>
-      </c>
-      <c r="AG24">
-        <v>0.9</v>
-      </c>
-      <c r="AH24">
-        <v>0.9</v>
-      </c>
-      <c r="AI24">
-        <v>0.9</v>
-      </c>
-      <c r="AJ24">
-        <v>0.9</v>
-      </c>
-      <c r="AK24">
-        <v>0.9000000000000001</v>
-      </c>
-      <c r="AL24">
-        <v>0.9000000000000001</v>
-      </c>
-      <c r="AM24">
-        <v>0.9</v>
-      </c>
-      <c r="AN24">
-        <v>0.9</v>
-      </c>
-      <c r="AO24">
-        <v>0.9</v>
-      </c>
-      <c r="AP24">
-        <v>0.9</v>
-      </c>
-      <c r="AQ24">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AR24">
-        <v>0.9</v>
-      </c>
-      <c r="AS24">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:45">
-      <c r="A25" t="s">
-        <v>9</v>
-      </c>
-      <c r="B25" t="s">
-        <v>132</v>
-      </c>
-      <c r="H25">
-        <v>1</v>
-      </c>
-      <c r="I25">
-        <v>1</v>
-      </c>
-      <c r="J25">
-        <v>0.9</v>
-      </c>
-      <c r="K25">
-        <v>0.9</v>
-      </c>
-      <c r="L25">
-        <v>0.9</v>
-      </c>
-      <c r="M25">
-        <v>0.9</v>
-      </c>
-      <c r="N25">
-        <v>0.9</v>
-      </c>
-      <c r="O25">
-        <v>0.9</v>
-      </c>
-      <c r="P25">
-        <v>0.9</v>
-      </c>
-      <c r="Q25">
-        <v>0.9</v>
-      </c>
-      <c r="R25">
-        <v>0.9</v>
-      </c>
-      <c r="S25">
-        <v>0.9</v>
-      </c>
-      <c r="T25">
-        <v>0.9</v>
-      </c>
-      <c r="U25">
-        <v>0.9</v>
-      </c>
-      <c r="V25">
-        <v>0.9</v>
-      </c>
-      <c r="W25">
-        <v>0.9</v>
-      </c>
-      <c r="X25">
-        <v>0.9</v>
-      </c>
-      <c r="Y25">
-        <v>0.9</v>
-      </c>
-      <c r="Z25">
-        <v>0.9</v>
-      </c>
-      <c r="AA25">
-        <v>0.9</v>
-      </c>
-      <c r="AB25">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AC25">
-        <v>0.9000000000000001</v>
-      </c>
-      <c r="AD25">
-        <v>0.9000000000000001</v>
-      </c>
-      <c r="AE25">
-        <v>0.9000000000000001</v>
-      </c>
-      <c r="AF25">
-        <v>0.9000000000000001</v>
-      </c>
-      <c r="AG25">
-        <v>0.9</v>
-      </c>
-      <c r="AH25">
-        <v>0.9</v>
-      </c>
-      <c r="AI25">
-        <v>0.9</v>
-      </c>
-      <c r="AJ25">
-        <v>0.9</v>
-      </c>
-      <c r="AK25">
-        <v>0.9000000000000001</v>
-      </c>
-      <c r="AL25">
-        <v>0.9000000000000001</v>
-      </c>
-      <c r="AM25">
-        <v>0.9</v>
-      </c>
-      <c r="AN25">
-        <v>0.9</v>
-      </c>
-      <c r="AO25">
-        <v>0.9</v>
-      </c>
-      <c r="AP25">
-        <v>0.9</v>
-      </c>
-      <c r="AQ25">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AR25">
-        <v>0.9</v>
-      </c>
-      <c r="AS25">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="26" spans="1:45">
-      <c r="A26" t="s">
-        <v>9</v>
-      </c>
-      <c r="B26" t="s">
-        <v>133</v>
-      </c>
-      <c r="H26">
-        <v>1</v>
-      </c>
-      <c r="I26">
-        <v>1</v>
-      </c>
-      <c r="J26">
-        <v>0.9</v>
-      </c>
-      <c r="K26">
-        <v>0.9</v>
-      </c>
-      <c r="L26">
-        <v>0.9</v>
-      </c>
-      <c r="M26">
-        <v>0.9</v>
-      </c>
-      <c r="N26">
-        <v>0.9</v>
-      </c>
-      <c r="O26">
-        <v>0.9</v>
-      </c>
-      <c r="P26">
-        <v>0.9</v>
-      </c>
-      <c r="Q26">
-        <v>0.9</v>
-      </c>
-      <c r="R26">
-        <v>0.9</v>
-      </c>
-      <c r="S26">
-        <v>0.9</v>
-      </c>
-      <c r="T26">
-        <v>0.9</v>
-      </c>
-      <c r="U26">
-        <v>0.9</v>
-      </c>
-      <c r="V26">
-        <v>0.9</v>
-      </c>
-      <c r="W26">
-        <v>0.9</v>
-      </c>
-      <c r="X26">
-        <v>0.9</v>
-      </c>
-      <c r="Y26">
-        <v>0.9</v>
-      </c>
-      <c r="Z26">
-        <v>0.9</v>
-      </c>
-      <c r="AA26">
-        <v>0.9</v>
-      </c>
-      <c r="AB26">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AC26">
-        <v>0.9000000000000001</v>
-      </c>
-      <c r="AD26">
-        <v>0.9000000000000001</v>
-      </c>
-      <c r="AE26">
-        <v>0.9000000000000001</v>
-      </c>
-      <c r="AF26">
-        <v>0.9000000000000001</v>
-      </c>
-      <c r="AG26">
-        <v>0.9</v>
-      </c>
-      <c r="AH26">
-        <v>0.9</v>
-      </c>
-      <c r="AI26">
-        <v>0.9</v>
-      </c>
-      <c r="AJ26">
-        <v>0.9</v>
-      </c>
-      <c r="AK26">
-        <v>0.9000000000000001</v>
-      </c>
-      <c r="AL26">
-        <v>0.9000000000000001</v>
-      </c>
-      <c r="AM26">
-        <v>0.9</v>
-      </c>
-      <c r="AN26">
-        <v>0.9</v>
-      </c>
-      <c r="AO26">
-        <v>0.9</v>
-      </c>
-      <c r="AP26">
-        <v>0.9</v>
-      </c>
-      <c r="AQ26">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AR26">
-        <v>0.9</v>
-      </c>
-      <c r="AS26">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:45">
-      <c r="A27" t="s">
-        <v>9</v>
-      </c>
-      <c r="B27" t="s">
-        <v>134</v>
-      </c>
-      <c r="H27">
-        <v>1</v>
-      </c>
-      <c r="I27">
-        <v>1</v>
-      </c>
-      <c r="J27">
-        <v>0.9</v>
-      </c>
-      <c r="K27">
-        <v>0.9</v>
-      </c>
-      <c r="L27">
-        <v>0.9</v>
-      </c>
-      <c r="M27">
-        <v>0.9</v>
-      </c>
-      <c r="N27">
-        <v>0.9</v>
-      </c>
-      <c r="O27">
-        <v>0.9</v>
-      </c>
-      <c r="P27">
-        <v>0.9</v>
-      </c>
-      <c r="Q27">
-        <v>0.9</v>
-      </c>
-      <c r="R27">
-        <v>0.9</v>
-      </c>
-      <c r="S27">
-        <v>0.9</v>
-      </c>
-      <c r="T27">
-        <v>0.9</v>
-      </c>
-      <c r="U27">
-        <v>0.9</v>
-      </c>
-      <c r="V27">
-        <v>0.9</v>
-      </c>
-      <c r="W27">
-        <v>0.9</v>
-      </c>
-      <c r="X27">
-        <v>0.9</v>
-      </c>
-      <c r="Y27">
-        <v>0.9</v>
-      </c>
-      <c r="Z27">
-        <v>0.9</v>
-      </c>
-      <c r="AA27">
-        <v>0.9</v>
-      </c>
-      <c r="AB27">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AC27">
-        <v>0.9000000000000001</v>
-      </c>
-      <c r="AD27">
-        <v>0.9000000000000001</v>
-      </c>
-      <c r="AE27">
-        <v>0.9000000000000001</v>
-      </c>
-      <c r="AF27">
-        <v>0.9000000000000001</v>
-      </c>
-      <c r="AG27">
-        <v>0.9</v>
-      </c>
-      <c r="AH27">
-        <v>0.9</v>
-      </c>
-      <c r="AI27">
-        <v>0.9</v>
-      </c>
-      <c r="AJ27">
-        <v>0.9</v>
-      </c>
-      <c r="AK27">
-        <v>0.9000000000000001</v>
-      </c>
-      <c r="AL27">
-        <v>0.9000000000000001</v>
-      </c>
-      <c r="AM27">
-        <v>0.9</v>
-      </c>
-      <c r="AN27">
-        <v>0.9</v>
-      </c>
-      <c r="AO27">
-        <v>0.9</v>
-      </c>
-      <c r="AP27">
-        <v>0.9</v>
-      </c>
-      <c r="AQ27">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AR27">
-        <v>0.9</v>
-      </c>
-      <c r="AS27">
-        <v>0.9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AS31"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:45">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1">
-        <v>0</v>
-      </c>
-      <c r="K1" s="1">
-        <v>1</v>
-      </c>
-      <c r="L1" s="1">
-        <v>2</v>
-      </c>
-      <c r="M1" s="1">
-        <v>3</v>
-      </c>
-      <c r="N1" s="1">
-        <v>4</v>
-      </c>
-      <c r="O1" s="1">
-        <v>5</v>
-      </c>
-      <c r="P1" s="1">
-        <v>6</v>
-      </c>
-      <c r="Q1" s="1">
-        <v>7</v>
-      </c>
-      <c r="R1" s="1">
-        <v>8</v>
-      </c>
-      <c r="S1" s="1">
-        <v>9</v>
-      </c>
-      <c r="T1" s="1">
-        <v>10</v>
-      </c>
-      <c r="U1" s="1">
-        <v>11</v>
-      </c>
-      <c r="V1" s="1">
-        <v>12</v>
-      </c>
-      <c r="W1" s="1">
-        <v>13</v>
-      </c>
-      <c r="X1" s="1">
-        <v>14</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>15</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>16</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>17</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>18</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>19</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>20</v>
-      </c>
-      <c r="AE1" s="1">
-        <v>21</v>
-      </c>
-      <c r="AF1" s="1">
-        <v>22</v>
-      </c>
-      <c r="AG1" s="1">
-        <v>23</v>
-      </c>
-      <c r="AH1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AI1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AJ1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AK1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AL1" s="1">
-        <v>28</v>
-      </c>
-      <c r="AM1" s="1">
-        <v>29</v>
-      </c>
-      <c r="AN1" s="1">
-        <v>30</v>
-      </c>
-      <c r="AO1" s="1">
-        <v>31</v>
-      </c>
-      <c r="AP1" s="1">
-        <v>32</v>
-      </c>
-      <c r="AQ1" s="1">
-        <v>33</v>
-      </c>
-      <c r="AR1" s="1">
-        <v>34</v>
-      </c>
-      <c r="AS1" s="1">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:45">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2">
-        <v>30</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <v>1.56211755418937E-09</v>
-      </c>
-      <c r="Q2">
-        <v>1.56211755418937E-09</v>
-      </c>
-      <c r="R2">
-        <v>1.56211755418937E-09</v>
-      </c>
-      <c r="S2">
-        <v>1.56211755418937E-09</v>
-      </c>
-      <c r="T2">
-        <v>1.56211755418937E-09</v>
-      </c>
-      <c r="U2">
-        <v>1.56211755418937E-09</v>
-      </c>
-      <c r="V2">
-        <v>1.56211755418937E-09</v>
-      </c>
-      <c r="W2">
-        <v>1.500312033567095E-09</v>
-      </c>
-      <c r="X2">
-        <v>1.43850651294482E-09</v>
-      </c>
-      <c r="Y2">
-        <v>1.376700992322545E-09</v>
-      </c>
-      <c r="Z2">
-        <v>1.31489547170027E-09</v>
-      </c>
-      <c r="AA2">
-        <v>1.253089951077995E-09</v>
-      </c>
-      <c r="AB2">
-        <v>1.191284430455719E-09</v>
-      </c>
-      <c r="AC2">
-        <v>1.129478909833445E-09</v>
-      </c>
-      <c r="AD2">
-        <v>1.067673389211169E-09</v>
-      </c>
-      <c r="AE2">
-        <v>1.005867868588894E-09</v>
-      </c>
-      <c r="AF2">
-        <v>9.440623479666193E-10</v>
-      </c>
-      <c r="AG2">
-        <v>8.822568273443441E-10</v>
-      </c>
-      <c r="AH2">
-        <v>8.204513067220692E-10</v>
-      </c>
-      <c r="AI2">
-        <v>7.586457860997941E-10</v>
-      </c>
-      <c r="AJ2">
-        <v>6.968402654775189E-10</v>
-      </c>
-      <c r="AK2">
-        <v>6.350347448552439E-10</v>
-      </c>
-      <c r="AL2">
-        <v>5.732292242329688E-10</v>
-      </c>
-      <c r="AM2">
-        <v>5.114237036106939E-10</v>
-      </c>
-      <c r="AN2">
-        <v>4.496181829884186E-10</v>
-      </c>
-      <c r="AO2">
-        <v>3.878126623661436E-10</v>
-      </c>
-      <c r="AP2">
-        <v>3.260071417438685E-10</v>
-      </c>
-      <c r="AQ2">
-        <v>2.642016211215935E-10</v>
-      </c>
-      <c r="AR2">
-        <v>2.023961004993184E-10</v>
-      </c>
-      <c r="AS2">
-        <v>1.405905798770433E-10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:45">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3">
-        <v>30</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3">
-        <v>0.506309921818343</v>
-      </c>
-      <c r="K3">
-        <v>0.500375407184809</v>
-      </c>
-      <c r="L3">
-        <v>0.497840125348075</v>
-      </c>
-      <c r="M3">
-        <v>0.494422755460523</v>
-      </c>
-      <c r="N3">
-        <v>0.48672313920363</v>
-      </c>
-      <c r="O3">
-        <v>0.479259656980362</v>
-      </c>
-      <c r="P3">
-        <v>0.481732444696644</v>
-      </c>
-      <c r="Q3">
-        <v>0.481732444696644</v>
-      </c>
-      <c r="R3">
-        <v>0.481732444696644</v>
-      </c>
-      <c r="S3">
-        <v>0.481732444696644</v>
-      </c>
-      <c r="T3">
-        <v>0.481732444696644</v>
-      </c>
-      <c r="U3">
-        <v>0.481732444696644</v>
-      </c>
-      <c r="V3">
-        <v>0.481732444696644</v>
-      </c>
-      <c r="W3">
-        <v>0.4628820446867754</v>
-      </c>
-      <c r="X3">
-        <v>0.4440316446769066</v>
-      </c>
-      <c r="Y3">
-        <v>0.4251812446670379</v>
-      </c>
-      <c r="Z3">
-        <v>0.4063308446571693</v>
-      </c>
-      <c r="AA3">
-        <v>0.3874804446473006</v>
-      </c>
-      <c r="AB3">
-        <v>0.3686300446374319</v>
-      </c>
-      <c r="AC3">
-        <v>0.3497796446275632</v>
-      </c>
-      <c r="AD3">
-        <v>0.3309292446176946</v>
-      </c>
-      <c r="AE3">
-        <v>0.3120788446078259</v>
-      </c>
-      <c r="AF3">
-        <v>0.2932284445979572</v>
-      </c>
-      <c r="AG3">
-        <v>0.2743780445880885</v>
-      </c>
-      <c r="AH3">
-        <v>0.2555276445782199</v>
-      </c>
-      <c r="AI3">
-        <v>0.2366772445683512</v>
-      </c>
-      <c r="AJ3">
-        <v>0.2178268445584825</v>
-      </c>
-      <c r="AK3">
-        <v>0.1989764445486138</v>
-      </c>
-      <c r="AL3">
-        <v>0.1801260445387451</v>
-      </c>
-      <c r="AM3">
-        <v>0.1612756445288765</v>
-      </c>
-      <c r="AN3">
-        <v>0.1424252445190078</v>
-      </c>
-      <c r="AO3">
-        <v>0.1235748445091391</v>
-      </c>
-      <c r="AP3">
-        <v>0.1047244444992704</v>
-      </c>
-      <c r="AQ3">
-        <v>0.08587404448940178</v>
-      </c>
-      <c r="AR3">
-        <v>0.06702364447953306</v>
-      </c>
-      <c r="AS3">
-        <v>0.0481732444696644</v>
-      </c>
-    </row>
-    <row r="4" spans="1:45">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4">
-        <v>30</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>0.357646875810092</v>
-      </c>
-      <c r="K4">
-        <v>0.356145320199745</v>
-      </c>
-      <c r="L4">
-        <v>0.356490957281221</v>
-      </c>
-      <c r="M4">
-        <v>0.356286111709025</v>
-      </c>
-      <c r="N4">
-        <v>0.350737689215273</v>
-      </c>
-      <c r="O4">
-        <v>0.34535942732953</v>
-      </c>
-      <c r="P4">
-        <v>0.345496443918732</v>
-      </c>
-      <c r="Q4">
-        <v>0.345496443918732</v>
-      </c>
-      <c r="R4">
-        <v>0.345496443918732</v>
-      </c>
-      <c r="S4">
-        <v>0.345496443918732</v>
-      </c>
-      <c r="T4">
-        <v>0.345496443918732</v>
-      </c>
-      <c r="U4">
-        <v>0.345496443918732</v>
-      </c>
-      <c r="V4">
-        <v>0.345496443918732</v>
-      </c>
-      <c r="W4">
-        <v>0.3319770178523468</v>
-      </c>
-      <c r="X4">
-        <v>0.3184575917859617</v>
-      </c>
-      <c r="Y4">
-        <v>0.3049381657195765</v>
-      </c>
-      <c r="Z4">
-        <v>0.2914187396531914</v>
-      </c>
-      <c r="AA4">
-        <v>0.2778993135868063</v>
-      </c>
-      <c r="AB4">
-        <v>0.264379887520421</v>
-      </c>
-      <c r="AC4">
-        <v>0.2508604614540358</v>
-      </c>
-      <c r="AD4">
-        <v>0.2373410353876507</v>
-      </c>
-      <c r="AE4">
-        <v>0.2238216093212655</v>
-      </c>
-      <c r="AF4">
-        <v>0.2103021832548804</v>
-      </c>
-      <c r="AG4">
-        <v>0.1967827571884952</v>
-      </c>
-      <c r="AH4">
-        <v>0.18326333112211</v>
-      </c>
-      <c r="AI4">
-        <v>0.1697439050557249</v>
-      </c>
-      <c r="AJ4">
-        <v>0.1562244789893397</v>
-      </c>
-      <c r="AK4">
-        <v>0.1427050529229545</v>
-      </c>
-      <c r="AL4">
-        <v>0.1291856268565694</v>
-      </c>
-      <c r="AM4">
-        <v>0.1156662007901842</v>
-      </c>
-      <c r="AN4">
-        <v>0.102146774723799</v>
-      </c>
-      <c r="AO4">
-        <v>0.08862734865741387</v>
-      </c>
-      <c r="AP4">
-        <v>0.07510792259102871</v>
-      </c>
-      <c r="AQ4">
-        <v>0.06158849652464356</v>
-      </c>
-      <c r="AR4">
-        <v>0.04806907045825837</v>
-      </c>
-      <c r="AS4">
-        <v>0.0345496443918732</v>
-      </c>
-    </row>
-    <row r="5" spans="1:45">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5">
-        <v>30</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>0.357646875810092</v>
-      </c>
-      <c r="K5">
-        <v>0.356145320199745</v>
-      </c>
-      <c r="L5">
-        <v>0.356490957281221</v>
-      </c>
-      <c r="M5">
-        <v>0.356286111709025</v>
-      </c>
-      <c r="N5">
-        <v>0.350737689215273</v>
-      </c>
-      <c r="O5">
-        <v>0.34535942732953</v>
-      </c>
-      <c r="P5">
-        <v>0.345496443918732</v>
-      </c>
-      <c r="Q5">
-        <v>0.345496443918732</v>
-      </c>
-      <c r="R5">
-        <v>0.345496443918732</v>
-      </c>
-      <c r="S5">
-        <v>0.345496443918732</v>
-      </c>
-      <c r="T5">
-        <v>0.345496443918732</v>
-      </c>
-      <c r="U5">
-        <v>0.345496443918732</v>
-      </c>
-      <c r="V5">
-        <v>0.345496443918732</v>
-      </c>
-      <c r="W5">
-        <v>0.3319770178523468</v>
-      </c>
-      <c r="X5">
-        <v>0.3184575917859617</v>
-      </c>
-      <c r="Y5">
-        <v>0.3049381657195765</v>
-      </c>
-      <c r="Z5">
-        <v>0.2914187396531914</v>
-      </c>
-      <c r="AA5">
-        <v>0.2778993135868063</v>
-      </c>
-      <c r="AB5">
-        <v>0.264379887520421</v>
-      </c>
-      <c r="AC5">
-        <v>0.2508604614540358</v>
-      </c>
-      <c r="AD5">
-        <v>0.2373410353876507</v>
-      </c>
-      <c r="AE5">
-        <v>0.2238216093212655</v>
-      </c>
-      <c r="AF5">
-        <v>0.2103021832548804</v>
-      </c>
-      <c r="AG5">
-        <v>0.1967827571884952</v>
-      </c>
-      <c r="AH5">
-        <v>0.18326333112211</v>
-      </c>
-      <c r="AI5">
-        <v>0.1697439050557249</v>
-      </c>
-      <c r="AJ5">
-        <v>0.1562244789893397</v>
-      </c>
-      <c r="AK5">
-        <v>0.1427050529229545</v>
-      </c>
-      <c r="AL5">
-        <v>0.1291856268565694</v>
-      </c>
-      <c r="AM5">
-        <v>0.1156662007901842</v>
-      </c>
-      <c r="AN5">
-        <v>0.102146774723799</v>
-      </c>
-      <c r="AO5">
-        <v>0.08862734865741387</v>
-      </c>
-      <c r="AP5">
-        <v>0.07510792259102871</v>
-      </c>
-      <c r="AQ5">
-        <v>0.06158849652464356</v>
-      </c>
-      <c r="AR5">
-        <v>0.04806907045825837</v>
-      </c>
-      <c r="AS5">
-        <v>0.0345496443918732</v>
-      </c>
-    </row>
-    <row r="6" spans="1:45">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C6">
-        <v>30</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>2E-06</v>
-      </c>
-      <c r="K6">
-        <v>2E-06</v>
-      </c>
-      <c r="L6">
-        <v>2E-06</v>
-      </c>
-      <c r="M6">
-        <v>2E-06</v>
-      </c>
-      <c r="N6">
-        <v>2E-06</v>
-      </c>
-      <c r="O6">
-        <v>2E-06</v>
-      </c>
-      <c r="P6">
-        <v>2E-06</v>
-      </c>
-      <c r="Q6">
-        <v>2E-06</v>
-      </c>
-      <c r="R6">
-        <v>2E-06</v>
-      </c>
-      <c r="S6">
-        <v>2E-06</v>
-      </c>
-      <c r="T6">
-        <v>2E-06</v>
-      </c>
-      <c r="U6">
-        <v>2E-06</v>
-      </c>
-      <c r="V6">
-        <v>2E-06</v>
-      </c>
-      <c r="W6">
-        <v>1.920869565217392E-06</v>
-      </c>
-      <c r="X6">
-        <v>1.841739130434783E-06</v>
-      </c>
-      <c r="Y6">
-        <v>1.762608695652174E-06</v>
-      </c>
-      <c r="Z6">
-        <v>1.683478260869565E-06</v>
-      </c>
-      <c r="AA6">
-        <v>1.604347826086956E-06</v>
-      </c>
-      <c r="AB6">
-        <v>1.525217391304348E-06</v>
-      </c>
-      <c r="AC6">
-        <v>1.446086956521739E-06</v>
-      </c>
-      <c r="AD6">
-        <v>1.36695652173913E-06</v>
-      </c>
-      <c r="AE6">
-        <v>1.287826086956522E-06</v>
-      </c>
-      <c r="AF6">
-        <v>1.208695652173913E-06</v>
-      </c>
-      <c r="AG6">
-        <v>1.129565217391304E-06</v>
-      </c>
-      <c r="AH6">
-        <v>1.050434782608696E-06</v>
-      </c>
-      <c r="AI6">
-        <v>9.71304347826087E-07</v>
-      </c>
-      <c r="AJ6">
-        <v>8.921739130434781E-07</v>
-      </c>
-      <c r="AK6">
-        <v>8.130434782608695E-07</v>
-      </c>
-      <c r="AL6">
-        <v>7.339130434782609E-07</v>
-      </c>
-      <c r="AM6">
-        <v>6.547826086956524E-07</v>
-      </c>
-      <c r="AN6">
-        <v>5.756521739130434E-07</v>
-      </c>
-      <c r="AO6">
-        <v>4.965217391304348E-07</v>
-      </c>
-      <c r="AP6">
-        <v>4.173913043478262E-07</v>
-      </c>
-      <c r="AQ6">
-        <v>3.382608695652175E-07</v>
-      </c>
-      <c r="AR6">
-        <v>2.591304347826087E-07</v>
-      </c>
-      <c r="AS6">
-        <v>1.8E-07</v>
-      </c>
-    </row>
-    <row r="7" spans="1:45">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C7">
-        <v>30</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7">
-        <v>6E-07</v>
-      </c>
-      <c r="K7">
-        <v>6E-07</v>
-      </c>
-      <c r="L7">
-        <v>6E-07</v>
-      </c>
-      <c r="M7">
-        <v>6E-07</v>
-      </c>
-      <c r="N7">
-        <v>6E-07</v>
-      </c>
-      <c r="O7">
-        <v>6E-07</v>
-      </c>
-      <c r="P7">
-        <v>6E-07</v>
-      </c>
-      <c r="Q7">
-        <v>6E-07</v>
-      </c>
-      <c r="R7">
-        <v>6E-07</v>
-      </c>
-      <c r="S7">
-        <v>6E-07</v>
-      </c>
-      <c r="T7">
-        <v>6E-07</v>
-      </c>
-      <c r="U7">
-        <v>6E-07</v>
-      </c>
-      <c r="V7">
-        <v>6E-07</v>
-      </c>
-      <c r="W7">
-        <v>5.762608695652174E-07</v>
-      </c>
-      <c r="X7">
-        <v>5.525217391304348E-07</v>
-      </c>
-      <c r="Y7">
-        <v>5.287826086956521E-07</v>
-      </c>
-      <c r="Z7">
-        <v>5.050434782608696E-07</v>
-      </c>
-      <c r="AA7">
-        <v>4.813043478260869E-07</v>
-      </c>
-      <c r="AB7">
-        <v>4.575652173913043E-07</v>
-      </c>
-      <c r="AC7">
-        <v>4.338260869565217E-07</v>
-      </c>
-      <c r="AD7">
-        <v>4.100869565217391E-07</v>
-      </c>
-      <c r="AE7">
-        <v>3.863478260869565E-07</v>
-      </c>
-      <c r="AF7">
-        <v>3.626086956521739E-07</v>
-      </c>
-      <c r="AG7">
-        <v>3.388695652173913E-07</v>
-      </c>
-      <c r="AH7">
-        <v>3.151304347826087E-07</v>
-      </c>
-      <c r="AI7">
-        <v>2.913913043478261E-07</v>
-      </c>
-      <c r="AJ7">
-        <v>2.676521739130434E-07</v>
-      </c>
-      <c r="AK7">
-        <v>2.439130434782608E-07</v>
-      </c>
-      <c r="AL7">
-        <v>2.201739130434783E-07</v>
-      </c>
-      <c r="AM7">
-        <v>1.964347826086957E-07</v>
-      </c>
-      <c r="AN7">
-        <v>1.72695652173913E-07</v>
-      </c>
-      <c r="AO7">
-        <v>1.489565217391304E-07</v>
-      </c>
-      <c r="AP7">
-        <v>1.252173913043478E-07</v>
-      </c>
-      <c r="AQ7">
-        <v>1.014782608695652E-07</v>
-      </c>
-      <c r="AR7">
-        <v>7.773913043478259E-08</v>
-      </c>
-      <c r="AS7">
-        <v>5.400000000000001E-08</v>
-      </c>
-    </row>
-    <row r="8" spans="1:45">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" t="s">
-        <v>66</v>
-      </c>
-      <c r="C8">
-        <v>30</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8">
-        <v>4.938916870668569E-09</v>
-      </c>
-      <c r="Q8">
-        <v>4.938916870668569E-09</v>
-      </c>
-      <c r="R8">
-        <v>4.938916870668569E-09</v>
-      </c>
-      <c r="S8">
-        <v>4.938916870668569E-09</v>
-      </c>
-      <c r="T8">
-        <v>4.938916870668569E-09</v>
-      </c>
-      <c r="U8">
-        <v>4.938916870668569E-09</v>
-      </c>
-      <c r="V8">
-        <v>4.938916870668569E-09</v>
-      </c>
-      <c r="W8">
-        <v>4.743507551002987E-09</v>
-      </c>
-      <c r="X8">
-        <v>4.548098231337404E-09</v>
-      </c>
-      <c r="Y8">
-        <v>4.352688911671821E-09</v>
-      </c>
-      <c r="Z8">
-        <v>4.157279592006239E-09</v>
-      </c>
-      <c r="AA8">
-        <v>3.961870272340656E-09</v>
-      </c>
-      <c r="AB8">
-        <v>3.766460952675073E-09</v>
-      </c>
-      <c r="AC8">
-        <v>3.571051633009491E-09</v>
-      </c>
-      <c r="AD8">
-        <v>3.375642313343909E-09</v>
-      </c>
-      <c r="AE8">
-        <v>3.180232993678327E-09</v>
-      </c>
-      <c r="AF8">
-        <v>2.984823674012744E-09</v>
-      </c>
-      <c r="AG8">
-        <v>2.789414354347161E-09</v>
-      </c>
-      <c r="AH8">
-        <v>2.594005034681579E-09</v>
-      </c>
-      <c r="AI8">
-        <v>2.398595715015996E-09</v>
-      </c>
-      <c r="AJ8">
-        <v>2.203186395350413E-09</v>
-      </c>
-      <c r="AK8">
-        <v>2.007777075684831E-09</v>
-      </c>
-      <c r="AL8">
-        <v>1.812367756019249E-09</v>
-      </c>
-      <c r="AM8">
-        <v>1.616958436353667E-09</v>
-      </c>
-      <c r="AN8">
-        <v>1.421549116688084E-09</v>
-      </c>
-      <c r="AO8">
-        <v>1.226139797022501E-09</v>
-      </c>
-      <c r="AP8">
-        <v>1.030730477356919E-09</v>
-      </c>
-      <c r="AQ8">
-        <v>8.353211576913365E-10</v>
-      </c>
-      <c r="AR8">
-        <v>6.399118380257536E-10</v>
-      </c>
-      <c r="AS8">
-        <v>4.445025183601712E-10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:45">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>67</v>
-      </c>
-      <c r="C9">
-        <v>30</v>
-      </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
-      <c r="J9">
-        <v>0.282278356542713</v>
-      </c>
-      <c r="K9">
-        <v>0.284321918193054</v>
-      </c>
-      <c r="L9">
-        <v>0.287108941196086</v>
-      </c>
-      <c r="M9">
-        <v>0.289565081422567</v>
-      </c>
-      <c r="N9">
-        <v>0.285055701577635</v>
-      </c>
-      <c r="O9">
-        <v>0.280684616683568</v>
-      </c>
-      <c r="P9">
-        <v>0.278921245357285</v>
-      </c>
-      <c r="Q9">
-        <v>0.278921245357285</v>
-      </c>
-      <c r="R9">
-        <v>0.278921245357285</v>
-      </c>
-      <c r="S9">
-        <v>0.278921245357285</v>
-      </c>
-      <c r="T9">
-        <v>0.278921245357285</v>
-      </c>
-      <c r="U9">
-        <v>0.278921245357285</v>
-      </c>
-      <c r="V9">
-        <v>0.278921245357285</v>
-      </c>
-      <c r="W9">
-        <v>0.2680069357563478</v>
-      </c>
-      <c r="X9">
-        <v>0.2570926261554105</v>
-      </c>
-      <c r="Y9">
-        <v>0.2461783165544733</v>
-      </c>
-      <c r="Z9">
-        <v>0.2352640069535361</v>
-      </c>
-      <c r="AA9">
-        <v>0.2243496973525988</v>
-      </c>
-      <c r="AB9">
-        <v>0.2134353877516616</v>
-      </c>
-      <c r="AC9">
-        <v>0.2025210781507243</v>
-      </c>
-      <c r="AD9">
-        <v>0.1916067685497871</v>
-      </c>
-      <c r="AE9">
-        <v>0.1806924589488499</v>
-      </c>
-      <c r="AF9">
-        <v>0.1697781493479126</v>
-      </c>
-      <c r="AG9">
-        <v>0.1588638397469754</v>
-      </c>
-      <c r="AH9">
-        <v>0.1479495301460381</v>
-      </c>
-      <c r="AI9">
-        <v>0.1370352205451009</v>
-      </c>
-      <c r="AJ9">
-        <v>0.1261209109441637</v>
-      </c>
-      <c r="AK9">
-        <v>0.1152066013432264</v>
-      </c>
-      <c r="AL9">
-        <v>0.1042922917422892</v>
-      </c>
-      <c r="AM9">
-        <v>0.09337798214135196</v>
-      </c>
-      <c r="AN9">
-        <v>0.0824636725404147</v>
-      </c>
-      <c r="AO9">
-        <v>0.07154936293947746</v>
-      </c>
-      <c r="AP9">
-        <v>0.06063505333854023</v>
-      </c>
-      <c r="AQ9">
-        <v>0.04972074373760299</v>
-      </c>
-      <c r="AR9">
-        <v>0.03880643413666574</v>
-      </c>
-      <c r="AS9">
-        <v>0.0278921245357285</v>
-      </c>
-    </row>
-    <row r="10" spans="1:45">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>69</v>
-      </c>
-      <c r="C10">
-        <v>30</v>
-      </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
-      <c r="J10">
-        <v>0.0001201402344614</v>
-      </c>
-      <c r="K10">
-        <v>0.0001152683877074</v>
-      </c>
-      <c r="L10">
-        <v>0.0001214314159107</v>
-      </c>
-      <c r="M10">
-        <v>0.0001138659019352</v>
-      </c>
-      <c r="N10">
-        <v>0.0001128278100901</v>
-      </c>
-      <c r="O10">
-        <v>0.0001000561531507</v>
-      </c>
-      <c r="P10">
-        <v>0.0001077143454008</v>
-      </c>
-      <c r="Q10">
-        <v>0.0001077143454008</v>
-      </c>
-      <c r="R10">
-        <v>0.0001077143454008</v>
-      </c>
-      <c r="S10">
-        <v>0.0001077143454008</v>
-      </c>
-      <c r="T10">
-        <v>0.0001077143454008</v>
-      </c>
-      <c r="U10">
-        <v>0.0001077143454008</v>
-      </c>
-      <c r="V10">
-        <v>0.0001077143454008</v>
-      </c>
-      <c r="W10">
-        <v>0.0001034994362329426</v>
-      </c>
-      <c r="X10">
-        <v>9.928452706508521E-05</v>
-      </c>
-      <c r="Y10">
-        <v>9.506961789722782E-05</v>
-      </c>
-      <c r="Z10">
-        <v>9.085470872937043E-05</v>
-      </c>
-      <c r="AA10">
-        <v>8.663979956151304E-05</v>
-      </c>
-      <c r="AB10">
-        <v>8.242489039365564E-05</v>
-      </c>
-      <c r="AC10">
-        <v>7.820998122579825E-05</v>
-      </c>
-      <c r="AD10">
-        <v>7.399507205794087E-05</v>
-      </c>
-      <c r="AE10">
-        <v>6.978016289008349E-05</v>
-      </c>
-      <c r="AF10">
-        <v>6.556525372222609E-05</v>
-      </c>
-      <c r="AG10">
-        <v>6.135034455436869E-05</v>
-      </c>
-      <c r="AH10">
-        <v>5.713543538651131E-05</v>
-      </c>
-      <c r="AI10">
-        <v>5.292052621865392E-05</v>
-      </c>
-      <c r="AJ10">
-        <v>4.870561705079651E-05</v>
-      </c>
-      <c r="AK10">
-        <v>4.449070788293913E-05</v>
-      </c>
-      <c r="AL10">
-        <v>4.027579871508174E-05</v>
-      </c>
-      <c r="AM10">
-        <v>3.606088954722435E-05</v>
-      </c>
-      <c r="AN10">
-        <v>3.184598037936695E-05</v>
-      </c>
-      <c r="AO10">
-        <v>2.763107121150957E-05</v>
-      </c>
-      <c r="AP10">
-        <v>2.341616204365218E-05</v>
-      </c>
-      <c r="AQ10">
-        <v>1.920125287579479E-05</v>
-      </c>
-      <c r="AR10">
-        <v>1.498634370793739E-05</v>
-      </c>
-      <c r="AS10">
-        <v>1.077143454008E-05</v>
-      </c>
-    </row>
-    <row r="11" spans="1:45">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>73</v>
-      </c>
-      <c r="H11">
-        <v>1</v>
-      </c>
-      <c r="I11">
-        <v>1</v>
-      </c>
-      <c r="J11">
-        <v>1.00868951448518E-05</v>
-      </c>
-      <c r="K11">
-        <v>1.01871950195572E-05</v>
-      </c>
-      <c r="L11">
-        <v>1.02843351483319E-05</v>
-      </c>
-      <c r="M11">
-        <v>1.03783383153088E-05</v>
-      </c>
-      <c r="N11">
-        <v>1.02167170680471E-05</v>
-      </c>
-      <c r="O11">
-        <v>1.00600524674237E-05</v>
-      </c>
-      <c r="P11">
-        <v>0.0039553624532641</v>
-      </c>
-      <c r="Q11">
-        <v>0.0039553624532641</v>
-      </c>
-      <c r="R11">
-        <v>0.0039553624532641</v>
-      </c>
-      <c r="S11">
-        <v>0.0039553624532641</v>
-      </c>
-      <c r="T11">
-        <v>0.0039553624532641</v>
-      </c>
-      <c r="U11">
-        <v>0.0039553624532641</v>
-      </c>
-      <c r="V11">
-        <v>0.0039553624532641</v>
-      </c>
-      <c r="W11">
-        <v>0.003800587400745071</v>
-      </c>
-      <c r="X11">
-        <v>0.00364581234822604</v>
-      </c>
-      <c r="Y11">
-        <v>0.00349103729570701</v>
-      </c>
-      <c r="Z11">
-        <v>0.00333626224318798</v>
-      </c>
-      <c r="AA11">
-        <v>0.00318148719066895</v>
-      </c>
-      <c r="AB11">
-        <v>0.00302671213814992</v>
-      </c>
-      <c r="AC11">
-        <v>0.00287193708563089</v>
-      </c>
-      <c r="AD11">
-        <v>0.00271716203311186</v>
-      </c>
-      <c r="AE11">
-        <v>0.00256238698059283</v>
-      </c>
-      <c r="AF11">
-        <v>0.002407611928073801</v>
-      </c>
-      <c r="AG11">
-        <v>0.00225283687555477</v>
-      </c>
-      <c r="AH11">
-        <v>0.00209806182303574</v>
-      </c>
-      <c r="AI11">
-        <v>0.00194328677051671</v>
-      </c>
-      <c r="AJ11">
-        <v>0.00178851171799768</v>
-      </c>
-      <c r="AK11">
-        <v>0.00163373666547865</v>
-      </c>
-      <c r="AL11">
-        <v>0.00147896161295962</v>
-      </c>
-      <c r="AM11">
-        <v>0.00132418656044059</v>
-      </c>
-      <c r="AN11">
-        <v>0.00116941150792156</v>
-      </c>
-      <c r="AO11">
-        <v>0.00101463645540253</v>
-      </c>
-      <c r="AP11">
-        <v>0.0008598614028835002</v>
-      </c>
-      <c r="AQ11">
-        <v>0.0007050863503644702</v>
-      </c>
-      <c r="AR11">
-        <v>0.0005503112978454399</v>
-      </c>
-      <c r="AS11">
-        <v>0.0003955362453264101</v>
-      </c>
-    </row>
-    <row r="12" spans="1:45">
-      <c r="A12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" t="s">
-        <v>74</v>
-      </c>
-      <c r="H12">
-        <v>1</v>
-      </c>
-      <c r="I12">
-        <v>1</v>
-      </c>
-      <c r="J12">
-        <v>1.00868951448518E-05</v>
-      </c>
-      <c r="K12">
-        <v>1.01871950195572E-05</v>
-      </c>
-      <c r="L12">
-        <v>1.02843351483319E-05</v>
-      </c>
-      <c r="M12">
-        <v>1.03783383153088E-05</v>
-      </c>
-      <c r="N12">
-        <v>1.02167170680471E-05</v>
-      </c>
-      <c r="O12">
-        <v>1.00600524674237E-05</v>
-      </c>
-      <c r="P12">
-        <v>0.0039553624532641</v>
-      </c>
-      <c r="Q12">
-        <v>0.0039553624532641</v>
-      </c>
-      <c r="R12">
-        <v>0.0039553624532641</v>
-      </c>
-      <c r="S12">
-        <v>0.0039553624532641</v>
-      </c>
-      <c r="T12">
-        <v>0.0039553624532641</v>
-      </c>
-      <c r="U12">
-        <v>0.0039553624532641</v>
-      </c>
-      <c r="V12">
-        <v>0.0039553624532641</v>
-      </c>
-      <c r="W12">
-        <v>0.003800587400745071</v>
-      </c>
-      <c r="X12">
-        <v>0.00364581234822604</v>
-      </c>
-      <c r="Y12">
-        <v>0.00349103729570701</v>
-      </c>
-      <c r="Z12">
-        <v>0.00333626224318798</v>
-      </c>
-      <c r="AA12">
-        <v>0.00318148719066895</v>
-      </c>
-      <c r="AB12">
-        <v>0.00302671213814992</v>
-      </c>
-      <c r="AC12">
-        <v>0.00287193708563089</v>
-      </c>
-      <c r="AD12">
-        <v>0.00271716203311186</v>
-      </c>
-      <c r="AE12">
-        <v>0.00256238698059283</v>
-      </c>
-      <c r="AF12">
-        <v>0.002407611928073801</v>
-      </c>
-      <c r="AG12">
-        <v>0.00225283687555477</v>
-      </c>
-      <c r="AH12">
-        <v>0.00209806182303574</v>
-      </c>
-      <c r="AI12">
-        <v>0.00194328677051671</v>
-      </c>
-      <c r="AJ12">
-        <v>0.00178851171799768</v>
-      </c>
-      <c r="AK12">
-        <v>0.00163373666547865</v>
-      </c>
-      <c r="AL12">
-        <v>0.00147896161295962</v>
-      </c>
-      <c r="AM12">
-        <v>0.00132418656044059</v>
-      </c>
-      <c r="AN12">
-        <v>0.00116941150792156</v>
-      </c>
-      <c r="AO12">
-        <v>0.00101463645540253</v>
-      </c>
-      <c r="AP12">
-        <v>0.0008598614028835002</v>
-      </c>
-      <c r="AQ12">
-        <v>0.0007050863503644702</v>
-      </c>
-      <c r="AR12">
-        <v>0.0005503112978454399</v>
-      </c>
-      <c r="AS12">
-        <v>0.0003955362453264101</v>
-      </c>
-    </row>
-    <row r="13" spans="1:45">
-      <c r="A13" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" t="s">
-        <v>80</v>
-      </c>
-      <c r="C13">
-        <v>30</v>
-      </c>
-      <c r="H13">
-        <v>1</v>
-      </c>
-      <c r="I13">
-        <v>1</v>
-      </c>
-      <c r="J13">
-        <v>0.681701727997571</v>
-      </c>
-      <c r="K13">
-        <v>0.673007868495378</v>
-      </c>
-      <c r="L13">
-        <v>0.665210795968706</v>
-      </c>
-      <c r="M13">
-        <v>0.657453447824457</v>
-      </c>
-      <c r="N13">
-        <v>0.647214964261329</v>
-      </c>
-      <c r="O13">
-        <v>0.637290477440544</v>
-      </c>
-      <c r="P13">
-        <v>0.669756439427955</v>
-      </c>
-      <c r="Q13">
-        <v>0.669756439427955</v>
-      </c>
-      <c r="R13">
-        <v>0.669756439427955</v>
-      </c>
-      <c r="S13">
-        <v>0.669756439427955</v>
-      </c>
-      <c r="T13">
-        <v>0.669756439427955</v>
-      </c>
-      <c r="U13">
-        <v>0.669756439427955</v>
-      </c>
-      <c r="V13">
-        <v>0.669756439427955</v>
-      </c>
-      <c r="W13">
-        <v>0.6435485787546873</v>
-      </c>
-      <c r="X13">
-        <v>0.6173407180814194</v>
-      </c>
-      <c r="Y13">
-        <v>0.5911328574081516</v>
-      </c>
-      <c r="Z13">
-        <v>0.5649249967348838</v>
-      </c>
-      <c r="AA13">
-        <v>0.5387171360616161</v>
-      </c>
-      <c r="AB13">
-        <v>0.5125092753883481</v>
-      </c>
-      <c r="AC13">
-        <v>0.4863014147150804</v>
-      </c>
-      <c r="AD13">
-        <v>0.4600935540418126</v>
-      </c>
-      <c r="AE13">
-        <v>0.4338856933685448</v>
-      </c>
-      <c r="AF13">
-        <v>0.4076778326952771</v>
-      </c>
-      <c r="AG13">
-        <v>0.3814699720220092</v>
-      </c>
-      <c r="AH13">
-        <v>0.3552621113487414</v>
-      </c>
-      <c r="AI13">
-        <v>0.3290542506754736</v>
-      </c>
-      <c r="AJ13">
-        <v>0.3028463900022057</v>
-      </c>
-      <c r="AK13">
-        <v>0.276638529328938</v>
-      </c>
-      <c r="AL13">
-        <v>0.2504306686556702</v>
-      </c>
-      <c r="AM13">
-        <v>0.2242228079824024</v>
-      </c>
-      <c r="AN13">
-        <v>0.1980149473091345</v>
-      </c>
-      <c r="AO13">
-        <v>0.1718070866358667</v>
-      </c>
-      <c r="AP13">
-        <v>0.1455992259625989</v>
-      </c>
-      <c r="AQ13">
-        <v>0.1193913652893311</v>
-      </c>
-      <c r="AR13">
-        <v>0.0931835046160633</v>
-      </c>
-      <c r="AS13">
-        <v>0.06697564394279551</v>
-      </c>
-    </row>
-    <row r="14" spans="1:45">
-      <c r="A14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" t="s">
-        <v>81</v>
-      </c>
-      <c r="C14">
-        <v>30</v>
-      </c>
-      <c r="H14">
-        <v>1</v>
-      </c>
-      <c r="I14">
-        <v>1</v>
-      </c>
-      <c r="J14">
-        <v>0.681701727997571</v>
-      </c>
-      <c r="K14">
-        <v>0.673007868495378</v>
-      </c>
-      <c r="L14">
-        <v>0.665210795968706</v>
-      </c>
-      <c r="M14">
-        <v>0.657453447824457</v>
-      </c>
-      <c r="N14">
-        <v>0.647214964261329</v>
-      </c>
-      <c r="O14">
-        <v>0.637290477440544</v>
-      </c>
-      <c r="P14">
-        <v>0.669756439427955</v>
-      </c>
-      <c r="Q14">
-        <v>0.669756439427955</v>
-      </c>
-      <c r="R14">
-        <v>0.669756439427955</v>
-      </c>
-      <c r="S14">
-        <v>0.669756439427955</v>
-      </c>
-      <c r="T14">
-        <v>0.669756439427955</v>
-      </c>
-      <c r="U14">
-        <v>0.669756439427955</v>
-      </c>
-      <c r="V14">
-        <v>0.669756439427955</v>
-      </c>
-      <c r="W14">
-        <v>0.6435485787546873</v>
-      </c>
-      <c r="X14">
-        <v>0.6173407180814194</v>
-      </c>
-      <c r="Y14">
-        <v>0.5911328574081516</v>
-      </c>
-      <c r="Z14">
-        <v>0.5649249967348838</v>
-      </c>
-      <c r="AA14">
-        <v>0.5387171360616161</v>
-      </c>
-      <c r="AB14">
-        <v>0.5125092753883481</v>
-      </c>
-      <c r="AC14">
-        <v>0.4863014147150804</v>
-      </c>
-      <c r="AD14">
-        <v>0.4600935540418126</v>
-      </c>
-      <c r="AE14">
-        <v>0.4338856933685448</v>
-      </c>
-      <c r="AF14">
-        <v>0.4076778326952771</v>
-      </c>
-      <c r="AG14">
-        <v>0.3814699720220092</v>
-      </c>
-      <c r="AH14">
-        <v>0.3552621113487414</v>
-      </c>
-      <c r="AI14">
-        <v>0.3290542506754736</v>
-      </c>
-      <c r="AJ14">
-        <v>0.3028463900022057</v>
-      </c>
-      <c r="AK14">
-        <v>0.276638529328938</v>
-      </c>
-      <c r="AL14">
-        <v>0.2504306686556702</v>
-      </c>
-      <c r="AM14">
-        <v>0.2242228079824024</v>
-      </c>
-      <c r="AN14">
-        <v>0.1980149473091345</v>
-      </c>
-      <c r="AO14">
-        <v>0.1718070866358667</v>
-      </c>
-      <c r="AP14">
-        <v>0.1455992259625989</v>
-      </c>
-      <c r="AQ14">
-        <v>0.1193913652893311</v>
-      </c>
-      <c r="AR14">
-        <v>0.0931835046160633</v>
-      </c>
-      <c r="AS14">
-        <v>0.06697564394279551</v>
-      </c>
-    </row>
-    <row r="15" spans="1:45">
-      <c r="A15" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" t="s">
-        <v>84</v>
-      </c>
-      <c r="H15">
-        <v>1</v>
-      </c>
-      <c r="I15">
-        <v>1</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-      <c r="N15">
-        <v>0</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15">
-        <v>1.10329178550528E-05</v>
-      </c>
-      <c r="Q15">
-        <v>1.10329178550528E-05</v>
-      </c>
-      <c r="R15">
-        <v>1.10329178550528E-05</v>
-      </c>
-      <c r="S15">
-        <v>1.10329178550528E-05</v>
-      </c>
-      <c r="T15">
-        <v>1.10329178550528E-05</v>
-      </c>
-      <c r="U15">
-        <v>1.10329178550528E-05</v>
-      </c>
-      <c r="V15">
-        <v>1.10329178550528E-05</v>
-      </c>
-      <c r="W15">
-        <v>1.060119498246378E-05</v>
-      </c>
-      <c r="X15">
-        <v>1.016947210987476E-05</v>
-      </c>
-      <c r="Y15">
-        <v>9.737749237285732E-06</v>
-      </c>
-      <c r="Z15">
-        <v>9.306026364696708E-06</v>
-      </c>
-      <c r="AA15">
-        <v>8.874303492107688E-06</v>
-      </c>
-      <c r="AB15">
-        <v>8.442580619518664E-06</v>
-      </c>
-      <c r="AC15">
-        <v>8.010857746929642E-06</v>
-      </c>
-      <c r="AD15">
-        <v>7.579134874340619E-06</v>
-      </c>
-      <c r="AE15">
-        <v>7.147412001751597E-06</v>
-      </c>
-      <c r="AF15">
-        <v>6.715689129162574E-06</v>
-      </c>
-      <c r="AG15">
-        <v>6.283966256573551E-06</v>
-      </c>
-      <c r="AH15">
-        <v>5.852243383984528E-06</v>
-      </c>
-      <c r="AI15">
-        <v>5.420520511395506E-06</v>
-      </c>
-      <c r="AJ15">
-        <v>4.988797638806483E-06</v>
-      </c>
-      <c r="AK15">
-        <v>4.557074766217461E-06</v>
-      </c>
-      <c r="AL15">
-        <v>4.125351893628439E-06</v>
-      </c>
-      <c r="AM15">
-        <v>3.693629021039416E-06</v>
-      </c>
-      <c r="AN15">
-        <v>3.261906148450393E-06</v>
-      </c>
-      <c r="AO15">
-        <v>2.83018327586137E-06</v>
-      </c>
-      <c r="AP15">
-        <v>2.398460403272348E-06</v>
-      </c>
-      <c r="AQ15">
-        <v>1.966737530683326E-06</v>
-      </c>
-      <c r="AR15">
-        <v>1.535014658094302E-06</v>
-      </c>
-      <c r="AS15">
-        <v>1.10329178550528E-06</v>
-      </c>
-    </row>
-    <row r="16" spans="1:45">
-      <c r="A16" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" t="s">
-        <v>85</v>
-      </c>
-      <c r="H16">
-        <v>1</v>
-      </c>
-      <c r="I16">
-        <v>1</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
-      <c r="N16">
-        <v>0</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16">
-        <v>1.10329178550528E-05</v>
-      </c>
-      <c r="Q16">
-        <v>1.10329178550528E-05</v>
-      </c>
-      <c r="R16">
-        <v>1.10329178550528E-05</v>
-      </c>
-      <c r="S16">
-        <v>1.10329178550528E-05</v>
-      </c>
-      <c r="T16">
-        <v>1.10329178550528E-05</v>
-      </c>
-      <c r="U16">
-        <v>1.10329178550528E-05</v>
-      </c>
-      <c r="V16">
-        <v>1.10329178550528E-05</v>
-      </c>
-      <c r="W16">
-        <v>1.060119498246378E-05</v>
-      </c>
-      <c r="X16">
-        <v>1.016947210987476E-05</v>
-      </c>
-      <c r="Y16">
-        <v>9.737749237285732E-06</v>
-      </c>
-      <c r="Z16">
-        <v>9.306026364696708E-06</v>
-      </c>
-      <c r="AA16">
-        <v>8.874303492107688E-06</v>
-      </c>
-      <c r="AB16">
-        <v>8.442580619518664E-06</v>
-      </c>
-      <c r="AC16">
-        <v>8.010857746929642E-06</v>
-      </c>
-      <c r="AD16">
-        <v>7.579134874340619E-06</v>
-      </c>
-      <c r="AE16">
-        <v>7.147412001751597E-06</v>
-      </c>
-      <c r="AF16">
-        <v>6.715689129162574E-06</v>
-      </c>
-      <c r="AG16">
-        <v>6.283966256573551E-06</v>
-      </c>
-      <c r="AH16">
-        <v>5.852243383984528E-06</v>
-      </c>
-      <c r="AI16">
-        <v>5.420520511395506E-06</v>
-      </c>
-      <c r="AJ16">
-        <v>4.988797638806483E-06</v>
-      </c>
-      <c r="AK16">
-        <v>4.557074766217461E-06</v>
-      </c>
-      <c r="AL16">
-        <v>4.125351893628439E-06</v>
-      </c>
-      <c r="AM16">
-        <v>3.693629021039416E-06</v>
-      </c>
-      <c r="AN16">
-        <v>3.261906148450393E-06</v>
-      </c>
-      <c r="AO16">
-        <v>2.83018327586137E-06</v>
-      </c>
-      <c r="AP16">
-        <v>2.398460403272348E-06</v>
-      </c>
-      <c r="AQ16">
-        <v>1.966737530683326E-06</v>
-      </c>
-      <c r="AR16">
-        <v>1.535014658094302E-06</v>
-      </c>
-      <c r="AS16">
-        <v>1.10329178550528E-06</v>
-      </c>
-    </row>
-    <row r="17" spans="1:45">
-      <c r="A17" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17" t="s">
-        <v>87</v>
-      </c>
-      <c r="H17">
-        <v>1</v>
-      </c>
-      <c r="I17">
-        <v>1</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
-      <c r="N17">
-        <v>0</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17">
-        <v>7.433209245774209E-09</v>
-      </c>
-      <c r="Q17">
-        <v>7.433209245774209E-09</v>
-      </c>
-      <c r="R17">
-        <v>7.433209245774209E-09</v>
-      </c>
-      <c r="S17">
-        <v>7.433209245774209E-09</v>
-      </c>
-      <c r="T17">
-        <v>7.433209245774209E-09</v>
-      </c>
-      <c r="U17">
-        <v>7.433209245774209E-09</v>
-      </c>
-      <c r="V17">
-        <v>7.433209245774209E-09</v>
-      </c>
-      <c r="W17">
-        <v>7.142344536156958E-09</v>
-      </c>
-      <c r="X17">
-        <v>6.851479826539706E-09</v>
-      </c>
-      <c r="Y17">
-        <v>6.560615116922454E-09</v>
-      </c>
-      <c r="Z17">
-        <v>6.269750407305202E-09</v>
-      </c>
-      <c r="AA17">
-        <v>5.978885697687951E-09</v>
-      </c>
-      <c r="AB17">
-        <v>5.688020988070698E-09</v>
-      </c>
-      <c r="AC17">
-        <v>5.397156278453448E-09</v>
-      </c>
-      <c r="AD17">
-        <v>5.106291568836195E-09</v>
-      </c>
-      <c r="AE17">
-        <v>4.815426859218944E-09</v>
-      </c>
-      <c r="AF17">
-        <v>4.524562149601693E-09</v>
-      </c>
-      <c r="AG17">
-        <v>4.23369743998444E-09</v>
-      </c>
-      <c r="AH17">
-        <v>3.94283273036719E-09</v>
-      </c>
-      <c r="AI17">
-        <v>3.651968020749938E-09</v>
-      </c>
-      <c r="AJ17">
-        <v>3.361103311132686E-09</v>
-      </c>
-      <c r="AK17">
-        <v>3.070238601515434E-09</v>
-      </c>
-      <c r="AL17">
-        <v>2.779373891898182E-09</v>
-      </c>
-      <c r="AM17">
-        <v>2.488509182280931E-09</v>
-      </c>
-      <c r="AN17">
-        <v>2.197644472663679E-09</v>
-      </c>
-      <c r="AO17">
-        <v>1.906779763046428E-09</v>
-      </c>
-      <c r="AP17">
-        <v>1.615915053429176E-09</v>
-      </c>
-      <c r="AQ17">
-        <v>1.325050343811924E-09</v>
-      </c>
-      <c r="AR17">
-        <v>1.034185634194672E-09</v>
-      </c>
-      <c r="AS17">
-        <v>7.433209245774209E-10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:45">
-      <c r="A18" t="s">
-        <v>9</v>
-      </c>
-      <c r="B18" t="s">
-        <v>96</v>
-      </c>
-      <c r="C18">
-        <v>31</v>
-      </c>
-      <c r="H18">
-        <v>1</v>
-      </c>
-      <c r="I18">
-        <v>1</v>
-      </c>
-      <c r="J18">
-        <v>1</v>
-      </c>
-      <c r="K18">
-        <v>1</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-      <c r="M18">
-        <v>1</v>
-      </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-      <c r="O18">
-        <v>1</v>
-      </c>
-      <c r="P18">
-        <v>1</v>
-      </c>
-      <c r="Q18">
-        <v>1</v>
-      </c>
-      <c r="R18">
-        <v>1</v>
-      </c>
-      <c r="S18">
-        <v>1</v>
-      </c>
-      <c r="T18">
-        <v>1</v>
-      </c>
-      <c r="U18">
-        <v>1</v>
-      </c>
-      <c r="V18">
-        <v>1</v>
-      </c>
-      <c r="W18">
-        <v>0.9604347826086956</v>
-      </c>
-      <c r="X18">
-        <v>0.9208695652173914</v>
-      </c>
-      <c r="Y18">
-        <v>0.8813043478260869</v>
-      </c>
-      <c r="Z18">
-        <v>0.8417391304347827</v>
-      </c>
-      <c r="AA18">
-        <v>0.8021739130434783</v>
-      </c>
-      <c r="AB18">
-        <v>0.7626086956521738</v>
-      </c>
-      <c r="AC18">
-        <v>0.7230434782608696</v>
-      </c>
-      <c r="AD18">
-        <v>0.6834782608695652</v>
-      </c>
-      <c r="AE18">
-        <v>0.6439130434782609</v>
-      </c>
-      <c r="AF18">
-        <v>0.6043478260869566</v>
-      </c>
-      <c r="AG18">
-        <v>0.5647826086956522</v>
-      </c>
-      <c r="AH18">
-        <v>0.5252173913043479</v>
-      </c>
-      <c r="AI18">
-        <v>0.4856521739130435</v>
-      </c>
-      <c r="AJ18">
-        <v>0.4460869565217391</v>
-      </c>
-      <c r="AK18">
-        <v>0.4065217391304348</v>
-      </c>
-      <c r="AL18">
-        <v>0.3669565217391305</v>
-      </c>
-      <c r="AM18">
-        <v>0.3273913043478262</v>
-      </c>
-      <c r="AN18">
-        <v>0.2878260869565217</v>
-      </c>
-      <c r="AO18">
-        <v>0.2482608695652174</v>
-      </c>
-      <c r="AP18">
-        <v>0.2086956521739131</v>
-      </c>
-      <c r="AQ18">
-        <v>0.1691304347826088</v>
-      </c>
-      <c r="AR18">
-        <v>0.1295652173913043</v>
-      </c>
-      <c r="AS18">
-        <v>0.09000000000000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:45">
-      <c r="A19" t="s">
-        <v>9</v>
-      </c>
-      <c r="B19" t="s">
-        <v>97</v>
-      </c>
-      <c r="C19">
-        <v>31</v>
-      </c>
-      <c r="H19">
-        <v>1</v>
-      </c>
-      <c r="I19">
-        <v>1</v>
-      </c>
-      <c r="J19">
-        <v>0.03741</v>
-      </c>
-      <c r="K19">
-        <v>0.03741</v>
-      </c>
-      <c r="L19">
-        <v>0.03741</v>
-      </c>
-      <c r="M19">
-        <v>0.03741</v>
-      </c>
-      <c r="N19">
-        <v>0.03741</v>
-      </c>
-      <c r="O19">
-        <v>0.03741</v>
-      </c>
-      <c r="P19">
-        <v>0.03741</v>
-      </c>
-      <c r="Q19">
-        <v>0.03741</v>
-      </c>
-      <c r="R19">
-        <v>0.03741</v>
-      </c>
-      <c r="S19">
-        <v>0.03741</v>
-      </c>
-      <c r="T19">
-        <v>0.03741</v>
-      </c>
-      <c r="U19">
-        <v>0.03741</v>
-      </c>
-      <c r="V19">
-        <v>0.03741</v>
-      </c>
-      <c r="W19">
-        <v>0.0359298652173913</v>
-      </c>
-      <c r="X19">
-        <v>0.03444973043478261</v>
-      </c>
-      <c r="Y19">
-        <v>0.03296959565217392</v>
-      </c>
-      <c r="Z19">
-        <v>0.03148946086956522</v>
-      </c>
-      <c r="AA19">
-        <v>0.03000932608695652</v>
-      </c>
-      <c r="AB19">
-        <v>0.02852919130434782</v>
-      </c>
-      <c r="AC19">
-        <v>0.02704905652173913</v>
-      </c>
-      <c r="AD19">
-        <v>0.02556892173913044</v>
-      </c>
-      <c r="AE19">
-        <v>0.02408878695652174</v>
-      </c>
-      <c r="AF19">
-        <v>0.02260865217391304</v>
-      </c>
-      <c r="AG19">
-        <v>0.02112851739130435</v>
-      </c>
-      <c r="AH19">
-        <v>0.01964838260869565</v>
-      </c>
-      <c r="AI19">
-        <v>0.01816824782608696</v>
-      </c>
-      <c r="AJ19">
-        <v>0.01668811304347826</v>
-      </c>
-      <c r="AK19">
-        <v>0.01520797826086957</v>
-      </c>
-      <c r="AL19">
-        <v>0.01372784347826087</v>
-      </c>
-      <c r="AM19">
-        <v>0.01224770869565218</v>
-      </c>
-      <c r="AN19">
-        <v>0.01076757391304348</v>
-      </c>
-      <c r="AO19">
-        <v>0.009287439130434783</v>
-      </c>
-      <c r="AP19">
-        <v>0.007807304347826088</v>
-      </c>
-      <c r="AQ19">
-        <v>0.006327169565217393</v>
-      </c>
-      <c r="AR19">
-        <v>0.004847034782608695</v>
-      </c>
-      <c r="AS19">
-        <v>0.0033669</v>
-      </c>
-    </row>
-    <row r="20" spans="1:45">
-      <c r="A20" t="s">
-        <v>9</v>
-      </c>
-      <c r="B20" t="s">
-        <v>98</v>
-      </c>
-      <c r="C20">
-        <v>31</v>
-      </c>
-      <c r="H20">
-        <v>1</v>
-      </c>
-      <c r="I20">
-        <v>1</v>
-      </c>
-      <c r="J20">
-        <v>0.0007</v>
-      </c>
-      <c r="K20">
-        <v>0.0007</v>
-      </c>
-      <c r="L20">
-        <v>0.0007</v>
-      </c>
-      <c r="M20">
-        <v>0.0007</v>
-      </c>
-      <c r="N20">
-        <v>0.0007</v>
-      </c>
-      <c r="O20">
-        <v>0.0007</v>
-      </c>
-      <c r="P20">
-        <v>0.0007</v>
-      </c>
-      <c r="Q20">
-        <v>0.0007</v>
-      </c>
-      <c r="R20">
-        <v>0.0007</v>
-      </c>
-      <c r="S20">
-        <v>0.0007</v>
-      </c>
-      <c r="T20">
-        <v>0.0007</v>
-      </c>
-      <c r="U20">
-        <v>0.0007</v>
-      </c>
-      <c r="V20">
-        <v>0.0007</v>
-      </c>
-      <c r="W20">
-        <v>0.000672304347826087</v>
-      </c>
-      <c r="X20">
-        <v>0.000644608695652174</v>
-      </c>
-      <c r="Y20">
-        <v>0.0006169130434782608</v>
-      </c>
-      <c r="Z20">
-        <v>0.0005892173913043478</v>
-      </c>
-      <c r="AA20">
-        <v>0.0005615217391304349</v>
-      </c>
-      <c r="AB20">
-        <v>0.0005338260869565218</v>
-      </c>
-      <c r="AC20">
-        <v>0.0005061304347826086</v>
-      </c>
-      <c r="AD20">
-        <v>0.0004784347826086956</v>
-      </c>
-      <c r="AE20">
-        <v>0.0004507391304347826</v>
-      </c>
-      <c r="AF20">
-        <v>0.0004230434782608696</v>
-      </c>
-      <c r="AG20">
-        <v>0.0003953478260869565</v>
-      </c>
-      <c r="AH20">
-        <v>0.0003676521739130435</v>
-      </c>
-      <c r="AI20">
-        <v>0.0003399565217391305</v>
-      </c>
-      <c r="AJ20">
-        <v>0.0003122608695652174</v>
-      </c>
-      <c r="AK20">
-        <v>0.0002845652173913044</v>
-      </c>
-      <c r="AL20">
-        <v>0.0002568695652173913</v>
-      </c>
-      <c r="AM20">
-        <v>0.0002291739130434783</v>
-      </c>
-      <c r="AN20">
-        <v>0.0002014782608695652</v>
-      </c>
-      <c r="AO20">
-        <v>0.0001737826086956522</v>
-      </c>
-      <c r="AP20">
-        <v>0.0001460869565217392</v>
-      </c>
-      <c r="AQ20">
-        <v>0.0001183913043478261</v>
-      </c>
-      <c r="AR20">
-        <v>9.069565217391304E-05</v>
-      </c>
-      <c r="AS20">
-        <v>6.300000000000001E-05</v>
-      </c>
-    </row>
-    <row r="21" spans="1:45">
-      <c r="A21" t="s">
-        <v>9</v>
-      </c>
-      <c r="B21" t="s">
-        <v>122</v>
-      </c>
-      <c r="C21">
-        <v>14</v>
-      </c>
-      <c r="H21">
-        <v>1</v>
-      </c>
-      <c r="I21">
-        <v>1</v>
-      </c>
-      <c r="J21">
-        <v>0.72</v>
-      </c>
-      <c r="K21">
-        <v>0.72</v>
-      </c>
-      <c r="L21">
-        <v>0.72</v>
-      </c>
-      <c r="M21">
-        <v>0.72</v>
-      </c>
-      <c r="N21">
-        <v>0.72</v>
-      </c>
-      <c r="O21">
-        <v>0.72</v>
-      </c>
-      <c r="P21">
-        <v>0.72</v>
-      </c>
-      <c r="Q21">
-        <v>0.72</v>
-      </c>
-      <c r="R21">
-        <v>0.72</v>
-      </c>
-      <c r="S21">
-        <v>0.72</v>
-      </c>
-      <c r="T21">
-        <v>0.72</v>
-      </c>
-      <c r="U21">
-        <v>0.72</v>
-      </c>
-      <c r="V21">
-        <v>0.72</v>
-      </c>
-      <c r="W21">
-        <v>0.6995652173913044</v>
-      </c>
-      <c r="X21">
-        <v>0.6791304347826087</v>
-      </c>
-      <c r="Y21">
-        <v>0.658695652173913</v>
-      </c>
-      <c r="Z21">
-        <v>0.6382608695652173</v>
-      </c>
-      <c r="AA21">
-        <v>0.6178260869565217</v>
-      </c>
-      <c r="AB21">
-        <v>0.5973913043478259</v>
-      </c>
-      <c r="AC21">
-        <v>0.5769565217391304</v>
-      </c>
-      <c r="AD21">
-        <v>0.5565217391304348</v>
-      </c>
-      <c r="AE21">
-        <v>0.5360869565217392</v>
-      </c>
-      <c r="AF21">
-        <v>0.5156521739130435</v>
-      </c>
-      <c r="AG21">
-        <v>0.4952173913043478</v>
-      </c>
-      <c r="AH21">
-        <v>0.4747826086956521</v>
-      </c>
-      <c r="AI21">
-        <v>0.4543478260869566</v>
-      </c>
-      <c r="AJ21">
-        <v>0.4339130434782608</v>
-      </c>
-      <c r="AK21">
-        <v>0.4134782608695652</v>
-      </c>
-      <c r="AL21">
-        <v>0.3930434782608696</v>
-      </c>
-      <c r="AM21">
-        <v>0.3726086956521739</v>
-      </c>
-      <c r="AN21">
-        <v>0.3521739130434782</v>
-      </c>
-      <c r="AO21">
-        <v>0.3317391304347826</v>
-      </c>
-      <c r="AP21">
-        <v>0.311304347826087</v>
-      </c>
-      <c r="AQ21">
-        <v>0.2908695652173913</v>
-      </c>
-      <c r="AR21">
-        <v>0.2704347826086956</v>
-      </c>
-      <c r="AS21">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="22" spans="1:45">
-      <c r="A22" t="s">
-        <v>9</v>
-      </c>
-      <c r="B22" t="s">
-        <v>123</v>
-      </c>
-      <c r="C22">
-        <v>15</v>
-      </c>
-      <c r="H22">
-        <v>1</v>
-      </c>
-      <c r="I22">
-        <v>1</v>
-      </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
-      <c r="K22">
-        <v>0</v>
-      </c>
-      <c r="L22">
-        <v>0</v>
-      </c>
-      <c r="M22">
-        <v>0</v>
-      </c>
-      <c r="N22">
-        <v>0</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>0</v>
-      </c>
-      <c r="R22">
-        <v>0</v>
-      </c>
-      <c r="S22">
-        <v>0</v>
-      </c>
-      <c r="T22">
-        <v>0</v>
-      </c>
-      <c r="U22">
-        <v>0</v>
-      </c>
-      <c r="V22">
-        <v>0</v>
-      </c>
-      <c r="W22">
-        <v>0.03478260869565217</v>
-      </c>
-      <c r="X22">
-        <v>0.06956521739130435</v>
-      </c>
-      <c r="Y22">
-        <v>0.1043478260869565</v>
-      </c>
-      <c r="Z22">
-        <v>0.1391304347826087</v>
-      </c>
-      <c r="AA22">
-        <v>0.1739130434782609</v>
-      </c>
-      <c r="AB22">
-        <v>0.2086956521739131</v>
-      </c>
-      <c r="AC22">
-        <v>0.2434782608695653</v>
-      </c>
-      <c r="AD22">
-        <v>0.2782608695652174</v>
-      </c>
-      <c r="AE22">
-        <v>0.3130434782608696</v>
-      </c>
-      <c r="AF22">
-        <v>0.3478260869565217</v>
-      </c>
-      <c r="AG22">
-        <v>0.3826086956521739</v>
-      </c>
-      <c r="AH22">
-        <v>0.4173913043478261</v>
-      </c>
-      <c r="AI22">
-        <v>0.4521739130434783</v>
-      </c>
-      <c r="AJ22">
-        <v>0.4869565217391305</v>
-      </c>
-      <c r="AK22">
-        <v>0.5217391304347826</v>
-      </c>
-      <c r="AL22">
-        <v>0.5565217391304348</v>
-      </c>
-      <c r="AM22">
-        <v>0.591304347826087</v>
-      </c>
-      <c r="AN22">
-        <v>0.6260869565217392</v>
-      </c>
-      <c r="AO22">
-        <v>0.6608695652173914</v>
-      </c>
-      <c r="AP22">
-        <v>0.6956521739130435</v>
-      </c>
-      <c r="AQ22">
-        <v>0.7304347826086957</v>
-      </c>
-      <c r="AR22">
-        <v>0.7652173913043478</v>
-      </c>
-      <c r="AS22">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:45">
-      <c r="A23" t="s">
-        <v>9</v>
-      </c>
-      <c r="B23" t="s">
-        <v>124</v>
-      </c>
-      <c r="C23">
-        <v>15</v>
-      </c>
-      <c r="H23">
-        <v>1</v>
-      </c>
-      <c r="I23">
-        <v>1</v>
-      </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
-      <c r="K23">
-        <v>0</v>
-      </c>
-      <c r="L23">
-        <v>0</v>
-      </c>
-      <c r="M23">
-        <v>0</v>
-      </c>
-      <c r="N23">
-        <v>0</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>0</v>
-      </c>
-      <c r="R23">
-        <v>0</v>
-      </c>
-      <c r="S23">
-        <v>0</v>
-      </c>
-      <c r="T23">
-        <v>0</v>
-      </c>
-      <c r="U23">
-        <v>0</v>
-      </c>
-      <c r="V23">
-        <v>0</v>
-      </c>
-      <c r="W23">
-        <v>0.03478260869565217</v>
-      </c>
-      <c r="X23">
-        <v>0.06956521739130435</v>
-      </c>
-      <c r="Y23">
-        <v>0.1043478260869565</v>
-      </c>
-      <c r="Z23">
-        <v>0.1391304347826087</v>
-      </c>
-      <c r="AA23">
-        <v>0.1739130434782609</v>
-      </c>
-      <c r="AB23">
-        <v>0.2086956521739131</v>
-      </c>
-      <c r="AC23">
-        <v>0.2434782608695653</v>
-      </c>
-      <c r="AD23">
-        <v>0.2782608695652174</v>
-      </c>
-      <c r="AE23">
-        <v>0.3130434782608696</v>
-      </c>
-      <c r="AF23">
-        <v>0.3478260869565217</v>
-      </c>
-      <c r="AG23">
-        <v>0.3826086956521739</v>
-      </c>
-      <c r="AH23">
-        <v>0.4173913043478261</v>
-      </c>
-      <c r="AI23">
-        <v>0.4521739130434783</v>
-      </c>
-      <c r="AJ23">
-        <v>0.4869565217391305</v>
-      </c>
-      <c r="AK23">
-        <v>0.5217391304347826</v>
-      </c>
-      <c r="AL23">
-        <v>0.5565217391304348</v>
-      </c>
-      <c r="AM23">
-        <v>0.591304347826087</v>
-      </c>
-      <c r="AN23">
-        <v>0.6260869565217392</v>
-      </c>
-      <c r="AO23">
-        <v>0.6608695652173914</v>
-      </c>
-      <c r="AP23">
-        <v>0.6956521739130435</v>
-      </c>
-      <c r="AQ23">
-        <v>0.7304347826086957</v>
-      </c>
-      <c r="AR23">
-        <v>0.7652173913043478</v>
-      </c>
-      <c r="AS23">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:45">
-      <c r="A24" t="s">
-        <v>9</v>
-      </c>
-      <c r="B24" t="s">
-        <v>127</v>
-      </c>
-      <c r="C24">
-        <v>15</v>
-      </c>
-      <c r="H24">
-        <v>1</v>
-      </c>
-      <c r="I24">
-        <v>1</v>
-      </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
-      <c r="K24">
-        <v>0</v>
-      </c>
-      <c r="L24">
-        <v>0</v>
-      </c>
-      <c r="M24">
-        <v>0</v>
-      </c>
-      <c r="N24">
-        <v>0</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>0</v>
-      </c>
-      <c r="R24">
-        <v>0</v>
-      </c>
-      <c r="S24">
-        <v>0</v>
-      </c>
-      <c r="T24">
-        <v>0</v>
-      </c>
-      <c r="U24">
-        <v>0</v>
-      </c>
-      <c r="V24">
-        <v>0</v>
-      </c>
-      <c r="W24">
-        <v>0.03478260869565217</v>
-      </c>
-      <c r="X24">
-        <v>0.06956521739130435</v>
-      </c>
-      <c r="Y24">
-        <v>0.1043478260869565</v>
-      </c>
-      <c r="Z24">
-        <v>0.1391304347826087</v>
-      </c>
-      <c r="AA24">
-        <v>0.1739130434782609</v>
-      </c>
-      <c r="AB24">
-        <v>0.2086956521739131</v>
-      </c>
-      <c r="AC24">
-        <v>0.2434782608695653</v>
-      </c>
-      <c r="AD24">
-        <v>0.2782608695652174</v>
-      </c>
-      <c r="AE24">
-        <v>0.3130434782608696</v>
-      </c>
-      <c r="AF24">
-        <v>0.3478260869565217</v>
-      </c>
-      <c r="AG24">
-        <v>0.3826086956521739</v>
-      </c>
-      <c r="AH24">
-        <v>0.4173913043478261</v>
-      </c>
-      <c r="AI24">
-        <v>0.4521739130434783</v>
-      </c>
-      <c r="AJ24">
-        <v>0.4869565217391305</v>
-      </c>
-      <c r="AK24">
-        <v>0.5217391304347826</v>
-      </c>
-      <c r="AL24">
-        <v>0.5565217391304348</v>
-      </c>
-      <c r="AM24">
-        <v>0.591304347826087</v>
-      </c>
-      <c r="AN24">
-        <v>0.6260869565217392</v>
-      </c>
-      <c r="AO24">
-        <v>0.6608695652173914</v>
-      </c>
-      <c r="AP24">
-        <v>0.6956521739130435</v>
-      </c>
-      <c r="AQ24">
-        <v>0.7304347826086957</v>
-      </c>
-      <c r="AR24">
-        <v>0.7652173913043478</v>
-      </c>
-      <c r="AS24">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:45">
-      <c r="A25" t="s">
-        <v>9</v>
-      </c>
-      <c r="B25" t="s">
-        <v>128</v>
-      </c>
-      <c r="C25">
-        <v>15</v>
-      </c>
-      <c r="H25">
-        <v>1</v>
-      </c>
-      <c r="I25">
-        <v>1</v>
-      </c>
-      <c r="J25">
-        <v>0</v>
-      </c>
-      <c r="K25">
-        <v>0</v>
-      </c>
-      <c r="L25">
-        <v>0</v>
-      </c>
-      <c r="M25">
-        <v>0</v>
-      </c>
-      <c r="N25">
-        <v>0</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="P25">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>0</v>
-      </c>
-      <c r="R25">
-        <v>0</v>
-      </c>
-      <c r="S25">
-        <v>0</v>
-      </c>
-      <c r="T25">
-        <v>0</v>
-      </c>
-      <c r="U25">
-        <v>0</v>
-      </c>
-      <c r="V25">
-        <v>0</v>
-      </c>
-      <c r="W25">
-        <v>0.03478260869565217</v>
-      </c>
-      <c r="X25">
-        <v>0.06956521739130435</v>
-      </c>
-      <c r="Y25">
-        <v>0.1043478260869565</v>
-      </c>
-      <c r="Z25">
-        <v>0.1391304347826087</v>
-      </c>
-      <c r="AA25">
-        <v>0.1739130434782609</v>
-      </c>
-      <c r="AB25">
-        <v>0.2086956521739131</v>
-      </c>
-      <c r="AC25">
-        <v>0.2434782608695653</v>
-      </c>
-      <c r="AD25">
-        <v>0.2782608695652174</v>
-      </c>
-      <c r="AE25">
-        <v>0.3130434782608696</v>
-      </c>
-      <c r="AF25">
-        <v>0.3478260869565217</v>
-      </c>
-      <c r="AG25">
-        <v>0.3826086956521739</v>
-      </c>
-      <c r="AH25">
-        <v>0.4173913043478261</v>
-      </c>
-      <c r="AI25">
-        <v>0.4521739130434783</v>
-      </c>
-      <c r="AJ25">
-        <v>0.4869565217391305</v>
-      </c>
-      <c r="AK25">
-        <v>0.5217391304347826</v>
-      </c>
-      <c r="AL25">
-        <v>0.5565217391304348</v>
-      </c>
-      <c r="AM25">
-        <v>0.591304347826087</v>
-      </c>
-      <c r="AN25">
-        <v>0.6260869565217392</v>
-      </c>
-      <c r="AO25">
-        <v>0.6608695652173914</v>
-      </c>
-      <c r="AP25">
-        <v>0.6956521739130435</v>
-      </c>
-      <c r="AQ25">
-        <v>0.7304347826086957</v>
-      </c>
-      <c r="AR25">
-        <v>0.7652173913043478</v>
-      </c>
-      <c r="AS25">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:45">
-      <c r="A26" t="s">
-        <v>9</v>
-      </c>
-      <c r="B26" t="s">
-        <v>129</v>
-      </c>
-      <c r="H26">
-        <v>1</v>
-      </c>
-      <c r="I26">
-        <v>1</v>
-      </c>
-      <c r="J26">
-        <v>0.9</v>
-      </c>
-      <c r="K26">
-        <v>0.9</v>
-      </c>
-      <c r="L26">
-        <v>0.9</v>
-      </c>
-      <c r="M26">
-        <v>0.9</v>
-      </c>
-      <c r="N26">
-        <v>0.9</v>
-      </c>
-      <c r="O26">
-        <v>0.9</v>
-      </c>
-      <c r="P26">
-        <v>0.9</v>
-      </c>
-      <c r="Q26">
-        <v>0.9</v>
-      </c>
-      <c r="R26">
-        <v>0.9</v>
-      </c>
-      <c r="S26">
-        <v>0.9</v>
-      </c>
-      <c r="T26">
-        <v>0.9</v>
-      </c>
-      <c r="U26">
-        <v>0.9</v>
-      </c>
-      <c r="V26">
-        <v>0.9</v>
-      </c>
-      <c r="W26">
-        <v>0.9</v>
-      </c>
-      <c r="X26">
-        <v>0.9</v>
-      </c>
-      <c r="Y26">
-        <v>0.9</v>
-      </c>
-      <c r="Z26">
-        <v>0.9</v>
-      </c>
-      <c r="AA26">
-        <v>0.9</v>
-      </c>
-      <c r="AB26">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AC26">
-        <v>0.9000000000000001</v>
-      </c>
-      <c r="AD26">
-        <v>0.9000000000000001</v>
-      </c>
-      <c r="AE26">
-        <v>0.9000000000000001</v>
-      </c>
-      <c r="AF26">
-        <v>0.9000000000000001</v>
-      </c>
-      <c r="AG26">
-        <v>0.9</v>
-      </c>
-      <c r="AH26">
-        <v>0.9</v>
-      </c>
-      <c r="AI26">
-        <v>0.9</v>
-      </c>
-      <c r="AJ26">
-        <v>0.9</v>
-      </c>
-      <c r="AK26">
-        <v>0.9000000000000001</v>
-      </c>
-      <c r="AL26">
-        <v>0.9000000000000001</v>
-      </c>
-      <c r="AM26">
-        <v>0.9</v>
-      </c>
-      <c r="AN26">
-        <v>0.9</v>
-      </c>
-      <c r="AO26">
-        <v>0.9</v>
-      </c>
-      <c r="AP26">
-        <v>0.9</v>
-      </c>
-      <c r="AQ26">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AR26">
-        <v>0.9</v>
-      </c>
-      <c r="AS26">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:45">
-      <c r="A27" t="s">
-        <v>9</v>
-      </c>
-      <c r="B27" t="s">
-        <v>130</v>
-      </c>
-      <c r="H27">
-        <v>1</v>
-      </c>
-      <c r="I27">
-        <v>1</v>
-      </c>
-      <c r="J27">
-        <v>0.9</v>
-      </c>
-      <c r="K27">
-        <v>0.9</v>
-      </c>
-      <c r="L27">
-        <v>0.9</v>
-      </c>
-      <c r="M27">
-        <v>0.9</v>
-      </c>
-      <c r="N27">
-        <v>0.9</v>
-      </c>
-      <c r="O27">
-        <v>0.9</v>
-      </c>
-      <c r="P27">
-        <v>0.9</v>
-      </c>
-      <c r="Q27">
-        <v>0.9</v>
-      </c>
-      <c r="R27">
-        <v>0.9</v>
-      </c>
-      <c r="S27">
-        <v>0.9</v>
-      </c>
-      <c r="T27">
-        <v>0.9</v>
-      </c>
-      <c r="U27">
-        <v>0.9</v>
-      </c>
-      <c r="V27">
-        <v>0.9</v>
-      </c>
-      <c r="W27">
-        <v>0.9</v>
-      </c>
-      <c r="X27">
-        <v>0.9</v>
-      </c>
-      <c r="Y27">
-        <v>0.9</v>
-      </c>
-      <c r="Z27">
-        <v>0.9</v>
-      </c>
-      <c r="AA27">
-        <v>0.9</v>
-      </c>
-      <c r="AB27">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AC27">
-        <v>0.9000000000000001</v>
-      </c>
-      <c r="AD27">
-        <v>0.9000000000000001</v>
-      </c>
-      <c r="AE27">
-        <v>0.9000000000000001</v>
-      </c>
-      <c r="AF27">
-        <v>0.9000000000000001</v>
-      </c>
-      <c r="AG27">
-        <v>0.9</v>
-      </c>
-      <c r="AH27">
-        <v>0.9</v>
-      </c>
-      <c r="AI27">
-        <v>0.9</v>
-      </c>
-      <c r="AJ27">
-        <v>0.9</v>
-      </c>
-      <c r="AK27">
-        <v>0.9000000000000001</v>
-      </c>
-      <c r="AL27">
-        <v>0.9000000000000001</v>
-      </c>
-      <c r="AM27">
-        <v>0.9</v>
-      </c>
-      <c r="AN27">
-        <v>0.9</v>
-      </c>
-      <c r="AO27">
-        <v>0.9</v>
-      </c>
-      <c r="AP27">
-        <v>0.9</v>
-      </c>
-      <c r="AQ27">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AR27">
-        <v>0.9</v>
-      </c>
-      <c r="AS27">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="28" spans="1:45">
-      <c r="A28" t="s">
-        <v>9</v>
-      </c>
-      <c r="B28" t="s">
-        <v>131</v>
-      </c>
-      <c r="H28">
-        <v>1</v>
-      </c>
-      <c r="I28">
-        <v>1</v>
-      </c>
-      <c r="J28">
-        <v>0.9</v>
-      </c>
-      <c r="K28">
-        <v>0.9</v>
-      </c>
-      <c r="L28">
-        <v>0.9</v>
-      </c>
-      <c r="M28">
-        <v>0.9</v>
-      </c>
-      <c r="N28">
-        <v>0.9</v>
-      </c>
-      <c r="O28">
-        <v>0.9</v>
-      </c>
-      <c r="P28">
-        <v>0.9</v>
-      </c>
-      <c r="Q28">
-        <v>0.9</v>
-      </c>
-      <c r="R28">
-        <v>0.9</v>
-      </c>
-      <c r="S28">
-        <v>0.9</v>
-      </c>
-      <c r="T28">
-        <v>0.9</v>
-      </c>
-      <c r="U28">
-        <v>0.9</v>
-      </c>
-      <c r="V28">
-        <v>0.9</v>
-      </c>
-      <c r="W28">
-        <v>0.9</v>
-      </c>
-      <c r="X28">
-        <v>0.9</v>
-      </c>
-      <c r="Y28">
-        <v>0.9</v>
-      </c>
-      <c r="Z28">
-        <v>0.9</v>
-      </c>
-      <c r="AA28">
-        <v>0.9</v>
-      </c>
-      <c r="AB28">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AC28">
-        <v>0.9000000000000001</v>
-      </c>
-      <c r="AD28">
-        <v>0.9000000000000001</v>
-      </c>
-      <c r="AE28">
-        <v>0.9000000000000001</v>
-      </c>
-      <c r="AF28">
-        <v>0.9000000000000001</v>
-      </c>
-      <c r="AG28">
-        <v>0.9</v>
-      </c>
-      <c r="AH28">
-        <v>0.9</v>
-      </c>
-      <c r="AI28">
-        <v>0.9</v>
-      </c>
-      <c r="AJ28">
-        <v>0.9</v>
-      </c>
-      <c r="AK28">
-        <v>0.9000000000000001</v>
-      </c>
-      <c r="AL28">
-        <v>0.9000000000000001</v>
-      </c>
-      <c r="AM28">
-        <v>0.9</v>
-      </c>
-      <c r="AN28">
-        <v>0.9</v>
-      </c>
-      <c r="AO28">
-        <v>0.9</v>
-      </c>
-      <c r="AP28">
-        <v>0.9</v>
-      </c>
-      <c r="AQ28">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AR28">
-        <v>0.9</v>
-      </c>
-      <c r="AS28">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:45">
-      <c r="A29" t="s">
-        <v>9</v>
-      </c>
-      <c r="B29" t="s">
-        <v>132</v>
-      </c>
-      <c r="H29">
-        <v>1</v>
-      </c>
-      <c r="I29">
-        <v>1</v>
-      </c>
-      <c r="J29">
-        <v>0.9</v>
-      </c>
-      <c r="K29">
-        <v>0.9</v>
-      </c>
-      <c r="L29">
-        <v>0.9</v>
-      </c>
-      <c r="M29">
-        <v>0.9</v>
-      </c>
-      <c r="N29">
-        <v>0.9</v>
-      </c>
-      <c r="O29">
-        <v>0.9</v>
-      </c>
-      <c r="P29">
-        <v>0.9</v>
-      </c>
-      <c r="Q29">
-        <v>0.9</v>
-      </c>
-      <c r="R29">
-        <v>0.9</v>
-      </c>
-      <c r="S29">
-        <v>0.9</v>
-      </c>
-      <c r="T29">
-        <v>0.9</v>
-      </c>
-      <c r="U29">
-        <v>0.9</v>
-      </c>
-      <c r="V29">
-        <v>0.9</v>
-      </c>
-      <c r="W29">
-        <v>0.9</v>
-      </c>
-      <c r="X29">
-        <v>0.9</v>
-      </c>
-      <c r="Y29">
-        <v>0.9</v>
-      </c>
-      <c r="Z29">
-        <v>0.9</v>
-      </c>
-      <c r="AA29">
-        <v>0.9</v>
-      </c>
-      <c r="AB29">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AC29">
-        <v>0.9000000000000001</v>
-      </c>
-      <c r="AD29">
-        <v>0.9000000000000001</v>
-      </c>
-      <c r="AE29">
-        <v>0.9000000000000001</v>
-      </c>
-      <c r="AF29">
-        <v>0.9000000000000001</v>
-      </c>
-      <c r="AG29">
-        <v>0.9</v>
-      </c>
-      <c r="AH29">
-        <v>0.9</v>
-      </c>
-      <c r="AI29">
-        <v>0.9</v>
-      </c>
-      <c r="AJ29">
-        <v>0.9</v>
-      </c>
-      <c r="AK29">
-        <v>0.9000000000000001</v>
-      </c>
-      <c r="AL29">
-        <v>0.9000000000000001</v>
-      </c>
-      <c r="AM29">
-        <v>0.9</v>
-      </c>
-      <c r="AN29">
-        <v>0.9</v>
-      </c>
-      <c r="AO29">
-        <v>0.9</v>
-      </c>
-      <c r="AP29">
-        <v>0.9</v>
-      </c>
-      <c r="AQ29">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AR29">
-        <v>0.9</v>
-      </c>
-      <c r="AS29">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="30" spans="1:45">
-      <c r="A30" t="s">
-        <v>9</v>
-      </c>
-      <c r="B30" t="s">
-        <v>133</v>
-      </c>
-      <c r="H30">
-        <v>1</v>
-      </c>
-      <c r="I30">
-        <v>1</v>
-      </c>
-      <c r="J30">
-        <v>0.9</v>
-      </c>
-      <c r="K30">
-        <v>0.9</v>
-      </c>
-      <c r="L30">
-        <v>0.9</v>
-      </c>
-      <c r="M30">
-        <v>0.9</v>
-      </c>
-      <c r="N30">
-        <v>0.9</v>
-      </c>
-      <c r="O30">
-        <v>0.9</v>
-      </c>
-      <c r="P30">
-        <v>0.9</v>
-      </c>
-      <c r="Q30">
-        <v>0.9</v>
-      </c>
-      <c r="R30">
-        <v>0.9</v>
-      </c>
-      <c r="S30">
-        <v>0.9</v>
-      </c>
-      <c r="T30">
-        <v>0.9</v>
-      </c>
-      <c r="U30">
-        <v>0.9</v>
-      </c>
-      <c r="V30">
-        <v>0.9</v>
-      </c>
-      <c r="W30">
-        <v>0.9</v>
-      </c>
-      <c r="X30">
-        <v>0.9</v>
-      </c>
-      <c r="Y30">
-        <v>0.9</v>
-      </c>
-      <c r="Z30">
-        <v>0.9</v>
-      </c>
-      <c r="AA30">
-        <v>0.9</v>
-      </c>
-      <c r="AB30">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AC30">
-        <v>0.9000000000000001</v>
-      </c>
-      <c r="AD30">
-        <v>0.9000000000000001</v>
-      </c>
-      <c r="AE30">
-        <v>0.9000000000000001</v>
-      </c>
-      <c r="AF30">
-        <v>0.9000000000000001</v>
-      </c>
-      <c r="AG30">
-        <v>0.9</v>
-      </c>
-      <c r="AH30">
-        <v>0.9</v>
-      </c>
-      <c r="AI30">
-        <v>0.9</v>
-      </c>
-      <c r="AJ30">
-        <v>0.9</v>
-      </c>
-      <c r="AK30">
-        <v>0.9000000000000001</v>
-      </c>
-      <c r="AL30">
-        <v>0.9000000000000001</v>
-      </c>
-      <c r="AM30">
-        <v>0.9</v>
-      </c>
-      <c r="AN30">
-        <v>0.9</v>
-      </c>
-      <c r="AO30">
-        <v>0.9</v>
-      </c>
-      <c r="AP30">
-        <v>0.9</v>
-      </c>
-      <c r="AQ30">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AR30">
-        <v>0.9</v>
-      </c>
-      <c r="AS30">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="31" spans="1:45">
-      <c r="A31" t="s">
-        <v>9</v>
-      </c>
-      <c r="B31" t="s">
-        <v>134</v>
-      </c>
-      <c r="H31">
-        <v>1</v>
-      </c>
-      <c r="I31">
-        <v>1</v>
-      </c>
-      <c r="J31">
-        <v>0.9</v>
-      </c>
-      <c r="K31">
-        <v>0.9</v>
-      </c>
-      <c r="L31">
-        <v>0.9</v>
-      </c>
-      <c r="M31">
-        <v>0.9</v>
-      </c>
-      <c r="N31">
-        <v>0.9</v>
-      </c>
-      <c r="O31">
-        <v>0.9</v>
-      </c>
-      <c r="P31">
-        <v>0.9</v>
-      </c>
-      <c r="Q31">
-        <v>0.9</v>
-      </c>
-      <c r="R31">
-        <v>0.9</v>
-      </c>
-      <c r="S31">
-        <v>0.9</v>
-      </c>
-      <c r="T31">
-        <v>0.9</v>
-      </c>
-      <c r="U31">
-        <v>0.9</v>
-      </c>
-      <c r="V31">
-        <v>0.9</v>
-      </c>
-      <c r="W31">
-        <v>0.9</v>
-      </c>
-      <c r="X31">
-        <v>0.9</v>
-      </c>
-      <c r="Y31">
-        <v>0.9</v>
-      </c>
-      <c r="Z31">
-        <v>0.9</v>
-      </c>
-      <c r="AA31">
-        <v>0.9</v>
-      </c>
-      <c r="AB31">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AC31">
-        <v>0.9000000000000001</v>
-      </c>
-      <c r="AD31">
-        <v>0.9000000000000001</v>
-      </c>
-      <c r="AE31">
-        <v>0.9000000000000001</v>
-      </c>
-      <c r="AF31">
-        <v>0.9000000000000001</v>
-      </c>
-      <c r="AG31">
-        <v>0.9</v>
-      </c>
-      <c r="AH31">
-        <v>0.9</v>
-      </c>
-      <c r="AI31">
-        <v>0.9</v>
-      </c>
-      <c r="AJ31">
-        <v>0.9</v>
-      </c>
-      <c r="AK31">
-        <v>0.9000000000000001</v>
-      </c>
-      <c r="AL31">
-        <v>0.9000000000000001</v>
-      </c>
-      <c r="AM31">
-        <v>0.9</v>
-      </c>
-      <c r="AN31">
-        <v>0.9</v>
-      </c>
-      <c r="AO31">
-        <v>0.9</v>
-      </c>
-      <c r="AP31">
-        <v>0.9</v>
-      </c>
-      <c r="AQ31">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AR31">
-        <v>0.9</v>
-      </c>
-      <c r="AS31">
-        <v>0.9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/croatia/transformations/templates/calibrated/croatia/model_input_variables_croatia_ip_calibrated.xlsx
+++ b/croatia/transformations/templates/calibrated/croatia/model_input_variables_croatia_ip_calibrated.xlsx
@@ -8,13 +8,15 @@
   </bookViews>
   <sheets>
     <sheet name="strategy_id-0" sheetId="1" r:id="rId1"/>
+    <sheet name="strategy_id-6004" sheetId="2" r:id="rId2"/>
+    <sheet name="strategy_id-6005" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="196">
   <si>
     <t>subsector</t>
   </si>
@@ -23953,4 +23955,6006 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AS17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:45">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1">
+        <v>0</v>
+      </c>
+      <c r="K1" s="1">
+        <v>1</v>
+      </c>
+      <c r="L1" s="1">
+        <v>2</v>
+      </c>
+      <c r="M1" s="1">
+        <v>3</v>
+      </c>
+      <c r="N1" s="1">
+        <v>4</v>
+      </c>
+      <c r="O1" s="1">
+        <v>5</v>
+      </c>
+      <c r="P1" s="1">
+        <v>6</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>7</v>
+      </c>
+      <c r="R1" s="1">
+        <v>8</v>
+      </c>
+      <c r="S1" s="1">
+        <v>9</v>
+      </c>
+      <c r="T1" s="1">
+        <v>10</v>
+      </c>
+      <c r="U1" s="1">
+        <v>11</v>
+      </c>
+      <c r="V1" s="1">
+        <v>12</v>
+      </c>
+      <c r="W1" s="1">
+        <v>13</v>
+      </c>
+      <c r="X1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Y1" s="1">
+        <v>15</v>
+      </c>
+      <c r="Z1" s="1">
+        <v>16</v>
+      </c>
+      <c r="AA1" s="1">
+        <v>17</v>
+      </c>
+      <c r="AB1" s="1">
+        <v>18</v>
+      </c>
+      <c r="AC1" s="1">
+        <v>19</v>
+      </c>
+      <c r="AD1" s="1">
+        <v>20</v>
+      </c>
+      <c r="AE1" s="1">
+        <v>21</v>
+      </c>
+      <c r="AF1" s="1">
+        <v>22</v>
+      </c>
+      <c r="AG1" s="1">
+        <v>23</v>
+      </c>
+      <c r="AH1" s="1">
+        <v>24</v>
+      </c>
+      <c r="AI1" s="1">
+        <v>25</v>
+      </c>
+      <c r="AJ1" s="1">
+        <v>26</v>
+      </c>
+      <c r="AK1" s="1">
+        <v>27</v>
+      </c>
+      <c r="AL1" s="1">
+        <v>28</v>
+      </c>
+      <c r="AM1" s="1">
+        <v>29</v>
+      </c>
+      <c r="AN1" s="1">
+        <v>30</v>
+      </c>
+      <c r="AO1" s="1">
+        <v>31</v>
+      </c>
+      <c r="AP1" s="1">
+        <v>32</v>
+      </c>
+      <c r="AQ1" s="1">
+        <v>33</v>
+      </c>
+      <c r="AR1" s="1">
+        <v>34</v>
+      </c>
+      <c r="AS1" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:45">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2">
+        <v>30</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>1.56211755418937E-09</v>
+      </c>
+      <c r="Q2">
+        <v>1.56211755418937E-09</v>
+      </c>
+      <c r="R2">
+        <v>1.56211755418937E-09</v>
+      </c>
+      <c r="S2">
+        <v>1.56211755418937E-09</v>
+      </c>
+      <c r="T2">
+        <v>1.56211755418937E-09</v>
+      </c>
+      <c r="U2">
+        <v>1.56211755418937E-09</v>
+      </c>
+      <c r="V2">
+        <v>1.56211755418937E-09</v>
+      </c>
+      <c r="W2">
+        <v>1.496236944295297E-09</v>
+      </c>
+      <c r="X2">
+        <v>1.430356334401223E-09</v>
+      </c>
+      <c r="Y2">
+        <v>1.36447572450715E-09</v>
+      </c>
+      <c r="Z2">
+        <v>1.298595114613076E-09</v>
+      </c>
+      <c r="AA2">
+        <v>1.232714504719003E-09</v>
+      </c>
+      <c r="AB2">
+        <v>1.166833894824929E-09</v>
+      </c>
+      <c r="AC2">
+        <v>1.100953284930856E-09</v>
+      </c>
+      <c r="AD2">
+        <v>1.035072675036783E-09</v>
+      </c>
+      <c r="AE2">
+        <v>9.691920651427092E-10</v>
+      </c>
+      <c r="AF2">
+        <v>9.033114552486357E-10</v>
+      </c>
+      <c r="AG2">
+        <v>8.374308453545622E-10</v>
+      </c>
+      <c r="AH2">
+        <v>7.715502354604889E-10</v>
+      </c>
+      <c r="AI2">
+        <v>7.056696255664155E-10</v>
+      </c>
+      <c r="AJ2">
+        <v>6.397890156723419E-10</v>
+      </c>
+      <c r="AK2">
+        <v>5.739084057782686E-10</v>
+      </c>
+      <c r="AL2">
+        <v>5.080277958841951E-10</v>
+      </c>
+      <c r="AM2">
+        <v>4.421471859901217E-10</v>
+      </c>
+      <c r="AN2">
+        <v>3.762665760960482E-10</v>
+      </c>
+      <c r="AO2">
+        <v>3.103859662019748E-10</v>
+      </c>
+      <c r="AP2">
+        <v>2.445053563079014E-10</v>
+      </c>
+      <c r="AQ2">
+        <v>1.78624746413828E-10</v>
+      </c>
+      <c r="AR2">
+        <v>1.127441365197545E-10</v>
+      </c>
+      <c r="AS2">
+        <v>4.68635266256811E-11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:45">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3">
+        <v>30</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>0.506309921818343</v>
+      </c>
+      <c r="K3">
+        <v>0.500375407184809</v>
+      </c>
+      <c r="L3">
+        <v>0.497840125348075</v>
+      </c>
+      <c r="M3">
+        <v>0.494422755460523</v>
+      </c>
+      <c r="N3">
+        <v>0.48672313920363</v>
+      </c>
+      <c r="O3">
+        <v>0.479259656980362</v>
+      </c>
+      <c r="P3">
+        <v>0.481732444696644</v>
+      </c>
+      <c r="Q3">
+        <v>0.481732444696644</v>
+      </c>
+      <c r="R3">
+        <v>0.481732444696644</v>
+      </c>
+      <c r="S3">
+        <v>0.481732444696644</v>
+      </c>
+      <c r="T3">
+        <v>0.481732444696644</v>
+      </c>
+      <c r="U3">
+        <v>0.481732444696644</v>
+      </c>
+      <c r="V3">
+        <v>0.481732444696644</v>
+      </c>
+      <c r="W3">
+        <v>0.4614159024637856</v>
+      </c>
+      <c r="X3">
+        <v>0.4410993602309271</v>
+      </c>
+      <c r="Y3">
+        <v>0.4207828179980686</v>
+      </c>
+      <c r="Z3">
+        <v>0.4004662757652102</v>
+      </c>
+      <c r="AA3">
+        <v>0.3801497335323517</v>
+      </c>
+      <c r="AB3">
+        <v>0.3598331912994931</v>
+      </c>
+      <c r="AC3">
+        <v>0.3395166490666347</v>
+      </c>
+      <c r="AD3">
+        <v>0.3192001068337763</v>
+      </c>
+      <c r="AE3">
+        <v>0.2988835646009178</v>
+      </c>
+      <c r="AF3">
+        <v>0.2785670223680594</v>
+      </c>
+      <c r="AG3">
+        <v>0.2582504801352009</v>
+      </c>
+      <c r="AH3">
+        <v>0.2379339379023424</v>
+      </c>
+      <c r="AI3">
+        <v>0.217617395669484</v>
+      </c>
+      <c r="AJ3">
+        <v>0.1973008534366255</v>
+      </c>
+      <c r="AK3">
+        <v>0.176984311203767</v>
+      </c>
+      <c r="AL3">
+        <v>0.1566677689709086</v>
+      </c>
+      <c r="AM3">
+        <v>0.1363512267380501</v>
+      </c>
+      <c r="AN3">
+        <v>0.1160346845051916</v>
+      </c>
+      <c r="AO3">
+        <v>0.09571814227233318</v>
+      </c>
+      <c r="AP3">
+        <v>0.07540160003947471</v>
+      </c>
+      <c r="AQ3">
+        <v>0.05508505780661627</v>
+      </c>
+      <c r="AR3">
+        <v>0.03476851557375777</v>
+      </c>
+      <c r="AS3">
+        <v>0.01445197334089932</v>
+      </c>
+    </row>
+    <row r="4" spans="1:45">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4">
+        <v>30</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>0.357646875810092</v>
+      </c>
+      <c r="K4">
+        <v>0.356145320199745</v>
+      </c>
+      <c r="L4">
+        <v>0.356490957281221</v>
+      </c>
+      <c r="M4">
+        <v>0.356286111709025</v>
+      </c>
+      <c r="N4">
+        <v>0.350737689215273</v>
+      </c>
+      <c r="O4">
+        <v>0.34535942732953</v>
+      </c>
+      <c r="P4">
+        <v>0.345496443918732</v>
+      </c>
+      <c r="Q4">
+        <v>0.345496443918732</v>
+      </c>
+      <c r="R4">
+        <v>0.345496443918732</v>
+      </c>
+      <c r="S4">
+        <v>0.345496443918732</v>
+      </c>
+      <c r="T4">
+        <v>0.345496443918732</v>
+      </c>
+      <c r="U4">
+        <v>0.345496443918732</v>
+      </c>
+      <c r="V4">
+        <v>0.345496443918732</v>
+      </c>
+      <c r="W4">
+        <v>0.3309255069360725</v>
+      </c>
+      <c r="X4">
+        <v>0.3163545699534129</v>
+      </c>
+      <c r="Y4">
+        <v>0.3017836329707533</v>
+      </c>
+      <c r="Z4">
+        <v>0.2872126959880938</v>
+      </c>
+      <c r="AA4">
+        <v>0.2726417590054342</v>
+      </c>
+      <c r="AB4">
+        <v>0.2580708220227746</v>
+      </c>
+      <c r="AC4">
+        <v>0.243499885040115</v>
+      </c>
+      <c r="AD4">
+        <v>0.2289289480574555</v>
+      </c>
+      <c r="AE4">
+        <v>0.2143580110747959</v>
+      </c>
+      <c r="AF4">
+        <v>0.1997870740921364</v>
+      </c>
+      <c r="AG4">
+        <v>0.1852161371094768</v>
+      </c>
+      <c r="AH4">
+        <v>0.1706452001268172</v>
+      </c>
+      <c r="AI4">
+        <v>0.1560742631441576</v>
+      </c>
+      <c r="AJ4">
+        <v>0.141503326161498</v>
+      </c>
+      <c r="AK4">
+        <v>0.1269323891788385</v>
+      </c>
+      <c r="AL4">
+        <v>0.1123614521961789</v>
+      </c>
+      <c r="AM4">
+        <v>0.09779051521351938</v>
+      </c>
+      <c r="AN4">
+        <v>0.08321957823085979</v>
+      </c>
+      <c r="AO4">
+        <v>0.06864864124820023</v>
+      </c>
+      <c r="AP4">
+        <v>0.05407770426554067</v>
+      </c>
+      <c r="AQ4">
+        <v>0.03950676728288111</v>
+      </c>
+      <c r="AR4">
+        <v>0.02493583030022152</v>
+      </c>
+      <c r="AS4">
+        <v>0.01036489331756196</v>
+      </c>
+    </row>
+    <row r="5" spans="1:45">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5">
+        <v>30</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>0.357646875810092</v>
+      </c>
+      <c r="K5">
+        <v>0.356145320199745</v>
+      </c>
+      <c r="L5">
+        <v>0.356490957281221</v>
+      </c>
+      <c r="M5">
+        <v>0.356286111709025</v>
+      </c>
+      <c r="N5">
+        <v>0.350737689215273</v>
+      </c>
+      <c r="O5">
+        <v>0.34535942732953</v>
+      </c>
+      <c r="P5">
+        <v>0.345496443918732</v>
+      </c>
+      <c r="Q5">
+        <v>0.345496443918732</v>
+      </c>
+      <c r="R5">
+        <v>0.345496443918732</v>
+      </c>
+      <c r="S5">
+        <v>0.345496443918732</v>
+      </c>
+      <c r="T5">
+        <v>0.345496443918732</v>
+      </c>
+      <c r="U5">
+        <v>0.345496443918732</v>
+      </c>
+      <c r="V5">
+        <v>0.345496443918732</v>
+      </c>
+      <c r="W5">
+        <v>0.3309255069360725</v>
+      </c>
+      <c r="X5">
+        <v>0.3163545699534129</v>
+      </c>
+      <c r="Y5">
+        <v>0.3017836329707533</v>
+      </c>
+      <c r="Z5">
+        <v>0.2872126959880938</v>
+      </c>
+      <c r="AA5">
+        <v>0.2726417590054342</v>
+      </c>
+      <c r="AB5">
+        <v>0.2580708220227746</v>
+      </c>
+      <c r="AC5">
+        <v>0.243499885040115</v>
+      </c>
+      <c r="AD5">
+        <v>0.2289289480574555</v>
+      </c>
+      <c r="AE5">
+        <v>0.2143580110747959</v>
+      </c>
+      <c r="AF5">
+        <v>0.1997870740921364</v>
+      </c>
+      <c r="AG5">
+        <v>0.1852161371094768</v>
+      </c>
+      <c r="AH5">
+        <v>0.1706452001268172</v>
+      </c>
+      <c r="AI5">
+        <v>0.1560742631441576</v>
+      </c>
+      <c r="AJ5">
+        <v>0.141503326161498</v>
+      </c>
+      <c r="AK5">
+        <v>0.1269323891788385</v>
+      </c>
+      <c r="AL5">
+        <v>0.1123614521961789</v>
+      </c>
+      <c r="AM5">
+        <v>0.09779051521351938</v>
+      </c>
+      <c r="AN5">
+        <v>0.08321957823085979</v>
+      </c>
+      <c r="AO5">
+        <v>0.06864864124820023</v>
+      </c>
+      <c r="AP5">
+        <v>0.05407770426554067</v>
+      </c>
+      <c r="AQ5">
+        <v>0.03950676728288111</v>
+      </c>
+      <c r="AR5">
+        <v>0.02493583030022152</v>
+      </c>
+      <c r="AS5">
+        <v>0.01036489331756196</v>
+      </c>
+    </row>
+    <row r="6" spans="1:45">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6">
+        <v>30</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>2E-06</v>
+      </c>
+      <c r="K6">
+        <v>2E-06</v>
+      </c>
+      <c r="L6">
+        <v>2E-06</v>
+      </c>
+      <c r="M6">
+        <v>2E-06</v>
+      </c>
+      <c r="N6">
+        <v>2E-06</v>
+      </c>
+      <c r="O6">
+        <v>2E-06</v>
+      </c>
+      <c r="P6">
+        <v>2E-06</v>
+      </c>
+      <c r="Q6">
+        <v>2E-06</v>
+      </c>
+      <c r="R6">
+        <v>2E-06</v>
+      </c>
+      <c r="S6">
+        <v>2E-06</v>
+      </c>
+      <c r="T6">
+        <v>2E-06</v>
+      </c>
+      <c r="U6">
+        <v>2E-06</v>
+      </c>
+      <c r="V6">
+        <v>2E-06</v>
+      </c>
+      <c r="W6">
+        <v>1.915652173913044E-06</v>
+      </c>
+      <c r="X6">
+        <v>1.831304347826087E-06</v>
+      </c>
+      <c r="Y6">
+        <v>1.74695652173913E-06</v>
+      </c>
+      <c r="Z6">
+        <v>1.662608695652174E-06</v>
+      </c>
+      <c r="AA6">
+        <v>1.578260869565217E-06</v>
+      </c>
+      <c r="AB6">
+        <v>1.493913043478261E-06</v>
+      </c>
+      <c r="AC6">
+        <v>1.409565217391304E-06</v>
+      </c>
+      <c r="AD6">
+        <v>1.325217391304348E-06</v>
+      </c>
+      <c r="AE6">
+        <v>1.240869565217391E-06</v>
+      </c>
+      <c r="AF6">
+        <v>1.156521739130435E-06</v>
+      </c>
+      <c r="AG6">
+        <v>1.072173913043478E-06</v>
+      </c>
+      <c r="AH6">
+        <v>9.878260869565218E-07</v>
+      </c>
+      <c r="AI6">
+        <v>9.034782608695652E-07</v>
+      </c>
+      <c r="AJ6">
+        <v>8.191304347826086E-07</v>
+      </c>
+      <c r="AK6">
+        <v>7.347826086956521E-07</v>
+      </c>
+      <c r="AL6">
+        <v>6.504347826086956E-07</v>
+      </c>
+      <c r="AM6">
+        <v>5.660869565217392E-07</v>
+      </c>
+      <c r="AN6">
+        <v>4.817391304347825E-07</v>
+      </c>
+      <c r="AO6">
+        <v>3.97391304347826E-07</v>
+      </c>
+      <c r="AP6">
+        <v>3.130434782608696E-07</v>
+      </c>
+      <c r="AQ6">
+        <v>2.286956521739131E-07</v>
+      </c>
+      <c r="AR6">
+        <v>1.443478260869564E-07</v>
+      </c>
+      <c r="AS6">
+        <v>5.999999999999999E-08</v>
+      </c>
+    </row>
+    <row r="7" spans="1:45">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7">
+        <v>30</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>6E-07</v>
+      </c>
+      <c r="K7">
+        <v>6E-07</v>
+      </c>
+      <c r="L7">
+        <v>6E-07</v>
+      </c>
+      <c r="M7">
+        <v>6E-07</v>
+      </c>
+      <c r="N7">
+        <v>6E-07</v>
+      </c>
+      <c r="O7">
+        <v>6E-07</v>
+      </c>
+      <c r="P7">
+        <v>6E-07</v>
+      </c>
+      <c r="Q7">
+        <v>6E-07</v>
+      </c>
+      <c r="R7">
+        <v>6E-07</v>
+      </c>
+      <c r="S7">
+        <v>6E-07</v>
+      </c>
+      <c r="T7">
+        <v>6E-07</v>
+      </c>
+      <c r="U7">
+        <v>6E-07</v>
+      </c>
+      <c r="V7">
+        <v>6E-07</v>
+      </c>
+      <c r="W7">
+        <v>5.74695652173913E-07</v>
+      </c>
+      <c r="X7">
+        <v>5.493913043478261E-07</v>
+      </c>
+      <c r="Y7">
+        <v>5.24086956521739E-07</v>
+      </c>
+      <c r="Z7">
+        <v>4.987826086956522E-07</v>
+      </c>
+      <c r="AA7">
+        <v>4.734782608695652E-07</v>
+      </c>
+      <c r="AB7">
+        <v>4.481739130434782E-07</v>
+      </c>
+      <c r="AC7">
+        <v>4.228695652173913E-07</v>
+      </c>
+      <c r="AD7">
+        <v>3.975652173913043E-07</v>
+      </c>
+      <c r="AE7">
+        <v>3.722608695652174E-07</v>
+      </c>
+      <c r="AF7">
+        <v>3.469565217391304E-07</v>
+      </c>
+      <c r="AG7">
+        <v>3.216521739130435E-07</v>
+      </c>
+      <c r="AH7">
+        <v>2.963478260869565E-07</v>
+      </c>
+      <c r="AI7">
+        <v>2.710434782608696E-07</v>
+      </c>
+      <c r="AJ7">
+        <v>2.457391304347826E-07</v>
+      </c>
+      <c r="AK7">
+        <v>2.204347826086956E-07</v>
+      </c>
+      <c r="AL7">
+        <v>1.951304347826087E-07</v>
+      </c>
+      <c r="AM7">
+        <v>1.698260869565217E-07</v>
+      </c>
+      <c r="AN7">
+        <v>1.445217391304348E-07</v>
+      </c>
+      <c r="AO7">
+        <v>1.192173913043478E-07</v>
+      </c>
+      <c r="AP7">
+        <v>9.391304347826087E-08</v>
+      </c>
+      <c r="AQ7">
+        <v>6.860869565217394E-08</v>
+      </c>
+      <c r="AR7">
+        <v>4.330434782608694E-08</v>
+      </c>
+      <c r="AS7">
+        <v>1.8E-08</v>
+      </c>
+    </row>
+    <row r="8" spans="1:45">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8">
+        <v>30</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>4.938916870668569E-09</v>
+      </c>
+      <c r="Q8">
+        <v>4.938916870668569E-09</v>
+      </c>
+      <c r="R8">
+        <v>4.938916870668569E-09</v>
+      </c>
+      <c r="S8">
+        <v>4.938916870668569E-09</v>
+      </c>
+      <c r="T8">
+        <v>4.938916870668569E-09</v>
+      </c>
+      <c r="U8">
+        <v>4.938916870668569E-09</v>
+      </c>
+      <c r="V8">
+        <v>4.938916870668569E-09</v>
+      </c>
+      <c r="W8">
+        <v>4.730623420036025E-09</v>
+      </c>
+      <c r="X8">
+        <v>4.522329969403481E-09</v>
+      </c>
+      <c r="Y8">
+        <v>4.314036518770937E-09</v>
+      </c>
+      <c r="Z8">
+        <v>4.105743068138393E-09</v>
+      </c>
+      <c r="AA8">
+        <v>3.897449617505849E-09</v>
+      </c>
+      <c r="AB8">
+        <v>3.689156166873305E-09</v>
+      </c>
+      <c r="AC8">
+        <v>3.480862716240761E-09</v>
+      </c>
+      <c r="AD8">
+        <v>3.272569265608217E-09</v>
+      </c>
+      <c r="AE8">
+        <v>3.064275814975673E-09</v>
+      </c>
+      <c r="AF8">
+        <v>2.855982364343129E-09</v>
+      </c>
+      <c r="AG8">
+        <v>2.647688913710585E-09</v>
+      </c>
+      <c r="AH8">
+        <v>2.439395463078041E-09</v>
+      </c>
+      <c r="AI8">
+        <v>2.231102012445497E-09</v>
+      </c>
+      <c r="AJ8">
+        <v>2.022808561812953E-09</v>
+      </c>
+      <c r="AK8">
+        <v>1.814515111180409E-09</v>
+      </c>
+      <c r="AL8">
+        <v>1.606221660547865E-09</v>
+      </c>
+      <c r="AM8">
+        <v>1.397928209915321E-09</v>
+      </c>
+      <c r="AN8">
+        <v>1.189634759282777E-09</v>
+      </c>
+      <c r="AO8">
+        <v>9.81341308650233E-10</v>
+      </c>
+      <c r="AP8">
+        <v>7.730478580176892E-10</v>
+      </c>
+      <c r="AQ8">
+        <v>5.647544073851453E-10</v>
+      </c>
+      <c r="AR8">
+        <v>3.564609567526009E-10</v>
+      </c>
+      <c r="AS8">
+        <v>1.481675061200571E-10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:45">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9">
+        <v>30</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>0.282278356542713</v>
+      </c>
+      <c r="K9">
+        <v>0.284321918193054</v>
+      </c>
+      <c r="L9">
+        <v>0.287108941196086</v>
+      </c>
+      <c r="M9">
+        <v>0.289565081422567</v>
+      </c>
+      <c r="N9">
+        <v>0.285055701577635</v>
+      </c>
+      <c r="O9">
+        <v>0.280684616683568</v>
+      </c>
+      <c r="P9">
+        <v>0.278921245357285</v>
+      </c>
+      <c r="Q9">
+        <v>0.278921245357285</v>
+      </c>
+      <c r="R9">
+        <v>0.278921245357285</v>
+      </c>
+      <c r="S9">
+        <v>0.278921245357285</v>
+      </c>
+      <c r="T9">
+        <v>0.278921245357285</v>
+      </c>
+      <c r="U9">
+        <v>0.278921245357285</v>
+      </c>
+      <c r="V9">
+        <v>0.278921245357285</v>
+      </c>
+      <c r="W9">
+        <v>0.2671580450096082</v>
+      </c>
+      <c r="X9">
+        <v>0.2553948446619314</v>
+      </c>
+      <c r="Y9">
+        <v>0.2436316443142546</v>
+      </c>
+      <c r="Z9">
+        <v>0.2318684439665778</v>
+      </c>
+      <c r="AA9">
+        <v>0.220105243618901</v>
+      </c>
+      <c r="AB9">
+        <v>0.2083420432712242</v>
+      </c>
+      <c r="AC9">
+        <v>0.1965788429235474</v>
+      </c>
+      <c r="AD9">
+        <v>0.1848156425758706</v>
+      </c>
+      <c r="AE9">
+        <v>0.1730524422281938</v>
+      </c>
+      <c r="AF9">
+        <v>0.161289241880517</v>
+      </c>
+      <c r="AG9">
+        <v>0.1495260415328402</v>
+      </c>
+      <c r="AH9">
+        <v>0.1377628411851634</v>
+      </c>
+      <c r="AI9">
+        <v>0.1259996408374866</v>
+      </c>
+      <c r="AJ9">
+        <v>0.1142364404898098</v>
+      </c>
+      <c r="AK9">
+        <v>0.102473240142133</v>
+      </c>
+      <c r="AL9">
+        <v>0.09071003979445617</v>
+      </c>
+      <c r="AM9">
+        <v>0.07894683944677938</v>
+      </c>
+      <c r="AN9">
+        <v>0.06718363909910255</v>
+      </c>
+      <c r="AO9">
+        <v>0.05542043875142576</v>
+      </c>
+      <c r="AP9">
+        <v>0.04365723840374897</v>
+      </c>
+      <c r="AQ9">
+        <v>0.03189403805607217</v>
+      </c>
+      <c r="AR9">
+        <v>0.02013083770839535</v>
+      </c>
+      <c r="AS9">
+        <v>0.008367637360718549</v>
+      </c>
+    </row>
+    <row r="10" spans="1:45">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10">
+        <v>30</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>0.0001201402344614</v>
+      </c>
+      <c r="K10">
+        <v>0.0001152683877074</v>
+      </c>
+      <c r="L10">
+        <v>0.0001214314159107</v>
+      </c>
+      <c r="M10">
+        <v>0.0001138659019352</v>
+      </c>
+      <c r="N10">
+        <v>0.0001128278100901</v>
+      </c>
+      <c r="O10">
+        <v>0.0001000561531507</v>
+      </c>
+      <c r="P10">
+        <v>0.0001077143454008</v>
+      </c>
+      <c r="Q10">
+        <v>0.0001077143454008</v>
+      </c>
+      <c r="R10">
+        <v>0.0001077143454008</v>
+      </c>
+      <c r="S10">
+        <v>0.0001077143454008</v>
+      </c>
+      <c r="T10">
+        <v>0.0001077143454008</v>
+      </c>
+      <c r="U10">
+        <v>0.0001077143454008</v>
+      </c>
+      <c r="V10">
+        <v>0.0001077143454008</v>
+      </c>
+      <c r="W10">
+        <v>0.0001031716099643315</v>
+      </c>
+      <c r="X10">
+        <v>9.862887452786296E-05</v>
+      </c>
+      <c r="Y10">
+        <v>9.408613909139443E-05</v>
+      </c>
+      <c r="Z10">
+        <v>8.954340365492591E-05</v>
+      </c>
+      <c r="AA10">
+        <v>8.500066821845739E-05</v>
+      </c>
+      <c r="AB10">
+        <v>8.045793278198886E-05</v>
+      </c>
+      <c r="AC10">
+        <v>7.591519734552034E-05</v>
+      </c>
+      <c r="AD10">
+        <v>7.137246190905183E-05</v>
+      </c>
+      <c r="AE10">
+        <v>6.682972647258331E-05</v>
+      </c>
+      <c r="AF10">
+        <v>6.228699103611479E-05</v>
+      </c>
+      <c r="AG10">
+        <v>5.774425559964625E-05</v>
+      </c>
+      <c r="AH10">
+        <v>5.320152016317774E-05</v>
+      </c>
+      <c r="AI10">
+        <v>4.865878472670922E-05</v>
+      </c>
+      <c r="AJ10">
+        <v>4.411604929024069E-05</v>
+      </c>
+      <c r="AK10">
+        <v>3.957331385377218E-05</v>
+      </c>
+      <c r="AL10">
+        <v>3.503057841730365E-05</v>
+      </c>
+      <c r="AM10">
+        <v>3.048784298083513E-05</v>
+      </c>
+      <c r="AN10">
+        <v>2.59451075443666E-05</v>
+      </c>
+      <c r="AO10">
+        <v>2.140237210789809E-05</v>
+      </c>
+      <c r="AP10">
+        <v>1.685963667142957E-05</v>
+      </c>
+      <c r="AQ10">
+        <v>1.231690123496105E-05</v>
+      </c>
+      <c r="AR10">
+        <v>7.774165798492518E-06</v>
+      </c>
+      <c r="AS10">
+        <v>3.231430362024E-06</v>
+      </c>
+    </row>
+    <row r="11" spans="1:45">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>73</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>1.00868951448518E-05</v>
+      </c>
+      <c r="K11">
+        <v>1.01871950195572E-05</v>
+      </c>
+      <c r="L11">
+        <v>1.02843351483319E-05</v>
+      </c>
+      <c r="M11">
+        <v>1.03783383153088E-05</v>
+      </c>
+      <c r="N11">
+        <v>1.02167170680471E-05</v>
+      </c>
+      <c r="O11">
+        <v>1.00600524674237E-05</v>
+      </c>
+      <c r="P11">
+        <v>0.0039553624532641</v>
+      </c>
+      <c r="Q11">
+        <v>0.0039553624532641</v>
+      </c>
+      <c r="R11">
+        <v>0.0039553624532641</v>
+      </c>
+      <c r="S11">
+        <v>0.0039553624532641</v>
+      </c>
+      <c r="T11">
+        <v>0.0039553624532641</v>
+      </c>
+      <c r="U11">
+        <v>0.0039553624532641</v>
+      </c>
+      <c r="V11">
+        <v>0.0039553624532641</v>
+      </c>
+      <c r="W11">
+        <v>0.003788549341104702</v>
+      </c>
+      <c r="X11">
+        <v>0.003621736228945302</v>
+      </c>
+      <c r="Y11">
+        <v>0.003454923116785903</v>
+      </c>
+      <c r="Z11">
+        <v>0.003288110004626504</v>
+      </c>
+      <c r="AA11">
+        <v>0.003121296892467105</v>
+      </c>
+      <c r="AB11">
+        <v>0.002954483780307706</v>
+      </c>
+      <c r="AC11">
+        <v>0.002787670668148307</v>
+      </c>
+      <c r="AD11">
+        <v>0.002620857555988908</v>
+      </c>
+      <c r="AE11">
+        <v>0.002454044443829509</v>
+      </c>
+      <c r="AF11">
+        <v>0.00228723133167011</v>
+      </c>
+      <c r="AG11">
+        <v>0.002120418219510711</v>
+      </c>
+      <c r="AH11">
+        <v>0.001953605107351312</v>
+      </c>
+      <c r="AI11">
+        <v>0.001786791995191913</v>
+      </c>
+      <c r="AJ11">
+        <v>0.001619978883032514</v>
+      </c>
+      <c r="AK11">
+        <v>0.001453165770873115</v>
+      </c>
+      <c r="AL11">
+        <v>0.001286352658713716</v>
+      </c>
+      <c r="AM11">
+        <v>0.001119539546554317</v>
+      </c>
+      <c r="AN11">
+        <v>0.0009527264343949179</v>
+      </c>
+      <c r="AO11">
+        <v>0.000785913322235519</v>
+      </c>
+      <c r="AP11">
+        <v>0.0006191002100761202</v>
+      </c>
+      <c r="AQ11">
+        <v>0.0004522870979167212</v>
+      </c>
+      <c r="AR11">
+        <v>0.0002854739857573219</v>
+      </c>
+      <c r="AS11">
+        <v>0.000118660873597923</v>
+      </c>
+    </row>
+    <row r="12" spans="1:45">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>74</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>1.00868951448518E-05</v>
+      </c>
+      <c r="K12">
+        <v>1.01871950195572E-05</v>
+      </c>
+      <c r="L12">
+        <v>1.02843351483319E-05</v>
+      </c>
+      <c r="M12">
+        <v>1.03783383153088E-05</v>
+      </c>
+      <c r="N12">
+        <v>1.02167170680471E-05</v>
+      </c>
+      <c r="O12">
+        <v>1.00600524674237E-05</v>
+      </c>
+      <c r="P12">
+        <v>0.0039553624532641</v>
+      </c>
+      <c r="Q12">
+        <v>0.0039553624532641</v>
+      </c>
+      <c r="R12">
+        <v>0.0039553624532641</v>
+      </c>
+      <c r="S12">
+        <v>0.0039553624532641</v>
+      </c>
+      <c r="T12">
+        <v>0.0039553624532641</v>
+      </c>
+      <c r="U12">
+        <v>0.0039553624532641</v>
+      </c>
+      <c r="V12">
+        <v>0.0039553624532641</v>
+      </c>
+      <c r="W12">
+        <v>0.003788549341104702</v>
+      </c>
+      <c r="X12">
+        <v>0.003621736228945302</v>
+      </c>
+      <c r="Y12">
+        <v>0.003454923116785903</v>
+      </c>
+      <c r="Z12">
+        <v>0.003288110004626504</v>
+      </c>
+      <c r="AA12">
+        <v>0.003121296892467105</v>
+      </c>
+      <c r="AB12">
+        <v>0.002954483780307706</v>
+      </c>
+      <c r="AC12">
+        <v>0.002787670668148307</v>
+      </c>
+      <c r="AD12">
+        <v>0.002620857555988908</v>
+      </c>
+      <c r="AE12">
+        <v>0.002454044443829509</v>
+      </c>
+      <c r="AF12">
+        <v>0.00228723133167011</v>
+      </c>
+      <c r="AG12">
+        <v>0.002120418219510711</v>
+      </c>
+      <c r="AH12">
+        <v>0.001953605107351312</v>
+      </c>
+      <c r="AI12">
+        <v>0.001786791995191913</v>
+      </c>
+      <c r="AJ12">
+        <v>0.001619978883032514</v>
+      </c>
+      <c r="AK12">
+        <v>0.001453165770873115</v>
+      </c>
+      <c r="AL12">
+        <v>0.001286352658713716</v>
+      </c>
+      <c r="AM12">
+        <v>0.001119539546554317</v>
+      </c>
+      <c r="AN12">
+        <v>0.0009527264343949179</v>
+      </c>
+      <c r="AO12">
+        <v>0.000785913322235519</v>
+      </c>
+      <c r="AP12">
+        <v>0.0006191002100761202</v>
+      </c>
+      <c r="AQ12">
+        <v>0.0004522870979167212</v>
+      </c>
+      <c r="AR12">
+        <v>0.0002854739857573219</v>
+      </c>
+      <c r="AS12">
+        <v>0.000118660873597923</v>
+      </c>
+    </row>
+    <row r="13" spans="1:45">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" t="s">
+        <v>80</v>
+      </c>
+      <c r="C13">
+        <v>30</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>0.681701727997571</v>
+      </c>
+      <c r="K13">
+        <v>0.673007868495378</v>
+      </c>
+      <c r="L13">
+        <v>0.665210795968706</v>
+      </c>
+      <c r="M13">
+        <v>0.657453447824457</v>
+      </c>
+      <c r="N13">
+        <v>0.647214964261329</v>
+      </c>
+      <c r="O13">
+        <v>0.637290477440544</v>
+      </c>
+      <c r="P13">
+        <v>0.669756439427955</v>
+      </c>
+      <c r="Q13">
+        <v>0.669756439427955</v>
+      </c>
+      <c r="R13">
+        <v>0.669756439427955</v>
+      </c>
+      <c r="S13">
+        <v>0.669756439427955</v>
+      </c>
+      <c r="T13">
+        <v>0.669756439427955</v>
+      </c>
+      <c r="U13">
+        <v>0.669756439427955</v>
+      </c>
+      <c r="V13">
+        <v>0.669756439427955</v>
+      </c>
+      <c r="W13">
+        <v>0.6415101895912109</v>
+      </c>
+      <c r="X13">
+        <v>0.6132639397544667</v>
+      </c>
+      <c r="Y13">
+        <v>0.5850176899177224</v>
+      </c>
+      <c r="Z13">
+        <v>0.5567714400809782</v>
+      </c>
+      <c r="AA13">
+        <v>0.5285251902442342</v>
+      </c>
+      <c r="AB13">
+        <v>0.5002789404074899</v>
+      </c>
+      <c r="AC13">
+        <v>0.4720326905707457</v>
+      </c>
+      <c r="AD13">
+        <v>0.4437864407340015</v>
+      </c>
+      <c r="AE13">
+        <v>0.4155401908972574</v>
+      </c>
+      <c r="AF13">
+        <v>0.3872939410605132</v>
+      </c>
+      <c r="AG13">
+        <v>0.3590476912237689</v>
+      </c>
+      <c r="AH13">
+        <v>0.3308014413870248</v>
+      </c>
+      <c r="AI13">
+        <v>0.3025551915502806</v>
+      </c>
+      <c r="AJ13">
+        <v>0.2743089417135363</v>
+      </c>
+      <c r="AK13">
+        <v>0.2460626918767922</v>
+      </c>
+      <c r="AL13">
+        <v>0.217816442040048</v>
+      </c>
+      <c r="AM13">
+        <v>0.1895701922033038</v>
+      </c>
+      <c r="AN13">
+        <v>0.1613239423665596</v>
+      </c>
+      <c r="AO13">
+        <v>0.1330776925298154</v>
+      </c>
+      <c r="AP13">
+        <v>0.1048314426930712</v>
+      </c>
+      <c r="AQ13">
+        <v>0.07658519285632706</v>
+      </c>
+      <c r="AR13">
+        <v>0.04833894301958282</v>
+      </c>
+      <c r="AS13">
+        <v>0.02009269318283865</v>
+      </c>
+    </row>
+    <row r="14" spans="1:45">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" t="s">
+        <v>81</v>
+      </c>
+      <c r="C14">
+        <v>30</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>0.681701727997571</v>
+      </c>
+      <c r="K14">
+        <v>0.673007868495378</v>
+      </c>
+      <c r="L14">
+        <v>0.665210795968706</v>
+      </c>
+      <c r="M14">
+        <v>0.657453447824457</v>
+      </c>
+      <c r="N14">
+        <v>0.647214964261329</v>
+      </c>
+      <c r="O14">
+        <v>0.637290477440544</v>
+      </c>
+      <c r="P14">
+        <v>0.669756439427955</v>
+      </c>
+      <c r="Q14">
+        <v>0.669756439427955</v>
+      </c>
+      <c r="R14">
+        <v>0.669756439427955</v>
+      </c>
+      <c r="S14">
+        <v>0.669756439427955</v>
+      </c>
+      <c r="T14">
+        <v>0.669756439427955</v>
+      </c>
+      <c r="U14">
+        <v>0.669756439427955</v>
+      </c>
+      <c r="V14">
+        <v>0.669756439427955</v>
+      </c>
+      <c r="W14">
+        <v>0.6415101895912109</v>
+      </c>
+      <c r="X14">
+        <v>0.6132639397544667</v>
+      </c>
+      <c r="Y14">
+        <v>0.5850176899177224</v>
+      </c>
+      <c r="Z14">
+        <v>0.5567714400809782</v>
+      </c>
+      <c r="AA14">
+        <v>0.5285251902442342</v>
+      </c>
+      <c r="AB14">
+        <v>0.5002789404074899</v>
+      </c>
+      <c r="AC14">
+        <v>0.4720326905707457</v>
+      </c>
+      <c r="AD14">
+        <v>0.4437864407340015</v>
+      </c>
+      <c r="AE14">
+        <v>0.4155401908972574</v>
+      </c>
+      <c r="AF14">
+        <v>0.3872939410605132</v>
+      </c>
+      <c r="AG14">
+        <v>0.3590476912237689</v>
+      </c>
+      <c r="AH14">
+        <v>0.3308014413870248</v>
+      </c>
+      <c r="AI14">
+        <v>0.3025551915502806</v>
+      </c>
+      <c r="AJ14">
+        <v>0.2743089417135363</v>
+      </c>
+      <c r="AK14">
+        <v>0.2460626918767922</v>
+      </c>
+      <c r="AL14">
+        <v>0.217816442040048</v>
+      </c>
+      <c r="AM14">
+        <v>0.1895701922033038</v>
+      </c>
+      <c r="AN14">
+        <v>0.1613239423665596</v>
+      </c>
+      <c r="AO14">
+        <v>0.1330776925298154</v>
+      </c>
+      <c r="AP14">
+        <v>0.1048314426930712</v>
+      </c>
+      <c r="AQ14">
+        <v>0.07658519285632706</v>
+      </c>
+      <c r="AR14">
+        <v>0.04833894301958282</v>
+      </c>
+      <c r="AS14">
+        <v>0.02009269318283865</v>
+      </c>
+    </row>
+    <row r="15" spans="1:45">
+      <c r="A15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" t="s">
+        <v>84</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>1.10329178550528E-05</v>
+      </c>
+      <c r="Q15">
+        <v>1.10329178550528E-05</v>
+      </c>
+      <c r="R15">
+        <v>1.10329178550528E-05</v>
+      </c>
+      <c r="S15">
+        <v>1.10329178550528E-05</v>
+      </c>
+      <c r="T15">
+        <v>1.10329178550528E-05</v>
+      </c>
+      <c r="U15">
+        <v>1.10329178550528E-05</v>
+      </c>
+      <c r="V15">
+        <v>1.10329178550528E-05</v>
+      </c>
+      <c r="W15">
+        <v>1.056761653681796E-05</v>
+      </c>
+      <c r="X15">
+        <v>1.010231521858313E-05</v>
+      </c>
+      <c r="Y15">
+        <v>9.637013900348294E-06</v>
+      </c>
+      <c r="Z15">
+        <v>9.171712582113457E-06</v>
+      </c>
+      <c r="AA15">
+        <v>8.706411263878624E-06</v>
+      </c>
+      <c r="AB15">
+        <v>8.241109945643787E-06</v>
+      </c>
+      <c r="AC15">
+        <v>7.775808627408952E-06</v>
+      </c>
+      <c r="AD15">
+        <v>7.310507309174116E-06</v>
+      </c>
+      <c r="AE15">
+        <v>6.845205990939281E-06</v>
+      </c>
+      <c r="AF15">
+        <v>6.379904672704446E-06</v>
+      </c>
+      <c r="AG15">
+        <v>5.91460335446961E-06</v>
+      </c>
+      <c r="AH15">
+        <v>5.449302036234774E-06</v>
+      </c>
+      <c r="AI15">
+        <v>4.984000717999938E-06</v>
+      </c>
+      <c r="AJ15">
+        <v>4.518699399765102E-06</v>
+      </c>
+      <c r="AK15">
+        <v>4.053398081530267E-06</v>
+      </c>
+      <c r="AL15">
+        <v>3.588096763295433E-06</v>
+      </c>
+      <c r="AM15">
+        <v>3.122795445060597E-06</v>
+      </c>
+      <c r="AN15">
+        <v>2.657494126825761E-06</v>
+      </c>
+      <c r="AO15">
+        <v>2.192192808590926E-06</v>
+      </c>
+      <c r="AP15">
+        <v>1.726891490356091E-06</v>
+      </c>
+      <c r="AQ15">
+        <v>1.261590172121256E-06</v>
+      </c>
+      <c r="AR15">
+        <v>7.962888538864191E-07</v>
+      </c>
+      <c r="AS15">
+        <v>3.30987535651584E-07</v>
+      </c>
+    </row>
+    <row r="16" spans="1:45">
+      <c r="A16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" t="s">
+        <v>85</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>1.10329178550528E-05</v>
+      </c>
+      <c r="Q16">
+        <v>1.10329178550528E-05</v>
+      </c>
+      <c r="R16">
+        <v>1.10329178550528E-05</v>
+      </c>
+      <c r="S16">
+        <v>1.10329178550528E-05</v>
+      </c>
+      <c r="T16">
+        <v>1.10329178550528E-05</v>
+      </c>
+      <c r="U16">
+        <v>1.10329178550528E-05</v>
+      </c>
+      <c r="V16">
+        <v>1.10329178550528E-05</v>
+      </c>
+      <c r="W16">
+        <v>1.056761653681796E-05</v>
+      </c>
+      <c r="X16">
+        <v>1.010231521858313E-05</v>
+      </c>
+      <c r="Y16">
+        <v>9.637013900348294E-06</v>
+      </c>
+      <c r="Z16">
+        <v>9.171712582113457E-06</v>
+      </c>
+      <c r="AA16">
+        <v>8.706411263878624E-06</v>
+      </c>
+      <c r="AB16">
+        <v>8.241109945643787E-06</v>
+      </c>
+      <c r="AC16">
+        <v>7.775808627408952E-06</v>
+      </c>
+      <c r="AD16">
+        <v>7.310507309174116E-06</v>
+      </c>
+      <c r="AE16">
+        <v>6.845205990939281E-06</v>
+      </c>
+      <c r="AF16">
+        <v>6.379904672704446E-06</v>
+      </c>
+      <c r="AG16">
+        <v>5.91460335446961E-06</v>
+      </c>
+      <c r="AH16">
+        <v>5.449302036234774E-06</v>
+      </c>
+      <c r="AI16">
+        <v>4.984000717999938E-06</v>
+      </c>
+      <c r="AJ16">
+        <v>4.518699399765102E-06</v>
+      </c>
+      <c r="AK16">
+        <v>4.053398081530267E-06</v>
+      </c>
+      <c r="AL16">
+        <v>3.588096763295433E-06</v>
+      </c>
+      <c r="AM16">
+        <v>3.122795445060597E-06</v>
+      </c>
+      <c r="AN16">
+        <v>2.657494126825761E-06</v>
+      </c>
+      <c r="AO16">
+        <v>2.192192808590926E-06</v>
+      </c>
+      <c r="AP16">
+        <v>1.726891490356091E-06</v>
+      </c>
+      <c r="AQ16">
+        <v>1.261590172121256E-06</v>
+      </c>
+      <c r="AR16">
+        <v>7.962888538864191E-07</v>
+      </c>
+      <c r="AS16">
+        <v>3.30987535651584E-07</v>
+      </c>
+    </row>
+    <row r="17" spans="1:45">
+      <c r="A17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" t="s">
+        <v>87</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>7.433209245774209E-09</v>
+      </c>
+      <c r="Q17">
+        <v>7.433209245774209E-09</v>
+      </c>
+      <c r="R17">
+        <v>7.433209245774209E-09</v>
+      </c>
+      <c r="S17">
+        <v>7.433209245774209E-09</v>
+      </c>
+      <c r="T17">
+        <v>7.433209245774209E-09</v>
+      </c>
+      <c r="U17">
+        <v>7.433209245774209E-09</v>
+      </c>
+      <c r="V17">
+        <v>7.433209245774209E-09</v>
+      </c>
+      <c r="W17">
+        <v>7.119721725408949E-09</v>
+      </c>
+      <c r="X17">
+        <v>6.806234205043689E-09</v>
+      </c>
+      <c r="Y17">
+        <v>6.492746684678429E-09</v>
+      </c>
+      <c r="Z17">
+        <v>6.179259164313169E-09</v>
+      </c>
+      <c r="AA17">
+        <v>5.865771643947909E-09</v>
+      </c>
+      <c r="AB17">
+        <v>5.552284123582647E-09</v>
+      </c>
+      <c r="AC17">
+        <v>5.238796603217388E-09</v>
+      </c>
+      <c r="AD17">
+        <v>4.925309082852128E-09</v>
+      </c>
+      <c r="AE17">
+        <v>4.611821562486868E-09</v>
+      </c>
+      <c r="AF17">
+        <v>4.298334042121608E-09</v>
+      </c>
+      <c r="AG17">
+        <v>3.984846521756348E-09</v>
+      </c>
+      <c r="AH17">
+        <v>3.671359001391088E-09</v>
+      </c>
+      <c r="AI17">
+        <v>3.357871481025828E-09</v>
+      </c>
+      <c r="AJ17">
+        <v>3.044383960660567E-09</v>
+      </c>
+      <c r="AK17">
+        <v>2.730896440295307E-09</v>
+      </c>
+      <c r="AL17">
+        <v>2.417408919930047E-09</v>
+      </c>
+      <c r="AM17">
+        <v>2.103921399564788E-09</v>
+      </c>
+      <c r="AN17">
+        <v>1.790433879199527E-09</v>
+      </c>
+      <c r="AO17">
+        <v>1.476946358834267E-09</v>
+      </c>
+      <c r="AP17">
+        <v>1.163458838469007E-09</v>
+      </c>
+      <c r="AQ17">
+        <v>8.49971318103747E-10</v>
+      </c>
+      <c r="AR17">
+        <v>5.364837977384862E-10</v>
+      </c>
+      <c r="AS17">
+        <v>2.229962773732263E-10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AS31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:45">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1">
+        <v>0</v>
+      </c>
+      <c r="K1" s="1">
+        <v>1</v>
+      </c>
+      <c r="L1" s="1">
+        <v>2</v>
+      </c>
+      <c r="M1" s="1">
+        <v>3</v>
+      </c>
+      <c r="N1" s="1">
+        <v>4</v>
+      </c>
+      <c r="O1" s="1">
+        <v>5</v>
+      </c>
+      <c r="P1" s="1">
+        <v>6</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>7</v>
+      </c>
+      <c r="R1" s="1">
+        <v>8</v>
+      </c>
+      <c r="S1" s="1">
+        <v>9</v>
+      </c>
+      <c r="T1" s="1">
+        <v>10</v>
+      </c>
+      <c r="U1" s="1">
+        <v>11</v>
+      </c>
+      <c r="V1" s="1">
+        <v>12</v>
+      </c>
+      <c r="W1" s="1">
+        <v>13</v>
+      </c>
+      <c r="X1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Y1" s="1">
+        <v>15</v>
+      </c>
+      <c r="Z1" s="1">
+        <v>16</v>
+      </c>
+      <c r="AA1" s="1">
+        <v>17</v>
+      </c>
+      <c r="AB1" s="1">
+        <v>18</v>
+      </c>
+      <c r="AC1" s="1">
+        <v>19</v>
+      </c>
+      <c r="AD1" s="1">
+        <v>20</v>
+      </c>
+      <c r="AE1" s="1">
+        <v>21</v>
+      </c>
+      <c r="AF1" s="1">
+        <v>22</v>
+      </c>
+      <c r="AG1" s="1">
+        <v>23</v>
+      </c>
+      <c r="AH1" s="1">
+        <v>24</v>
+      </c>
+      <c r="AI1" s="1">
+        <v>25</v>
+      </c>
+      <c r="AJ1" s="1">
+        <v>26</v>
+      </c>
+      <c r="AK1" s="1">
+        <v>27</v>
+      </c>
+      <c r="AL1" s="1">
+        <v>28</v>
+      </c>
+      <c r="AM1" s="1">
+        <v>29</v>
+      </c>
+      <c r="AN1" s="1">
+        <v>30</v>
+      </c>
+      <c r="AO1" s="1">
+        <v>31</v>
+      </c>
+      <c r="AP1" s="1">
+        <v>32</v>
+      </c>
+      <c r="AQ1" s="1">
+        <v>33</v>
+      </c>
+      <c r="AR1" s="1">
+        <v>34</v>
+      </c>
+      <c r="AS1" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:45">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2">
+        <v>30</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>1.56211755418937E-09</v>
+      </c>
+      <c r="Q2">
+        <v>1.56211755418937E-09</v>
+      </c>
+      <c r="R2">
+        <v>1.56211755418937E-09</v>
+      </c>
+      <c r="S2">
+        <v>1.56211755418937E-09</v>
+      </c>
+      <c r="T2">
+        <v>1.56211755418937E-09</v>
+      </c>
+      <c r="U2">
+        <v>1.56211755418937E-09</v>
+      </c>
+      <c r="V2">
+        <v>1.56211755418937E-09</v>
+      </c>
+      <c r="W2">
+        <v>1.500312033567095E-09</v>
+      </c>
+      <c r="X2">
+        <v>1.43850651294482E-09</v>
+      </c>
+      <c r="Y2">
+        <v>1.376700992322545E-09</v>
+      </c>
+      <c r="Z2">
+        <v>1.31489547170027E-09</v>
+      </c>
+      <c r="AA2">
+        <v>1.253089951077995E-09</v>
+      </c>
+      <c r="AB2">
+        <v>1.191284430455719E-09</v>
+      </c>
+      <c r="AC2">
+        <v>1.129478909833445E-09</v>
+      </c>
+      <c r="AD2">
+        <v>1.067673389211169E-09</v>
+      </c>
+      <c r="AE2">
+        <v>1.005867868588894E-09</v>
+      </c>
+      <c r="AF2">
+        <v>9.440623479666193E-10</v>
+      </c>
+      <c r="AG2">
+        <v>8.822568273443441E-10</v>
+      </c>
+      <c r="AH2">
+        <v>8.204513067220692E-10</v>
+      </c>
+      <c r="AI2">
+        <v>7.586457860997941E-10</v>
+      </c>
+      <c r="AJ2">
+        <v>6.968402654775189E-10</v>
+      </c>
+      <c r="AK2">
+        <v>6.350347448552439E-10</v>
+      </c>
+      <c r="AL2">
+        <v>5.732292242329688E-10</v>
+      </c>
+      <c r="AM2">
+        <v>5.114237036106939E-10</v>
+      </c>
+      <c r="AN2">
+        <v>4.496181829884186E-10</v>
+      </c>
+      <c r="AO2">
+        <v>3.878126623661436E-10</v>
+      </c>
+      <c r="AP2">
+        <v>3.260071417438685E-10</v>
+      </c>
+      <c r="AQ2">
+        <v>2.642016211215935E-10</v>
+      </c>
+      <c r="AR2">
+        <v>2.023961004993184E-10</v>
+      </c>
+      <c r="AS2">
+        <v>1.405905798770433E-10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:45">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3">
+        <v>30</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>0.506309921818343</v>
+      </c>
+      <c r="K3">
+        <v>0.500375407184809</v>
+      </c>
+      <c r="L3">
+        <v>0.497840125348075</v>
+      </c>
+      <c r="M3">
+        <v>0.494422755460523</v>
+      </c>
+      <c r="N3">
+        <v>0.48672313920363</v>
+      </c>
+      <c r="O3">
+        <v>0.479259656980362</v>
+      </c>
+      <c r="P3">
+        <v>0.481732444696644</v>
+      </c>
+      <c r="Q3">
+        <v>0.481732444696644</v>
+      </c>
+      <c r="R3">
+        <v>0.481732444696644</v>
+      </c>
+      <c r="S3">
+        <v>0.481732444696644</v>
+      </c>
+      <c r="T3">
+        <v>0.481732444696644</v>
+      </c>
+      <c r="U3">
+        <v>0.481732444696644</v>
+      </c>
+      <c r="V3">
+        <v>0.481732444696644</v>
+      </c>
+      <c r="W3">
+        <v>0.4628820446867754</v>
+      </c>
+      <c r="X3">
+        <v>0.4440316446769066</v>
+      </c>
+      <c r="Y3">
+        <v>0.4251812446670379</v>
+      </c>
+      <c r="Z3">
+        <v>0.4063308446571693</v>
+      </c>
+      <c r="AA3">
+        <v>0.3874804446473006</v>
+      </c>
+      <c r="AB3">
+        <v>0.3686300446374319</v>
+      </c>
+      <c r="AC3">
+        <v>0.3497796446275632</v>
+      </c>
+      <c r="AD3">
+        <v>0.3309292446176946</v>
+      </c>
+      <c r="AE3">
+        <v>0.3120788446078259</v>
+      </c>
+      <c r="AF3">
+        <v>0.2932284445979572</v>
+      </c>
+      <c r="AG3">
+        <v>0.2743780445880885</v>
+      </c>
+      <c r="AH3">
+        <v>0.2555276445782199</v>
+      </c>
+      <c r="AI3">
+        <v>0.2366772445683512</v>
+      </c>
+      <c r="AJ3">
+        <v>0.2178268445584825</v>
+      </c>
+      <c r="AK3">
+        <v>0.1989764445486138</v>
+      </c>
+      <c r="AL3">
+        <v>0.1801260445387451</v>
+      </c>
+      <c r="AM3">
+        <v>0.1612756445288765</v>
+      </c>
+      <c r="AN3">
+        <v>0.1424252445190078</v>
+      </c>
+      <c r="AO3">
+        <v>0.1235748445091391</v>
+      </c>
+      <c r="AP3">
+        <v>0.1047244444992704</v>
+      </c>
+      <c r="AQ3">
+        <v>0.08587404448940178</v>
+      </c>
+      <c r="AR3">
+        <v>0.06702364447953306</v>
+      </c>
+      <c r="AS3">
+        <v>0.0481732444696644</v>
+      </c>
+    </row>
+    <row r="4" spans="1:45">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4">
+        <v>30</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>0.357646875810092</v>
+      </c>
+      <c r="K4">
+        <v>0.356145320199745</v>
+      </c>
+      <c r="L4">
+        <v>0.356490957281221</v>
+      </c>
+      <c r="M4">
+        <v>0.356286111709025</v>
+      </c>
+      <c r="N4">
+        <v>0.350737689215273</v>
+      </c>
+      <c r="O4">
+        <v>0.34535942732953</v>
+      </c>
+      <c r="P4">
+        <v>0.345496443918732</v>
+      </c>
+      <c r="Q4">
+        <v>0.345496443918732</v>
+      </c>
+      <c r="R4">
+        <v>0.345496443918732</v>
+      </c>
+      <c r="S4">
+        <v>0.345496443918732</v>
+      </c>
+      <c r="T4">
+        <v>0.345496443918732</v>
+      </c>
+      <c r="U4">
+        <v>0.345496443918732</v>
+      </c>
+      <c r="V4">
+        <v>0.345496443918732</v>
+      </c>
+      <c r="W4">
+        <v>0.3319770178523468</v>
+      </c>
+      <c r="X4">
+        <v>0.3184575917859617</v>
+      </c>
+      <c r="Y4">
+        <v>0.3049381657195765</v>
+      </c>
+      <c r="Z4">
+        <v>0.2914187396531914</v>
+      </c>
+      <c r="AA4">
+        <v>0.2778993135868063</v>
+      </c>
+      <c r="AB4">
+        <v>0.264379887520421</v>
+      </c>
+      <c r="AC4">
+        <v>0.2508604614540358</v>
+      </c>
+      <c r="AD4">
+        <v>0.2373410353876507</v>
+      </c>
+      <c r="AE4">
+        <v>0.2238216093212655</v>
+      </c>
+      <c r="AF4">
+        <v>0.2103021832548804</v>
+      </c>
+      <c r="AG4">
+        <v>0.1967827571884952</v>
+      </c>
+      <c r="AH4">
+        <v>0.18326333112211</v>
+      </c>
+      <c r="AI4">
+        <v>0.1697439050557249</v>
+      </c>
+      <c r="AJ4">
+        <v>0.1562244789893397</v>
+      </c>
+      <c r="AK4">
+        <v>0.1427050529229545</v>
+      </c>
+      <c r="AL4">
+        <v>0.1291856268565694</v>
+      </c>
+      <c r="AM4">
+        <v>0.1156662007901842</v>
+      </c>
+      <c r="AN4">
+        <v>0.102146774723799</v>
+      </c>
+      <c r="AO4">
+        <v>0.08862734865741387</v>
+      </c>
+      <c r="AP4">
+        <v>0.07510792259102871</v>
+      </c>
+      <c r="AQ4">
+        <v>0.06158849652464356</v>
+      </c>
+      <c r="AR4">
+        <v>0.04806907045825837</v>
+      </c>
+      <c r="AS4">
+        <v>0.0345496443918732</v>
+      </c>
+    </row>
+    <row r="5" spans="1:45">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5">
+        <v>30</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>0.357646875810092</v>
+      </c>
+      <c r="K5">
+        <v>0.356145320199745</v>
+      </c>
+      <c r="L5">
+        <v>0.356490957281221</v>
+      </c>
+      <c r="M5">
+        <v>0.356286111709025</v>
+      </c>
+      <c r="N5">
+        <v>0.350737689215273</v>
+      </c>
+      <c r="O5">
+        <v>0.34535942732953</v>
+      </c>
+      <c r="P5">
+        <v>0.345496443918732</v>
+      </c>
+      <c r="Q5">
+        <v>0.345496443918732</v>
+      </c>
+      <c r="R5">
+        <v>0.345496443918732</v>
+      </c>
+      <c r="S5">
+        <v>0.345496443918732</v>
+      </c>
+      <c r="T5">
+        <v>0.345496443918732</v>
+      </c>
+      <c r="U5">
+        <v>0.345496443918732</v>
+      </c>
+      <c r="V5">
+        <v>0.345496443918732</v>
+      </c>
+      <c r="W5">
+        <v>0.3319770178523468</v>
+      </c>
+      <c r="X5">
+        <v>0.3184575917859617</v>
+      </c>
+      <c r="Y5">
+        <v>0.3049381657195765</v>
+      </c>
+      <c r="Z5">
+        <v>0.2914187396531914</v>
+      </c>
+      <c r="AA5">
+        <v>0.2778993135868063</v>
+      </c>
+      <c r="AB5">
+        <v>0.264379887520421</v>
+      </c>
+      <c r="AC5">
+        <v>0.2508604614540358</v>
+      </c>
+      <c r="AD5">
+        <v>0.2373410353876507</v>
+      </c>
+      <c r="AE5">
+        <v>0.2238216093212655</v>
+      </c>
+      <c r="AF5">
+        <v>0.2103021832548804</v>
+      </c>
+      <c r="AG5">
+        <v>0.1967827571884952</v>
+      </c>
+      <c r="AH5">
+        <v>0.18326333112211</v>
+      </c>
+      <c r="AI5">
+        <v>0.1697439050557249</v>
+      </c>
+      <c r="AJ5">
+        <v>0.1562244789893397</v>
+      </c>
+      <c r="AK5">
+        <v>0.1427050529229545</v>
+      </c>
+      <c r="AL5">
+        <v>0.1291856268565694</v>
+      </c>
+      <c r="AM5">
+        <v>0.1156662007901842</v>
+      </c>
+      <c r="AN5">
+        <v>0.102146774723799</v>
+      </c>
+      <c r="AO5">
+        <v>0.08862734865741387</v>
+      </c>
+      <c r="AP5">
+        <v>0.07510792259102871</v>
+      </c>
+      <c r="AQ5">
+        <v>0.06158849652464356</v>
+      </c>
+      <c r="AR5">
+        <v>0.04806907045825837</v>
+      </c>
+      <c r="AS5">
+        <v>0.0345496443918732</v>
+      </c>
+    </row>
+    <row r="6" spans="1:45">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6">
+        <v>30</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>2E-06</v>
+      </c>
+      <c r="K6">
+        <v>2E-06</v>
+      </c>
+      <c r="L6">
+        <v>2E-06</v>
+      </c>
+      <c r="M6">
+        <v>2E-06</v>
+      </c>
+      <c r="N6">
+        <v>2E-06</v>
+      </c>
+      <c r="O6">
+        <v>2E-06</v>
+      </c>
+      <c r="P6">
+        <v>2E-06</v>
+      </c>
+      <c r="Q6">
+        <v>2E-06</v>
+      </c>
+      <c r="R6">
+        <v>2E-06</v>
+      </c>
+      <c r="S6">
+        <v>2E-06</v>
+      </c>
+      <c r="T6">
+        <v>2E-06</v>
+      </c>
+      <c r="U6">
+        <v>2E-06</v>
+      </c>
+      <c r="V6">
+        <v>2E-06</v>
+      </c>
+      <c r="W6">
+        <v>1.920869565217392E-06</v>
+      </c>
+      <c r="X6">
+        <v>1.841739130434783E-06</v>
+      </c>
+      <c r="Y6">
+        <v>1.762608695652174E-06</v>
+      </c>
+      <c r="Z6">
+        <v>1.683478260869565E-06</v>
+      </c>
+      <c r="AA6">
+        <v>1.604347826086956E-06</v>
+      </c>
+      <c r="AB6">
+        <v>1.525217391304348E-06</v>
+      </c>
+      <c r="AC6">
+        <v>1.446086956521739E-06</v>
+      </c>
+      <c r="AD6">
+        <v>1.36695652173913E-06</v>
+      </c>
+      <c r="AE6">
+        <v>1.287826086956522E-06</v>
+      </c>
+      <c r="AF6">
+        <v>1.208695652173913E-06</v>
+      </c>
+      <c r="AG6">
+        <v>1.129565217391304E-06</v>
+      </c>
+      <c r="AH6">
+        <v>1.050434782608696E-06</v>
+      </c>
+      <c r="AI6">
+        <v>9.71304347826087E-07</v>
+      </c>
+      <c r="AJ6">
+        <v>8.921739130434781E-07</v>
+      </c>
+      <c r="AK6">
+        <v>8.130434782608695E-07</v>
+      </c>
+      <c r="AL6">
+        <v>7.339130434782609E-07</v>
+      </c>
+      <c r="AM6">
+        <v>6.547826086956524E-07</v>
+      </c>
+      <c r="AN6">
+        <v>5.756521739130434E-07</v>
+      </c>
+      <c r="AO6">
+        <v>4.965217391304348E-07</v>
+      </c>
+      <c r="AP6">
+        <v>4.173913043478262E-07</v>
+      </c>
+      <c r="AQ6">
+        <v>3.382608695652175E-07</v>
+      </c>
+      <c r="AR6">
+        <v>2.591304347826087E-07</v>
+      </c>
+      <c r="AS6">
+        <v>1.8E-07</v>
+      </c>
+    </row>
+    <row r="7" spans="1:45">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7">
+        <v>30</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>6E-07</v>
+      </c>
+      <c r="K7">
+        <v>6E-07</v>
+      </c>
+      <c r="L7">
+        <v>6E-07</v>
+      </c>
+      <c r="M7">
+        <v>6E-07</v>
+      </c>
+      <c r="N7">
+        <v>6E-07</v>
+      </c>
+      <c r="O7">
+        <v>6E-07</v>
+      </c>
+      <c r="P7">
+        <v>6E-07</v>
+      </c>
+      <c r="Q7">
+        <v>6E-07</v>
+      </c>
+      <c r="R7">
+        <v>6E-07</v>
+      </c>
+      <c r="S7">
+        <v>6E-07</v>
+      </c>
+      <c r="T7">
+        <v>6E-07</v>
+      </c>
+      <c r="U7">
+        <v>6E-07</v>
+      </c>
+      <c r="V7">
+        <v>6E-07</v>
+      </c>
+      <c r="W7">
+        <v>5.762608695652174E-07</v>
+      </c>
+      <c r="X7">
+        <v>5.525217391304348E-07</v>
+      </c>
+      <c r="Y7">
+        <v>5.287826086956521E-07</v>
+      </c>
+      <c r="Z7">
+        <v>5.050434782608696E-07</v>
+      </c>
+      <c r="AA7">
+        <v>4.813043478260869E-07</v>
+      </c>
+      <c r="AB7">
+        <v>4.575652173913043E-07</v>
+      </c>
+      <c r="AC7">
+        <v>4.338260869565217E-07</v>
+      </c>
+      <c r="AD7">
+        <v>4.100869565217391E-07</v>
+      </c>
+      <c r="AE7">
+        <v>3.863478260869565E-07</v>
+      </c>
+      <c r="AF7">
+        <v>3.626086956521739E-07</v>
+      </c>
+      <c r="AG7">
+        <v>3.388695652173913E-07</v>
+      </c>
+      <c r="AH7">
+        <v>3.151304347826087E-07</v>
+      </c>
+      <c r="AI7">
+        <v>2.913913043478261E-07</v>
+      </c>
+      <c r="AJ7">
+        <v>2.676521739130434E-07</v>
+      </c>
+      <c r="AK7">
+        <v>2.439130434782608E-07</v>
+      </c>
+      <c r="AL7">
+        <v>2.201739130434783E-07</v>
+      </c>
+      <c r="AM7">
+        <v>1.964347826086957E-07</v>
+      </c>
+      <c r="AN7">
+        <v>1.72695652173913E-07</v>
+      </c>
+      <c r="AO7">
+        <v>1.489565217391304E-07</v>
+      </c>
+      <c r="AP7">
+        <v>1.252173913043478E-07</v>
+      </c>
+      <c r="AQ7">
+        <v>1.014782608695652E-07</v>
+      </c>
+      <c r="AR7">
+        <v>7.773913043478259E-08</v>
+      </c>
+      <c r="AS7">
+        <v>5.400000000000001E-08</v>
+      </c>
+    </row>
+    <row r="8" spans="1:45">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8">
+        <v>30</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>4.938916870668569E-09</v>
+      </c>
+      <c r="Q8">
+        <v>4.938916870668569E-09</v>
+      </c>
+      <c r="R8">
+        <v>4.938916870668569E-09</v>
+      </c>
+      <c r="S8">
+        <v>4.938916870668569E-09</v>
+      </c>
+      <c r="T8">
+        <v>4.938916870668569E-09</v>
+      </c>
+      <c r="U8">
+        <v>4.938916870668569E-09</v>
+      </c>
+      <c r="V8">
+        <v>4.938916870668569E-09</v>
+      </c>
+      <c r="W8">
+        <v>4.743507551002987E-09</v>
+      </c>
+      <c r="X8">
+        <v>4.548098231337404E-09</v>
+      </c>
+      <c r="Y8">
+        <v>4.352688911671821E-09</v>
+      </c>
+      <c r="Z8">
+        <v>4.157279592006239E-09</v>
+      </c>
+      <c r="AA8">
+        <v>3.961870272340656E-09</v>
+      </c>
+      <c r="AB8">
+        <v>3.766460952675073E-09</v>
+      </c>
+      <c r="AC8">
+        <v>3.571051633009491E-09</v>
+      </c>
+      <c r="AD8">
+        <v>3.375642313343909E-09</v>
+      </c>
+      <c r="AE8">
+        <v>3.180232993678327E-09</v>
+      </c>
+      <c r="AF8">
+        <v>2.984823674012744E-09</v>
+      </c>
+      <c r="AG8">
+        <v>2.789414354347161E-09</v>
+      </c>
+      <c r="AH8">
+        <v>2.594005034681579E-09</v>
+      </c>
+      <c r="AI8">
+        <v>2.398595715015996E-09</v>
+      </c>
+      <c r="AJ8">
+        <v>2.203186395350413E-09</v>
+      </c>
+      <c r="AK8">
+        <v>2.007777075684831E-09</v>
+      </c>
+      <c r="AL8">
+        <v>1.812367756019249E-09</v>
+      </c>
+      <c r="AM8">
+        <v>1.616958436353667E-09</v>
+      </c>
+      <c r="AN8">
+        <v>1.421549116688084E-09</v>
+      </c>
+      <c r="AO8">
+        <v>1.226139797022501E-09</v>
+      </c>
+      <c r="AP8">
+        <v>1.030730477356919E-09</v>
+      </c>
+      <c r="AQ8">
+        <v>8.353211576913365E-10</v>
+      </c>
+      <c r="AR8">
+        <v>6.399118380257536E-10</v>
+      </c>
+      <c r="AS8">
+        <v>4.445025183601712E-10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:45">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9">
+        <v>30</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>0.282278356542713</v>
+      </c>
+      <c r="K9">
+        <v>0.284321918193054</v>
+      </c>
+      <c r="L9">
+        <v>0.287108941196086</v>
+      </c>
+      <c r="M9">
+        <v>0.289565081422567</v>
+      </c>
+      <c r="N9">
+        <v>0.285055701577635</v>
+      </c>
+      <c r="O9">
+        <v>0.280684616683568</v>
+      </c>
+      <c r="P9">
+        <v>0.278921245357285</v>
+      </c>
+      <c r="Q9">
+        <v>0.278921245357285</v>
+      </c>
+      <c r="R9">
+        <v>0.278921245357285</v>
+      </c>
+      <c r="S9">
+        <v>0.278921245357285</v>
+      </c>
+      <c r="T9">
+        <v>0.278921245357285</v>
+      </c>
+      <c r="U9">
+        <v>0.278921245357285</v>
+      </c>
+      <c r="V9">
+        <v>0.278921245357285</v>
+      </c>
+      <c r="W9">
+        <v>0.2680069357563478</v>
+      </c>
+      <c r="X9">
+        <v>0.2570926261554105</v>
+      </c>
+      <c r="Y9">
+        <v>0.2461783165544733</v>
+      </c>
+      <c r="Z9">
+        <v>0.2352640069535361</v>
+      </c>
+      <c r="AA9">
+        <v>0.2243496973525988</v>
+      </c>
+      <c r="AB9">
+        <v>0.2134353877516616</v>
+      </c>
+      <c r="AC9">
+        <v>0.2025210781507243</v>
+      </c>
+      <c r="AD9">
+        <v>0.1916067685497871</v>
+      </c>
+      <c r="AE9">
+        <v>0.1806924589488499</v>
+      </c>
+      <c r="AF9">
+        <v>0.1697781493479126</v>
+      </c>
+      <c r="AG9">
+        <v>0.1588638397469754</v>
+      </c>
+      <c r="AH9">
+        <v>0.1479495301460381</v>
+      </c>
+      <c r="AI9">
+        <v>0.1370352205451009</v>
+      </c>
+      <c r="AJ9">
+        <v>0.1261209109441637</v>
+      </c>
+      <c r="AK9">
+        <v>0.1152066013432264</v>
+      </c>
+      <c r="AL9">
+        <v>0.1042922917422892</v>
+      </c>
+      <c r="AM9">
+        <v>0.09337798214135196</v>
+      </c>
+      <c r="AN9">
+        <v>0.0824636725404147</v>
+      </c>
+      <c r="AO9">
+        <v>0.07154936293947746</v>
+      </c>
+      <c r="AP9">
+        <v>0.06063505333854023</v>
+      </c>
+      <c r="AQ9">
+        <v>0.04972074373760299</v>
+      </c>
+      <c r="AR9">
+        <v>0.03880643413666574</v>
+      </c>
+      <c r="AS9">
+        <v>0.0278921245357285</v>
+      </c>
+    </row>
+    <row r="10" spans="1:45">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10">
+        <v>30</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>0.0001201402344614</v>
+      </c>
+      <c r="K10">
+        <v>0.0001152683877074</v>
+      </c>
+      <c r="L10">
+        <v>0.0001214314159107</v>
+      </c>
+      <c r="M10">
+        <v>0.0001138659019352</v>
+      </c>
+      <c r="N10">
+        <v>0.0001128278100901</v>
+      </c>
+      <c r="O10">
+        <v>0.0001000561531507</v>
+      </c>
+      <c r="P10">
+        <v>0.0001077143454008</v>
+      </c>
+      <c r="Q10">
+        <v>0.0001077143454008</v>
+      </c>
+      <c r="R10">
+        <v>0.0001077143454008</v>
+      </c>
+      <c r="S10">
+        <v>0.0001077143454008</v>
+      </c>
+      <c r="T10">
+        <v>0.0001077143454008</v>
+      </c>
+      <c r="U10">
+        <v>0.0001077143454008</v>
+      </c>
+      <c r="V10">
+        <v>0.0001077143454008</v>
+      </c>
+      <c r="W10">
+        <v>0.0001034994362329426</v>
+      </c>
+      <c r="X10">
+        <v>9.928452706508521E-05</v>
+      </c>
+      <c r="Y10">
+        <v>9.506961789722782E-05</v>
+      </c>
+      <c r="Z10">
+        <v>9.085470872937043E-05</v>
+      </c>
+      <c r="AA10">
+        <v>8.663979956151304E-05</v>
+      </c>
+      <c r="AB10">
+        <v>8.242489039365564E-05</v>
+      </c>
+      <c r="AC10">
+        <v>7.820998122579825E-05</v>
+      </c>
+      <c r="AD10">
+        <v>7.399507205794087E-05</v>
+      </c>
+      <c r="AE10">
+        <v>6.978016289008349E-05</v>
+      </c>
+      <c r="AF10">
+        <v>6.556525372222609E-05</v>
+      </c>
+      <c r="AG10">
+        <v>6.135034455436869E-05</v>
+      </c>
+      <c r="AH10">
+        <v>5.713543538651131E-05</v>
+      </c>
+      <c r="AI10">
+        <v>5.292052621865392E-05</v>
+      </c>
+      <c r="AJ10">
+        <v>4.870561705079651E-05</v>
+      </c>
+      <c r="AK10">
+        <v>4.449070788293913E-05</v>
+      </c>
+      <c r="AL10">
+        <v>4.027579871508174E-05</v>
+      </c>
+      <c r="AM10">
+        <v>3.606088954722435E-05</v>
+      </c>
+      <c r="AN10">
+        <v>3.184598037936695E-05</v>
+      </c>
+      <c r="AO10">
+        <v>2.763107121150957E-05</v>
+      </c>
+      <c r="AP10">
+        <v>2.341616204365218E-05</v>
+      </c>
+      <c r="AQ10">
+        <v>1.920125287579479E-05</v>
+      </c>
+      <c r="AR10">
+        <v>1.498634370793739E-05</v>
+      </c>
+      <c r="AS10">
+        <v>1.077143454008E-05</v>
+      </c>
+    </row>
+    <row r="11" spans="1:45">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>73</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>1.00868951448518E-05</v>
+      </c>
+      <c r="K11">
+        <v>1.01871950195572E-05</v>
+      </c>
+      <c r="L11">
+        <v>1.02843351483319E-05</v>
+      </c>
+      <c r="M11">
+        <v>1.03783383153088E-05</v>
+      </c>
+      <c r="N11">
+        <v>1.02167170680471E-05</v>
+      </c>
+      <c r="O11">
+        <v>1.00600524674237E-05</v>
+      </c>
+      <c r="P11">
+        <v>0.0039553624532641</v>
+      </c>
+      <c r="Q11">
+        <v>0.0039553624532641</v>
+      </c>
+      <c r="R11">
+        <v>0.0039553624532641</v>
+      </c>
+      <c r="S11">
+        <v>0.0039553624532641</v>
+      </c>
+      <c r="T11">
+        <v>0.0039553624532641</v>
+      </c>
+      <c r="U11">
+        <v>0.0039553624532641</v>
+      </c>
+      <c r="V11">
+        <v>0.0039553624532641</v>
+      </c>
+      <c r="W11">
+        <v>0.003800587400745071</v>
+      </c>
+      <c r="X11">
+        <v>0.00364581234822604</v>
+      </c>
+      <c r="Y11">
+        <v>0.00349103729570701</v>
+      </c>
+      <c r="Z11">
+        <v>0.00333626224318798</v>
+      </c>
+      <c r="AA11">
+        <v>0.00318148719066895</v>
+      </c>
+      <c r="AB11">
+        <v>0.00302671213814992</v>
+      </c>
+      <c r="AC11">
+        <v>0.00287193708563089</v>
+      </c>
+      <c r="AD11">
+        <v>0.00271716203311186</v>
+      </c>
+      <c r="AE11">
+        <v>0.00256238698059283</v>
+      </c>
+      <c r="AF11">
+        <v>0.002407611928073801</v>
+      </c>
+      <c r="AG11">
+        <v>0.00225283687555477</v>
+      </c>
+      <c r="AH11">
+        <v>0.00209806182303574</v>
+      </c>
+      <c r="AI11">
+        <v>0.00194328677051671</v>
+      </c>
+      <c r="AJ11">
+        <v>0.00178851171799768</v>
+      </c>
+      <c r="AK11">
+        <v>0.00163373666547865</v>
+      </c>
+      <c r="AL11">
+        <v>0.00147896161295962</v>
+      </c>
+      <c r="AM11">
+        <v>0.00132418656044059</v>
+      </c>
+      <c r="AN11">
+        <v>0.00116941150792156</v>
+      </c>
+      <c r="AO11">
+        <v>0.00101463645540253</v>
+      </c>
+      <c r="AP11">
+        <v>0.0008598614028835002</v>
+      </c>
+      <c r="AQ11">
+        <v>0.0007050863503644702</v>
+      </c>
+      <c r="AR11">
+        <v>0.0005503112978454399</v>
+      </c>
+      <c r="AS11">
+        <v>0.0003955362453264101</v>
+      </c>
+    </row>
+    <row r="12" spans="1:45">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>74</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>1.00868951448518E-05</v>
+      </c>
+      <c r="K12">
+        <v>1.01871950195572E-05</v>
+      </c>
+      <c r="L12">
+        <v>1.02843351483319E-05</v>
+      </c>
+      <c r="M12">
+        <v>1.03783383153088E-05</v>
+      </c>
+      <c r="N12">
+        <v>1.02167170680471E-05</v>
+      </c>
+      <c r="O12">
+        <v>1.00600524674237E-05</v>
+      </c>
+      <c r="P12">
+        <v>0.0039553624532641</v>
+      </c>
+      <c r="Q12">
+        <v>0.0039553624532641</v>
+      </c>
+      <c r="R12">
+        <v>0.0039553624532641</v>
+      </c>
+      <c r="S12">
+        <v>0.0039553624532641</v>
+      </c>
+      <c r="T12">
+        <v>0.0039553624532641</v>
+      </c>
+      <c r="U12">
+        <v>0.0039553624532641</v>
+      </c>
+      <c r="V12">
+        <v>0.0039553624532641</v>
+      </c>
+      <c r="W12">
+        <v>0.003800587400745071</v>
+      </c>
+      <c r="X12">
+        <v>0.00364581234822604</v>
+      </c>
+      <c r="Y12">
+        <v>0.00349103729570701</v>
+      </c>
+      <c r="Z12">
+        <v>0.00333626224318798</v>
+      </c>
+      <c r="AA12">
+        <v>0.00318148719066895</v>
+      </c>
+      <c r="AB12">
+        <v>0.00302671213814992</v>
+      </c>
+      <c r="AC12">
+        <v>0.00287193708563089</v>
+      </c>
+      <c r="AD12">
+        <v>0.00271716203311186</v>
+      </c>
+      <c r="AE12">
+        <v>0.00256238698059283</v>
+      </c>
+      <c r="AF12">
+        <v>0.002407611928073801</v>
+      </c>
+      <c r="AG12">
+        <v>0.00225283687555477</v>
+      </c>
+      <c r="AH12">
+        <v>0.00209806182303574</v>
+      </c>
+      <c r="AI12">
+        <v>0.00194328677051671</v>
+      </c>
+      <c r="AJ12">
+        <v>0.00178851171799768</v>
+      </c>
+      <c r="AK12">
+        <v>0.00163373666547865</v>
+      </c>
+      <c r="AL12">
+        <v>0.00147896161295962</v>
+      </c>
+      <c r="AM12">
+        <v>0.00132418656044059</v>
+      </c>
+      <c r="AN12">
+        <v>0.00116941150792156</v>
+      </c>
+      <c r="AO12">
+        <v>0.00101463645540253</v>
+      </c>
+      <c r="AP12">
+        <v>0.0008598614028835002</v>
+      </c>
+      <c r="AQ12">
+        <v>0.0007050863503644702</v>
+      </c>
+      <c r="AR12">
+        <v>0.0005503112978454399</v>
+      </c>
+      <c r="AS12">
+        <v>0.0003955362453264101</v>
+      </c>
+    </row>
+    <row r="13" spans="1:45">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" t="s">
+        <v>80</v>
+      </c>
+      <c r="C13">
+        <v>30</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>0.681701727997571</v>
+      </c>
+      <c r="K13">
+        <v>0.673007868495378</v>
+      </c>
+      <c r="L13">
+        <v>0.665210795968706</v>
+      </c>
+      <c r="M13">
+        <v>0.657453447824457</v>
+      </c>
+      <c r="N13">
+        <v>0.647214964261329</v>
+      </c>
+      <c r="O13">
+        <v>0.637290477440544</v>
+      </c>
+      <c r="P13">
+        <v>0.669756439427955</v>
+      </c>
+      <c r="Q13">
+        <v>0.669756439427955</v>
+      </c>
+      <c r="R13">
+        <v>0.669756439427955</v>
+      </c>
+      <c r="S13">
+        <v>0.669756439427955</v>
+      </c>
+      <c r="T13">
+        <v>0.669756439427955</v>
+      </c>
+      <c r="U13">
+        <v>0.669756439427955</v>
+      </c>
+      <c r="V13">
+        <v>0.669756439427955</v>
+      </c>
+      <c r="W13">
+        <v>0.6435485787546873</v>
+      </c>
+      <c r="X13">
+        <v>0.6173407180814194</v>
+      </c>
+      <c r="Y13">
+        <v>0.5911328574081516</v>
+      </c>
+      <c r="Z13">
+        <v>0.5649249967348838</v>
+      </c>
+      <c r="AA13">
+        <v>0.5387171360616161</v>
+      </c>
+      <c r="AB13">
+        <v>0.5125092753883481</v>
+      </c>
+      <c r="AC13">
+        <v>0.4863014147150804</v>
+      </c>
+      <c r="AD13">
+        <v>0.4600935540418126</v>
+      </c>
+      <c r="AE13">
+        <v>0.4338856933685448</v>
+      </c>
+      <c r="AF13">
+        <v>0.4076778326952771</v>
+      </c>
+      <c r="AG13">
+        <v>0.3814699720220092</v>
+      </c>
+      <c r="AH13">
+        <v>0.3552621113487414</v>
+      </c>
+      <c r="AI13">
+        <v>0.3290542506754736</v>
+      </c>
+      <c r="AJ13">
+        <v>0.3028463900022057</v>
+      </c>
+      <c r="AK13">
+        <v>0.276638529328938</v>
+      </c>
+      <c r="AL13">
+        <v>0.2504306686556702</v>
+      </c>
+      <c r="AM13">
+        <v>0.2242228079824024</v>
+      </c>
+      <c r="AN13">
+        <v>0.1980149473091345</v>
+      </c>
+      <c r="AO13">
+        <v>0.1718070866358667</v>
+      </c>
+      <c r="AP13">
+        <v>0.1455992259625989</v>
+      </c>
+      <c r="AQ13">
+        <v>0.1193913652893311</v>
+      </c>
+      <c r="AR13">
+        <v>0.0931835046160633</v>
+      </c>
+      <c r="AS13">
+        <v>0.06697564394279551</v>
+      </c>
+    </row>
+    <row r="14" spans="1:45">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" t="s">
+        <v>81</v>
+      </c>
+      <c r="C14">
+        <v>30</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>0.681701727997571</v>
+      </c>
+      <c r="K14">
+        <v>0.673007868495378</v>
+      </c>
+      <c r="L14">
+        <v>0.665210795968706</v>
+      </c>
+      <c r="M14">
+        <v>0.657453447824457</v>
+      </c>
+      <c r="N14">
+        <v>0.647214964261329</v>
+      </c>
+      <c r="O14">
+        <v>0.637290477440544</v>
+      </c>
+      <c r="P14">
+        <v>0.669756439427955</v>
+      </c>
+      <c r="Q14">
+        <v>0.669756439427955</v>
+      </c>
+      <c r="R14">
+        <v>0.669756439427955</v>
+      </c>
+      <c r="S14">
+        <v>0.669756439427955</v>
+      </c>
+      <c r="T14">
+        <v>0.669756439427955</v>
+      </c>
+      <c r="U14">
+        <v>0.669756439427955</v>
+      </c>
+      <c r="V14">
+        <v>0.669756439427955</v>
+      </c>
+      <c r="W14">
+        <v>0.6435485787546873</v>
+      </c>
+      <c r="X14">
+        <v>0.6173407180814194</v>
+      </c>
+      <c r="Y14">
+        <v>0.5911328574081516</v>
+      </c>
+      <c r="Z14">
+        <v>0.5649249967348838</v>
+      </c>
+      <c r="AA14">
+        <v>0.5387171360616161</v>
+      </c>
+      <c r="AB14">
+        <v>0.5125092753883481</v>
+      </c>
+      <c r="AC14">
+        <v>0.4863014147150804</v>
+      </c>
+      <c r="AD14">
+        <v>0.4600935540418126</v>
+      </c>
+      <c r="AE14">
+        <v>0.4338856933685448</v>
+      </c>
+      <c r="AF14">
+        <v>0.4076778326952771</v>
+      </c>
+      <c r="AG14">
+        <v>0.3814699720220092</v>
+      </c>
+      <c r="AH14">
+        <v>0.3552621113487414</v>
+      </c>
+      <c r="AI14">
+        <v>0.3290542506754736</v>
+      </c>
+      <c r="AJ14">
+        <v>0.3028463900022057</v>
+      </c>
+      <c r="AK14">
+        <v>0.276638529328938</v>
+      </c>
+      <c r="AL14">
+        <v>0.2504306686556702</v>
+      </c>
+      <c r="AM14">
+        <v>0.2242228079824024</v>
+      </c>
+      <c r="AN14">
+        <v>0.1980149473091345</v>
+      </c>
+      <c r="AO14">
+        <v>0.1718070866358667</v>
+      </c>
+      <c r="AP14">
+        <v>0.1455992259625989</v>
+      </c>
+      <c r="AQ14">
+        <v>0.1193913652893311</v>
+      </c>
+      <c r="AR14">
+        <v>0.0931835046160633</v>
+      </c>
+      <c r="AS14">
+        <v>0.06697564394279551</v>
+      </c>
+    </row>
+    <row r="15" spans="1:45">
+      <c r="A15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" t="s">
+        <v>84</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>1.10329178550528E-05</v>
+      </c>
+      <c r="Q15">
+        <v>1.10329178550528E-05</v>
+      </c>
+      <c r="R15">
+        <v>1.10329178550528E-05</v>
+      </c>
+      <c r="S15">
+        <v>1.10329178550528E-05</v>
+      </c>
+      <c r="T15">
+        <v>1.10329178550528E-05</v>
+      </c>
+      <c r="U15">
+        <v>1.10329178550528E-05</v>
+      </c>
+      <c r="V15">
+        <v>1.10329178550528E-05</v>
+      </c>
+      <c r="W15">
+        <v>1.060119498246378E-05</v>
+      </c>
+      <c r="X15">
+        <v>1.016947210987476E-05</v>
+      </c>
+      <c r="Y15">
+        <v>9.737749237285732E-06</v>
+      </c>
+      <c r="Z15">
+        <v>9.306026364696708E-06</v>
+      </c>
+      <c r="AA15">
+        <v>8.874303492107688E-06</v>
+      </c>
+      <c r="AB15">
+        <v>8.442580619518664E-06</v>
+      </c>
+      <c r="AC15">
+        <v>8.010857746929642E-06</v>
+      </c>
+      <c r="AD15">
+        <v>7.579134874340619E-06</v>
+      </c>
+      <c r="AE15">
+        <v>7.147412001751597E-06</v>
+      </c>
+      <c r="AF15">
+        <v>6.715689129162574E-06</v>
+      </c>
+      <c r="AG15">
+        <v>6.283966256573551E-06</v>
+      </c>
+      <c r="AH15">
+        <v>5.852243383984528E-06</v>
+      </c>
+      <c r="AI15">
+        <v>5.420520511395506E-06</v>
+      </c>
+      <c r="AJ15">
+        <v>4.988797638806483E-06</v>
+      </c>
+      <c r="AK15">
+        <v>4.557074766217461E-06</v>
+      </c>
+      <c r="AL15">
+        <v>4.125351893628439E-06</v>
+      </c>
+      <c r="AM15">
+        <v>3.693629021039416E-06</v>
+      </c>
+      <c r="AN15">
+        <v>3.261906148450393E-06</v>
+      </c>
+      <c r="AO15">
+        <v>2.83018327586137E-06</v>
+      </c>
+      <c r="AP15">
+        <v>2.398460403272348E-06</v>
+      </c>
+      <c r="AQ15">
+        <v>1.966737530683326E-06</v>
+      </c>
+      <c r="AR15">
+        <v>1.535014658094302E-06</v>
+      </c>
+      <c r="AS15">
+        <v>1.10329178550528E-06</v>
+      </c>
+    </row>
+    <row r="16" spans="1:45">
+      <c r="A16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" t="s">
+        <v>85</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>1.10329178550528E-05</v>
+      </c>
+      <c r="Q16">
+        <v>1.10329178550528E-05</v>
+      </c>
+      <c r="R16">
+        <v>1.10329178550528E-05</v>
+      </c>
+      <c r="S16">
+        <v>1.10329178550528E-05</v>
+      </c>
+      <c r="T16">
+        <v>1.10329178550528E-05</v>
+      </c>
+      <c r="U16">
+        <v>1.10329178550528E-05</v>
+      </c>
+      <c r="V16">
+        <v>1.10329178550528E-05</v>
+      </c>
+      <c r="W16">
+        <v>1.060119498246378E-05</v>
+      </c>
+      <c r="X16">
+        <v>1.016947210987476E-05</v>
+      </c>
+      <c r="Y16">
+        <v>9.737749237285732E-06</v>
+      </c>
+      <c r="Z16">
+        <v>9.306026364696708E-06</v>
+      </c>
+      <c r="AA16">
+        <v>8.874303492107688E-06</v>
+      </c>
+      <c r="AB16">
+        <v>8.442580619518664E-06</v>
+      </c>
+      <c r="AC16">
+        <v>8.010857746929642E-06</v>
+      </c>
+      <c r="AD16">
+        <v>7.579134874340619E-06</v>
+      </c>
+      <c r="AE16">
+        <v>7.147412001751597E-06</v>
+      </c>
+      <c r="AF16">
+        <v>6.715689129162574E-06</v>
+      </c>
+      <c r="AG16">
+        <v>6.283966256573551E-06</v>
+      </c>
+      <c r="AH16">
+        <v>5.852243383984528E-06</v>
+      </c>
+      <c r="AI16">
+        <v>5.420520511395506E-06</v>
+      </c>
+      <c r="AJ16">
+        <v>4.988797638806483E-06</v>
+      </c>
+      <c r="AK16">
+        <v>4.557074766217461E-06</v>
+      </c>
+      <c r="AL16">
+        <v>4.125351893628439E-06</v>
+      </c>
+      <c r="AM16">
+        <v>3.693629021039416E-06</v>
+      </c>
+      <c r="AN16">
+        <v>3.261906148450393E-06</v>
+      </c>
+      <c r="AO16">
+        <v>2.83018327586137E-06</v>
+      </c>
+      <c r="AP16">
+        <v>2.398460403272348E-06</v>
+      </c>
+      <c r="AQ16">
+        <v>1.966737530683326E-06</v>
+      </c>
+      <c r="AR16">
+        <v>1.535014658094302E-06</v>
+      </c>
+      <c r="AS16">
+        <v>1.10329178550528E-06</v>
+      </c>
+    </row>
+    <row r="17" spans="1:45">
+      <c r="A17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" t="s">
+        <v>87</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>7.433209245774209E-09</v>
+      </c>
+      <c r="Q17">
+        <v>7.433209245774209E-09</v>
+      </c>
+      <c r="R17">
+        <v>7.433209245774209E-09</v>
+      </c>
+      <c r="S17">
+        <v>7.433209245774209E-09</v>
+      </c>
+      <c r="T17">
+        <v>7.433209245774209E-09</v>
+      </c>
+      <c r="U17">
+        <v>7.433209245774209E-09</v>
+      </c>
+      <c r="V17">
+        <v>7.433209245774209E-09</v>
+      </c>
+      <c r="W17">
+        <v>7.142344536156958E-09</v>
+      </c>
+      <c r="X17">
+        <v>6.851479826539706E-09</v>
+      </c>
+      <c r="Y17">
+        <v>6.560615116922454E-09</v>
+      </c>
+      <c r="Z17">
+        <v>6.269750407305202E-09</v>
+      </c>
+      <c r="AA17">
+        <v>5.978885697687951E-09</v>
+      </c>
+      <c r="AB17">
+        <v>5.688020988070698E-09</v>
+      </c>
+      <c r="AC17">
+        <v>5.397156278453448E-09</v>
+      </c>
+      <c r="AD17">
+        <v>5.106291568836195E-09</v>
+      </c>
+      <c r="AE17">
+        <v>4.815426859218944E-09</v>
+      </c>
+      <c r="AF17">
+        <v>4.524562149601693E-09</v>
+      </c>
+      <c r="AG17">
+        <v>4.23369743998444E-09</v>
+      </c>
+      <c r="AH17">
+        <v>3.94283273036719E-09</v>
+      </c>
+      <c r="AI17">
+        <v>3.651968020749938E-09</v>
+      </c>
+      <c r="AJ17">
+        <v>3.361103311132686E-09</v>
+      </c>
+      <c r="AK17">
+        <v>3.070238601515434E-09</v>
+      </c>
+      <c r="AL17">
+        <v>2.779373891898182E-09</v>
+      </c>
+      <c r="AM17">
+        <v>2.488509182280931E-09</v>
+      </c>
+      <c r="AN17">
+        <v>2.197644472663679E-09</v>
+      </c>
+      <c r="AO17">
+        <v>1.906779763046428E-09</v>
+      </c>
+      <c r="AP17">
+        <v>1.615915053429176E-09</v>
+      </c>
+      <c r="AQ17">
+        <v>1.325050343811924E-09</v>
+      </c>
+      <c r="AR17">
+        <v>1.034185634194672E-09</v>
+      </c>
+      <c r="AS17">
+        <v>7.433209245774209E-10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:45">
+      <c r="A18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" t="s">
+        <v>96</v>
+      </c>
+      <c r="C18">
+        <v>31</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>1</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>1</v>
+      </c>
+      <c r="P18">
+        <v>1</v>
+      </c>
+      <c r="Q18">
+        <v>1</v>
+      </c>
+      <c r="R18">
+        <v>1</v>
+      </c>
+      <c r="S18">
+        <v>1</v>
+      </c>
+      <c r="T18">
+        <v>1</v>
+      </c>
+      <c r="U18">
+        <v>1</v>
+      </c>
+      <c r="V18">
+        <v>1</v>
+      </c>
+      <c r="W18">
+        <v>0.9604347826086956</v>
+      </c>
+      <c r="X18">
+        <v>0.9208695652173914</v>
+      </c>
+      <c r="Y18">
+        <v>0.8813043478260869</v>
+      </c>
+      <c r="Z18">
+        <v>0.8417391304347827</v>
+      </c>
+      <c r="AA18">
+        <v>0.8021739130434783</v>
+      </c>
+      <c r="AB18">
+        <v>0.7626086956521738</v>
+      </c>
+      <c r="AC18">
+        <v>0.7230434782608696</v>
+      </c>
+      <c r="AD18">
+        <v>0.6834782608695652</v>
+      </c>
+      <c r="AE18">
+        <v>0.6439130434782609</v>
+      </c>
+      <c r="AF18">
+        <v>0.6043478260869566</v>
+      </c>
+      <c r="AG18">
+        <v>0.5647826086956522</v>
+      </c>
+      <c r="AH18">
+        <v>0.5252173913043479</v>
+      </c>
+      <c r="AI18">
+        <v>0.4856521739130435</v>
+      </c>
+      <c r="AJ18">
+        <v>0.4460869565217391</v>
+      </c>
+      <c r="AK18">
+        <v>0.4065217391304348</v>
+      </c>
+      <c r="AL18">
+        <v>0.3669565217391305</v>
+      </c>
+      <c r="AM18">
+        <v>0.3273913043478262</v>
+      </c>
+      <c r="AN18">
+        <v>0.2878260869565217</v>
+      </c>
+      <c r="AO18">
+        <v>0.2482608695652174</v>
+      </c>
+      <c r="AP18">
+        <v>0.2086956521739131</v>
+      </c>
+      <c r="AQ18">
+        <v>0.1691304347826088</v>
+      </c>
+      <c r="AR18">
+        <v>0.1295652173913043</v>
+      </c>
+      <c r="AS18">
+        <v>0.09000000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:45">
+      <c r="A19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" t="s">
+        <v>97</v>
+      </c>
+      <c r="C19">
+        <v>31</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>0.03741</v>
+      </c>
+      <c r="K19">
+        <v>0.03741</v>
+      </c>
+      <c r="L19">
+        <v>0.03741</v>
+      </c>
+      <c r="M19">
+        <v>0.03741</v>
+      </c>
+      <c r="N19">
+        <v>0.03741</v>
+      </c>
+      <c r="O19">
+        <v>0.03741</v>
+      </c>
+      <c r="P19">
+        <v>0.03741</v>
+      </c>
+      <c r="Q19">
+        <v>0.03741</v>
+      </c>
+      <c r="R19">
+        <v>0.03741</v>
+      </c>
+      <c r="S19">
+        <v>0.03741</v>
+      </c>
+      <c r="T19">
+        <v>0.03741</v>
+      </c>
+      <c r="U19">
+        <v>0.03741</v>
+      </c>
+      <c r="V19">
+        <v>0.03741</v>
+      </c>
+      <c r="W19">
+        <v>0.0359298652173913</v>
+      </c>
+      <c r="X19">
+        <v>0.03444973043478261</v>
+      </c>
+      <c r="Y19">
+        <v>0.03296959565217392</v>
+      </c>
+      <c r="Z19">
+        <v>0.03148946086956522</v>
+      </c>
+      <c r="AA19">
+        <v>0.03000932608695652</v>
+      </c>
+      <c r="AB19">
+        <v>0.02852919130434782</v>
+      </c>
+      <c r="AC19">
+        <v>0.02704905652173913</v>
+      </c>
+      <c r="AD19">
+        <v>0.02556892173913044</v>
+      </c>
+      <c r="AE19">
+        <v>0.02408878695652174</v>
+      </c>
+      <c r="AF19">
+        <v>0.02260865217391304</v>
+      </c>
+      <c r="AG19">
+        <v>0.02112851739130435</v>
+      </c>
+      <c r="AH19">
+        <v>0.01964838260869565</v>
+      </c>
+      <c r="AI19">
+        <v>0.01816824782608696</v>
+      </c>
+      <c r="AJ19">
+        <v>0.01668811304347826</v>
+      </c>
+      <c r="AK19">
+        <v>0.01520797826086957</v>
+      </c>
+      <c r="AL19">
+        <v>0.01372784347826087</v>
+      </c>
+      <c r="AM19">
+        <v>0.01224770869565218</v>
+      </c>
+      <c r="AN19">
+        <v>0.01076757391304348</v>
+      </c>
+      <c r="AO19">
+        <v>0.009287439130434783</v>
+      </c>
+      <c r="AP19">
+        <v>0.007807304347826088</v>
+      </c>
+      <c r="AQ19">
+        <v>0.006327169565217393</v>
+      </c>
+      <c r="AR19">
+        <v>0.004847034782608695</v>
+      </c>
+      <c r="AS19">
+        <v>0.0033669</v>
+      </c>
+    </row>
+    <row r="20" spans="1:45">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" t="s">
+        <v>98</v>
+      </c>
+      <c r="C20">
+        <v>31</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>0.0007</v>
+      </c>
+      <c r="K20">
+        <v>0.0007</v>
+      </c>
+      <c r="L20">
+        <v>0.0007</v>
+      </c>
+      <c r="M20">
+        <v>0.0007</v>
+      </c>
+      <c r="N20">
+        <v>0.0007</v>
+      </c>
+      <c r="O20">
+        <v>0.0007</v>
+      </c>
+      <c r="P20">
+        <v>0.0007</v>
+      </c>
+      <c r="Q20">
+        <v>0.0007</v>
+      </c>
+      <c r="R20">
+        <v>0.0007</v>
+      </c>
+      <c r="S20">
+        <v>0.0007</v>
+      </c>
+      <c r="T20">
+        <v>0.0007</v>
+      </c>
+      <c r="U20">
+        <v>0.0007</v>
+      </c>
+      <c r="V20">
+        <v>0.0007</v>
+      </c>
+      <c r="W20">
+        <v>0.000672304347826087</v>
+      </c>
+      <c r="X20">
+        <v>0.000644608695652174</v>
+      </c>
+      <c r="Y20">
+        <v>0.0006169130434782608</v>
+      </c>
+      <c r="Z20">
+        <v>0.0005892173913043478</v>
+      </c>
+      <c r="AA20">
+        <v>0.0005615217391304349</v>
+      </c>
+      <c r="AB20">
+        <v>0.0005338260869565218</v>
+      </c>
+      <c r="AC20">
+        <v>0.0005061304347826086</v>
+      </c>
+      <c r="AD20">
+        <v>0.0004784347826086956</v>
+      </c>
+      <c r="AE20">
+        <v>0.0004507391304347826</v>
+      </c>
+      <c r="AF20">
+        <v>0.0004230434782608696</v>
+      </c>
+      <c r="AG20">
+        <v>0.0003953478260869565</v>
+      </c>
+      <c r="AH20">
+        <v>0.0003676521739130435</v>
+      </c>
+      <c r="AI20">
+        <v>0.0003399565217391305</v>
+      </c>
+      <c r="AJ20">
+        <v>0.0003122608695652174</v>
+      </c>
+      <c r="AK20">
+        <v>0.0002845652173913044</v>
+      </c>
+      <c r="AL20">
+        <v>0.0002568695652173913</v>
+      </c>
+      <c r="AM20">
+        <v>0.0002291739130434783</v>
+      </c>
+      <c r="AN20">
+        <v>0.0002014782608695652</v>
+      </c>
+      <c r="AO20">
+        <v>0.0001737826086956522</v>
+      </c>
+      <c r="AP20">
+        <v>0.0001460869565217392</v>
+      </c>
+      <c r="AQ20">
+        <v>0.0001183913043478261</v>
+      </c>
+      <c r="AR20">
+        <v>9.069565217391304E-05</v>
+      </c>
+      <c r="AS20">
+        <v>6.300000000000001E-05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:45">
+      <c r="A21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" t="s">
+        <v>122</v>
+      </c>
+      <c r="C21">
+        <v>14</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>0.72</v>
+      </c>
+      <c r="K21">
+        <v>0.72</v>
+      </c>
+      <c r="L21">
+        <v>0.72</v>
+      </c>
+      <c r="M21">
+        <v>0.72</v>
+      </c>
+      <c r="N21">
+        <v>0.72</v>
+      </c>
+      <c r="O21">
+        <v>0.72</v>
+      </c>
+      <c r="P21">
+        <v>0.72</v>
+      </c>
+      <c r="Q21">
+        <v>0.72</v>
+      </c>
+      <c r="R21">
+        <v>0.72</v>
+      </c>
+      <c r="S21">
+        <v>0.72</v>
+      </c>
+      <c r="T21">
+        <v>0.72</v>
+      </c>
+      <c r="U21">
+        <v>0.72</v>
+      </c>
+      <c r="V21">
+        <v>0.72</v>
+      </c>
+      <c r="W21">
+        <v>0.6995652173913044</v>
+      </c>
+      <c r="X21">
+        <v>0.6791304347826087</v>
+      </c>
+      <c r="Y21">
+        <v>0.658695652173913</v>
+      </c>
+      <c r="Z21">
+        <v>0.6382608695652173</v>
+      </c>
+      <c r="AA21">
+        <v>0.6178260869565217</v>
+      </c>
+      <c r="AB21">
+        <v>0.5973913043478259</v>
+      </c>
+      <c r="AC21">
+        <v>0.5769565217391304</v>
+      </c>
+      <c r="AD21">
+        <v>0.5565217391304348</v>
+      </c>
+      <c r="AE21">
+        <v>0.5360869565217392</v>
+      </c>
+      <c r="AF21">
+        <v>0.5156521739130435</v>
+      </c>
+      <c r="AG21">
+        <v>0.4952173913043478</v>
+      </c>
+      <c r="AH21">
+        <v>0.4747826086956521</v>
+      </c>
+      <c r="AI21">
+        <v>0.4543478260869566</v>
+      </c>
+      <c r="AJ21">
+        <v>0.4339130434782608</v>
+      </c>
+      <c r="AK21">
+        <v>0.4134782608695652</v>
+      </c>
+      <c r="AL21">
+        <v>0.3930434782608696</v>
+      </c>
+      <c r="AM21">
+        <v>0.3726086956521739</v>
+      </c>
+      <c r="AN21">
+        <v>0.3521739130434782</v>
+      </c>
+      <c r="AO21">
+        <v>0.3317391304347826</v>
+      </c>
+      <c r="AP21">
+        <v>0.311304347826087</v>
+      </c>
+      <c r="AQ21">
+        <v>0.2908695652173913</v>
+      </c>
+      <c r="AR21">
+        <v>0.2704347826086956</v>
+      </c>
+      <c r="AS21">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:45">
+      <c r="A22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" t="s">
+        <v>123</v>
+      </c>
+      <c r="C22">
+        <v>15</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <v>0</v>
+      </c>
+      <c r="V22">
+        <v>0</v>
+      </c>
+      <c r="W22">
+        <v>0.03478260869565217</v>
+      </c>
+      <c r="X22">
+        <v>0.06956521739130435</v>
+      </c>
+      <c r="Y22">
+        <v>0.1043478260869565</v>
+      </c>
+      <c r="Z22">
+        <v>0.1391304347826087</v>
+      </c>
+      <c r="AA22">
+        <v>0.1739130434782609</v>
+      </c>
+      <c r="AB22">
+        <v>0.2086956521739131</v>
+      </c>
+      <c r="AC22">
+        <v>0.2434782608695653</v>
+      </c>
+      <c r="AD22">
+        <v>0.2782608695652174</v>
+      </c>
+      <c r="AE22">
+        <v>0.3130434782608696</v>
+      </c>
+      <c r="AF22">
+        <v>0.3478260869565217</v>
+      </c>
+      <c r="AG22">
+        <v>0.3826086956521739</v>
+      </c>
+      <c r="AH22">
+        <v>0.4173913043478261</v>
+      </c>
+      <c r="AI22">
+        <v>0.4521739130434783</v>
+      </c>
+      <c r="AJ22">
+        <v>0.4869565217391305</v>
+      </c>
+      <c r="AK22">
+        <v>0.5217391304347826</v>
+      </c>
+      <c r="AL22">
+        <v>0.5565217391304348</v>
+      </c>
+      <c r="AM22">
+        <v>0.591304347826087</v>
+      </c>
+      <c r="AN22">
+        <v>0.6260869565217392</v>
+      </c>
+      <c r="AO22">
+        <v>0.6608695652173914</v>
+      </c>
+      <c r="AP22">
+        <v>0.6956521739130435</v>
+      </c>
+      <c r="AQ22">
+        <v>0.7304347826086957</v>
+      </c>
+      <c r="AR22">
+        <v>0.7652173913043478</v>
+      </c>
+      <c r="AS22">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:45">
+      <c r="A23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" t="s">
+        <v>124</v>
+      </c>
+      <c r="C23">
+        <v>15</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <v>0</v>
+      </c>
+      <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="V23">
+        <v>0</v>
+      </c>
+      <c r="W23">
+        <v>0.03478260869565217</v>
+      </c>
+      <c r="X23">
+        <v>0.06956521739130435</v>
+      </c>
+      <c r="Y23">
+        <v>0.1043478260869565</v>
+      </c>
+      <c r="Z23">
+        <v>0.1391304347826087</v>
+      </c>
+      <c r="AA23">
+        <v>0.1739130434782609</v>
+      </c>
+      <c r="AB23">
+        <v>0.2086956521739131</v>
+      </c>
+      <c r="AC23">
+        <v>0.2434782608695653</v>
+      </c>
+      <c r="AD23">
+        <v>0.2782608695652174</v>
+      </c>
+      <c r="AE23">
+        <v>0.3130434782608696</v>
+      </c>
+      <c r="AF23">
+        <v>0.3478260869565217</v>
+      </c>
+      <c r="AG23">
+        <v>0.3826086956521739</v>
+      </c>
+      <c r="AH23">
+        <v>0.4173913043478261</v>
+      </c>
+      <c r="AI23">
+        <v>0.4521739130434783</v>
+      </c>
+      <c r="AJ23">
+        <v>0.4869565217391305</v>
+      </c>
+      <c r="AK23">
+        <v>0.5217391304347826</v>
+      </c>
+      <c r="AL23">
+        <v>0.5565217391304348</v>
+      </c>
+      <c r="AM23">
+        <v>0.591304347826087</v>
+      </c>
+      <c r="AN23">
+        <v>0.6260869565217392</v>
+      </c>
+      <c r="AO23">
+        <v>0.6608695652173914</v>
+      </c>
+      <c r="AP23">
+        <v>0.6956521739130435</v>
+      </c>
+      <c r="AQ23">
+        <v>0.7304347826086957</v>
+      </c>
+      <c r="AR23">
+        <v>0.7652173913043478</v>
+      </c>
+      <c r="AS23">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:45">
+      <c r="A24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" t="s">
+        <v>127</v>
+      </c>
+      <c r="C24">
+        <v>15</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+      <c r="T24">
+        <v>0</v>
+      </c>
+      <c r="U24">
+        <v>0</v>
+      </c>
+      <c r="V24">
+        <v>0</v>
+      </c>
+      <c r="W24">
+        <v>0.03478260869565217</v>
+      </c>
+      <c r="X24">
+        <v>0.06956521739130435</v>
+      </c>
+      <c r="Y24">
+        <v>0.1043478260869565</v>
+      </c>
+      <c r="Z24">
+        <v>0.1391304347826087</v>
+      </c>
+      <c r="AA24">
+        <v>0.1739130434782609</v>
+      </c>
+      <c r="AB24">
+        <v>0.2086956521739131</v>
+      </c>
+      <c r="AC24">
+        <v>0.2434782608695653</v>
+      </c>
+      <c r="AD24">
+        <v>0.2782608695652174</v>
+      </c>
+      <c r="AE24">
+        <v>0.3130434782608696</v>
+      </c>
+      <c r="AF24">
+        <v>0.3478260869565217</v>
+      </c>
+      <c r="AG24">
+        <v>0.3826086956521739</v>
+      </c>
+      <c r="AH24">
+        <v>0.4173913043478261</v>
+      </c>
+      <c r="AI24">
+        <v>0.4521739130434783</v>
+      </c>
+      <c r="AJ24">
+        <v>0.4869565217391305</v>
+      </c>
+      <c r="AK24">
+        <v>0.5217391304347826</v>
+      </c>
+      <c r="AL24">
+        <v>0.5565217391304348</v>
+      </c>
+      <c r="AM24">
+        <v>0.591304347826087</v>
+      </c>
+      <c r="AN24">
+        <v>0.6260869565217392</v>
+      </c>
+      <c r="AO24">
+        <v>0.6608695652173914</v>
+      </c>
+      <c r="AP24">
+        <v>0.6956521739130435</v>
+      </c>
+      <c r="AQ24">
+        <v>0.7304347826086957</v>
+      </c>
+      <c r="AR24">
+        <v>0.7652173913043478</v>
+      </c>
+      <c r="AS24">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:45">
+      <c r="A25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" t="s">
+        <v>128</v>
+      </c>
+      <c r="C25">
+        <v>15</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>0</v>
+      </c>
+      <c r="T25">
+        <v>0</v>
+      </c>
+      <c r="U25">
+        <v>0</v>
+      </c>
+      <c r="V25">
+        <v>0</v>
+      </c>
+      <c r="W25">
+        <v>0.03478260869565217</v>
+      </c>
+      <c r="X25">
+        <v>0.06956521739130435</v>
+      </c>
+      <c r="Y25">
+        <v>0.1043478260869565</v>
+      </c>
+      <c r="Z25">
+        <v>0.1391304347826087</v>
+      </c>
+      <c r="AA25">
+        <v>0.1739130434782609</v>
+      </c>
+      <c r="AB25">
+        <v>0.2086956521739131</v>
+      </c>
+      <c r="AC25">
+        <v>0.2434782608695653</v>
+      </c>
+      <c r="AD25">
+        <v>0.2782608695652174</v>
+      </c>
+      <c r="AE25">
+        <v>0.3130434782608696</v>
+      </c>
+      <c r="AF25">
+        <v>0.3478260869565217</v>
+      </c>
+      <c r="AG25">
+        <v>0.3826086956521739</v>
+      </c>
+      <c r="AH25">
+        <v>0.4173913043478261</v>
+      </c>
+      <c r="AI25">
+        <v>0.4521739130434783</v>
+      </c>
+      <c r="AJ25">
+        <v>0.4869565217391305</v>
+      </c>
+      <c r="AK25">
+        <v>0.5217391304347826</v>
+      </c>
+      <c r="AL25">
+        <v>0.5565217391304348</v>
+      </c>
+      <c r="AM25">
+        <v>0.591304347826087</v>
+      </c>
+      <c r="AN25">
+        <v>0.6260869565217392</v>
+      </c>
+      <c r="AO25">
+        <v>0.6608695652173914</v>
+      </c>
+      <c r="AP25">
+        <v>0.6956521739130435</v>
+      </c>
+      <c r="AQ25">
+        <v>0.7304347826086957</v>
+      </c>
+      <c r="AR25">
+        <v>0.7652173913043478</v>
+      </c>
+      <c r="AS25">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:45">
+      <c r="A26" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" t="s">
+        <v>129</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="J26">
+        <v>0.9</v>
+      </c>
+      <c r="K26">
+        <v>0.9</v>
+      </c>
+      <c r="L26">
+        <v>0.9</v>
+      </c>
+      <c r="M26">
+        <v>0.9</v>
+      </c>
+      <c r="N26">
+        <v>0.9</v>
+      </c>
+      <c r="O26">
+        <v>0.9</v>
+      </c>
+      <c r="P26">
+        <v>0.9</v>
+      </c>
+      <c r="Q26">
+        <v>0.9</v>
+      </c>
+      <c r="R26">
+        <v>0.9</v>
+      </c>
+      <c r="S26">
+        <v>0.9</v>
+      </c>
+      <c r="T26">
+        <v>0.9</v>
+      </c>
+      <c r="U26">
+        <v>0.9</v>
+      </c>
+      <c r="V26">
+        <v>0.9</v>
+      </c>
+      <c r="W26">
+        <v>0.9</v>
+      </c>
+      <c r="X26">
+        <v>0.9</v>
+      </c>
+      <c r="Y26">
+        <v>0.9</v>
+      </c>
+      <c r="Z26">
+        <v>0.9</v>
+      </c>
+      <c r="AA26">
+        <v>0.9</v>
+      </c>
+      <c r="AB26">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AC26">
+        <v>0.9000000000000001</v>
+      </c>
+      <c r="AD26">
+        <v>0.9000000000000001</v>
+      </c>
+      <c r="AE26">
+        <v>0.9000000000000001</v>
+      </c>
+      <c r="AF26">
+        <v>0.9000000000000001</v>
+      </c>
+      <c r="AG26">
+        <v>0.9</v>
+      </c>
+      <c r="AH26">
+        <v>0.9</v>
+      </c>
+      <c r="AI26">
+        <v>0.9</v>
+      </c>
+      <c r="AJ26">
+        <v>0.9</v>
+      </c>
+      <c r="AK26">
+        <v>0.9000000000000001</v>
+      </c>
+      <c r="AL26">
+        <v>0.9000000000000001</v>
+      </c>
+      <c r="AM26">
+        <v>0.9</v>
+      </c>
+      <c r="AN26">
+        <v>0.9</v>
+      </c>
+      <c r="AO26">
+        <v>0.9</v>
+      </c>
+      <c r="AP26">
+        <v>0.9</v>
+      </c>
+      <c r="AQ26">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AR26">
+        <v>0.9</v>
+      </c>
+      <c r="AS26">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:45">
+      <c r="A27" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" t="s">
+        <v>130</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+      <c r="J27">
+        <v>0.9</v>
+      </c>
+      <c r="K27">
+        <v>0.9</v>
+      </c>
+      <c r="L27">
+        <v>0.9</v>
+      </c>
+      <c r="M27">
+        <v>0.9</v>
+      </c>
+      <c r="N27">
+        <v>0.9</v>
+      </c>
+      <c r="O27">
+        <v>0.9</v>
+      </c>
+      <c r="P27">
+        <v>0.9</v>
+      </c>
+      <c r="Q27">
+        <v>0.9</v>
+      </c>
+      <c r="R27">
+        <v>0.9</v>
+      </c>
+      <c r="S27">
+        <v>0.9</v>
+      </c>
+      <c r="T27">
+        <v>0.9</v>
+      </c>
+      <c r="U27">
+        <v>0.9</v>
+      </c>
+      <c r="V27">
+        <v>0.9</v>
+      </c>
+      <c r="W27">
+        <v>0.9</v>
+      </c>
+      <c r="X27">
+        <v>0.9</v>
+      </c>
+      <c r="Y27">
+        <v>0.9</v>
+      </c>
+      <c r="Z27">
+        <v>0.9</v>
+      </c>
+      <c r="AA27">
+        <v>0.9</v>
+      </c>
+      <c r="AB27">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AC27">
+        <v>0.9000000000000001</v>
+      </c>
+      <c r="AD27">
+        <v>0.9000000000000001</v>
+      </c>
+      <c r="AE27">
+        <v>0.9000000000000001</v>
+      </c>
+      <c r="AF27">
+        <v>0.9000000000000001</v>
+      </c>
+      <c r="AG27">
+        <v>0.9</v>
+      </c>
+      <c r="AH27">
+        <v>0.9</v>
+      </c>
+      <c r="AI27">
+        <v>0.9</v>
+      </c>
+      <c r="AJ27">
+        <v>0.9</v>
+      </c>
+      <c r="AK27">
+        <v>0.9000000000000001</v>
+      </c>
+      <c r="AL27">
+        <v>0.9000000000000001</v>
+      </c>
+      <c r="AM27">
+        <v>0.9</v>
+      </c>
+      <c r="AN27">
+        <v>0.9</v>
+      </c>
+      <c r="AO27">
+        <v>0.9</v>
+      </c>
+      <c r="AP27">
+        <v>0.9</v>
+      </c>
+      <c r="AQ27">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AR27">
+        <v>0.9</v>
+      </c>
+      <c r="AS27">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:45">
+      <c r="A28" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28" t="s">
+        <v>131</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <v>0.9</v>
+      </c>
+      <c r="K28">
+        <v>0.9</v>
+      </c>
+      <c r="L28">
+        <v>0.9</v>
+      </c>
+      <c r="M28">
+        <v>0.9</v>
+      </c>
+      <c r="N28">
+        <v>0.9</v>
+      </c>
+      <c r="O28">
+        <v>0.9</v>
+      </c>
+      <c r="P28">
+        <v>0.9</v>
+      </c>
+      <c r="Q28">
+        <v>0.9</v>
+      </c>
+      <c r="R28">
+        <v>0.9</v>
+      </c>
+      <c r="S28">
+        <v>0.9</v>
+      </c>
+      <c r="T28">
+        <v>0.9</v>
+      </c>
+      <c r="U28">
+        <v>0.9</v>
+      </c>
+      <c r="V28">
+        <v>0.9</v>
+      </c>
+      <c r="W28">
+        <v>0.9</v>
+      </c>
+      <c r="X28">
+        <v>0.9</v>
+      </c>
+      <c r="Y28">
+        <v>0.9</v>
+      </c>
+      <c r="Z28">
+        <v>0.9</v>
+      </c>
+      <c r="AA28">
+        <v>0.9</v>
+      </c>
+      <c r="AB28">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AC28">
+        <v>0.9000000000000001</v>
+      </c>
+      <c r="AD28">
+        <v>0.9000000000000001</v>
+      </c>
+      <c r="AE28">
+        <v>0.9000000000000001</v>
+      </c>
+      <c r="AF28">
+        <v>0.9000000000000001</v>
+      </c>
+      <c r="AG28">
+        <v>0.9</v>
+      </c>
+      <c r="AH28">
+        <v>0.9</v>
+      </c>
+      <c r="AI28">
+        <v>0.9</v>
+      </c>
+      <c r="AJ28">
+        <v>0.9</v>
+      </c>
+      <c r="AK28">
+        <v>0.9000000000000001</v>
+      </c>
+      <c r="AL28">
+        <v>0.9000000000000001</v>
+      </c>
+      <c r="AM28">
+        <v>0.9</v>
+      </c>
+      <c r="AN28">
+        <v>0.9</v>
+      </c>
+      <c r="AO28">
+        <v>0.9</v>
+      </c>
+      <c r="AP28">
+        <v>0.9</v>
+      </c>
+      <c r="AQ28">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AR28">
+        <v>0.9</v>
+      </c>
+      <c r="AS28">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:45">
+      <c r="A29" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" t="s">
+        <v>132</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+      <c r="J29">
+        <v>0.9</v>
+      </c>
+      <c r="K29">
+        <v>0.9</v>
+      </c>
+      <c r="L29">
+        <v>0.9</v>
+      </c>
+      <c r="M29">
+        <v>0.9</v>
+      </c>
+      <c r="N29">
+        <v>0.9</v>
+      </c>
+      <c r="O29">
+        <v>0.9</v>
+      </c>
+      <c r="P29">
+        <v>0.9</v>
+      </c>
+      <c r="Q29">
+        <v>0.9</v>
+      </c>
+      <c r="R29">
+        <v>0.9</v>
+      </c>
+      <c r="S29">
+        <v>0.9</v>
+      </c>
+      <c r="T29">
+        <v>0.9</v>
+      </c>
+      <c r="U29">
+        <v>0.9</v>
+      </c>
+      <c r="V29">
+        <v>0.9</v>
+      </c>
+      <c r="W29">
+        <v>0.9</v>
+      </c>
+      <c r="X29">
+        <v>0.9</v>
+      </c>
+      <c r="Y29">
+        <v>0.9</v>
+      </c>
+      <c r="Z29">
+        <v>0.9</v>
+      </c>
+      <c r="AA29">
+        <v>0.9</v>
+      </c>
+      <c r="AB29">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AC29">
+        <v>0.9000000000000001</v>
+      </c>
+      <c r="AD29">
+        <v>0.9000000000000001</v>
+      </c>
+      <c r="AE29">
+        <v>0.9000000000000001</v>
+      </c>
+      <c r="AF29">
+        <v>0.9000000000000001</v>
+      </c>
+      <c r="AG29">
+        <v>0.9</v>
+      </c>
+      <c r="AH29">
+        <v>0.9</v>
+      </c>
+      <c r="AI29">
+        <v>0.9</v>
+      </c>
+      <c r="AJ29">
+        <v>0.9</v>
+      </c>
+      <c r="AK29">
+        <v>0.9000000000000001</v>
+      </c>
+      <c r="AL29">
+        <v>0.9000000000000001</v>
+      </c>
+      <c r="AM29">
+        <v>0.9</v>
+      </c>
+      <c r="AN29">
+        <v>0.9</v>
+      </c>
+      <c r="AO29">
+        <v>0.9</v>
+      </c>
+      <c r="AP29">
+        <v>0.9</v>
+      </c>
+      <c r="AQ29">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AR29">
+        <v>0.9</v>
+      </c>
+      <c r="AS29">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:45">
+      <c r="A30" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30" t="s">
+        <v>133</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="J30">
+        <v>0.9</v>
+      </c>
+      <c r="K30">
+        <v>0.9</v>
+      </c>
+      <c r="L30">
+        <v>0.9</v>
+      </c>
+      <c r="M30">
+        <v>0.9</v>
+      </c>
+      <c r="N30">
+        <v>0.9</v>
+      </c>
+      <c r="O30">
+        <v>0.9</v>
+      </c>
+      <c r="P30">
+        <v>0.9</v>
+      </c>
+      <c r="Q30">
+        <v>0.9</v>
+      </c>
+      <c r="R30">
+        <v>0.9</v>
+      </c>
+      <c r="S30">
+        <v>0.9</v>
+      </c>
+      <c r="T30">
+        <v>0.9</v>
+      </c>
+      <c r="U30">
+        <v>0.9</v>
+      </c>
+      <c r="V30">
+        <v>0.9</v>
+      </c>
+      <c r="W30">
+        <v>0.9</v>
+      </c>
+      <c r="X30">
+        <v>0.9</v>
+      </c>
+      <c r="Y30">
+        <v>0.9</v>
+      </c>
+      <c r="Z30">
+        <v>0.9</v>
+      </c>
+      <c r="AA30">
+        <v>0.9</v>
+      </c>
+      <c r="AB30">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AC30">
+        <v>0.9000000000000001</v>
+      </c>
+      <c r="AD30">
+        <v>0.9000000000000001</v>
+      </c>
+      <c r="AE30">
+        <v>0.9000000000000001</v>
+      </c>
+      <c r="AF30">
+        <v>0.9000000000000001</v>
+      </c>
+      <c r="AG30">
+        <v>0.9</v>
+      </c>
+      <c r="AH30">
+        <v>0.9</v>
+      </c>
+      <c r="AI30">
+        <v>0.9</v>
+      </c>
+      <c r="AJ30">
+        <v>0.9</v>
+      </c>
+      <c r="AK30">
+        <v>0.9000000000000001</v>
+      </c>
+      <c r="AL30">
+        <v>0.9000000000000001</v>
+      </c>
+      <c r="AM30">
+        <v>0.9</v>
+      </c>
+      <c r="AN30">
+        <v>0.9</v>
+      </c>
+      <c r="AO30">
+        <v>0.9</v>
+      </c>
+      <c r="AP30">
+        <v>0.9</v>
+      </c>
+      <c r="AQ30">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AR30">
+        <v>0.9</v>
+      </c>
+      <c r="AS30">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:45">
+      <c r="A31" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31" t="s">
+        <v>134</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
+      </c>
+      <c r="J31">
+        <v>0.9</v>
+      </c>
+      <c r="K31">
+        <v>0.9</v>
+      </c>
+      <c r="L31">
+        <v>0.9</v>
+      </c>
+      <c r="M31">
+        <v>0.9</v>
+      </c>
+      <c r="N31">
+        <v>0.9</v>
+      </c>
+      <c r="O31">
+        <v>0.9</v>
+      </c>
+      <c r="P31">
+        <v>0.9</v>
+      </c>
+      <c r="Q31">
+        <v>0.9</v>
+      </c>
+      <c r="R31">
+        <v>0.9</v>
+      </c>
+      <c r="S31">
+        <v>0.9</v>
+      </c>
+      <c r="T31">
+        <v>0.9</v>
+      </c>
+      <c r="U31">
+        <v>0.9</v>
+      </c>
+      <c r="V31">
+        <v>0.9</v>
+      </c>
+      <c r="W31">
+        <v>0.9</v>
+      </c>
+      <c r="X31">
+        <v>0.9</v>
+      </c>
+      <c r="Y31">
+        <v>0.9</v>
+      </c>
+      <c r="Z31">
+        <v>0.9</v>
+      </c>
+      <c r="AA31">
+        <v>0.9</v>
+      </c>
+      <c r="AB31">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AC31">
+        <v>0.9000000000000001</v>
+      </c>
+      <c r="AD31">
+        <v>0.9000000000000001</v>
+      </c>
+      <c r="AE31">
+        <v>0.9000000000000001</v>
+      </c>
+      <c r="AF31">
+        <v>0.9000000000000001</v>
+      </c>
+      <c r="AG31">
+        <v>0.9</v>
+      </c>
+      <c r="AH31">
+        <v>0.9</v>
+      </c>
+      <c r="AI31">
+        <v>0.9</v>
+      </c>
+      <c r="AJ31">
+        <v>0.9</v>
+      </c>
+      <c r="AK31">
+        <v>0.9000000000000001</v>
+      </c>
+      <c r="AL31">
+        <v>0.9000000000000001</v>
+      </c>
+      <c r="AM31">
+        <v>0.9</v>
+      </c>
+      <c r="AN31">
+        <v>0.9</v>
+      </c>
+      <c r="AO31">
+        <v>0.9</v>
+      </c>
+      <c r="AP31">
+        <v>0.9</v>
+      </c>
+      <c r="AQ31">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AR31">
+        <v>0.9</v>
+      </c>
+      <c r="AS31">
+        <v>0.9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>